--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/My Drive/MDS576/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833B7A6-BB7F-CB40-8A4F-7D5F6F878D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042117E5-739D-7A4B-AAE9-FF8DA3A476DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13360" windowWidth="40960" windowHeight="11000" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Ranking" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$344</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="189">
   <si>
     <t>Time</t>
   </si>
@@ -986,11 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AA105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="760" topLeftCell="A93" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6532,7 +6532,7 @@
         <v>39</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1596000</v>
       </c>
       <c r="G64">
         <v>2022</v>
@@ -6625,7 +6625,7 @@
         <v>128</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>224000</v>
       </c>
       <c r="G65">
         <v>2022</v>
@@ -6718,7 +6718,7 @@
         <v>178</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1792000</v>
       </c>
       <c r="G66">
         <v>2022</v>
@@ -6811,7 +6811,7 @@
         <v>44</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>312000</v>
       </c>
       <c r="G67">
         <v>2022</v>
@@ -6904,7 +6904,7 @@
         <v>144</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>4378000</v>
       </c>
       <c r="G68">
         <v>2022</v>
@@ -6997,7 +6997,7 @@
         <v>87</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>3178000</v>
       </c>
       <c r="G69">
         <v>2022</v>
@@ -7090,7 +7090,7 @@
         <v>98</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>762000</v>
       </c>
       <c r="G70">
         <v>2022</v>
@@ -7183,7 +7183,7 @@
         <v>94</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2066000</v>
       </c>
       <c r="G71">
         <v>2022</v>
@@ -7276,7 +7276,7 @@
         <v>129</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>441000</v>
       </c>
       <c r="G72">
         <v>2022</v>
@@ -7369,7 +7369,7 @@
         <v>52</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>5571000</v>
       </c>
       <c r="G73">
         <v>2022</v>
@@ -7462,7 +7462,7 @@
         <v>90</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2277000</v>
       </c>
       <c r="G74">
         <v>2022</v>
@@ -7555,7 +7555,7 @@
         <v>46</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>3458000</v>
       </c>
       <c r="G75">
         <v>2022</v>
@@ -7648,7 +7648,7 @@
         <v>41</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>482000</v>
       </c>
       <c r="G76">
         <v>2022</v>
@@ -7729,19 +7729,19 @@
         <v>44828</v>
       </c>
       <c r="B77" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2270000</v>
       </c>
       <c r="G77">
         <v>2022</v>
@@ -7756,34 +7756,34 @@
         <f t="array" ref="J77">_xlfn.XLOOKUP(D77&amp;I77,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
-      <c r="K77" t="str" cm="1">
+      <c r="K77" cm="1">
         <f t="array" ref="K77">_xlfn.XLOOKUP(E77&amp;I77,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="L77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M77" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" cm="1">
         <f t="array" ref="O77">_xlfn.XLOOKUP(D77&amp;I77,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>21.7</v>
+        <v>26.3</v>
       </c>
       <c r="P77" cm="1">
         <f t="array" ref="P77">_xlfn.XLOOKUP(D77&amp;I77,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>26.7</v>
+        <v>12.7</v>
       </c>
       <c r="Q77" cm="1">
         <f t="array" ref="Q77">_xlfn.XLOOKUP(E77&amp;I77,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>37.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="R77" cm="1">
         <f t="array" ref="R77">_xlfn.XLOOKUP(E77&amp;I77,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>29</v>
+        <v>27.7</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -7802,11 +7802,11 @@
       </c>
       <c r="X77" cm="1">
         <f t="array" ref="X77">_xlfn.XLOOKUP(D77&amp;I77,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y77" cm="1">
         <f t="array" ref="Y77">_xlfn.XLOOKUP(D77&amp;I77,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z77" cm="1">
         <f t="array" ref="Z77">_xlfn.XLOOKUP(E77&amp;I77,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
@@ -7822,19 +7822,19 @@
         <v>44828</v>
       </c>
       <c r="B78" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>555000</v>
       </c>
       <c r="G78">
         <v>2022</v>
@@ -7845,38 +7845,38 @@
       <c r="I78">
         <v>4</v>
       </c>
-      <c r="J78" t="str" cm="1">
+      <c r="J78" cm="1">
         <f t="array" ref="J78">_xlfn.XLOOKUP(D78&amp;I78,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>8</v>
+      </c>
+      <c r="K78" t="str" cm="1">
+        <f t="array" ref="K78">_xlfn.XLOOKUP(E78&amp;I78,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
-      <c r="K78" cm="1">
-        <f t="array" ref="K78">_xlfn.XLOOKUP(E78&amp;I78,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>15</v>
-      </c>
       <c r="L78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M78" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" cm="1">
         <f t="array" ref="O78">_xlfn.XLOOKUP(D78&amp;I78,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>26.3</v>
+        <v>31.3</v>
       </c>
       <c r="P78" cm="1">
         <f t="array" ref="P78">_xlfn.XLOOKUP(D78&amp;I78,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>12.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q78" cm="1">
         <f t="array" ref="Q78">_xlfn.XLOOKUP(E78&amp;I78,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>38</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="R78" cm="1">
         <f t="array" ref="R78">_xlfn.XLOOKUP(E78&amp;I78,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>27.7</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -7903,11 +7903,11 @@
       </c>
       <c r="Z78" cm="1">
         <f t="array" ref="Z78">_xlfn.XLOOKUP(E78&amp;I78,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA78" cm="1">
         <f t="array" ref="AA78">_xlfn.XLOOKUP(E78&amp;I78,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
@@ -7918,16 +7918,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>3495000</v>
       </c>
       <c r="G79">
         <v>2022</v>
@@ -7940,36 +7940,36 @@
       </c>
       <c r="J79" cm="1">
         <f t="array" ref="J79">_xlfn.XLOOKUP(D79&amp;I79,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>8</v>
-      </c>
-      <c r="K79" t="str" cm="1">
+        <v>23</v>
+      </c>
+      <c r="K79" cm="1">
         <f t="array" ref="K79">_xlfn.XLOOKUP(E79&amp;I79,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="L79" t="s">
         <v>70</v>
       </c>
       <c r="M79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" cm="1">
         <f t="array" ref="O79">_xlfn.XLOOKUP(D79&amp;I79,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>31.3</v>
+        <v>20.7</v>
       </c>
       <c r="P79" cm="1">
         <f t="array" ref="P79">_xlfn.XLOOKUP(D79&amp;I79,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>9.6999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Q79" cm="1">
         <f t="array" ref="Q79">_xlfn.XLOOKUP(E79&amp;I79,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>32.299999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="R79" cm="1">
         <f t="array" ref="R79">_xlfn.XLOOKUP(E79&amp;I79,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>34.299999999999997</v>
+        <v>27</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -7988,19 +7988,19 @@
       </c>
       <c r="X79" cm="1">
         <f t="array" ref="X79">_xlfn.XLOOKUP(D79&amp;I79,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y79" cm="1">
         <f t="array" ref="Y79">_xlfn.XLOOKUP(D79&amp;I79,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z79" cm="1">
         <f t="array" ref="Z79">_xlfn.XLOOKUP(E79&amp;I79,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA79" cm="1">
         <f t="array" ref="AA79">_xlfn.XLOOKUP(E79&amp;I79,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
@@ -8011,16 +8011,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>739000</v>
       </c>
       <c r="G80">
         <v>2022</v>
@@ -8031,38 +8031,38 @@
       <c r="I80">
         <v>4</v>
       </c>
-      <c r="J80" cm="1">
+      <c r="J80" t="str" cm="1">
         <f t="array" ref="J80">_xlfn.XLOOKUP(D80&amp;I80,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>23</v>
-      </c>
-      <c r="K80" cm="1">
+        <v/>
+      </c>
+      <c r="K80" t="str" cm="1">
         <f t="array" ref="K80">_xlfn.XLOOKUP(E80&amp;I80,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="L80" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M80" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
       <c r="O80" cm="1">
         <f t="array" ref="O80">_xlfn.XLOOKUP(D80&amp;I80,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>20.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="P80" cm="1">
         <f t="array" ref="P80">_xlfn.XLOOKUP(D80&amp;I80,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>8.6999999999999993</v>
+        <v>14</v>
       </c>
       <c r="Q80" cm="1">
         <f t="array" ref="Q80">_xlfn.XLOOKUP(E80&amp;I80,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>37.700000000000003</v>
+        <v>13.7</v>
       </c>
       <c r="R80" cm="1">
         <f t="array" ref="R80">_xlfn.XLOOKUP(E80&amp;I80,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>27</v>
+        <v>4.3</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -8081,19 +8081,19 @@
       </c>
       <c r="X80" cm="1">
         <f t="array" ref="X80">_xlfn.XLOOKUP(D80&amp;I80,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y80" cm="1">
         <f t="array" ref="Y80">_xlfn.XLOOKUP(D80&amp;I80,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80" cm="1">
         <f t="array" ref="Z80">_xlfn.XLOOKUP(E80&amp;I80,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA80" cm="1">
         <f t="array" ref="AA80">_xlfn.XLOOKUP(E80&amp;I80,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
@@ -8101,19 +8101,19 @@
         <v>44828</v>
       </c>
       <c r="B81" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>4587000</v>
       </c>
       <c r="G81">
         <v>2022</v>
@@ -8124,9 +8124,9 @@
       <c r="I81">
         <v>4</v>
       </c>
-      <c r="J81" t="str" cm="1">
+      <c r="J81" cm="1">
         <f t="array" ref="J81">_xlfn.XLOOKUP(D81&amp;I81,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K81" t="str" cm="1">
         <f t="array" ref="K81">_xlfn.XLOOKUP(E81&amp;I81,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
@@ -8143,19 +8143,19 @@
       </c>
       <c r="O81" cm="1">
         <f t="array" ref="O81">_xlfn.XLOOKUP(D81&amp;I81,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>34.700000000000003</v>
+        <v>47.7</v>
       </c>
       <c r="P81" cm="1">
         <f t="array" ref="P81">_xlfn.XLOOKUP(D81&amp;I81,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="Q81" cm="1">
         <f t="array" ref="Q81">_xlfn.XLOOKUP(E81&amp;I81,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>13.7</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="R81" cm="1">
         <f t="array" ref="R81">_xlfn.XLOOKUP(E81&amp;I81,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -8194,19 +8194,19 @@
         <v>44828</v>
       </c>
       <c r="B82" s="2">
-        <v>0.8125</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>3369000</v>
       </c>
       <c r="G82">
         <v>2022</v>
@@ -8219,36 +8219,36 @@
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">_xlfn.XLOOKUP(D82&amp;I82,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K82" t="str" cm="1">
         <f t="array" ref="K82">_xlfn.XLOOKUP(E82&amp;I82,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
       <c r="L82" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M82" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
       <c r="O82" cm="1">
         <f t="array" ref="O82">_xlfn.XLOOKUP(D82&amp;I82,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>47.7</v>
+        <v>42.3</v>
       </c>
       <c r="P82" cm="1">
         <f t="array" ref="P82">_xlfn.XLOOKUP(D82&amp;I82,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>14.3</v>
+        <v>10</v>
       </c>
       <c r="Q82" cm="1">
         <f t="array" ref="Q82">_xlfn.XLOOKUP(E82&amp;I82,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>39.299999999999997</v>
+        <v>28</v>
       </c>
       <c r="R82" cm="1">
         <f t="array" ref="R82">_xlfn.XLOOKUP(E82&amp;I82,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -8287,19 +8287,19 @@
         <v>44828</v>
       </c>
       <c r="B83" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>609000</v>
       </c>
       <c r="G83">
         <v>2022</v>
@@ -8312,36 +8312,36 @@
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">_xlfn.XLOOKUP(D83&amp;I83,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K83" t="str" cm="1">
         <f t="array" ref="K83">_xlfn.XLOOKUP(E83&amp;I83,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
       <c r="L83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M83" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" cm="1">
         <f t="array" ref="O83">_xlfn.XLOOKUP(D83&amp;I83,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>42.3</v>
+        <v>32</v>
       </c>
       <c r="P83" cm="1">
         <f t="array" ref="P83">_xlfn.XLOOKUP(D83&amp;I83,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>10</v>
+        <v>27.3</v>
       </c>
       <c r="Q83" cm="1">
         <f t="array" ref="Q83">_xlfn.XLOOKUP(E83&amp;I83,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R83" cm="1">
         <f t="array" ref="R83">_xlfn.XLOOKUP(E83&amp;I83,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>9.6999999999999993</v>
+        <v>24.8</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -8360,15 +8360,15 @@
       </c>
       <c r="X83" cm="1">
         <f t="array" ref="X83">_xlfn.XLOOKUP(D83&amp;I83,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y83" cm="1">
         <f t="array" ref="Y83">_xlfn.XLOOKUP(D83&amp;I83,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z83" cm="1">
         <f t="array" ref="Z83">_xlfn.XLOOKUP(E83&amp;I83,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA83" cm="1">
         <f t="array" ref="AA83">_xlfn.XLOOKUP(E83&amp;I83,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
@@ -8380,19 +8380,19 @@
         <v>44828</v>
       </c>
       <c r="B84" s="2">
-        <v>0.92708333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1207000</v>
       </c>
       <c r="G84">
         <v>2022</v>
@@ -8403,38 +8403,38 @@
       <c r="I84">
         <v>4</v>
       </c>
-      <c r="J84" cm="1">
+      <c r="J84" t="str" cm="1">
         <f t="array" ref="J84">_xlfn.XLOOKUP(D84&amp;I84,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>19</v>
-      </c>
-      <c r="K84" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="K84" cm="1">
         <f t="array" ref="K84">_xlfn.XLOOKUP(E84&amp;I84,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="L84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M84" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" cm="1">
         <f t="array" ref="O84">_xlfn.XLOOKUP(D84&amp;I84,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="P84" cm="1">
         <f t="array" ref="P84">_xlfn.XLOOKUP(D84&amp;I84,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>27.3</v>
+        <v>22.3</v>
       </c>
       <c r="Q84" cm="1">
         <f t="array" ref="Q84">_xlfn.XLOOKUP(E84&amp;I84,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>24</v>
+        <v>44.7</v>
       </c>
       <c r="R84" cm="1">
         <f t="array" ref="R84">_xlfn.XLOOKUP(E84&amp;I84,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>24.8</v>
+        <v>14.3</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -8453,15 +8453,15 @@
       </c>
       <c r="X84" cm="1">
         <f t="array" ref="X84">_xlfn.XLOOKUP(D84&amp;I84,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y84" cm="1">
         <f t="array" ref="Y84">_xlfn.XLOOKUP(D84&amp;I84,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z84" cm="1">
         <f t="array" ref="Z84">_xlfn.XLOOKUP(E84&amp;I84,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA84" cm="1">
         <f t="array" ref="AA84">_xlfn.XLOOKUP(E84&amp;I84,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
@@ -8476,16 +8476,16 @@
         <v>0.9375</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>532000</v>
       </c>
       <c r="G85">
         <v>2022</v>
@@ -8496,13 +8496,13 @@
       <c r="I85">
         <v>4</v>
       </c>
-      <c r="J85" t="str" cm="1">
+      <c r="J85" cm="1">
         <f t="array" ref="J85">_xlfn.XLOOKUP(D85&amp;I85,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>18</v>
+      </c>
+      <c r="K85" t="str" cm="1">
+        <f t="array" ref="K85">_xlfn.XLOOKUP(E85&amp;I85,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
-      </c>
-      <c r="K85" cm="1">
-        <f t="array" ref="K85">_xlfn.XLOOKUP(E85&amp;I85,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>13</v>
       </c>
       <c r="L85" t="s">
         <v>65</v>
@@ -8515,19 +8515,19 @@
       </c>
       <c r="O85" cm="1">
         <f t="array" ref="O85">_xlfn.XLOOKUP(D85&amp;I85,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>26</v>
+        <v>45.3</v>
       </c>
       <c r="P85" cm="1">
         <f t="array" ref="P85">_xlfn.XLOOKUP(D85&amp;I85,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>22.3</v>
+        <v>18</v>
       </c>
       <c r="Q85" cm="1">
         <f t="array" ref="Q85">_xlfn.XLOOKUP(E85&amp;I85,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>44.7</v>
+        <v>34.5</v>
       </c>
       <c r="R85" cm="1">
         <f t="array" ref="R85">_xlfn.XLOOKUP(E85&amp;I85,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>14.3</v>
+        <v>25.5</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -8546,15 +8546,15 @@
       </c>
       <c r="X85" cm="1">
         <f t="array" ref="X85">_xlfn.XLOOKUP(D85&amp;I85,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y85" cm="1">
         <f t="array" ref="Y85">_xlfn.XLOOKUP(D85&amp;I85,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z85" cm="1">
         <f t="array" ref="Z85">_xlfn.XLOOKUP(E85&amp;I85,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA85" cm="1">
         <f t="array" ref="AA85">_xlfn.XLOOKUP(E85&amp;I85,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
@@ -8563,19 +8563,19 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44828</v>
+        <v>44833</v>
       </c>
       <c r="B86" s="2">
-        <v>0.9375</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -8587,55 +8587,40 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J86" cm="1">
         <f t="array" ref="J86">_xlfn.XLOOKUP(D86&amp;I86,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K86" t="str" cm="1">
         <f t="array" ref="K86">_xlfn.XLOOKUP(E86&amp;I86,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
       <c r="L86" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" cm="1">
         <f t="array" ref="O86">_xlfn.XLOOKUP(D86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>45.3</v>
+        <v>33.5</v>
       </c>
       <c r="P86" cm="1">
         <f t="array" ref="P86">_xlfn.XLOOKUP(D86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>18</v>
+        <v>26.5</v>
       </c>
       <c r="Q86" cm="1">
         <f t="array" ref="Q86">_xlfn.XLOOKUP(E86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>34.5</v>
+        <v>15.5</v>
       </c>
       <c r="R86" cm="1">
         <f t="array" ref="R86">_xlfn.XLOOKUP(E86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>25.5</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="X86" cm="1">
         <f t="array" ref="X86">_xlfn.XLOOKUP(D86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
@@ -8643,7 +8628,7 @@
       </c>
       <c r="Y86" cm="1">
         <f t="array" ref="Y86">_xlfn.XLOOKUP(D86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z86" cm="1">
         <f t="array" ref="Z86">_xlfn.XLOOKUP(E86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
@@ -8651,11 +8636,1493 @@
       </c>
       <c r="AA86" cm="1">
         <f t="array" ref="AA86">_xlfn.XLOOKUP(E86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>2022</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87" t="str" cm="1">
+        <f t="array" ref="J87">_xlfn.XLOOKUP(D87&amp;I87,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K87" t="str" cm="1">
+        <f t="array" ref="K87">_xlfn.XLOOKUP(E87&amp;I87,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L87" t="s">
+        <v>68</v>
+      </c>
+      <c r="M87" t="s">
+        <v>68</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" cm="1">
+        <f t="array" ref="O87">_xlfn.XLOOKUP(D87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="P87" cm="1">
+        <f t="array" ref="P87">_xlfn.XLOOKUP(D87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="Q87" cm="1">
+        <f t="array" ref="Q87">_xlfn.XLOOKUP(E87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="R87" cm="1">
+        <f t="array" ref="R87">_xlfn.XLOOKUP(E87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.8</v>
+      </c>
+      <c r="X87" cm="1">
+        <f t="array" ref="X87">_xlfn.XLOOKUP(D87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y87" cm="1">
+        <f t="array" ref="Y87">_xlfn.XLOOKUP(D87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z87" cm="1">
+        <f t="array" ref="Z87">_xlfn.XLOOKUP(E87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA87" cm="1">
+        <f t="array" ref="AA87">_xlfn.XLOOKUP(E87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" t="s">
+        <v>161</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>2022</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="J88" t="str" cm="1">
+        <f t="array" ref="J88">_xlfn.XLOOKUP(D88&amp;I88,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K88" t="str" cm="1">
+        <f t="array" ref="K88">_xlfn.XLOOKUP(E88&amp;I88,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L88" t="s">
+        <v>66</v>
+      </c>
+      <c r="M88" t="s">
+        <v>66</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" cm="1">
+        <f t="array" ref="O88">_xlfn.XLOOKUP(D88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22</v>
+      </c>
+      <c r="P88" cm="1">
+        <f t="array" ref="P88">_xlfn.XLOOKUP(D88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.5</v>
+      </c>
+      <c r="Q88" cm="1">
+        <f t="array" ref="Q88">_xlfn.XLOOKUP(E88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>20.5</v>
+      </c>
+      <c r="R88" cm="1">
+        <f t="array" ref="R88">_xlfn.XLOOKUP(E88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.5</v>
+      </c>
+      <c r="X88" cm="1">
+        <f t="array" ref="X88">_xlfn.XLOOKUP(D88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y88" cm="1">
+        <f t="array" ref="Y88">_xlfn.XLOOKUP(D88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z88" cm="1">
+        <f t="array" ref="Z88">_xlfn.XLOOKUP(E88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA88" cm="1">
+        <f t="array" ref="AA88">_xlfn.XLOOKUP(E88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>2022</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89" t="str" cm="1">
+        <f t="array" ref="J89">_xlfn.XLOOKUP(D89&amp;I89,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K89" cm="1">
+        <f t="array" ref="K89">_xlfn.XLOOKUP(E89&amp;I89,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>15</v>
+      </c>
+      <c r="L89" t="s">
+        <v>65</v>
+      </c>
+      <c r="M89" t="s">
+        <v>65</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" cm="1">
+        <f t="array" ref="O89">_xlfn.XLOOKUP(D89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41.8</v>
+      </c>
+      <c r="P89" cm="1">
+        <f t="array" ref="P89">_xlfn.XLOOKUP(D89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18</v>
+      </c>
+      <c r="Q89" cm="1">
+        <f t="array" ref="Q89">_xlfn.XLOOKUP(E89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>44</v>
+      </c>
+      <c r="R89" cm="1">
+        <f t="array" ref="R89">_xlfn.XLOOKUP(E89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19</v>
+      </c>
+      <c r="X89" cm="1">
+        <f t="array" ref="X89">_xlfn.XLOOKUP(D89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y89" cm="1">
+        <f t="array" ref="Y89">_xlfn.XLOOKUP(D89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z89" cm="1">
+        <f t="array" ref="Z89">_xlfn.XLOOKUP(E89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA89" cm="1">
+        <f t="array" ref="AA89">_xlfn.XLOOKUP(E89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>2022</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+      <c r="J90" t="str" cm="1">
+        <f t="array" ref="J90">_xlfn.XLOOKUP(D90&amp;I90,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K90" cm="1">
+        <f t="array" ref="K90">_xlfn.XLOOKUP(E90&amp;I90,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>4</v>
+      </c>
+      <c r="L90" t="s">
+        <v>64</v>
+      </c>
+      <c r="M90" t="s">
+        <v>64</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" cm="1">
+        <f t="array" ref="O90">_xlfn.XLOOKUP(D90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>17</v>
+      </c>
+      <c r="P90" cm="1">
+        <f t="array" ref="P90">_xlfn.XLOOKUP(D90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>5.8</v>
+      </c>
+      <c r="Q90" cm="1">
+        <f t="array" ref="Q90">_xlfn.XLOOKUP(E90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>50</v>
+      </c>
+      <c r="R90" cm="1">
+        <f t="array" ref="R90">_xlfn.XLOOKUP(E90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11</v>
+      </c>
+      <c r="X90" cm="1">
+        <f t="array" ref="X90">_xlfn.XLOOKUP(D90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y90" cm="1">
+        <f t="array" ref="Y90">_xlfn.XLOOKUP(D90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z90" cm="1">
+        <f t="array" ref="Z90">_xlfn.XLOOKUP(E90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA90" cm="1">
+        <f t="array" ref="AA90">_xlfn.XLOOKUP(E90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>2022</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="J91" cm="1">
+        <f t="array" ref="J91">_xlfn.XLOOKUP(D91&amp;I91,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>14</v>
+      </c>
+      <c r="K91" cm="1">
+        <f t="array" ref="K91">_xlfn.XLOOKUP(E91&amp;I91,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>7</v>
+      </c>
+      <c r="L91" t="s">
+        <v>70</v>
+      </c>
+      <c r="M91" t="s">
+        <v>70</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" cm="1">
+        <f t="array" ref="O91">_xlfn.XLOOKUP(D91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41</v>
+      </c>
+      <c r="P91" cm="1">
+        <f t="array" ref="P91">_xlfn.XLOOKUP(D91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="Q91" cm="1">
+        <f t="array" ref="Q91">_xlfn.XLOOKUP(E91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.3</v>
+      </c>
+      <c r="R91" cm="1">
+        <f t="array" ref="R91">_xlfn.XLOOKUP(E91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>13</v>
+      </c>
+      <c r="X91" cm="1">
+        <f t="array" ref="X91">_xlfn.XLOOKUP(D91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y91" cm="1">
+        <f t="array" ref="Y91">_xlfn.XLOOKUP(D91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z91" cm="1">
+        <f t="array" ref="Z91">_xlfn.XLOOKUP(E91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA91" cm="1">
+        <f t="array" ref="AA91">_xlfn.XLOOKUP(E91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>2022</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92" t="str" cm="1">
+        <f t="array" ref="J92">_xlfn.XLOOKUP(D92&amp;I92,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K92" cm="1">
+        <f t="array" ref="K92">_xlfn.XLOOKUP(E92&amp;I92,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>18</v>
+      </c>
+      <c r="L92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M92" t="s">
+        <v>71</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" cm="1">
+        <f t="array" ref="O92">_xlfn.XLOOKUP(D92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>46.3</v>
+      </c>
+      <c r="P92" cm="1">
+        <f t="array" ref="P92">_xlfn.XLOOKUP(D92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.3</v>
+      </c>
+      <c r="Q92" cm="1">
+        <f t="array" ref="Q92">_xlfn.XLOOKUP(E92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="R92" cm="1">
+        <f t="array" ref="R92">_xlfn.XLOOKUP(E92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.8</v>
+      </c>
+      <c r="X92" cm="1">
+        <f t="array" ref="X92">_xlfn.XLOOKUP(D92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y92" cm="1">
+        <f t="array" ref="Y92">_xlfn.XLOOKUP(D92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z92" cm="1">
+        <f t="array" ref="Z92">_xlfn.XLOOKUP(E92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA92" cm="1">
+        <f t="array" ref="AA92">_xlfn.XLOOKUP(E92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>2022</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93" cm="1">
+        <f t="array" ref="J93">_xlfn.XLOOKUP(D93&amp;I93,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>21</v>
+      </c>
+      <c r="K93" t="str" cm="1">
+        <f t="array" ref="K93">_xlfn.XLOOKUP(E93&amp;I93,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L93" t="s">
+        <v>64</v>
+      </c>
+      <c r="M93" t="s">
+        <v>64</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" cm="1">
+        <f t="array" ref="O93">_xlfn.XLOOKUP(D93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>45.8</v>
+      </c>
+      <c r="P93" cm="1">
+        <f t="array" ref="P93">_xlfn.XLOOKUP(D93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Q93" cm="1">
+        <f t="array" ref="Q93">_xlfn.XLOOKUP(E93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36</v>
+      </c>
+      <c r="R93" cm="1">
+        <f t="array" ref="R93">_xlfn.XLOOKUP(E93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.3</v>
+      </c>
+      <c r="X93" cm="1">
+        <f t="array" ref="X93">_xlfn.XLOOKUP(D93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y93" cm="1">
+        <f t="array" ref="Y93">_xlfn.XLOOKUP(D93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z93" cm="1">
+        <f t="array" ref="Z93">_xlfn.XLOOKUP(E93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA93" cm="1">
+        <f t="array" ref="AA93">_xlfn.XLOOKUP(E93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>2022</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" t="str" cm="1">
+        <f t="array" ref="J94">_xlfn.XLOOKUP(D94&amp;I94,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K94" t="str" cm="1">
+        <f t="array" ref="K94">_xlfn.XLOOKUP(E94&amp;I94,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L94" t="s">
+        <v>66</v>
+      </c>
+      <c r="M94" t="s">
+        <v>68</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" cm="1">
+        <f t="array" ref="O94">_xlfn.XLOOKUP(D94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="P94" cm="1">
+        <f t="array" ref="P94">_xlfn.XLOOKUP(D94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16</v>
+      </c>
+      <c r="Q94" cm="1">
+        <f t="array" ref="Q94">_xlfn.XLOOKUP(E94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>14.3</v>
+      </c>
+      <c r="R94" cm="1">
+        <f t="array" ref="R94">_xlfn.XLOOKUP(E94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.7</v>
+      </c>
+      <c r="X94" cm="1">
+        <f t="array" ref="X94">_xlfn.XLOOKUP(D94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y94" cm="1">
+        <f t="array" ref="Y94">_xlfn.XLOOKUP(D94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z94" cm="1">
+        <f t="array" ref="Z94">_xlfn.XLOOKUP(E94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA94" cm="1">
+        <f t="array" ref="AA94">_xlfn.XLOOKUP(E94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>2022</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95" cm="1">
+        <f t="array" ref="J95">_xlfn.XLOOKUP(D95&amp;I95,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>20</v>
+      </c>
+      <c r="K95" cm="1">
+        <f t="array" ref="K95">_xlfn.XLOOKUP(E95&amp;I95,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>2</v>
+      </c>
+      <c r="L95" t="s">
+        <v>70</v>
+      </c>
+      <c r="M95" t="s">
+        <v>70</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" cm="1">
+        <f t="array" ref="O95">_xlfn.XLOOKUP(D95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.5</v>
+      </c>
+      <c r="P95" cm="1">
+        <f t="array" ref="P95">_xlfn.XLOOKUP(D95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26</v>
+      </c>
+      <c r="Q95" cm="1">
+        <f t="array" ref="Q95">_xlfn.XLOOKUP(E95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>48.3</v>
+      </c>
+      <c r="R95" cm="1">
+        <f t="array" ref="R95">_xlfn.XLOOKUP(E95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>7.3</v>
+      </c>
+      <c r="X95" cm="1">
+        <f t="array" ref="X95">_xlfn.XLOOKUP(D95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y95" cm="1">
+        <f t="array" ref="Y95">_xlfn.XLOOKUP(D95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z95" cm="1">
+        <f t="array" ref="Z95">_xlfn.XLOOKUP(E95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA95" cm="1">
+        <f t="array" ref="AA95">_xlfn.XLOOKUP(E95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>2022</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96" cm="1">
+        <f t="array" ref="J96">_xlfn.XLOOKUP(D96&amp;I96,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>16</v>
+      </c>
+      <c r="K96" cm="1">
+        <f t="array" ref="K96">_xlfn.XLOOKUP(E96&amp;I96,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>71</v>
+      </c>
+      <c r="M96" t="s">
+        <v>71</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" cm="1">
+        <f t="array" ref="O96">_xlfn.XLOOKUP(D96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.5</v>
+      </c>
+      <c r="P96" cm="1">
+        <f t="array" ref="P96">_xlfn.XLOOKUP(D96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.8</v>
+      </c>
+      <c r="Q96" cm="1">
+        <f t="array" ref="Q96">_xlfn.XLOOKUP(E96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>51.7</v>
+      </c>
+      <c r="R96" cm="1">
+        <f t="array" ref="R96">_xlfn.XLOOKUP(E96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.7</v>
+      </c>
+      <c r="X96" cm="1">
+        <f t="array" ref="X96">_xlfn.XLOOKUP(D96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y96" cm="1">
+        <f t="array" ref="Y96">_xlfn.XLOOKUP(D96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z96" cm="1">
+        <f t="array" ref="Z96">_xlfn.XLOOKUP(E96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA96" cm="1">
+        <f t="array" ref="AA96">_xlfn.XLOOKUP(E96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>2022</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97" cm="1">
+        <f t="array" ref="J97">_xlfn.XLOOKUP(D97&amp;I97,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>11</v>
+      </c>
+      <c r="K97" t="str" cm="1">
+        <f t="array" ref="K97">_xlfn.XLOOKUP(E97&amp;I97,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L97" t="s">
+        <v>64</v>
+      </c>
+      <c r="M97" t="s">
+        <v>64</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" cm="1">
+        <f t="array" ref="O97">_xlfn.XLOOKUP(D97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P97" cm="1">
+        <f t="array" ref="P97">_xlfn.XLOOKUP(D97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.8</v>
+      </c>
+      <c r="Q97" cm="1">
+        <f t="array" ref="Q97">_xlfn.XLOOKUP(E97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23</v>
+      </c>
+      <c r="R97" cm="1">
+        <f t="array" ref="R97">_xlfn.XLOOKUP(E97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.8</v>
+      </c>
+      <c r="X97" cm="1">
+        <f t="array" ref="X97">_xlfn.XLOOKUP(D97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y97" cm="1">
+        <f t="array" ref="Y97">_xlfn.XLOOKUP(D97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z97" cm="1">
+        <f t="array" ref="Z97">_xlfn.XLOOKUP(E97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA97" cm="1">
+        <f t="array" ref="AA97">_xlfn.XLOOKUP(E97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>2022</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="J98" cm="1">
+        <f t="array" ref="J98">_xlfn.XLOOKUP(D98&amp;I98,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>23</v>
+      </c>
+      <c r="K98" cm="1">
+        <f t="array" ref="K98">_xlfn.XLOOKUP(E98&amp;I98,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>22</v>
+      </c>
+      <c r="L98" t="s">
+        <v>69</v>
+      </c>
+      <c r="M98" t="s">
+        <v>69</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" cm="1">
+        <f t="array" ref="O98">_xlfn.XLOOKUP(D98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>37.5</v>
+      </c>
+      <c r="P98" cm="1">
+        <f t="array" ref="P98">_xlfn.XLOOKUP(D98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.8</v>
+      </c>
+      <c r="Q98" cm="1">
+        <f t="array" ref="Q98">_xlfn.XLOOKUP(E98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.8</v>
+      </c>
+      <c r="R98" cm="1">
+        <f t="array" ref="R98">_xlfn.XLOOKUP(E98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.5</v>
+      </c>
+      <c r="X98" cm="1">
+        <f t="array" ref="X98">_xlfn.XLOOKUP(D98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y98" cm="1">
+        <f t="array" ref="Y98">_xlfn.XLOOKUP(D98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z98" cm="1">
+        <f t="array" ref="Z98">_xlfn.XLOOKUP(E98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA98" cm="1">
+        <f t="array" ref="AA98">_xlfn.XLOOKUP(E98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>2022</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99" t="str" cm="1">
+        <f t="array" ref="J99">_xlfn.XLOOKUP(D99&amp;I99,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K99" t="str" cm="1">
+        <f t="array" ref="K99">_xlfn.XLOOKUP(E99&amp;I99,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L99" t="s">
+        <v>71</v>
+      </c>
+      <c r="M99" t="s">
+        <v>71</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" cm="1">
+        <f t="array" ref="O99">_xlfn.XLOOKUP(D99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>48.5</v>
+      </c>
+      <c r="P99" cm="1">
+        <f t="array" ref="P99">_xlfn.XLOOKUP(D99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.3</v>
+      </c>
+      <c r="Q99" cm="1">
+        <f t="array" ref="Q99">_xlfn.XLOOKUP(E99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.8</v>
+      </c>
+      <c r="R99" cm="1">
+        <f t="array" ref="R99">_xlfn.XLOOKUP(E99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.5</v>
+      </c>
+      <c r="X99" cm="1">
+        <f t="array" ref="X99">_xlfn.XLOOKUP(D99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y99" cm="1">
+        <f t="array" ref="Y99">_xlfn.XLOOKUP(D99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z99" cm="1">
+        <f t="array" ref="Z99">_xlfn.XLOOKUP(E99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA99" cm="1">
+        <f t="array" ref="AA99">_xlfn.XLOOKUP(E99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>2022</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+      <c r="J100" t="str" cm="1">
+        <f t="array" ref="J100">_xlfn.XLOOKUP(D100&amp;I100,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K100" t="str" cm="1">
+        <f t="array" ref="K100">_xlfn.XLOOKUP(E100&amp;I100,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L100" t="s">
+        <v>64</v>
+      </c>
+      <c r="M100" t="s">
+        <v>64</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" cm="1">
+        <f t="array" ref="O100">_xlfn.XLOOKUP(D100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>37</v>
+      </c>
+      <c r="P100" cm="1">
+        <f t="array" ref="P100">_xlfn.XLOOKUP(D100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23</v>
+      </c>
+      <c r="Q100" cm="1">
+        <f t="array" ref="Q100">_xlfn.XLOOKUP(E100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.5</v>
+      </c>
+      <c r="R100" cm="1">
+        <f t="array" ref="R100">_xlfn.XLOOKUP(E100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.5</v>
+      </c>
+      <c r="X100" cm="1">
+        <f t="array" ref="X100">_xlfn.XLOOKUP(D100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y100" cm="1">
+        <f t="array" ref="Y100">_xlfn.XLOOKUP(D100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z100" cm="1">
+        <f t="array" ref="Z100">_xlfn.XLOOKUP(E100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA100" cm="1">
+        <f t="array" ref="AA100">_xlfn.XLOOKUP(E100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>2022</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+      <c r="J101" t="str" cm="1">
+        <f t="array" ref="J101">_xlfn.XLOOKUP(D101&amp;I101,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K101" t="str" cm="1">
+        <f t="array" ref="K101">_xlfn.XLOOKUP(E101&amp;I101,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L101" t="s">
+        <v>70</v>
+      </c>
+      <c r="M101" t="s">
+        <v>70</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" cm="1">
+        <f t="array" ref="O101">_xlfn.XLOOKUP(D101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.8</v>
+      </c>
+      <c r="P101" cm="1">
+        <f t="array" ref="P101">_xlfn.XLOOKUP(D101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.8</v>
+      </c>
+      <c r="Q101" cm="1">
+        <f t="array" ref="Q101">_xlfn.XLOOKUP(E101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R101" cm="1">
+        <f t="array" ref="R101">_xlfn.XLOOKUP(E101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.3</v>
+      </c>
+      <c r="X101" cm="1">
+        <f t="array" ref="X101">_xlfn.XLOOKUP(D101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y101" cm="1">
+        <f t="array" ref="Y101">_xlfn.XLOOKUP(D101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z101" cm="1">
+        <f t="array" ref="Z101">_xlfn.XLOOKUP(E101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA101" cm="1">
+        <f t="array" ref="AA101">_xlfn.XLOOKUP(E101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" t="s">
+        <v>84</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>2022</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102" cm="1">
+        <f t="array" ref="J102">_xlfn.XLOOKUP(D102&amp;I102,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>5</v>
+      </c>
+      <c r="K102" cm="1">
+        <f t="array" ref="K102">_xlfn.XLOOKUP(E102&amp;I102,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>10</v>
+      </c>
+      <c r="L102" t="s">
+        <v>69</v>
+      </c>
+      <c r="M102" t="s">
+        <v>69</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" cm="1">
+        <f t="array" ref="O102">_xlfn.XLOOKUP(D102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>43.8</v>
+      </c>
+      <c r="P102" cm="1">
+        <f t="array" ref="P102">_xlfn.XLOOKUP(D102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.8</v>
+      </c>
+      <c r="Q102" cm="1">
+        <f t="array" ref="Q102">_xlfn.XLOOKUP(E102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36</v>
+      </c>
+      <c r="R102" cm="1">
+        <f t="array" ref="R102">_xlfn.XLOOKUP(E102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.8</v>
+      </c>
+      <c r="X102" cm="1">
+        <f t="array" ref="X102">_xlfn.XLOOKUP(D102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y102" cm="1">
+        <f t="array" ref="Y102">_xlfn.XLOOKUP(D102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z102" cm="1">
+        <f t="array" ref="Z102">_xlfn.XLOOKUP(E102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA102" cm="1">
+        <f t="array" ref="AA102">_xlfn.XLOOKUP(E102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" t="s">
+        <v>90</v>
+      </c>
+      <c r="E103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>2022</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+      <c r="J103" t="str" cm="1">
+        <f t="array" ref="J103">_xlfn.XLOOKUP(D103&amp;I103,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K103" t="str" cm="1">
+        <f t="array" ref="K103">_xlfn.XLOOKUP(E103&amp;I103,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L103" t="s">
+        <v>71</v>
+      </c>
+      <c r="M103" t="s">
+        <v>71</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" cm="1">
+        <f t="array" ref="O103">_xlfn.XLOOKUP(D103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36.5</v>
+      </c>
+      <c r="P103" cm="1">
+        <f t="array" ref="P103">_xlfn.XLOOKUP(D103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.8</v>
+      </c>
+      <c r="Q103" cm="1">
+        <f t="array" ref="Q103">_xlfn.XLOOKUP(E103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.8</v>
+      </c>
+      <c r="R103" cm="1">
+        <f t="array" ref="R103">_xlfn.XLOOKUP(E103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.5</v>
+      </c>
+      <c r="X103" cm="1">
+        <f t="array" ref="X103">_xlfn.XLOOKUP(D103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y103" cm="1">
+        <f t="array" ref="Y103">_xlfn.XLOOKUP(D103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z103" cm="1">
+        <f t="array" ref="Z103">_xlfn.XLOOKUP(E103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA103" cm="1">
+        <f t="array" ref="AA103">_xlfn.XLOOKUP(E103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>2022</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>5</v>
+      </c>
+      <c r="J104" cm="1">
+        <f t="array" ref="J104">_xlfn.XLOOKUP(D104&amp;I104,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>6</v>
+      </c>
+      <c r="K104" t="str" cm="1">
+        <f t="array" ref="K104">_xlfn.XLOOKUP(E104&amp;I104,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L104" t="s">
+        <v>65</v>
+      </c>
+      <c r="M104" t="s">
+        <v>65</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" cm="1">
+        <f t="array" ref="O104">_xlfn.XLOOKUP(D104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.3</v>
+      </c>
+      <c r="P104" cm="1">
+        <f t="array" ref="P104">_xlfn.XLOOKUP(D104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.3</v>
+      </c>
+      <c r="Q104" cm="1">
+        <f t="array" ref="Q104">_xlfn.XLOOKUP(E104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22.8</v>
+      </c>
+      <c r="R104" cm="1">
+        <f t="array" ref="R104">_xlfn.XLOOKUP(E104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.3</v>
+      </c>
+      <c r="X104" cm="1">
+        <f t="array" ref="X104">_xlfn.XLOOKUP(D104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y104" cm="1">
+        <f t="array" ref="Y104">_xlfn.XLOOKUP(D104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z104" cm="1">
+        <f t="array" ref="Z104">_xlfn.XLOOKUP(E104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA104" cm="1">
+        <f t="array" ref="AA104">_xlfn.XLOOKUP(E104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>2022</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>5</v>
+      </c>
+      <c r="J105" cm="1">
+        <f t="array" ref="J105">_xlfn.XLOOKUP(D105&amp;I105,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>13</v>
+      </c>
+      <c r="K105" t="str" cm="1">
+        <f t="array" ref="K105">_xlfn.XLOOKUP(E105&amp;I105,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L105" t="s">
+        <v>65</v>
+      </c>
+      <c r="M105" t="s">
+        <v>65</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" cm="1">
+        <f t="array" ref="O105">_xlfn.XLOOKUP(D105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.5</v>
+      </c>
+      <c r="P105" cm="1">
+        <f t="array" ref="P105">_xlfn.XLOOKUP(D105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>31</v>
+      </c>
+      <c r="Q105" cm="1">
+        <f t="array" ref="Q105">_xlfn.XLOOKUP(E105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.3</v>
+      </c>
+      <c r="R105" cm="1">
+        <f t="array" ref="R105">_xlfn.XLOOKUP(E105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.3</v>
+      </c>
+      <c r="X105" cm="1">
+        <f t="array" ref="X105">_xlfn.XLOOKUP(D105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y105" cm="1">
+        <f t="array" ref="Y105">_xlfn.XLOOKUP(D105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z105" cm="1">
+        <f t="array" ref="Z105">_xlfn.XLOOKUP(E105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA105" cm="1">
+        <f t="array" ref="AA105">_xlfn.XLOOKUP(E105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W345" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}"/>
+  <autoFilter ref="A1:W344" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -8663,10 +10130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
-  <dimension ref="A1:F392"/>
+  <dimension ref="A1:F523"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="F336" sqref="F336"/>
+    <sheetView topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16511,6 +17978,2626 @@
         <v>1</v>
       </c>
     </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>106</v>
+      </c>
+      <c r="B393">
+        <v>5</v>
+      </c>
+      <c r="C393">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D393">
+        <v>16</v>
+      </c>
+      <c r="E393">
+        <v>3</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>119</v>
+      </c>
+      <c r="B394">
+        <v>5</v>
+      </c>
+      <c r="C394">
+        <v>12</v>
+      </c>
+      <c r="D394">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>91</v>
+      </c>
+      <c r="B395">
+        <v>5</v>
+      </c>
+      <c r="C395">
+        <v>48.3</v>
+      </c>
+      <c r="D395">
+        <v>7.3</v>
+      </c>
+      <c r="E395">
+        <v>4</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>102</v>
+      </c>
+      <c r="B396">
+        <v>5</v>
+      </c>
+      <c r="C396">
+        <v>34.5</v>
+      </c>
+      <c r="D396">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E396">
+        <v>2</v>
+      </c>
+      <c r="F396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>112</v>
+      </c>
+      <c r="B397">
+        <v>5</v>
+      </c>
+      <c r="C397">
+        <v>29.3</v>
+      </c>
+      <c r="D397">
+        <v>34</v>
+      </c>
+      <c r="E397">
+        <v>2</v>
+      </c>
+      <c r="F397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>96</v>
+      </c>
+      <c r="B398">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>22.8</v>
+      </c>
+      <c r="D398">
+        <v>25.3</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>50</v>
+      </c>
+      <c r="B399">
+        <v>5</v>
+      </c>
+      <c r="C399">
+        <v>33.5</v>
+      </c>
+      <c r="D399">
+        <v>26</v>
+      </c>
+      <c r="E399">
+        <v>3</v>
+      </c>
+      <c r="F399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>120</v>
+      </c>
+      <c r="B400">
+        <v>5</v>
+      </c>
+      <c r="C400">
+        <v>32</v>
+      </c>
+      <c r="D400">
+        <v>30.3</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>121</v>
+      </c>
+      <c r="B401">
+        <v>5</v>
+      </c>
+      <c r="C401">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D401">
+        <v>29.7</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>122</v>
+      </c>
+      <c r="B402">
+        <v>5</v>
+      </c>
+      <c r="C402">
+        <v>23.8</v>
+      </c>
+      <c r="D402">
+        <v>21.8</v>
+      </c>
+      <c r="E402">
+        <v>3</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>123</v>
+      </c>
+      <c r="B403">
+        <v>5</v>
+      </c>
+      <c r="C403">
+        <v>23.5</v>
+      </c>
+      <c r="D403">
+        <v>32.5</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+      <c r="F403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>98</v>
+      </c>
+      <c r="B404">
+        <v>5</v>
+      </c>
+      <c r="C404">
+        <v>40.5</v>
+      </c>
+      <c r="D404">
+        <v>16.8</v>
+      </c>
+      <c r="E404">
+        <v>3</v>
+      </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>27</v>
+      </c>
+      <c r="B405">
+        <v>5</v>
+      </c>
+      <c r="C405">
+        <v>22</v>
+      </c>
+      <c r="D405">
+        <v>20.5</v>
+      </c>
+      <c r="E405">
+        <v>2</v>
+      </c>
+      <c r="F405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>124</v>
+      </c>
+      <c r="B406">
+        <v>5</v>
+      </c>
+      <c r="C406">
+        <v>20.8</v>
+      </c>
+      <c r="D406">
+        <v>27.5</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>125</v>
+      </c>
+      <c r="B407">
+        <v>5</v>
+      </c>
+      <c r="C407">
+        <v>30.5</v>
+      </c>
+      <c r="D407">
+        <v>45</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>126</v>
+      </c>
+      <c r="B408">
+        <v>5</v>
+      </c>
+      <c r="C408">
+        <v>29.3</v>
+      </c>
+      <c r="D408">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>97</v>
+      </c>
+      <c r="B409">
+        <v>5</v>
+      </c>
+      <c r="C409">
+        <v>33.5</v>
+      </c>
+      <c r="D409">
+        <v>26.5</v>
+      </c>
+      <c r="E409">
+        <v>3</v>
+      </c>
+      <c r="F409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>127</v>
+      </c>
+      <c r="B410">
+        <v>5</v>
+      </c>
+      <c r="C410">
+        <v>30</v>
+      </c>
+      <c r="D410">
+        <v>20.5</v>
+      </c>
+      <c r="E410">
+        <v>3</v>
+      </c>
+      <c r="F410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>61</v>
+      </c>
+      <c r="B411">
+        <v>5</v>
+      </c>
+      <c r="C411">
+        <v>30.8</v>
+      </c>
+      <c r="D411">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>82</v>
+      </c>
+      <c r="B412">
+        <v>5</v>
+      </c>
+      <c r="C412">
+        <v>24</v>
+      </c>
+      <c r="D412">
+        <v>47.4</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>57</v>
+      </c>
+      <c r="B413">
+        <v>5</v>
+      </c>
+      <c r="C413">
+        <v>42.5</v>
+      </c>
+      <c r="D413">
+        <v>20.5</v>
+      </c>
+      <c r="E413">
+        <v>3</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>87</v>
+      </c>
+      <c r="B414">
+        <v>5</v>
+      </c>
+      <c r="C414">
+        <v>43.8</v>
+      </c>
+      <c r="D414">
+        <v>21.8</v>
+      </c>
+      <c r="E414">
+        <v>4</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>128</v>
+      </c>
+      <c r="B415">
+        <v>5</v>
+      </c>
+      <c r="C415">
+        <v>37</v>
+      </c>
+      <c r="D415">
+        <v>26.3</v>
+      </c>
+      <c r="E415">
+        <v>4</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>107</v>
+      </c>
+      <c r="B416">
+        <v>5</v>
+      </c>
+      <c r="C416">
+        <v>11.8</v>
+      </c>
+      <c r="D416">
+        <v>43.3</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>59</v>
+      </c>
+      <c r="B417">
+        <v>5</v>
+      </c>
+      <c r="C417">
+        <v>10.8</v>
+      </c>
+      <c r="D417">
+        <v>41</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>80</v>
+      </c>
+      <c r="B418">
+        <v>5</v>
+      </c>
+      <c r="C418">
+        <v>14.4</v>
+      </c>
+      <c r="D418">
+        <v>36.4</v>
+      </c>
+      <c r="E418">
+        <v>1</v>
+      </c>
+      <c r="F418">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>129</v>
+      </c>
+      <c r="B419">
+        <v>5</v>
+      </c>
+      <c r="C419">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D419">
+        <v>19.5</v>
+      </c>
+      <c r="E419">
+        <v>3</v>
+      </c>
+      <c r="F419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>28</v>
+      </c>
+      <c r="B420">
+        <v>5</v>
+      </c>
+      <c r="C420">
+        <v>32</v>
+      </c>
+      <c r="D420">
+        <v>18.8</v>
+      </c>
+      <c r="E420">
+        <v>2</v>
+      </c>
+      <c r="F420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>130</v>
+      </c>
+      <c r="B421">
+        <v>5</v>
+      </c>
+      <c r="C421">
+        <v>31</v>
+      </c>
+      <c r="D421">
+        <v>38.5</v>
+      </c>
+      <c r="E421">
+        <v>2</v>
+      </c>
+      <c r="F421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>52</v>
+      </c>
+      <c r="B422">
+        <v>5</v>
+      </c>
+      <c r="C422">
+        <v>27.3</v>
+      </c>
+      <c r="D422">
+        <v>29.5</v>
+      </c>
+      <c r="E422">
+        <v>2</v>
+      </c>
+      <c r="F422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>81</v>
+      </c>
+      <c r="B423">
+        <v>5</v>
+      </c>
+      <c r="C423">
+        <v>32.6</v>
+      </c>
+      <c r="D423">
+        <v>26.2</v>
+      </c>
+      <c r="E423">
+        <v>2</v>
+      </c>
+      <c r="F423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>131</v>
+      </c>
+      <c r="B424">
+        <v>5</v>
+      </c>
+      <c r="C424">
+        <v>16.7</v>
+      </c>
+      <c r="D424">
+        <v>50.3</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="F424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>115</v>
+      </c>
+      <c r="B425">
+        <v>5</v>
+      </c>
+      <c r="C425">
+        <v>37.5</v>
+      </c>
+      <c r="D425">
+        <v>18.8</v>
+      </c>
+      <c r="E425">
+        <v>4</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>132</v>
+      </c>
+      <c r="B426">
+        <v>5</v>
+      </c>
+      <c r="C426">
+        <v>28</v>
+      </c>
+      <c r="D426">
+        <v>29</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="F426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>32</v>
+      </c>
+      <c r="B427">
+        <v>5</v>
+      </c>
+      <c r="C427">
+        <v>42.3</v>
+      </c>
+      <c r="D427">
+        <v>8</v>
+      </c>
+      <c r="E427">
+        <v>4</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>111</v>
+      </c>
+      <c r="B428">
+        <v>5</v>
+      </c>
+      <c r="C428">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D428">
+        <v>26.8</v>
+      </c>
+      <c r="E428">
+        <v>3</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>133</v>
+      </c>
+      <c r="B429">
+        <v>5</v>
+      </c>
+      <c r="C429">
+        <v>26.8</v>
+      </c>
+      <c r="D429">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>86</v>
+      </c>
+      <c r="B430">
+        <v>5</v>
+      </c>
+      <c r="C430">
+        <v>13.8</v>
+      </c>
+      <c r="D430">
+        <v>31.8</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>134</v>
+      </c>
+      <c r="B431">
+        <v>5</v>
+      </c>
+      <c r="C431">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D431">
+        <v>45.4</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>40</v>
+      </c>
+      <c r="B432">
+        <v>5</v>
+      </c>
+      <c r="C432">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D432">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E432">
+        <v>2</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>23</v>
+      </c>
+      <c r="B433">
+        <v>5</v>
+      </c>
+      <c r="C433">
+        <v>28.3</v>
+      </c>
+      <c r="D433">
+        <v>8</v>
+      </c>
+      <c r="E433">
+        <v>3</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>41</v>
+      </c>
+      <c r="B434">
+        <v>5</v>
+      </c>
+      <c r="C434">
+        <v>28.8</v>
+      </c>
+      <c r="D434">
+        <v>29.3</v>
+      </c>
+      <c r="E434">
+        <v>3</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>135</v>
+      </c>
+      <c r="B435">
+        <v>5</v>
+      </c>
+      <c r="C435">
+        <v>17</v>
+      </c>
+      <c r="D435">
+        <v>5.8</v>
+      </c>
+      <c r="E435">
+        <v>3</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>136</v>
+      </c>
+      <c r="B436">
+        <v>5</v>
+      </c>
+      <c r="C436">
+        <v>29.8</v>
+      </c>
+      <c r="D436">
+        <v>14.5</v>
+      </c>
+      <c r="E436">
+        <v>3</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>137</v>
+      </c>
+      <c r="B437">
+        <v>5</v>
+      </c>
+      <c r="C437">
+        <v>46.3</v>
+      </c>
+      <c r="D437">
+        <v>14</v>
+      </c>
+      <c r="E437">
+        <v>3</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>138</v>
+      </c>
+      <c r="B438">
+        <v>5</v>
+      </c>
+      <c r="C438">
+        <v>48.5</v>
+      </c>
+      <c r="D438">
+        <v>27.3</v>
+      </c>
+      <c r="E438">
+        <v>4</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>93</v>
+      </c>
+      <c r="B439">
+        <v>5</v>
+      </c>
+      <c r="C439">
+        <v>31.3</v>
+      </c>
+      <c r="D439">
+        <v>15.8</v>
+      </c>
+      <c r="E439">
+        <v>3</v>
+      </c>
+      <c r="F439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>139</v>
+      </c>
+      <c r="B440">
+        <v>5</v>
+      </c>
+      <c r="C440">
+        <v>27</v>
+      </c>
+      <c r="D440">
+        <v>31.8</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>108</v>
+      </c>
+      <c r="B441">
+        <v>5</v>
+      </c>
+      <c r="C441">
+        <v>31.3</v>
+      </c>
+      <c r="D441">
+        <v>13</v>
+      </c>
+      <c r="E441">
+        <v>4</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>140</v>
+      </c>
+      <c r="B442">
+        <v>5</v>
+      </c>
+      <c r="C442">
+        <v>26.8</v>
+      </c>
+      <c r="D442">
+        <v>22.5</v>
+      </c>
+      <c r="E442">
+        <v>3</v>
+      </c>
+      <c r="F442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>141</v>
+      </c>
+      <c r="B443">
+        <v>5</v>
+      </c>
+      <c r="C443">
+        <v>27.5</v>
+      </c>
+      <c r="D443">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>142</v>
+      </c>
+      <c r="B444">
+        <v>5</v>
+      </c>
+      <c r="C444">
+        <v>27.8</v>
+      </c>
+      <c r="D444">
+        <v>20.5</v>
+      </c>
+      <c r="E444">
+        <v>2</v>
+      </c>
+      <c r="F444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>143</v>
+      </c>
+      <c r="B445">
+        <v>5</v>
+      </c>
+      <c r="C445">
+        <v>18.3</v>
+      </c>
+      <c r="D445">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E445">
+        <v>2</v>
+      </c>
+      <c r="F445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>89</v>
+      </c>
+      <c r="B446">
+        <v>5</v>
+      </c>
+      <c r="C446">
+        <v>24.8</v>
+      </c>
+      <c r="D446">
+        <v>20.8</v>
+      </c>
+      <c r="E446">
+        <v>2</v>
+      </c>
+      <c r="F446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>114</v>
+      </c>
+      <c r="B447">
+        <v>5</v>
+      </c>
+      <c r="C447">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D447">
+        <v>14.3</v>
+      </c>
+      <c r="E447">
+        <v>3</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>100</v>
+      </c>
+      <c r="B448">
+        <v>5</v>
+      </c>
+      <c r="C448">
+        <v>29.8</v>
+      </c>
+      <c r="D448">
+        <v>18.5</v>
+      </c>
+      <c r="E448">
+        <v>2</v>
+      </c>
+      <c r="F448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>144</v>
+      </c>
+      <c r="B449">
+        <v>5</v>
+      </c>
+      <c r="C449">
+        <v>37</v>
+      </c>
+      <c r="D449">
+        <v>23</v>
+      </c>
+      <c r="E449">
+        <v>3</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>145</v>
+      </c>
+      <c r="B450">
+        <v>5</v>
+      </c>
+      <c r="C450">
+        <v>10</v>
+      </c>
+      <c r="D450">
+        <v>32</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>146</v>
+      </c>
+      <c r="B451">
+        <v>5</v>
+      </c>
+      <c r="C451">
+        <v>37</v>
+      </c>
+      <c r="D451">
+        <v>32</v>
+      </c>
+      <c r="E451">
+        <v>3</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>147</v>
+      </c>
+      <c r="B452">
+        <v>5</v>
+      </c>
+      <c r="C452">
+        <v>35</v>
+      </c>
+      <c r="D452">
+        <v>20.5</v>
+      </c>
+      <c r="E452">
+        <v>2</v>
+      </c>
+      <c r="F452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>148</v>
+      </c>
+      <c r="B453">
+        <v>5</v>
+      </c>
+      <c r="C453">
+        <v>19.5</v>
+      </c>
+      <c r="D453">
+        <v>25.8</v>
+      </c>
+      <c r="E453">
+        <v>2</v>
+      </c>
+      <c r="F453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>38</v>
+      </c>
+      <c r="B454">
+        <v>5</v>
+      </c>
+      <c r="C454">
+        <v>50</v>
+      </c>
+      <c r="D454">
+        <v>11</v>
+      </c>
+      <c r="E454">
+        <v>4</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>29</v>
+      </c>
+      <c r="B455">
+        <v>5</v>
+      </c>
+      <c r="C455">
+        <v>30.5</v>
+      </c>
+      <c r="D455">
+        <v>21.5</v>
+      </c>
+      <c r="E455">
+        <v>2</v>
+      </c>
+      <c r="F455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>149</v>
+      </c>
+      <c r="B456">
+        <v>5</v>
+      </c>
+      <c r="C456">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D456">
+        <v>25</v>
+      </c>
+      <c r="E456">
+        <v>3</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>150</v>
+      </c>
+      <c r="B457">
+        <v>5</v>
+      </c>
+      <c r="C457">
+        <v>45.8</v>
+      </c>
+      <c r="D457">
+        <v>6</v>
+      </c>
+      <c r="E457">
+        <v>4</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>151</v>
+      </c>
+      <c r="B458">
+        <v>5</v>
+      </c>
+      <c r="C458">
+        <v>41</v>
+      </c>
+      <c r="D458">
+        <v>10</v>
+      </c>
+      <c r="E458">
+        <v>4</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>113</v>
+      </c>
+      <c r="B459">
+        <v>5</v>
+      </c>
+      <c r="C459">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D459">
+        <v>21.3</v>
+      </c>
+      <c r="E459">
+        <v>3</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>94</v>
+      </c>
+      <c r="B460">
+        <v>5</v>
+      </c>
+      <c r="C460">
+        <v>28</v>
+      </c>
+      <c r="D460">
+        <v>24.5</v>
+      </c>
+      <c r="E460">
+        <v>2</v>
+      </c>
+      <c r="F460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>152</v>
+      </c>
+      <c r="B461">
+        <v>5</v>
+      </c>
+      <c r="C461">
+        <v>14.3</v>
+      </c>
+      <c r="D461">
+        <v>23.7</v>
+      </c>
+      <c r="E461">
+        <v>1</v>
+      </c>
+      <c r="F461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>22</v>
+      </c>
+      <c r="B462">
+        <v>5</v>
+      </c>
+      <c r="C462">
+        <v>30.5</v>
+      </c>
+      <c r="D462">
+        <v>35.5</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+      <c r="F462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>44</v>
+      </c>
+      <c r="B463">
+        <v>5</v>
+      </c>
+      <c r="C463">
+        <v>24.4</v>
+      </c>
+      <c r="D463">
+        <v>31.2</v>
+      </c>
+      <c r="E463">
+        <v>2</v>
+      </c>
+      <c r="F463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>153</v>
+      </c>
+      <c r="B464">
+        <v>5</v>
+      </c>
+      <c r="C464">
+        <v>20.5</v>
+      </c>
+      <c r="D464">
+        <v>19.8</v>
+      </c>
+      <c r="E464">
+        <v>2</v>
+      </c>
+      <c r="F464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>83</v>
+      </c>
+      <c r="B465">
+        <v>5</v>
+      </c>
+      <c r="C465">
+        <v>15.4</v>
+      </c>
+      <c r="D465">
+        <v>34.6</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>154</v>
+      </c>
+      <c r="B466">
+        <v>5</v>
+      </c>
+      <c r="C466">
+        <v>46.5</v>
+      </c>
+      <c r="D466">
+        <v>39.5</v>
+      </c>
+      <c r="E466">
+        <v>3</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>84</v>
+      </c>
+      <c r="B467">
+        <v>5</v>
+      </c>
+      <c r="C467">
+        <v>36</v>
+      </c>
+      <c r="D467">
+        <v>11.8</v>
+      </c>
+      <c r="E467">
+        <v>4</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>155</v>
+      </c>
+      <c r="B468">
+        <v>5</v>
+      </c>
+      <c r="C468">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D468">
+        <v>38</v>
+      </c>
+      <c r="E468">
+        <v>2</v>
+      </c>
+      <c r="F468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>156</v>
+      </c>
+      <c r="B469">
+        <v>5</v>
+      </c>
+      <c r="C469">
+        <v>30</v>
+      </c>
+      <c r="D469">
+        <v>33.5</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>30</v>
+      </c>
+      <c r="B470">
+        <v>5</v>
+      </c>
+      <c r="C470">
+        <v>23</v>
+      </c>
+      <c r="D470">
+        <v>26.8</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>46</v>
+      </c>
+      <c r="B471">
+        <v>5</v>
+      </c>
+      <c r="C471">
+        <v>25</v>
+      </c>
+      <c r="D471">
+        <v>24</v>
+      </c>
+      <c r="E471">
+        <v>2</v>
+      </c>
+      <c r="F471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>157</v>
+      </c>
+      <c r="B472">
+        <v>5</v>
+      </c>
+      <c r="C472">
+        <v>30</v>
+      </c>
+      <c r="D472">
+        <v>44.8</v>
+      </c>
+      <c r="E472">
+        <v>2</v>
+      </c>
+      <c r="F472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>26</v>
+      </c>
+      <c r="B473">
+        <v>5</v>
+      </c>
+      <c r="C473">
+        <v>48.8</v>
+      </c>
+      <c r="D473">
+        <v>16</v>
+      </c>
+      <c r="E473">
+        <v>4</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>36</v>
+      </c>
+      <c r="B474">
+        <v>5</v>
+      </c>
+      <c r="C474">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D474">
+        <v>17.8</v>
+      </c>
+      <c r="E474">
+        <v>3</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>56</v>
+      </c>
+      <c r="B475">
+        <v>5</v>
+      </c>
+      <c r="C475">
+        <v>51.7</v>
+      </c>
+      <c r="D475">
+        <v>22.7</v>
+      </c>
+      <c r="E475">
+        <v>3</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>158</v>
+      </c>
+      <c r="B476">
+        <v>5</v>
+      </c>
+      <c r="C476">
+        <v>21</v>
+      </c>
+      <c r="D476">
+        <v>24.5</v>
+      </c>
+      <c r="E476">
+        <v>2</v>
+      </c>
+      <c r="F476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>49</v>
+      </c>
+      <c r="B477">
+        <v>5</v>
+      </c>
+      <c r="C477">
+        <v>39.5</v>
+      </c>
+      <c r="D477">
+        <v>31</v>
+      </c>
+      <c r="E477">
+        <v>3</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>42</v>
+      </c>
+      <c r="B478">
+        <v>5</v>
+      </c>
+      <c r="C478">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D478">
+        <v>23.5</v>
+      </c>
+      <c r="E478">
+        <v>3</v>
+      </c>
+      <c r="F478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>34</v>
+      </c>
+      <c r="B479">
+        <v>5</v>
+      </c>
+      <c r="C479">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D479">
+        <v>16.8</v>
+      </c>
+      <c r="E479">
+        <v>4</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>51</v>
+      </c>
+      <c r="B480">
+        <v>5</v>
+      </c>
+      <c r="C480">
+        <v>36</v>
+      </c>
+      <c r="D480">
+        <v>25.5</v>
+      </c>
+      <c r="E480">
+        <v>3</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>43</v>
+      </c>
+      <c r="B481">
+        <v>5</v>
+      </c>
+      <c r="C481">
+        <v>36</v>
+      </c>
+      <c r="D481">
+        <v>23.3</v>
+      </c>
+      <c r="E481">
+        <v>2</v>
+      </c>
+      <c r="F481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>159</v>
+      </c>
+      <c r="B482">
+        <v>5</v>
+      </c>
+      <c r="C482">
+        <v>31.5</v>
+      </c>
+      <c r="D482">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E482">
+        <v>2</v>
+      </c>
+      <c r="F482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>160</v>
+      </c>
+      <c r="B483">
+        <v>5</v>
+      </c>
+      <c r="C483">
+        <v>28.5</v>
+      </c>
+      <c r="D483">
+        <v>17.3</v>
+      </c>
+      <c r="E483">
+        <v>3</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>161</v>
+      </c>
+      <c r="B484">
+        <v>5</v>
+      </c>
+      <c r="C484">
+        <v>20.5</v>
+      </c>
+      <c r="D484">
+        <v>23.5</v>
+      </c>
+      <c r="E484">
+        <v>2</v>
+      </c>
+      <c r="F484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>162</v>
+      </c>
+      <c r="B485">
+        <v>5</v>
+      </c>
+      <c r="C485">
+        <v>23.7</v>
+      </c>
+      <c r="D485">
+        <v>15.7</v>
+      </c>
+      <c r="E485">
+        <v>2</v>
+      </c>
+      <c r="F485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>163</v>
+      </c>
+      <c r="B486">
+        <v>5</v>
+      </c>
+      <c r="C486">
+        <v>38.5</v>
+      </c>
+      <c r="D486">
+        <v>25.5</v>
+      </c>
+      <c r="E486">
+        <v>2</v>
+      </c>
+      <c r="F486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>164</v>
+      </c>
+      <c r="B487">
+        <v>5</v>
+      </c>
+      <c r="C487">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D487">
+        <v>19.3</v>
+      </c>
+      <c r="E487">
+        <v>3</v>
+      </c>
+      <c r="F487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>92</v>
+      </c>
+      <c r="B488">
+        <v>5</v>
+      </c>
+      <c r="C488">
+        <v>32</v>
+      </c>
+      <c r="D488">
+        <v>31.5</v>
+      </c>
+      <c r="E488">
+        <v>2</v>
+      </c>
+      <c r="F488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>165</v>
+      </c>
+      <c r="B489">
+        <v>5</v>
+      </c>
+      <c r="C489">
+        <v>23.5</v>
+      </c>
+      <c r="D489">
+        <v>35.5</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="F489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>166</v>
+      </c>
+      <c r="B490">
+        <v>5</v>
+      </c>
+      <c r="C490">
+        <v>31.3</v>
+      </c>
+      <c r="D490">
+        <v>23.3</v>
+      </c>
+      <c r="E490">
+        <v>2</v>
+      </c>
+      <c r="F490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>109</v>
+      </c>
+      <c r="B491">
+        <v>5</v>
+      </c>
+      <c r="C491">
+        <v>30.3</v>
+      </c>
+      <c r="D491">
+        <v>30.3</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>167</v>
+      </c>
+      <c r="B492">
+        <v>5</v>
+      </c>
+      <c r="C492">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D492">
+        <v>17.5</v>
+      </c>
+      <c r="E492">
+        <v>4</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>168</v>
+      </c>
+      <c r="B493">
+        <v>5</v>
+      </c>
+      <c r="C493">
+        <v>46.3</v>
+      </c>
+      <c r="D493">
+        <v>21.3</v>
+      </c>
+      <c r="E493">
+        <v>3</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>169</v>
+      </c>
+      <c r="B494">
+        <v>5</v>
+      </c>
+      <c r="C494">
+        <v>18</v>
+      </c>
+      <c r="D494">
+        <v>15</v>
+      </c>
+      <c r="E494">
+        <v>2</v>
+      </c>
+      <c r="F494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>104</v>
+      </c>
+      <c r="B495">
+        <v>5</v>
+      </c>
+      <c r="C495">
+        <v>48.5</v>
+      </c>
+      <c r="D495">
+        <v>19</v>
+      </c>
+      <c r="E495">
+        <v>4</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>90</v>
+      </c>
+      <c r="B496">
+        <v>5</v>
+      </c>
+      <c r="C496">
+        <v>36.5</v>
+      </c>
+      <c r="D496">
+        <v>21.8</v>
+      </c>
+      <c r="E496">
+        <v>2</v>
+      </c>
+      <c r="F496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>101</v>
+      </c>
+      <c r="B497">
+        <v>5</v>
+      </c>
+      <c r="C497">
+        <v>21.3</v>
+      </c>
+      <c r="D497">
+        <v>11.8</v>
+      </c>
+      <c r="E497">
+        <v>3</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>170</v>
+      </c>
+      <c r="B498">
+        <v>5</v>
+      </c>
+      <c r="C498">
+        <v>24</v>
+      </c>
+      <c r="D498">
+        <v>23</v>
+      </c>
+      <c r="E498">
+        <v>2</v>
+      </c>
+      <c r="F498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>95</v>
+      </c>
+      <c r="B499">
+        <v>5</v>
+      </c>
+      <c r="C499">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D499">
+        <v>25.3</v>
+      </c>
+      <c r="E499">
+        <v>3</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>171</v>
+      </c>
+      <c r="B500">
+        <v>5</v>
+      </c>
+      <c r="C500">
+        <v>31.8</v>
+      </c>
+      <c r="D500">
+        <v>26</v>
+      </c>
+      <c r="E500">
+        <v>2</v>
+      </c>
+      <c r="F500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>172</v>
+      </c>
+      <c r="B501">
+        <v>5</v>
+      </c>
+      <c r="C501">
+        <v>23</v>
+      </c>
+      <c r="D501">
+        <v>21</v>
+      </c>
+      <c r="E501">
+        <v>2</v>
+      </c>
+      <c r="F501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>173</v>
+      </c>
+      <c r="B502">
+        <v>5</v>
+      </c>
+      <c r="C502">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D502">
+        <v>11.8</v>
+      </c>
+      <c r="E502">
+        <v>3</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>55</v>
+      </c>
+      <c r="B503">
+        <v>5</v>
+      </c>
+      <c r="C503">
+        <v>39</v>
+      </c>
+      <c r="D503">
+        <v>31.8</v>
+      </c>
+      <c r="E503">
+        <v>2</v>
+      </c>
+      <c r="F503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>174</v>
+      </c>
+      <c r="B504">
+        <v>5</v>
+      </c>
+      <c r="C504">
+        <v>36</v>
+      </c>
+      <c r="D504">
+        <v>14</v>
+      </c>
+      <c r="E504">
+        <v>2</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>88</v>
+      </c>
+      <c r="B505">
+        <v>5</v>
+      </c>
+      <c r="C505">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D505">
+        <v>13.5</v>
+      </c>
+      <c r="E505">
+        <v>3</v>
+      </c>
+      <c r="F505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>175</v>
+      </c>
+      <c r="B506">
+        <v>5</v>
+      </c>
+      <c r="C506">
+        <v>41.8</v>
+      </c>
+      <c r="D506">
+        <v>18</v>
+      </c>
+      <c r="E506">
+        <v>4</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>176</v>
+      </c>
+      <c r="B507">
+        <v>5</v>
+      </c>
+      <c r="C507">
+        <v>39.5</v>
+      </c>
+      <c r="D507">
+        <v>23</v>
+      </c>
+      <c r="E507">
+        <v>3</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>110</v>
+      </c>
+      <c r="B508">
+        <v>5</v>
+      </c>
+      <c r="C508">
+        <v>42.3</v>
+      </c>
+      <c r="D508">
+        <v>18.3</v>
+      </c>
+      <c r="E508">
+        <v>4</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>53</v>
+      </c>
+      <c r="B509">
+        <v>5</v>
+      </c>
+      <c r="C509">
+        <v>42</v>
+      </c>
+      <c r="D509">
+        <v>14</v>
+      </c>
+      <c r="E509">
+        <v>3</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>58</v>
+      </c>
+      <c r="B510">
+        <v>5</v>
+      </c>
+      <c r="C510">
+        <v>15.5</v>
+      </c>
+      <c r="D510">
+        <v>36</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>48</v>
+      </c>
+      <c r="B511">
+        <v>5</v>
+      </c>
+      <c r="C511">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D511">
+        <v>25.2</v>
+      </c>
+      <c r="E511">
+        <v>2</v>
+      </c>
+      <c r="F511">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>45</v>
+      </c>
+      <c r="B512">
+        <v>5</v>
+      </c>
+      <c r="C512">
+        <v>37</v>
+      </c>
+      <c r="D512">
+        <v>35</v>
+      </c>
+      <c r="E512">
+        <v>2</v>
+      </c>
+      <c r="F512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>177</v>
+      </c>
+      <c r="B513">
+        <v>5</v>
+      </c>
+      <c r="C513">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D513">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E513">
+        <v>3</v>
+      </c>
+      <c r="F513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>178</v>
+      </c>
+      <c r="B514">
+        <v>5</v>
+      </c>
+      <c r="C514">
+        <v>18.3</v>
+      </c>
+      <c r="D514">
+        <v>19.3</v>
+      </c>
+      <c r="E514">
+        <v>2</v>
+      </c>
+      <c r="F514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>179</v>
+      </c>
+      <c r="B515">
+        <v>5</v>
+      </c>
+      <c r="C515">
+        <v>20.3</v>
+      </c>
+      <c r="D515">
+        <v>17.5</v>
+      </c>
+      <c r="E515">
+        <v>2</v>
+      </c>
+      <c r="F515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>180</v>
+      </c>
+      <c r="B516">
+        <v>5</v>
+      </c>
+      <c r="C516">
+        <v>42.8</v>
+      </c>
+      <c r="D516">
+        <v>30.5</v>
+      </c>
+      <c r="E516">
+        <v>3</v>
+      </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>181</v>
+      </c>
+      <c r="B517">
+        <v>5</v>
+      </c>
+      <c r="C517">
+        <v>44</v>
+      </c>
+      <c r="D517">
+        <v>19</v>
+      </c>
+      <c r="E517">
+        <v>4</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>105</v>
+      </c>
+      <c r="B518">
+        <v>5</v>
+      </c>
+      <c r="C518">
+        <v>30</v>
+      </c>
+      <c r="D518">
+        <v>20.5</v>
+      </c>
+      <c r="E518">
+        <v>3</v>
+      </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>39</v>
+      </c>
+      <c r="B519">
+        <v>5</v>
+      </c>
+      <c r="C519">
+        <v>42.8</v>
+      </c>
+      <c r="D519">
+        <v>27.5</v>
+      </c>
+      <c r="E519">
+        <v>2</v>
+      </c>
+      <c r="F519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>182</v>
+      </c>
+      <c r="B520">
+        <v>5</v>
+      </c>
+      <c r="C520">
+        <v>47.5</v>
+      </c>
+      <c r="D520">
+        <v>19.3</v>
+      </c>
+      <c r="E520">
+        <v>3</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>37</v>
+      </c>
+      <c r="B521">
+        <v>5</v>
+      </c>
+      <c r="C521">
+        <v>17.3</v>
+      </c>
+      <c r="D521">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="F521">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>35</v>
+      </c>
+      <c r="B522">
+        <v>5</v>
+      </c>
+      <c r="C522">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D522">
+        <v>19</v>
+      </c>
+      <c r="E522">
+        <v>2</v>
+      </c>
+      <c r="F522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>62</v>
+      </c>
+      <c r="B523">
+        <v>5</v>
+      </c>
+      <c r="C523">
+        <v>24</v>
+      </c>
+      <c r="D523">
+        <v>27.4</v>
+      </c>
+      <c r="E523">
+        <v>3</v>
+      </c>
+      <c r="F523">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16518,10 +20605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17362,6 +21449,281 @@
         <v>147</v>
       </c>
     </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042117E5-739D-7A4B-AAE9-FF8DA3A476DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9714AA1-637B-3841-A1BF-8677594967B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13360" windowWidth="40960" windowHeight="11000" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="190">
   <si>
     <t>Time</t>
   </si>
@@ -630,6 +630,9 @@
   <si>
     <t>North Dakota State</t>
   </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
 </sst>
 </file>
 
@@ -989,8 +992,8 @@
   <dimension ref="A1:AA105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A93" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <pane ySplit="760" topLeftCell="A86" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8578,7 +8581,7 @@
         <v>58</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1255000</v>
       </c>
       <c r="G86">
         <v>2022</v>
@@ -8622,6 +8625,21 @@
         <f t="array" ref="R86">_xlfn.XLOOKUP(E86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>36</v>
       </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
       <c r="X86" cm="1">
         <f t="array" ref="X86">_xlfn.XLOOKUP(D86&amp;I86,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>3</v>
@@ -8656,7 +8674,7 @@
         <v>173</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1224000</v>
       </c>
       <c r="G87">
         <v>2022</v>
@@ -8700,6 +8718,21 @@
         <f t="array" ref="R87">_xlfn.XLOOKUP(E87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>11.8</v>
       </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
       <c r="X87" cm="1">
         <f t="array" ref="X87">_xlfn.XLOOKUP(D87&amp;I87,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>2</v>
@@ -8734,7 +8767,7 @@
         <v>161</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>407000</v>
       </c>
       <c r="G88">
         <v>2022</v>
@@ -8778,6 +8811,21 @@
         <f t="array" ref="R88">_xlfn.XLOOKUP(E88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>23.5</v>
       </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
       <c r="X88" cm="1">
         <f t="array" ref="X88">_xlfn.XLOOKUP(D88&amp;I88,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>2</v>
@@ -8812,7 +8860,7 @@
         <v>181</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1704000</v>
       </c>
       <c r="G89">
         <v>2022</v>
@@ -8856,6 +8904,21 @@
         <f t="array" ref="R89">_xlfn.XLOOKUP(E89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>19</v>
       </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
       <c r="X89" cm="1">
         <f t="array" ref="X89">_xlfn.XLOOKUP(D89&amp;I89,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>4</v>
@@ -8934,6 +8997,21 @@
         <f t="array" ref="R90">_xlfn.XLOOKUP(E90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>11</v>
       </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
       <c r="X90" cm="1">
         <f t="array" ref="X90">_xlfn.XLOOKUP(D90&amp;I90,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>3</v>
@@ -9012,6 +9090,21 @@
         <f t="array" ref="R91">_xlfn.XLOOKUP(E91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>13</v>
       </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
       <c r="X91" cm="1">
         <f t="array" ref="X91">_xlfn.XLOOKUP(D91&amp;I91,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>4</v>
@@ -9090,6 +9183,21 @@
         <f t="array" ref="R92">_xlfn.XLOOKUP(E92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>17.8</v>
       </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
       <c r="X92" cm="1">
         <f t="array" ref="X92">_xlfn.XLOOKUP(D92&amp;I92,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>3</v>
@@ -9168,6 +9276,21 @@
         <f t="array" ref="R93">_xlfn.XLOOKUP(E93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>23.3</v>
       </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
       <c r="X93" cm="1">
         <f t="array" ref="X93">_xlfn.XLOOKUP(D93&amp;I93,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>4</v>
@@ -9246,6 +9369,21 @@
         <f t="array" ref="R94">_xlfn.XLOOKUP(E94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>23.7</v>
       </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
       <c r="X94" cm="1">
         <f t="array" ref="X94">_xlfn.XLOOKUP(D94&amp;I94,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>3</v>
@@ -9324,6 +9462,21 @@
         <f t="array" ref="R95">_xlfn.XLOOKUP(E95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>7.3</v>
       </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
       <c r="X95" cm="1">
         <f t="array" ref="X95">_xlfn.XLOOKUP(D95&amp;I95,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>3</v>
@@ -9402,6 +9555,21 @@
         <f t="array" ref="R96">_xlfn.XLOOKUP(E96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>22.7</v>
       </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
       <c r="X96" cm="1">
         <f t="array" ref="X96">_xlfn.XLOOKUP(D96&amp;I96,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>3</v>
@@ -9480,6 +9648,21 @@
         <f t="array" ref="R97">_xlfn.XLOOKUP(E97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>26.8</v>
       </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
       <c r="X97" cm="1">
         <f t="array" ref="X97">_xlfn.XLOOKUP(D97&amp;I97,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>4</v>
@@ -9558,6 +9741,21 @@
         <f t="array" ref="R98">_xlfn.XLOOKUP(E98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>30.5</v>
       </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
       <c r="X98" cm="1">
         <f t="array" ref="X98">_xlfn.XLOOKUP(D98&amp;I98,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>4</v>
@@ -9636,6 +9834,21 @@
         <f t="array" ref="R99">_xlfn.XLOOKUP(E99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>14.5</v>
       </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
       <c r="X99" cm="1">
         <f t="array" ref="X99">_xlfn.XLOOKUP(D99&amp;I99,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>4</v>
@@ -9714,6 +9927,21 @@
         <f t="array" ref="R100">_xlfn.XLOOKUP(E100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>21.5</v>
       </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
       <c r="X100" cm="1">
         <f t="array" ref="X100">_xlfn.XLOOKUP(D100&amp;I100,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>3</v>
@@ -9792,6 +10020,21 @@
         <f t="array" ref="R101">_xlfn.XLOOKUP(E101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>14.3</v>
       </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
       <c r="X101" cm="1">
         <f t="array" ref="X101">_xlfn.XLOOKUP(D101&amp;I101,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>3</v>
@@ -9870,6 +10113,21 @@
         <f t="array" ref="R102">_xlfn.XLOOKUP(E102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>11.8</v>
       </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
       <c r="X102" cm="1">
         <f t="array" ref="X102">_xlfn.XLOOKUP(D102&amp;I102,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>4</v>
@@ -9948,6 +10206,21 @@
         <f t="array" ref="R103">_xlfn.XLOOKUP(E103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>27.5</v>
       </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
       <c r="X103" cm="1">
         <f t="array" ref="X103">_xlfn.XLOOKUP(D103&amp;I103,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>2</v>
@@ -10026,6 +10299,21 @@
         <f t="array" ref="R104">_xlfn.XLOOKUP(E104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>25.3</v>
       </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
       <c r="X104" cm="1">
         <f t="array" ref="X104">_xlfn.XLOOKUP(D104&amp;I104,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
         <v>4</v>
@@ -10103,6 +10391,21 @@
       <c r="R105" cm="1">
         <f t="array" ref="R105">_xlfn.XLOOKUP(E105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
         <v>30.3</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
       </c>
       <c r="X105" cm="1">
         <f t="array" ref="X105">_xlfn.XLOOKUP(D105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
@@ -10130,10 +10433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
-  <dimension ref="A1:F523"/>
+  <dimension ref="A1:F654"/>
   <sheetViews>
-    <sheetView topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="A468" sqref="A468"/>
+    <sheetView topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="A524" sqref="A524:F654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20598,6 +20901,2626 @@
         <v>2</v>
       </c>
     </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>106</v>
+      </c>
+      <c r="B524">
+        <v>6</v>
+      </c>
+      <c r="C524">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D524">
+        <v>14.8</v>
+      </c>
+      <c r="E524">
+        <v>4</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>119</v>
+      </c>
+      <c r="B525">
+        <v>6</v>
+      </c>
+      <c r="C525">
+        <v>15.2</v>
+      </c>
+      <c r="D525">
+        <v>38</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>91</v>
+      </c>
+      <c r="B526">
+        <v>6</v>
+      </c>
+      <c r="C526">
+        <v>48.4</v>
+      </c>
+      <c r="D526">
+        <v>11</v>
+      </c>
+      <c r="E526">
+        <v>5</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>102</v>
+      </c>
+      <c r="B527">
+        <v>6</v>
+      </c>
+      <c r="C527">
+        <v>37.4</v>
+      </c>
+      <c r="D527">
+        <v>27.4</v>
+      </c>
+      <c r="E527">
+        <v>3</v>
+      </c>
+      <c r="F527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>112</v>
+      </c>
+      <c r="B528">
+        <v>6</v>
+      </c>
+      <c r="C528">
+        <v>32</v>
+      </c>
+      <c r="D528">
+        <v>31.2</v>
+      </c>
+      <c r="E528">
+        <v>3</v>
+      </c>
+      <c r="F528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>96</v>
+      </c>
+      <c r="B529">
+        <v>6</v>
+      </c>
+      <c r="C529">
+        <v>23.2</v>
+      </c>
+      <c r="D529">
+        <v>28.6</v>
+      </c>
+      <c r="E529">
+        <v>1</v>
+      </c>
+      <c r="F529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>50</v>
+      </c>
+      <c r="B530">
+        <v>6</v>
+      </c>
+      <c r="C530">
+        <v>32</v>
+      </c>
+      <c r="D530">
+        <v>30.6</v>
+      </c>
+      <c r="E530">
+        <v>3</v>
+      </c>
+      <c r="F530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>120</v>
+      </c>
+      <c r="B531">
+        <v>6</v>
+      </c>
+      <c r="C531">
+        <v>34.6</v>
+      </c>
+      <c r="D531">
+        <v>29.8</v>
+      </c>
+      <c r="E531">
+        <v>2</v>
+      </c>
+      <c r="F531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>121</v>
+      </c>
+      <c r="B532">
+        <v>6</v>
+      </c>
+      <c r="C532">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D532">
+        <v>30</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>122</v>
+      </c>
+      <c r="B533">
+        <v>6</v>
+      </c>
+      <c r="C533">
+        <v>22.4</v>
+      </c>
+      <c r="D533">
+        <v>21.6</v>
+      </c>
+      <c r="E533">
+        <v>3</v>
+      </c>
+      <c r="F533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>123</v>
+      </c>
+      <c r="B534">
+        <v>6</v>
+      </c>
+      <c r="C534">
+        <v>27.6</v>
+      </c>
+      <c r="D534">
+        <v>33.6</v>
+      </c>
+      <c r="E534">
+        <v>2</v>
+      </c>
+      <c r="F534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>98</v>
+      </c>
+      <c r="B535">
+        <v>6</v>
+      </c>
+      <c r="C535">
+        <v>37.4</v>
+      </c>
+      <c r="D535">
+        <v>20.6</v>
+      </c>
+      <c r="E535">
+        <v>3</v>
+      </c>
+      <c r="F535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>27</v>
+      </c>
+      <c r="B536">
+        <v>6</v>
+      </c>
+      <c r="C536">
+        <v>24.6</v>
+      </c>
+      <c r="D536">
+        <v>19</v>
+      </c>
+      <c r="E536">
+        <v>3</v>
+      </c>
+      <c r="F536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>124</v>
+      </c>
+      <c r="B537">
+        <v>6</v>
+      </c>
+      <c r="C537">
+        <v>23.4</v>
+      </c>
+      <c r="D537">
+        <v>28.6</v>
+      </c>
+      <c r="E537">
+        <v>2</v>
+      </c>
+      <c r="F537">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>125</v>
+      </c>
+      <c r="B538">
+        <v>6</v>
+      </c>
+      <c r="C538">
+        <v>30.6</v>
+      </c>
+      <c r="D538">
+        <v>41.6</v>
+      </c>
+      <c r="E538">
+        <v>2</v>
+      </c>
+      <c r="F538">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>126</v>
+      </c>
+      <c r="B539">
+        <v>6</v>
+      </c>
+      <c r="C539">
+        <v>28.2</v>
+      </c>
+      <c r="D539">
+        <v>31.4</v>
+      </c>
+      <c r="E539">
+        <v>2</v>
+      </c>
+      <c r="F539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>97</v>
+      </c>
+      <c r="B540">
+        <v>6</v>
+      </c>
+      <c r="C540">
+        <v>34.4</v>
+      </c>
+      <c r="D540">
+        <v>26.4</v>
+      </c>
+      <c r="E540">
+        <v>4</v>
+      </c>
+      <c r="F540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>127</v>
+      </c>
+      <c r="B541">
+        <v>6</v>
+      </c>
+      <c r="C541">
+        <v>25.8</v>
+      </c>
+      <c r="D541">
+        <v>22</v>
+      </c>
+      <c r="E541">
+        <v>3</v>
+      </c>
+      <c r="F541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>61</v>
+      </c>
+      <c r="B542">
+        <v>6</v>
+      </c>
+      <c r="C542">
+        <v>28</v>
+      </c>
+      <c r="D542">
+        <v>33.4</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+      <c r="F542">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>82</v>
+      </c>
+      <c r="B543">
+        <v>6</v>
+      </c>
+      <c r="C543">
+        <v>25.8</v>
+      </c>
+      <c r="D543">
+        <v>46.3</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>57</v>
+      </c>
+      <c r="B544">
+        <v>6</v>
+      </c>
+      <c r="C544">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D544">
+        <v>20.6</v>
+      </c>
+      <c r="E544">
+        <v>4</v>
+      </c>
+      <c r="F544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>87</v>
+      </c>
+      <c r="B545">
+        <v>6</v>
+      </c>
+      <c r="C545">
+        <v>41</v>
+      </c>
+      <c r="D545">
+        <v>21.4</v>
+      </c>
+      <c r="E545">
+        <v>5</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>128</v>
+      </c>
+      <c r="B546">
+        <v>6</v>
+      </c>
+      <c r="C546">
+        <v>36.4</v>
+      </c>
+      <c r="D546">
+        <v>27</v>
+      </c>
+      <c r="E546">
+        <v>5</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>107</v>
+      </c>
+      <c r="B547">
+        <v>6</v>
+      </c>
+      <c r="C547">
+        <v>13.4</v>
+      </c>
+      <c r="D547">
+        <v>43.2</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>59</v>
+      </c>
+      <c r="B548">
+        <v>6</v>
+      </c>
+      <c r="C548">
+        <v>10.8</v>
+      </c>
+      <c r="D548">
+        <v>41</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>80</v>
+      </c>
+      <c r="B549">
+        <v>6</v>
+      </c>
+      <c r="C549">
+        <v>15.2</v>
+      </c>
+      <c r="D549">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E549">
+        <v>2</v>
+      </c>
+      <c r="F549">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>129</v>
+      </c>
+      <c r="B550">
+        <v>6</v>
+      </c>
+      <c r="C550">
+        <v>35</v>
+      </c>
+      <c r="D550">
+        <v>19</v>
+      </c>
+      <c r="E550">
+        <v>4</v>
+      </c>
+      <c r="F550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>28</v>
+      </c>
+      <c r="B551">
+        <v>6</v>
+      </c>
+      <c r="C551">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D551">
+        <v>20.6</v>
+      </c>
+      <c r="E551">
+        <v>3</v>
+      </c>
+      <c r="F551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>130</v>
+      </c>
+      <c r="B552">
+        <v>6</v>
+      </c>
+      <c r="C552">
+        <v>28.8</v>
+      </c>
+      <c r="D552">
+        <v>33.4</v>
+      </c>
+      <c r="E552">
+        <v>3</v>
+      </c>
+      <c r="F552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>52</v>
+      </c>
+      <c r="B553">
+        <v>6</v>
+      </c>
+      <c r="C553">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D553">
+        <v>27</v>
+      </c>
+      <c r="E553">
+        <v>3</v>
+      </c>
+      <c r="F553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>81</v>
+      </c>
+      <c r="B554">
+        <v>6</v>
+      </c>
+      <c r="C554">
+        <v>31.8</v>
+      </c>
+      <c r="D554">
+        <v>29.3</v>
+      </c>
+      <c r="E554">
+        <v>2</v>
+      </c>
+      <c r="F554">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>131</v>
+      </c>
+      <c r="B555">
+        <v>6</v>
+      </c>
+      <c r="C555">
+        <v>17.8</v>
+      </c>
+      <c r="D555">
+        <v>39.5</v>
+      </c>
+      <c r="E555">
+        <v>2</v>
+      </c>
+      <c r="F555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>115</v>
+      </c>
+      <c r="B556">
+        <v>6</v>
+      </c>
+      <c r="C556">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D556">
+        <v>21.2</v>
+      </c>
+      <c r="E556">
+        <v>4</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>132</v>
+      </c>
+      <c r="B557">
+        <v>6</v>
+      </c>
+      <c r="C557">
+        <v>24.5</v>
+      </c>
+      <c r="D557">
+        <v>26.5</v>
+      </c>
+      <c r="E557">
+        <v>1</v>
+      </c>
+      <c r="F557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>32</v>
+      </c>
+      <c r="B558">
+        <v>6</v>
+      </c>
+      <c r="C558">
+        <v>39</v>
+      </c>
+      <c r="D558">
+        <v>10.8</v>
+      </c>
+      <c r="E558">
+        <v>5</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>111</v>
+      </c>
+      <c r="B559">
+        <v>6</v>
+      </c>
+      <c r="C559">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D559">
+        <v>28.2</v>
+      </c>
+      <c r="E559">
+        <v>3</v>
+      </c>
+      <c r="F559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>133</v>
+      </c>
+      <c r="B560">
+        <v>6</v>
+      </c>
+      <c r="C560">
+        <v>27.6</v>
+      </c>
+      <c r="D560">
+        <v>33.4</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>86</v>
+      </c>
+      <c r="B561">
+        <v>6</v>
+      </c>
+      <c r="C561">
+        <v>16.2</v>
+      </c>
+      <c r="D561">
+        <v>29.6</v>
+      </c>
+      <c r="E561">
+        <v>2</v>
+      </c>
+      <c r="F561">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>134</v>
+      </c>
+      <c r="B562">
+        <v>6</v>
+      </c>
+      <c r="C562">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D562">
+        <v>45.4</v>
+      </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
+      <c r="F562">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>40</v>
+      </c>
+      <c r="B563">
+        <v>6</v>
+      </c>
+      <c r="C563">
+        <v>31</v>
+      </c>
+      <c r="D563">
+        <v>34</v>
+      </c>
+      <c r="E563">
+        <v>2</v>
+      </c>
+      <c r="F563">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>23</v>
+      </c>
+      <c r="B564">
+        <v>6</v>
+      </c>
+      <c r="C564">
+        <v>29.4</v>
+      </c>
+      <c r="D564">
+        <v>8.4</v>
+      </c>
+      <c r="E564">
+        <v>4</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>41</v>
+      </c>
+      <c r="B565">
+        <v>6</v>
+      </c>
+      <c r="C565">
+        <v>27.2</v>
+      </c>
+      <c r="D565">
+        <v>30.4</v>
+      </c>
+      <c r="E565">
+        <v>3</v>
+      </c>
+      <c r="F565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>135</v>
+      </c>
+      <c r="B566">
+        <v>6</v>
+      </c>
+      <c r="C566">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D566">
+        <v>10</v>
+      </c>
+      <c r="E566">
+        <v>3</v>
+      </c>
+      <c r="F566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>136</v>
+      </c>
+      <c r="B567">
+        <v>6</v>
+      </c>
+      <c r="C567">
+        <v>26</v>
+      </c>
+      <c r="D567">
+        <v>14.4</v>
+      </c>
+      <c r="E567">
+        <v>3</v>
+      </c>
+      <c r="F567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>137</v>
+      </c>
+      <c r="B568">
+        <v>6</v>
+      </c>
+      <c r="C568">
+        <v>44.8</v>
+      </c>
+      <c r="D568">
+        <v>13.8</v>
+      </c>
+      <c r="E568">
+        <v>4</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>138</v>
+      </c>
+      <c r="B569">
+        <v>6</v>
+      </c>
+      <c r="C569">
+        <v>41.6</v>
+      </c>
+      <c r="D569">
+        <v>24</v>
+      </c>
+      <c r="E569">
+        <v>5</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>93</v>
+      </c>
+      <c r="B570">
+        <v>6</v>
+      </c>
+      <c r="C570">
+        <v>32.4</v>
+      </c>
+      <c r="D570">
+        <v>18.2</v>
+      </c>
+      <c r="E570">
+        <v>4</v>
+      </c>
+      <c r="F570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>139</v>
+      </c>
+      <c r="B571">
+        <v>6</v>
+      </c>
+      <c r="C571">
+        <v>27.8</v>
+      </c>
+      <c r="D571">
+        <v>30.2</v>
+      </c>
+      <c r="E571">
+        <v>2</v>
+      </c>
+      <c r="F571">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>108</v>
+      </c>
+      <c r="B572">
+        <v>6</v>
+      </c>
+      <c r="C572">
+        <v>28.8</v>
+      </c>
+      <c r="D572">
+        <v>14.8</v>
+      </c>
+      <c r="E572">
+        <v>4</v>
+      </c>
+      <c r="F572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>140</v>
+      </c>
+      <c r="B573">
+        <v>6</v>
+      </c>
+      <c r="C573">
+        <v>29</v>
+      </c>
+      <c r="D573">
+        <v>22.8</v>
+      </c>
+      <c r="E573">
+        <v>4</v>
+      </c>
+      <c r="F573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>141</v>
+      </c>
+      <c r="B574">
+        <v>6</v>
+      </c>
+      <c r="C574">
+        <v>27.5</v>
+      </c>
+      <c r="D574">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>142</v>
+      </c>
+      <c r="B575">
+        <v>6</v>
+      </c>
+      <c r="C575">
+        <v>25.6</v>
+      </c>
+      <c r="D575">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E575">
+        <v>2</v>
+      </c>
+      <c r="F575">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>143</v>
+      </c>
+      <c r="B576">
+        <v>6</v>
+      </c>
+      <c r="C576">
+        <v>20.2</v>
+      </c>
+      <c r="D576">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E576">
+        <v>2</v>
+      </c>
+      <c r="F576">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>89</v>
+      </c>
+      <c r="B577">
+        <v>6</v>
+      </c>
+      <c r="C577">
+        <v>26.4</v>
+      </c>
+      <c r="D577">
+        <v>23.4</v>
+      </c>
+      <c r="E577">
+        <v>2</v>
+      </c>
+      <c r="F577">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>114</v>
+      </c>
+      <c r="B578">
+        <v>6</v>
+      </c>
+      <c r="C578">
+        <v>35.6</v>
+      </c>
+      <c r="D578">
+        <v>14.8</v>
+      </c>
+      <c r="E578">
+        <v>4</v>
+      </c>
+      <c r="F578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>100</v>
+      </c>
+      <c r="B579">
+        <v>6</v>
+      </c>
+      <c r="C579">
+        <v>29.4</v>
+      </c>
+      <c r="D579">
+        <v>16.2</v>
+      </c>
+      <c r="E579">
+        <v>3</v>
+      </c>
+      <c r="F579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>144</v>
+      </c>
+      <c r="B580">
+        <v>6</v>
+      </c>
+      <c r="C580">
+        <v>35</v>
+      </c>
+      <c r="D580">
+        <v>21</v>
+      </c>
+      <c r="E580">
+        <v>4</v>
+      </c>
+      <c r="F580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>145</v>
+      </c>
+      <c r="B581">
+        <v>6</v>
+      </c>
+      <c r="C581">
+        <v>10.6</v>
+      </c>
+      <c r="D581">
+        <v>29.6</v>
+      </c>
+      <c r="E581">
+        <v>1</v>
+      </c>
+      <c r="F581">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>146</v>
+      </c>
+      <c r="B582">
+        <v>6</v>
+      </c>
+      <c r="C582">
+        <v>34.4</v>
+      </c>
+      <c r="D582">
+        <v>26.2</v>
+      </c>
+      <c r="E582">
+        <v>4</v>
+      </c>
+      <c r="F582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>147</v>
+      </c>
+      <c r="B583">
+        <v>6</v>
+      </c>
+      <c r="C583">
+        <v>35</v>
+      </c>
+      <c r="D583">
+        <v>20.5</v>
+      </c>
+      <c r="E583">
+        <v>2</v>
+      </c>
+      <c r="F583">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>148</v>
+      </c>
+      <c r="B584">
+        <v>6</v>
+      </c>
+      <c r="C584">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D584">
+        <v>25.4</v>
+      </c>
+      <c r="E584">
+        <v>2</v>
+      </c>
+      <c r="F584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>38</v>
+      </c>
+      <c r="B585">
+        <v>6</v>
+      </c>
+      <c r="C585">
+        <v>45.4</v>
+      </c>
+      <c r="D585">
+        <v>11.6</v>
+      </c>
+      <c r="E585">
+        <v>5</v>
+      </c>
+      <c r="F585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>29</v>
+      </c>
+      <c r="B586">
+        <v>6</v>
+      </c>
+      <c r="C586">
+        <v>27</v>
+      </c>
+      <c r="D586">
+        <v>22.6</v>
+      </c>
+      <c r="E586">
+        <v>2</v>
+      </c>
+      <c r="F586">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>149</v>
+      </c>
+      <c r="B587">
+        <v>6</v>
+      </c>
+      <c r="C587">
+        <v>33</v>
+      </c>
+      <c r="D587">
+        <v>29</v>
+      </c>
+      <c r="E587">
+        <v>3</v>
+      </c>
+      <c r="F587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>150</v>
+      </c>
+      <c r="B588">
+        <v>6</v>
+      </c>
+      <c r="C588">
+        <v>38.6</v>
+      </c>
+      <c r="D588">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E588">
+        <v>4</v>
+      </c>
+      <c r="F588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>151</v>
+      </c>
+      <c r="B589">
+        <v>6</v>
+      </c>
+      <c r="C589">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D589">
+        <v>11.8</v>
+      </c>
+      <c r="E589">
+        <v>5</v>
+      </c>
+      <c r="F589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>113</v>
+      </c>
+      <c r="B590">
+        <v>6</v>
+      </c>
+      <c r="C590">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D590">
+        <v>21.8</v>
+      </c>
+      <c r="E590">
+        <v>4</v>
+      </c>
+      <c r="F590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>94</v>
+      </c>
+      <c r="B591">
+        <v>6</v>
+      </c>
+      <c r="C591">
+        <v>26.8</v>
+      </c>
+      <c r="D591">
+        <v>24.8</v>
+      </c>
+      <c r="E591">
+        <v>2</v>
+      </c>
+      <c r="F591">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>152</v>
+      </c>
+      <c r="B592">
+        <v>6</v>
+      </c>
+      <c r="C592">
+        <v>13.3</v>
+      </c>
+      <c r="D592">
+        <v>21</v>
+      </c>
+      <c r="E592">
+        <v>1</v>
+      </c>
+      <c r="F592">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>22</v>
+      </c>
+      <c r="B593">
+        <v>6</v>
+      </c>
+      <c r="C593">
+        <v>31.4</v>
+      </c>
+      <c r="D593">
+        <v>32.6</v>
+      </c>
+      <c r="E593">
+        <v>2</v>
+      </c>
+      <c r="F593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>44</v>
+      </c>
+      <c r="B594">
+        <v>6</v>
+      </c>
+      <c r="C594">
+        <v>24.4</v>
+      </c>
+      <c r="D594">
+        <v>31.2</v>
+      </c>
+      <c r="E594">
+        <v>2</v>
+      </c>
+      <c r="F594">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>153</v>
+      </c>
+      <c r="B595">
+        <v>6</v>
+      </c>
+      <c r="C595">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D595">
+        <v>22</v>
+      </c>
+      <c r="E595">
+        <v>2</v>
+      </c>
+      <c r="F595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>83</v>
+      </c>
+      <c r="B596">
+        <v>6</v>
+      </c>
+      <c r="C596">
+        <v>14</v>
+      </c>
+      <c r="D596">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>154</v>
+      </c>
+      <c r="B597">
+        <v>6</v>
+      </c>
+      <c r="C597">
+        <v>45.4</v>
+      </c>
+      <c r="D597">
+        <v>33.6</v>
+      </c>
+      <c r="E597">
+        <v>4</v>
+      </c>
+      <c r="F597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>189</v>
+      </c>
+      <c r="B598">
+        <v>6</v>
+      </c>
+      <c r="C598">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D598">
+        <v>15.4</v>
+      </c>
+      <c r="E598">
+        <v>4</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>155</v>
+      </c>
+      <c r="B599">
+        <v>6</v>
+      </c>
+      <c r="C599">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D599">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E599">
+        <v>3</v>
+      </c>
+      <c r="F599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>156</v>
+      </c>
+      <c r="B600">
+        <v>6</v>
+      </c>
+      <c r="C600">
+        <v>31.6</v>
+      </c>
+      <c r="D600">
+        <v>35.6</v>
+      </c>
+      <c r="E600">
+        <v>1</v>
+      </c>
+      <c r="F600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>30</v>
+      </c>
+      <c r="B601">
+        <v>6</v>
+      </c>
+      <c r="C601">
+        <v>19.8</v>
+      </c>
+      <c r="D601">
+        <v>24.8</v>
+      </c>
+      <c r="E601">
+        <v>1</v>
+      </c>
+      <c r="F601">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>46</v>
+      </c>
+      <c r="B602">
+        <v>6</v>
+      </c>
+      <c r="C602">
+        <v>25</v>
+      </c>
+      <c r="D602">
+        <v>24</v>
+      </c>
+      <c r="E602">
+        <v>2</v>
+      </c>
+      <c r="F602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>157</v>
+      </c>
+      <c r="B603">
+        <v>6</v>
+      </c>
+      <c r="C603">
+        <v>28.8</v>
+      </c>
+      <c r="D603">
+        <v>42</v>
+      </c>
+      <c r="E603">
+        <v>2</v>
+      </c>
+      <c r="F603">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>26</v>
+      </c>
+      <c r="B604">
+        <v>6</v>
+      </c>
+      <c r="C604">
+        <v>48.8</v>
+      </c>
+      <c r="D604">
+        <v>14.8</v>
+      </c>
+      <c r="E604">
+        <v>5</v>
+      </c>
+      <c r="F604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>36</v>
+      </c>
+      <c r="B605">
+        <v>6</v>
+      </c>
+      <c r="C605">
+        <v>37</v>
+      </c>
+      <c r="D605">
+        <v>25.2</v>
+      </c>
+      <c r="E605">
+        <v>3</v>
+      </c>
+      <c r="F605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>56</v>
+      </c>
+      <c r="B606">
+        <v>6</v>
+      </c>
+      <c r="C606">
+        <v>47.8</v>
+      </c>
+      <c r="D606">
+        <v>23.3</v>
+      </c>
+      <c r="E606">
+        <v>4</v>
+      </c>
+      <c r="F606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>158</v>
+      </c>
+      <c r="B607">
+        <v>6</v>
+      </c>
+      <c r="C607">
+        <v>21.6</v>
+      </c>
+      <c r="D607">
+        <v>27.2</v>
+      </c>
+      <c r="E607">
+        <v>2</v>
+      </c>
+      <c r="F607">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>49</v>
+      </c>
+      <c r="B608">
+        <v>6</v>
+      </c>
+      <c r="C608">
+        <v>40.6</v>
+      </c>
+      <c r="D608">
+        <v>30.2</v>
+      </c>
+      <c r="E608">
+        <v>4</v>
+      </c>
+      <c r="F608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>42</v>
+      </c>
+      <c r="B609">
+        <v>6</v>
+      </c>
+      <c r="C609">
+        <v>33.4</v>
+      </c>
+      <c r="D609">
+        <v>27.2</v>
+      </c>
+      <c r="E609">
+        <v>3</v>
+      </c>
+      <c r="F609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>34</v>
+      </c>
+      <c r="B610">
+        <v>6</v>
+      </c>
+      <c r="C610">
+        <v>34.4</v>
+      </c>
+      <c r="D610">
+        <v>14.8</v>
+      </c>
+      <c r="E610">
+        <v>5</v>
+      </c>
+      <c r="F610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>51</v>
+      </c>
+      <c r="B611">
+        <v>6</v>
+      </c>
+      <c r="C611">
+        <v>33</v>
+      </c>
+      <c r="D611">
+        <v>25.6</v>
+      </c>
+      <c r="E611">
+        <v>3</v>
+      </c>
+      <c r="F611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>43</v>
+      </c>
+      <c r="B612">
+        <v>6</v>
+      </c>
+      <c r="C612">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D612">
+        <v>20.6</v>
+      </c>
+      <c r="E612">
+        <v>3</v>
+      </c>
+      <c r="F612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>159</v>
+      </c>
+      <c r="B613">
+        <v>6</v>
+      </c>
+      <c r="C613">
+        <v>30.8</v>
+      </c>
+      <c r="D613">
+        <v>31</v>
+      </c>
+      <c r="E613">
+        <v>3</v>
+      </c>
+      <c r="F613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>160</v>
+      </c>
+      <c r="B614">
+        <v>6</v>
+      </c>
+      <c r="C614">
+        <v>24.8</v>
+      </c>
+      <c r="D614">
+        <v>23.6</v>
+      </c>
+      <c r="E614">
+        <v>3</v>
+      </c>
+      <c r="F614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>161</v>
+      </c>
+      <c r="B615">
+        <v>6</v>
+      </c>
+      <c r="C615">
+        <v>19</v>
+      </c>
+      <c r="D615">
+        <v>25.8</v>
+      </c>
+      <c r="E615">
+        <v>2</v>
+      </c>
+      <c r="F615">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>162</v>
+      </c>
+      <c r="B616">
+        <v>6</v>
+      </c>
+      <c r="C616">
+        <v>26</v>
+      </c>
+      <c r="D616">
+        <v>15.8</v>
+      </c>
+      <c r="E616">
+        <v>3</v>
+      </c>
+      <c r="F616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>163</v>
+      </c>
+      <c r="B617">
+        <v>6</v>
+      </c>
+      <c r="C617">
+        <v>38.5</v>
+      </c>
+      <c r="D617">
+        <v>25.5</v>
+      </c>
+      <c r="E617">
+        <v>2</v>
+      </c>
+      <c r="F617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>164</v>
+      </c>
+      <c r="B618">
+        <v>6</v>
+      </c>
+      <c r="C618">
+        <v>35</v>
+      </c>
+      <c r="D618">
+        <v>18.8</v>
+      </c>
+      <c r="E618">
+        <v>4</v>
+      </c>
+      <c r="F618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>92</v>
+      </c>
+      <c r="B619">
+        <v>6</v>
+      </c>
+      <c r="C619">
+        <v>35.6</v>
+      </c>
+      <c r="D619">
+        <v>27.2</v>
+      </c>
+      <c r="E619">
+        <v>3</v>
+      </c>
+      <c r="F619">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>165</v>
+      </c>
+      <c r="B620">
+        <v>6</v>
+      </c>
+      <c r="C620">
+        <v>24.4</v>
+      </c>
+      <c r="D620">
+        <v>38</v>
+      </c>
+      <c r="E620">
+        <v>1</v>
+      </c>
+      <c r="F620">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>166</v>
+      </c>
+      <c r="B621">
+        <v>6</v>
+      </c>
+      <c r="C621">
+        <v>31.3</v>
+      </c>
+      <c r="D621">
+        <v>23.3</v>
+      </c>
+      <c r="E621">
+        <v>2</v>
+      </c>
+      <c r="F621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>109</v>
+      </c>
+      <c r="B622">
+        <v>6</v>
+      </c>
+      <c r="C622">
+        <v>29.5</v>
+      </c>
+      <c r="D622">
+        <v>34</v>
+      </c>
+      <c r="E622">
+        <v>1</v>
+      </c>
+      <c r="F622">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>167</v>
+      </c>
+      <c r="B623">
+        <v>6</v>
+      </c>
+      <c r="C623">
+        <v>38.4</v>
+      </c>
+      <c r="D623">
+        <v>14</v>
+      </c>
+      <c r="E623">
+        <v>5</v>
+      </c>
+      <c r="F623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>168</v>
+      </c>
+      <c r="B624">
+        <v>6</v>
+      </c>
+      <c r="C624">
+        <v>48.5</v>
+      </c>
+      <c r="D624">
+        <v>22</v>
+      </c>
+      <c r="E624">
+        <v>4</v>
+      </c>
+      <c r="F624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>169</v>
+      </c>
+      <c r="B625">
+        <v>6</v>
+      </c>
+      <c r="C625">
+        <v>15</v>
+      </c>
+      <c r="D625">
+        <v>16.8</v>
+      </c>
+      <c r="E625">
+        <v>2</v>
+      </c>
+      <c r="F625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>104</v>
+      </c>
+      <c r="B626">
+        <v>6</v>
+      </c>
+      <c r="C626">
+        <v>48.5</v>
+      </c>
+      <c r="D626">
+        <v>19</v>
+      </c>
+      <c r="E626">
+        <v>4</v>
+      </c>
+      <c r="F626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>90</v>
+      </c>
+      <c r="B627">
+        <v>6</v>
+      </c>
+      <c r="C627">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D627">
+        <v>21.4</v>
+      </c>
+      <c r="E627">
+        <v>3</v>
+      </c>
+      <c r="F627">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>101</v>
+      </c>
+      <c r="B628">
+        <v>6</v>
+      </c>
+      <c r="C628">
+        <v>21.8</v>
+      </c>
+      <c r="D628">
+        <v>17.8</v>
+      </c>
+      <c r="E628">
+        <v>3</v>
+      </c>
+      <c r="F628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>170</v>
+      </c>
+      <c r="B629">
+        <v>6</v>
+      </c>
+      <c r="C629">
+        <v>21.8</v>
+      </c>
+      <c r="D629">
+        <v>26.4</v>
+      </c>
+      <c r="E629">
+        <v>2</v>
+      </c>
+      <c r="F629">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>95</v>
+      </c>
+      <c r="B630">
+        <v>6</v>
+      </c>
+      <c r="C630">
+        <v>35</v>
+      </c>
+      <c r="D630">
+        <v>27.6</v>
+      </c>
+      <c r="E630">
+        <v>3</v>
+      </c>
+      <c r="F630">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>171</v>
+      </c>
+      <c r="B631">
+        <v>6</v>
+      </c>
+      <c r="C631">
+        <v>33</v>
+      </c>
+      <c r="D631">
+        <v>24.2</v>
+      </c>
+      <c r="E631">
+        <v>3</v>
+      </c>
+      <c r="F631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>172</v>
+      </c>
+      <c r="B632">
+        <v>6</v>
+      </c>
+      <c r="C632">
+        <v>25.2</v>
+      </c>
+      <c r="D632">
+        <v>22.2</v>
+      </c>
+      <c r="E632">
+        <v>3</v>
+      </c>
+      <c r="F632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>173</v>
+      </c>
+      <c r="B633">
+        <v>6</v>
+      </c>
+      <c r="C633">
+        <v>32.4</v>
+      </c>
+      <c r="D633">
+        <v>14.2</v>
+      </c>
+      <c r="E633">
+        <v>4</v>
+      </c>
+      <c r="F633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>55</v>
+      </c>
+      <c r="B634">
+        <v>6</v>
+      </c>
+      <c r="C634">
+        <v>35.4</v>
+      </c>
+      <c r="D634">
+        <v>31.6</v>
+      </c>
+      <c r="E634">
+        <v>2</v>
+      </c>
+      <c r="F634">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>174</v>
+      </c>
+      <c r="B635">
+        <v>6</v>
+      </c>
+      <c r="C635">
+        <v>33</v>
+      </c>
+      <c r="D635">
+        <v>17.5</v>
+      </c>
+      <c r="E635">
+        <v>2</v>
+      </c>
+      <c r="F635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>88</v>
+      </c>
+      <c r="B636">
+        <v>6</v>
+      </c>
+      <c r="C636">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D636">
+        <v>13.5</v>
+      </c>
+      <c r="E636">
+        <v>3</v>
+      </c>
+      <c r="F636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>175</v>
+      </c>
+      <c r="B637">
+        <v>6</v>
+      </c>
+      <c r="C637">
+        <v>41.4</v>
+      </c>
+      <c r="D637">
+        <v>20.8</v>
+      </c>
+      <c r="E637">
+        <v>5</v>
+      </c>
+      <c r="F637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>176</v>
+      </c>
+      <c r="B638">
+        <v>6</v>
+      </c>
+      <c r="C638">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D638">
+        <v>22.4</v>
+      </c>
+      <c r="E638">
+        <v>4</v>
+      </c>
+      <c r="F638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>110</v>
+      </c>
+      <c r="B639">
+        <v>6</v>
+      </c>
+      <c r="C639">
+        <v>42.2</v>
+      </c>
+      <c r="D639">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E639">
+        <v>5</v>
+      </c>
+      <c r="F639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>53</v>
+      </c>
+      <c r="B640">
+        <v>6</v>
+      </c>
+      <c r="C640">
+        <v>42</v>
+      </c>
+      <c r="D640">
+        <v>14.4</v>
+      </c>
+      <c r="E640">
+        <v>4</v>
+      </c>
+      <c r="F640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>58</v>
+      </c>
+      <c r="B641">
+        <v>6</v>
+      </c>
+      <c r="C641">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D641">
+        <v>36.4</v>
+      </c>
+      <c r="E641">
+        <v>1</v>
+      </c>
+      <c r="F641">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>48</v>
+      </c>
+      <c r="B642">
+        <v>6</v>
+      </c>
+      <c r="C642">
+        <v>20.7</v>
+      </c>
+      <c r="D642">
+        <v>26.8</v>
+      </c>
+      <c r="E642">
+        <v>3</v>
+      </c>
+      <c r="F642">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>45</v>
+      </c>
+      <c r="B643">
+        <v>6</v>
+      </c>
+      <c r="C643">
+        <v>38.6</v>
+      </c>
+      <c r="D643">
+        <v>34</v>
+      </c>
+      <c r="E643">
+        <v>3</v>
+      </c>
+      <c r="F643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>177</v>
+      </c>
+      <c r="B644">
+        <v>6</v>
+      </c>
+      <c r="C644">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D644">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E644">
+        <v>3</v>
+      </c>
+      <c r="F644">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>178</v>
+      </c>
+      <c r="B645">
+        <v>6</v>
+      </c>
+      <c r="C645">
+        <v>18</v>
+      </c>
+      <c r="D645">
+        <v>23</v>
+      </c>
+      <c r="E645">
+        <v>2</v>
+      </c>
+      <c r="F645">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>179</v>
+      </c>
+      <c r="B646">
+        <v>6</v>
+      </c>
+      <c r="C646">
+        <v>18.2</v>
+      </c>
+      <c r="D646">
+        <v>22.2</v>
+      </c>
+      <c r="E646">
+        <v>2</v>
+      </c>
+      <c r="F646">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>180</v>
+      </c>
+      <c r="B647">
+        <v>6</v>
+      </c>
+      <c r="C647">
+        <v>40.4</v>
+      </c>
+      <c r="D647">
+        <v>28.6</v>
+      </c>
+      <c r="E647">
+        <v>4</v>
+      </c>
+      <c r="F647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>181</v>
+      </c>
+      <c r="B648">
+        <v>6</v>
+      </c>
+      <c r="C648">
+        <v>41.6</v>
+      </c>
+      <c r="D648">
+        <v>23.2</v>
+      </c>
+      <c r="E648">
+        <v>4</v>
+      </c>
+      <c r="F648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>105</v>
+      </c>
+      <c r="B649">
+        <v>6</v>
+      </c>
+      <c r="C649">
+        <v>29.6</v>
+      </c>
+      <c r="D649">
+        <v>18.2</v>
+      </c>
+      <c r="E649">
+        <v>4</v>
+      </c>
+      <c r="F649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>39</v>
+      </c>
+      <c r="B650">
+        <v>6</v>
+      </c>
+      <c r="C650">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D650">
+        <v>29.6</v>
+      </c>
+      <c r="E650">
+        <v>2</v>
+      </c>
+      <c r="F650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>182</v>
+      </c>
+      <c r="B651">
+        <v>6</v>
+      </c>
+      <c r="C651">
+        <v>43.4</v>
+      </c>
+      <c r="D651">
+        <v>22.2</v>
+      </c>
+      <c r="E651">
+        <v>3</v>
+      </c>
+      <c r="F651">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>37</v>
+      </c>
+      <c r="B652">
+        <v>6</v>
+      </c>
+      <c r="C652">
+        <v>22.6</v>
+      </c>
+      <c r="D652">
+        <v>28</v>
+      </c>
+      <c r="E652">
+        <v>2</v>
+      </c>
+      <c r="F652">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>35</v>
+      </c>
+      <c r="B653">
+        <v>6</v>
+      </c>
+      <c r="C653">
+        <v>29.8</v>
+      </c>
+      <c r="D653">
+        <v>22</v>
+      </c>
+      <c r="E653">
+        <v>2</v>
+      </c>
+      <c r="F653">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>62</v>
+      </c>
+      <c r="B654">
+        <v>6</v>
+      </c>
+      <c r="C654">
+        <v>22.7</v>
+      </c>
+      <c r="D654">
+        <v>28.3</v>
+      </c>
+      <c r="E654">
+        <v>3</v>
+      </c>
+      <c r="F654">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20605,10 +23528,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21724,6 +24647,281 @@
         <v>93</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9714AA1-637B-3841-A1BF-8677594967B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D018EC-5954-7143-985C-84A95CA1270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13360" windowWidth="40960" windowHeight="11000" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
@@ -992,8 +992,8 @@
   <dimension ref="A1:AA105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A86" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <pane ySplit="760" topLeftCell="A89" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8953,7 +8953,7 @@
         <v>38</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>4198000</v>
       </c>
       <c r="G90">
         <v>2022</v>
@@ -9046,7 +9046,7 @@
         <v>108</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>2791000</v>
       </c>
       <c r="G91">
         <v>2022</v>
@@ -9139,7 +9139,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>2468000</v>
       </c>
       <c r="G92">
         <v>2022</v>
@@ -9232,7 +9232,7 @@
         <v>43</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>829000</v>
       </c>
       <c r="G93">
         <v>2022</v>
@@ -9325,7 +9325,7 @@
         <v>152</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1132000</v>
       </c>
       <c r="G94">
         <v>2022</v>
@@ -9418,7 +9418,7 @@
         <v>91</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>5828000</v>
       </c>
       <c r="G95">
         <v>2022</v>
@@ -9511,7 +9511,7 @@
         <v>56</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2412000</v>
       </c>
       <c r="G96">
         <v>2022</v>
@@ -9604,7 +9604,7 @@
         <v>30</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1615000</v>
       </c>
       <c r="G97">
         <v>2022</v>
@@ -9697,7 +9697,7 @@
         <v>180</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>2483000</v>
       </c>
       <c r="G98">
         <v>2022</v>
@@ -9790,7 +9790,7 @@
         <v>136</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>865000</v>
       </c>
       <c r="G99">
         <v>2022</v>
@@ -9883,7 +9883,7 @@
         <v>29</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>904000</v>
       </c>
       <c r="G100">
         <v>2022</v>
@@ -9976,7 +9976,7 @@
         <v>114</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>2787000</v>
       </c>
       <c r="G101">
         <v>2022</v>
@@ -10069,7 +10069,7 @@
         <v>84</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>4732000</v>
       </c>
       <c r="G102">
         <v>2022</v>
@@ -10162,7 +10162,7 @@
         <v>39</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1187000</v>
       </c>
       <c r="G103">
         <v>2022</v>
@@ -10255,7 +10255,7 @@
         <v>96</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1916000</v>
       </c>
       <c r="G104">
         <v>2022</v>
@@ -10348,7 +10348,7 @@
         <v>109</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>672000</v>
       </c>
       <c r="G105">
         <v>2022</v>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D018EC-5954-7143-985C-84A95CA1270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF1F3E-6605-5D4A-991F-AC2395457B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13360" windowWidth="40960" windowHeight="11000" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="190">
   <si>
     <t>Time</t>
   </si>
@@ -989,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
-  <dimension ref="A1:AA105"/>
+  <dimension ref="A1:AA125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A89" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <pane ySplit="760" topLeftCell="A113" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="S105" sqref="S105:W125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10421,6 +10421,1866 @@
       </c>
       <c r="AA105" cm="1">
         <f t="array" ref="AA105">_xlfn.XLOOKUP(E105&amp;I105,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C106" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>2022</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106" t="str" cm="1">
+        <f t="array" ref="J106">_xlfn.XLOOKUP(D106&amp;I106,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K106" t="str" cm="1">
+        <f t="array" ref="K106">_xlfn.XLOOKUP(E106&amp;I106,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L106" t="s">
+        <v>68</v>
+      </c>
+      <c r="M106" t="s">
+        <v>68</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" cm="1">
+        <f t="array" ref="O106">_xlfn.XLOOKUP(D106&amp;I106,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="P106" cm="1">
+        <f t="array" ref="P106">_xlfn.XLOOKUP(D106&amp;I106,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>13.5</v>
+      </c>
+      <c r="Q106" cm="1">
+        <f t="array" ref="Q106">_xlfn.XLOOKUP(E106&amp;I106,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.5</v>
+      </c>
+      <c r="R106" cm="1">
+        <f t="array" ref="R106">_xlfn.XLOOKUP(E106&amp;I106,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.5</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106" cm="1">
+        <f t="array" ref="X106">_xlfn.XLOOKUP(D106&amp;I106,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y106" cm="1">
+        <f t="array" ref="Y106">_xlfn.XLOOKUP(D106&amp;I106,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z106" cm="1">
+        <f t="array" ref="Z106">_xlfn.XLOOKUP(E106&amp;I106,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA106" cm="1">
+        <f t="array" ref="AA106">_xlfn.XLOOKUP(E106&amp;I106,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>2022</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+      <c r="J107" t="str" cm="1">
+        <f t="array" ref="J107">_xlfn.XLOOKUP(D107&amp;I107,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K107" t="str" cm="1">
+        <f t="array" ref="K107">_xlfn.XLOOKUP(E107&amp;I107,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L107" t="s">
+        <v>64</v>
+      </c>
+      <c r="M107" t="s">
+        <v>64</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" cm="1">
+        <f t="array" ref="O107">_xlfn.XLOOKUP(D107&amp;I107,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.8</v>
+      </c>
+      <c r="P107" cm="1">
+        <f t="array" ref="P107">_xlfn.XLOOKUP(D107&amp;I107,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.6</v>
+      </c>
+      <c r="Q107" cm="1">
+        <f t="array" ref="Q107">_xlfn.XLOOKUP(E107&amp;I107,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.4</v>
+      </c>
+      <c r="R107" cm="1">
+        <f t="array" ref="R107">_xlfn.XLOOKUP(E107&amp;I107,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>32.6</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107" cm="1">
+        <f t="array" ref="X107">_xlfn.XLOOKUP(D107&amp;I107,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y107" cm="1">
+        <f t="array" ref="Y107">_xlfn.XLOOKUP(D107&amp;I107,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z107" cm="1">
+        <f t="array" ref="Z107">_xlfn.XLOOKUP(E107&amp;I107,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA107" cm="1">
+        <f t="array" ref="AA107">_xlfn.XLOOKUP(E107&amp;I107,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>2022</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+      <c r="J108" t="str" cm="1">
+        <f t="array" ref="J108">_xlfn.XLOOKUP(D108&amp;I108,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K108" t="str" cm="1">
+        <f t="array" ref="K108">_xlfn.XLOOKUP(E108&amp;I108,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L108" t="s">
+        <v>68</v>
+      </c>
+      <c r="M108" t="s">
+        <v>68</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" cm="1">
+        <f t="array" ref="O108">_xlfn.XLOOKUP(D108&amp;I108,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.4</v>
+      </c>
+      <c r="P108" cm="1">
+        <f t="array" ref="P108">_xlfn.XLOOKUP(D108&amp;I108,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.2</v>
+      </c>
+      <c r="Q108" cm="1">
+        <f t="array" ref="Q108">_xlfn.XLOOKUP(E108&amp;I108,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31</v>
+      </c>
+      <c r="R108" cm="1">
+        <f t="array" ref="R108">_xlfn.XLOOKUP(E108&amp;I108,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>34</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108" cm="1">
+        <f t="array" ref="X108">_xlfn.XLOOKUP(D108&amp;I108,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y108" cm="1">
+        <f t="array" ref="Y108">_xlfn.XLOOKUP(D108&amp;I108,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z108" cm="1">
+        <f t="array" ref="Z108">_xlfn.XLOOKUP(E108&amp;I108,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA108" cm="1">
+        <f t="array" ref="AA108">_xlfn.XLOOKUP(E108&amp;I108,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>2022</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109" t="str" cm="1">
+        <f t="array" ref="J109">_xlfn.XLOOKUP(D109&amp;I109,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K109" t="str" cm="1">
+        <f t="array" ref="K109">_xlfn.XLOOKUP(E109&amp;I109,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L109" t="s">
+        <v>66</v>
+      </c>
+      <c r="M109" t="s">
+        <v>66</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" cm="1">
+        <f t="array" ref="O109">_xlfn.XLOOKUP(D109&amp;I109,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.4</v>
+      </c>
+      <c r="P109" cm="1">
+        <f t="array" ref="P109">_xlfn.XLOOKUP(D109&amp;I109,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>31.2</v>
+      </c>
+      <c r="Q109" cm="1">
+        <f t="array" ref="Q109">_xlfn.XLOOKUP(E109&amp;I109,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>10.8</v>
+      </c>
+      <c r="R109" cm="1">
+        <f t="array" ref="R109">_xlfn.XLOOKUP(E109&amp;I109,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>41</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109" cm="1">
+        <f t="array" ref="X109">_xlfn.XLOOKUP(D109&amp;I109,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y109" cm="1">
+        <f t="array" ref="Y109">_xlfn.XLOOKUP(D109&amp;I109,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z109" cm="1">
+        <f t="array" ref="Z109">_xlfn.XLOOKUP(E109&amp;I109,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA109" cm="1">
+        <f t="array" ref="AA109">_xlfn.XLOOKUP(E109&amp;I109,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>2022</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
+      </c>
+      <c r="J110" t="str" cm="1">
+        <f t="array" ref="J110">_xlfn.XLOOKUP(D110&amp;I110,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K110" cm="1">
+        <f t="array" ref="K110">_xlfn.XLOOKUP(E110&amp;I110,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>4</v>
+      </c>
+      <c r="L110" t="s">
+        <v>64</v>
+      </c>
+      <c r="M110" t="s">
+        <v>64</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" cm="1">
+        <f t="array" ref="O110">_xlfn.XLOOKUP(D110&amp;I110,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.2</v>
+      </c>
+      <c r="P110" cm="1">
+        <f t="array" ref="P110">_xlfn.XLOOKUP(D110&amp;I110,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.4</v>
+      </c>
+      <c r="Q110" cm="1">
+        <f t="array" ref="Q110">_xlfn.XLOOKUP(E110&amp;I110,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>45.4</v>
+      </c>
+      <c r="R110" cm="1">
+        <f t="array" ref="R110">_xlfn.XLOOKUP(E110&amp;I110,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.6</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110" cm="1">
+        <f t="array" ref="X110">_xlfn.XLOOKUP(D110&amp;I110,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y110" cm="1">
+        <f t="array" ref="Y110">_xlfn.XLOOKUP(D110&amp;I110,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z110" cm="1">
+        <f t="array" ref="Z110">_xlfn.XLOOKUP(E110&amp;I110,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA110" cm="1">
+        <f t="array" ref="AA110">_xlfn.XLOOKUP(E110&amp;I110,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" t="s">
+        <v>104</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>2022</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+      <c r="J111" cm="1">
+        <f t="array" ref="J111">_xlfn.XLOOKUP(D111&amp;I111,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>25</v>
+      </c>
+      <c r="K111" cm="1">
+        <f t="array" ref="K111">_xlfn.XLOOKUP(E111&amp;I111,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>8</v>
+      </c>
+      <c r="L111" t="s">
+        <v>70</v>
+      </c>
+      <c r="M111" t="s">
+        <v>70</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" cm="1">
+        <f t="array" ref="O111">_xlfn.XLOOKUP(D111&amp;I111,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.6</v>
+      </c>
+      <c r="P111" cm="1">
+        <f t="array" ref="P111">_xlfn.XLOOKUP(D111&amp;I111,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.8</v>
+      </c>
+      <c r="Q111" cm="1">
+        <f t="array" ref="Q111">_xlfn.XLOOKUP(E111&amp;I111,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>48.5</v>
+      </c>
+      <c r="R111" cm="1">
+        <f t="array" ref="R111">_xlfn.XLOOKUP(E111&amp;I111,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111" cm="1">
+        <f t="array" ref="X111">_xlfn.XLOOKUP(D111&amp;I111,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y111" cm="1">
+        <f t="array" ref="Y111">_xlfn.XLOOKUP(D111&amp;I111,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z111" cm="1">
+        <f t="array" ref="Z111">_xlfn.XLOOKUP(E111&amp;I111,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA111" cm="1">
+        <f t="array" ref="AA111">_xlfn.XLOOKUP(E111&amp;I111,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" t="s">
+        <v>168</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>2022</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+      <c r="J112" cm="1">
+        <f t="array" ref="J112">_xlfn.XLOOKUP(D112&amp;I112,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>19</v>
+      </c>
+      <c r="K112" cm="1">
+        <f t="array" ref="K112">_xlfn.XLOOKUP(E112&amp;I112,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>17</v>
+      </c>
+      <c r="L112" t="s">
+        <v>71</v>
+      </c>
+      <c r="M112" t="s">
+        <v>71</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" cm="1">
+        <f t="array" ref="O112">_xlfn.XLOOKUP(D112&amp;I112,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41.6</v>
+      </c>
+      <c r="P112" cm="1">
+        <f t="array" ref="P112">_xlfn.XLOOKUP(D112&amp;I112,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24</v>
+      </c>
+      <c r="Q112" cm="1">
+        <f t="array" ref="Q112">_xlfn.XLOOKUP(E112&amp;I112,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>48.5</v>
+      </c>
+      <c r="R112" cm="1">
+        <f t="array" ref="R112">_xlfn.XLOOKUP(E112&amp;I112,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112" cm="1">
+        <f t="array" ref="X112">_xlfn.XLOOKUP(D112&amp;I112,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y112" cm="1">
+        <f t="array" ref="Y112">_xlfn.XLOOKUP(D112&amp;I112,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z112" cm="1">
+        <f t="array" ref="Z112">_xlfn.XLOOKUP(E112&amp;I112,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA112" cm="1">
+        <f t="array" ref="AA112">_xlfn.XLOOKUP(E112&amp;I112,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>2022</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+      <c r="J113" t="str" cm="1">
+        <f t="array" ref="J113">_xlfn.XLOOKUP(D113&amp;I113,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K113" t="str" cm="1">
+        <f t="array" ref="K113">_xlfn.XLOOKUP(E113&amp;I113,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L113" t="s">
+        <v>71</v>
+      </c>
+      <c r="M113" t="s">
+        <v>71</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" cm="1">
+        <f t="array" ref="O113">_xlfn.XLOOKUP(D113&amp;I113,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>37</v>
+      </c>
+      <c r="P113" cm="1">
+        <f t="array" ref="P113">_xlfn.XLOOKUP(D113&amp;I113,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.2</v>
+      </c>
+      <c r="Q113" cm="1">
+        <f t="array" ref="Q113">_xlfn.XLOOKUP(E113&amp;I113,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="R113" cm="1">
+        <f t="array" ref="R113">_xlfn.XLOOKUP(E113&amp;I113,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.4</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113" cm="1">
+        <f t="array" ref="X113">_xlfn.XLOOKUP(D113&amp;I113,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y113" cm="1">
+        <f t="array" ref="Y113">_xlfn.XLOOKUP(D113&amp;I113,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z113" cm="1">
+        <f t="array" ref="Z113">_xlfn.XLOOKUP(E113&amp;I113,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA113" cm="1">
+        <f t="array" ref="AA113">_xlfn.XLOOKUP(E113&amp;I113,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>2022</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="J114" cm="1">
+        <f t="array" ref="J114">_xlfn.XLOOKUP(D114&amp;I114,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>2</v>
+      </c>
+      <c r="K114" t="str" cm="1">
+        <f t="array" ref="K114">_xlfn.XLOOKUP(E114&amp;I114,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L114" t="s">
+        <v>70</v>
+      </c>
+      <c r="M114" t="s">
+        <v>70</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" cm="1">
+        <f t="array" ref="O114">_xlfn.XLOOKUP(D114&amp;I114,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39</v>
+      </c>
+      <c r="P114" cm="1">
+        <f t="array" ref="P114">_xlfn.XLOOKUP(D114&amp;I114,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>10.8</v>
+      </c>
+      <c r="Q114" cm="1">
+        <f t="array" ref="Q114">_xlfn.XLOOKUP(E114&amp;I114,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22.4</v>
+      </c>
+      <c r="R114" cm="1">
+        <f t="array" ref="R114">_xlfn.XLOOKUP(E114&amp;I114,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.6</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114" cm="1">
+        <f t="array" ref="X114">_xlfn.XLOOKUP(D114&amp;I114,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y114" cm="1">
+        <f t="array" ref="Y114">_xlfn.XLOOKUP(D114&amp;I114,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z114" cm="1">
+        <f t="array" ref="Z114">_xlfn.XLOOKUP(E114&amp;I114,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA114" cm="1">
+        <f t="array" ref="AA114">_xlfn.XLOOKUP(E114&amp;I114,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" t="s">
+        <v>95</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>2022</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>6</v>
+      </c>
+      <c r="J115" cm="1">
+        <f t="array" ref="J115">_xlfn.XLOOKUP(D115&amp;I115,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>7</v>
+      </c>
+      <c r="K115" t="str" cm="1">
+        <f t="array" ref="K115">_xlfn.XLOOKUP(E115&amp;I115,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L115" t="s">
+        <v>71</v>
+      </c>
+      <c r="M115" t="s">
+        <v>71</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" cm="1">
+        <f t="array" ref="O115">_xlfn.XLOOKUP(D115&amp;I115,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>47.8</v>
+      </c>
+      <c r="P115" cm="1">
+        <f t="array" ref="P115">_xlfn.XLOOKUP(D115&amp;I115,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.3</v>
+      </c>
+      <c r="Q115" cm="1">
+        <f t="array" ref="Q115">_xlfn.XLOOKUP(E115&amp;I115,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35</v>
+      </c>
+      <c r="R115" cm="1">
+        <f t="array" ref="R115">_xlfn.XLOOKUP(E115&amp;I115,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.6</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115" cm="1">
+        <f t="array" ref="X115">_xlfn.XLOOKUP(D115&amp;I115,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y115" cm="1">
+        <f t="array" ref="Y115">_xlfn.XLOOKUP(D115&amp;I115,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z115" cm="1">
+        <f t="array" ref="Z115">_xlfn.XLOOKUP(E115&amp;I115,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA115" cm="1">
+        <f t="array" ref="AA115">_xlfn.XLOOKUP(E115&amp;I115,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>2022</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116" cm="1">
+        <f t="array" ref="J116">_xlfn.XLOOKUP(D116&amp;I116,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>18</v>
+      </c>
+      <c r="K116" cm="1">
+        <f t="array" ref="K116">_xlfn.XLOOKUP(E116&amp;I116,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>11</v>
+      </c>
+      <c r="L116" t="s">
+        <v>65</v>
+      </c>
+      <c r="M116" t="s">
+        <v>65</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" cm="1">
+        <f t="array" ref="O116">_xlfn.XLOOKUP(D116&amp;I116,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41.4</v>
+      </c>
+      <c r="P116" cm="1">
+        <f t="array" ref="P116">_xlfn.XLOOKUP(D116&amp;I116,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.8</v>
+      </c>
+      <c r="Q116" cm="1">
+        <f t="array" ref="Q116">_xlfn.XLOOKUP(E116&amp;I116,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42</v>
+      </c>
+      <c r="R116" cm="1">
+        <f t="array" ref="R116">_xlfn.XLOOKUP(E116&amp;I116,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.4</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116" cm="1">
+        <f t="array" ref="X116">_xlfn.XLOOKUP(D116&amp;I116,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y116" cm="1">
+        <f t="array" ref="Y116">_xlfn.XLOOKUP(D116&amp;I116,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z116" cm="1">
+        <f t="array" ref="Z116">_xlfn.XLOOKUP(E116&amp;I116,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA116" cm="1">
+        <f t="array" ref="AA116">_xlfn.XLOOKUP(E116&amp;I116,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>2022</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117" t="str" cm="1">
+        <f t="array" ref="J117">_xlfn.XLOOKUP(D117&amp;I117,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K117" cm="1">
+        <f t="array" ref="K117">_xlfn.XLOOKUP(E117&amp;I117,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>3</v>
+      </c>
+      <c r="L117" t="s">
+        <v>64</v>
+      </c>
+      <c r="M117" t="s">
+        <v>64</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" cm="1">
+        <f t="array" ref="O117">_xlfn.XLOOKUP(D117&amp;I117,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27</v>
+      </c>
+      <c r="P117" cm="1">
+        <f t="array" ref="P117">_xlfn.XLOOKUP(D117&amp;I117,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.6</v>
+      </c>
+      <c r="Q117" cm="1">
+        <f t="array" ref="Q117">_xlfn.XLOOKUP(E117&amp;I117,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>48.8</v>
+      </c>
+      <c r="R117" cm="1">
+        <f t="array" ref="R117">_xlfn.XLOOKUP(E117&amp;I117,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.8</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117" cm="1">
+        <f t="array" ref="X117">_xlfn.XLOOKUP(D117&amp;I117,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y117" cm="1">
+        <f t="array" ref="Y117">_xlfn.XLOOKUP(D117&amp;I117,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z117" cm="1">
+        <f t="array" ref="Z117">_xlfn.XLOOKUP(E117&amp;I117,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA117" cm="1">
+        <f t="array" ref="AA117">_xlfn.XLOOKUP(E117&amp;I117,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" t="s">
+        <v>154</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>2022</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="J118" t="str" cm="1">
+        <f t="array" ref="J118">_xlfn.XLOOKUP(D118&amp;I118,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K118" t="str" cm="1">
+        <f t="array" ref="K118">_xlfn.XLOOKUP(E118&amp;I118,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L118" t="s">
+        <v>69</v>
+      </c>
+      <c r="M118" t="s">
+        <v>69</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" cm="1">
+        <f t="array" ref="O118">_xlfn.XLOOKUP(D118&amp;I118,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35</v>
+      </c>
+      <c r="P118" cm="1">
+        <f t="array" ref="P118">_xlfn.XLOOKUP(D118&amp;I118,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.5</v>
+      </c>
+      <c r="Q118" cm="1">
+        <f t="array" ref="Q118">_xlfn.XLOOKUP(E118&amp;I118,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>45.4</v>
+      </c>
+      <c r="R118" cm="1">
+        <f t="array" ref="R118">_xlfn.XLOOKUP(E118&amp;I118,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>33.6</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118" cm="1">
+        <f t="array" ref="X118">_xlfn.XLOOKUP(D118&amp;I118,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y118" cm="1">
+        <f t="array" ref="Y118">_xlfn.XLOOKUP(D118&amp;I118,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z118" cm="1">
+        <f t="array" ref="Z118">_xlfn.XLOOKUP(E118&amp;I118,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA118" cm="1">
+        <f t="array" ref="AA118">_xlfn.XLOOKUP(E118&amp;I118,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s">
+        <v>58</v>
+      </c>
+      <c r="E119" t="s">
+        <v>106</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>2022</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>6</v>
+      </c>
+      <c r="J119" t="str" cm="1">
+        <f t="array" ref="J119">_xlfn.XLOOKUP(D119&amp;I119,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K119" t="str" cm="1">
+        <f t="array" ref="K119">_xlfn.XLOOKUP(E119&amp;I119,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L119" t="s">
+        <v>66</v>
+      </c>
+      <c r="M119" t="s">
+        <v>66</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" cm="1">
+        <f t="array" ref="O119">_xlfn.XLOOKUP(D119&amp;I119,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P119" cm="1">
+        <f t="array" ref="P119">_xlfn.XLOOKUP(D119&amp;I119,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>36.4</v>
+      </c>
+      <c r="Q119" cm="1">
+        <f t="array" ref="Q119">_xlfn.XLOOKUP(E119&amp;I119,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="R119" cm="1">
+        <f t="array" ref="R119">_xlfn.XLOOKUP(E119&amp;I119,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.8</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119" cm="1">
+        <f t="array" ref="X119">_xlfn.XLOOKUP(D119&amp;I119,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Y119" cm="1">
+        <f t="array" ref="Y119">_xlfn.XLOOKUP(D119&amp;I119,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z119" cm="1">
+        <f t="array" ref="Z119">_xlfn.XLOOKUP(E119&amp;I119,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA119" cm="1">
+        <f t="array" ref="AA119">_xlfn.XLOOKUP(E119&amp;I119,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" t="s">
+        <v>87</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>2022</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>6</v>
+      </c>
+      <c r="J120" t="str" cm="1">
+        <f t="array" ref="J120">_xlfn.XLOOKUP(D120&amp;I120,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K120" cm="1">
+        <f t="array" ref="K120">_xlfn.XLOOKUP(E120&amp;I120,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>5</v>
+      </c>
+      <c r="L120" t="s">
+        <v>69</v>
+      </c>
+      <c r="M120" t="s">
+        <v>69</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" cm="1">
+        <f t="array" ref="O120">_xlfn.XLOOKUP(D120&amp;I120,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.4</v>
+      </c>
+      <c r="P120" cm="1">
+        <f t="array" ref="P120">_xlfn.XLOOKUP(D120&amp;I120,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.6</v>
+      </c>
+      <c r="Q120" cm="1">
+        <f t="array" ref="Q120">_xlfn.XLOOKUP(E120&amp;I120,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41</v>
+      </c>
+      <c r="R120" cm="1">
+        <f t="array" ref="R120">_xlfn.XLOOKUP(E120&amp;I120,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.4</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120" cm="1">
+        <f t="array" ref="X120">_xlfn.XLOOKUP(D120&amp;I120,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y120" cm="1">
+        <f t="array" ref="Y120">_xlfn.XLOOKUP(D120&amp;I120,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z120" cm="1">
+        <f t="array" ref="Z120">_xlfn.XLOOKUP(E120&amp;I120,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA120" cm="1">
+        <f t="array" ref="AA120">_xlfn.XLOOKUP(E120&amp;I120,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" t="s">
+        <v>105</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>2022</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>6</v>
+      </c>
+      <c r="J121" cm="1">
+        <f t="array" ref="J121">_xlfn.XLOOKUP(D121&amp;I121,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>6</v>
+      </c>
+      <c r="K121" t="str" cm="1">
+        <f t="array" ref="K121">_xlfn.XLOOKUP(E121&amp;I121,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L121" t="s">
+        <v>65</v>
+      </c>
+      <c r="M121" t="s">
+        <v>65</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" cm="1">
+        <f t="array" ref="O121">_xlfn.XLOOKUP(D121&amp;I121,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.2</v>
+      </c>
+      <c r="P121" cm="1">
+        <f t="array" ref="P121">_xlfn.XLOOKUP(D121&amp;I121,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Q121" cm="1">
+        <f t="array" ref="Q121">_xlfn.XLOOKUP(E121&amp;I121,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.6</v>
+      </c>
+      <c r="R121" cm="1">
+        <f t="array" ref="R121">_xlfn.XLOOKUP(E121&amp;I121,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.2</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121" cm="1">
+        <f t="array" ref="X121">_xlfn.XLOOKUP(D121&amp;I121,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y121" cm="1">
+        <f t="array" ref="Y121">_xlfn.XLOOKUP(D121&amp;I121,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z121" cm="1">
+        <f t="array" ref="Z121">_xlfn.XLOOKUP(E121&amp;I121,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA121" cm="1">
+        <f t="array" ref="AA121">_xlfn.XLOOKUP(E121&amp;I121,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" t="s">
+        <v>97</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>2022</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122" t="str" cm="1">
+        <f t="array" ref="J122">_xlfn.XLOOKUP(D122&amp;I122,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K122" cm="1">
+        <f t="array" ref="K122">_xlfn.XLOOKUP(E122&amp;I122,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>16</v>
+      </c>
+      <c r="L122" t="s">
+        <v>73</v>
+      </c>
+      <c r="M122" t="s">
+        <v>73</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" cm="1">
+        <f t="array" ref="O122">_xlfn.XLOOKUP(D122&amp;I122,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25</v>
+      </c>
+      <c r="P122" cm="1">
+        <f t="array" ref="P122">_xlfn.XLOOKUP(D122&amp;I122,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24</v>
+      </c>
+      <c r="Q122" cm="1">
+        <f t="array" ref="Q122">_xlfn.XLOOKUP(E122&amp;I122,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.4</v>
+      </c>
+      <c r="R122" cm="1">
+        <f t="array" ref="R122">_xlfn.XLOOKUP(E122&amp;I122,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.4</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122" cm="1">
+        <f t="array" ref="X122">_xlfn.XLOOKUP(D122&amp;I122,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y122" cm="1">
+        <f t="array" ref="Y122">_xlfn.XLOOKUP(D122&amp;I122,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z122" cm="1">
+        <f t="array" ref="Z122">_xlfn.XLOOKUP(E122&amp;I122,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA122" cm="1">
+        <f t="array" ref="AA122">_xlfn.XLOOKUP(E122&amp;I122,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C123" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>2022</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>6</v>
+      </c>
+      <c r="J123" cm="1">
+        <f t="array" ref="J123">_xlfn.XLOOKUP(D123&amp;I123,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K123" t="str" cm="1">
+        <f t="array" ref="K123">_xlfn.XLOOKUP(E123&amp;I123,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L123" t="s">
+        <v>70</v>
+      </c>
+      <c r="M123" t="s">
+        <v>70</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" cm="1">
+        <f t="array" ref="O123">_xlfn.XLOOKUP(D123&amp;I123,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>48.4</v>
+      </c>
+      <c r="P123" cm="1">
+        <f t="array" ref="P123">_xlfn.XLOOKUP(D123&amp;I123,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11</v>
+      </c>
+      <c r="Q123" cm="1">
+        <f t="array" ref="Q123">_xlfn.XLOOKUP(E123&amp;I123,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>21.8</v>
+      </c>
+      <c r="R123" cm="1">
+        <f t="array" ref="R123">_xlfn.XLOOKUP(E123&amp;I123,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.8</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123" cm="1">
+        <f t="array" ref="X123">_xlfn.XLOOKUP(D123&amp;I123,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y123" cm="1">
+        <f t="array" ref="Y123">_xlfn.XLOOKUP(D123&amp;I123,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z123" cm="1">
+        <f t="array" ref="Z123">_xlfn.XLOOKUP(E123&amp;I123,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA123" cm="1">
+        <f t="array" ref="AA123">_xlfn.XLOOKUP(E123&amp;I123,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.90625</v>
+      </c>
+      <c r="C124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>132</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>2022</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124" t="str" cm="1">
+        <f t="array" ref="J124">_xlfn.XLOOKUP(D124&amp;I124,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K124" t="str" cm="1">
+        <f t="array" ref="K124">_xlfn.XLOOKUP(E124&amp;I124,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L124" t="s">
+        <v>66</v>
+      </c>
+      <c r="M124" t="s">
+        <v>66</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" cm="1">
+        <f t="array" ref="O124">_xlfn.XLOOKUP(D124&amp;I124,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.6</v>
+      </c>
+      <c r="P124" cm="1">
+        <f t="array" ref="P124">_xlfn.XLOOKUP(D124&amp;I124,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19</v>
+      </c>
+      <c r="Q124" cm="1">
+        <f t="array" ref="Q124">_xlfn.XLOOKUP(E124&amp;I124,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.5</v>
+      </c>
+      <c r="R124" cm="1">
+        <f t="array" ref="R124">_xlfn.XLOOKUP(E124&amp;I124,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.5</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124" cm="1">
+        <f t="array" ref="X124">_xlfn.XLOOKUP(D124&amp;I124,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y124" cm="1">
+        <f t="array" ref="Y124">_xlfn.XLOOKUP(D124&amp;I124,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z124" cm="1">
+        <f t="array" ref="Z124">_xlfn.XLOOKUP(E124&amp;I124,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA124" cm="1">
+        <f t="array" ref="AA124">_xlfn.XLOOKUP(E124&amp;I124,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>2022</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125" t="str" cm="1">
+        <f t="array" ref="J125">_xlfn.XLOOKUP(D125&amp;I125,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K125" t="str" cm="1">
+        <f t="array" ref="K125">_xlfn.XLOOKUP(E125&amp;I125,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L125" t="s">
+        <v>65</v>
+      </c>
+      <c r="M125" t="s">
+        <v>65</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" cm="1">
+        <f t="array" ref="O125">_xlfn.XLOOKUP(D125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.5</v>
+      </c>
+      <c r="P125" cm="1">
+        <f t="array" ref="P125">_xlfn.XLOOKUP(D125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>34</v>
+      </c>
+      <c r="Q125" cm="1">
+        <f t="array" ref="Q125">_xlfn.XLOOKUP(E125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.4</v>
+      </c>
+      <c r="R125" cm="1">
+        <f t="array" ref="R125">_xlfn.XLOOKUP(E125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.2</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125" cm="1">
+        <f t="array" ref="X125">_xlfn.XLOOKUP(D125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Y125" cm="1">
+        <f t="array" ref="Y125">_xlfn.XLOOKUP(D125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z125" cm="1">
+        <f t="array" ref="Z125">_xlfn.XLOOKUP(E125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA125" cm="1">
+        <f t="array" ref="AA125">_xlfn.XLOOKUP(E125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
         <v>2</v>
       </c>
     </row>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11002"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF1F3E-6605-5D4A-991F-AC2395457B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E77B8-0AE7-AC48-B5C1-A5010FB04BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13360" windowWidth="40960" windowHeight="11000" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="0" yWindow="13320" windowWidth="40960" windowHeight="11000" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Ranking" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$344</definedName>
   </definedNames>
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="190">
   <si>
     <t>Time</t>
   </si>
@@ -692,6 +696,4097 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Offense"/>
+      <sheetName val="Defense"/>
+      <sheetName val="Wins"/>
+      <sheetName val="Losses"/>
+      <sheetName val="Sheet6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Air Force</v>
+          </cell>
+          <cell r="B2">
+            <v>31.8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Akron</v>
+          </cell>
+          <cell r="B3">
+            <v>18.3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Alabama</v>
+          </cell>
+          <cell r="B4">
+            <v>44.3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Appalachian State</v>
+          </cell>
+          <cell r="B5">
+            <v>35.200000000000003</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Arizona</v>
+          </cell>
+          <cell r="B6">
+            <v>30.3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Arizona State</v>
+          </cell>
+          <cell r="B7">
+            <v>26.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Arkansas</v>
+          </cell>
+          <cell r="B8">
+            <v>29.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Arkansas State</v>
+          </cell>
+          <cell r="B9">
+            <v>32.200000000000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Army</v>
+          </cell>
+          <cell r="B10">
+            <v>27.8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Auburn</v>
+          </cell>
+          <cell r="B11">
+            <v>20.3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Ball State</v>
+          </cell>
+          <cell r="B12">
+            <v>25.8</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Baylor</v>
+          </cell>
+          <cell r="B13">
+            <v>37.4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Boise State</v>
+          </cell>
+          <cell r="B14">
+            <v>27.2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Boston College</v>
+          </cell>
+          <cell r="B15">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Bowling Green</v>
+          </cell>
+          <cell r="B16">
+            <v>26.7</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Buffalo</v>
+          </cell>
+          <cell r="B17">
+            <v>29.8</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>BYU</v>
+          </cell>
+          <cell r="B18">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>California</v>
+          </cell>
+          <cell r="B19">
+            <v>25.8</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Central Michigan</v>
+          </cell>
+          <cell r="B20">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Charlotte</v>
+          </cell>
+          <cell r="B21">
+            <v>25.8</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Cincinnati</v>
+          </cell>
+          <cell r="B22">
+            <v>38.200000000000003</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Clemson</v>
+          </cell>
+          <cell r="B23">
+            <v>39.299999999999997</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Coastal Carolina</v>
+          </cell>
+          <cell r="B24">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Colorado</v>
+          </cell>
+          <cell r="B25">
+            <v>13.4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Colorado State</v>
+          </cell>
+          <cell r="B26">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Connecticut</v>
+          </cell>
+          <cell r="B27">
+            <v>17.7</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Duke</v>
+          </cell>
+          <cell r="B28">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>East Carolina</v>
+          </cell>
+          <cell r="B29">
+            <v>30.8</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Eastern Michigan</v>
+          </cell>
+          <cell r="B30">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Florida</v>
+          </cell>
+          <cell r="B31">
+            <v>30.8</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Florida Atlantic</v>
+          </cell>
+          <cell r="B32">
+            <v>31.8</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Florida International</v>
+          </cell>
+          <cell r="B33">
+            <v>16.600000000000001</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Florida State</v>
+          </cell>
+          <cell r="B34">
+            <v>31.3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Fresno State</v>
+          </cell>
+          <cell r="B35">
+            <v>23.6</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Georgia</v>
+          </cell>
+          <cell r="B36">
+            <v>39.5</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Georgia Southern</v>
+          </cell>
+          <cell r="B37">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Georgia State</v>
+          </cell>
+          <cell r="B38">
+            <v>29.8</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Georgia Tech</v>
+          </cell>
+          <cell r="B39">
+            <v>17.3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Hawai'i</v>
+          </cell>
+          <cell r="B40">
+            <v>16.8</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Houston</v>
+          </cell>
+          <cell r="B41">
+            <v>31.3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Illinois</v>
+          </cell>
+          <cell r="B42">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Indiana</v>
+          </cell>
+          <cell r="B43">
+            <v>24.3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Iowa</v>
+          </cell>
+          <cell r="B44">
+            <v>14.7</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Iowa State</v>
+          </cell>
+          <cell r="B45">
+            <v>23.2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>James Madison</v>
+          </cell>
+          <cell r="B46">
+            <v>44.2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Kansas</v>
+          </cell>
+          <cell r="B47">
+            <v>39.799999999999997</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Kansas State</v>
+          </cell>
+          <cell r="B48">
+            <v>28.7</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Kent State</v>
+          </cell>
+          <cell r="B49">
+            <v>27.2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Kentucky</v>
+          </cell>
+          <cell r="B50">
+            <v>26.3</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Liberty</v>
+          </cell>
+          <cell r="B51">
+            <v>31.2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Louisiana Tech</v>
+          </cell>
+          <cell r="B52">
+            <v>30.2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Louisiana-Lafayette</v>
+          </cell>
+          <cell r="B53">
+            <v>25.6</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Louisiana-Monroe</v>
+          </cell>
+          <cell r="B54">
+            <v>20.3</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Louisville</v>
+          </cell>
+          <cell r="B55">
+            <v>27.7</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>LSU</v>
+          </cell>
+          <cell r="B56">
+            <v>31.8</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Marshall</v>
+          </cell>
+          <cell r="B57">
+            <v>29.4</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Maryland</v>
+          </cell>
+          <cell r="B58">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Massachusetts</v>
+          </cell>
+          <cell r="B59">
+            <v>12.8</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Memphis</v>
+          </cell>
+          <cell r="B60">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Miami (Florida)</v>
+          </cell>
+          <cell r="B61">
+            <v>32.799999999999997</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Miami (Ohio)</v>
+          </cell>
+          <cell r="B62">
+            <v>20.8</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Michigan</v>
+          </cell>
+          <cell r="B63">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Michigan State</v>
+          </cell>
+          <cell r="B64">
+            <v>25.8</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Middle Tennessee</v>
+          </cell>
+          <cell r="B65">
+            <v>29.8</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Minnesota</v>
+          </cell>
+          <cell r="B66">
+            <v>38.6</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Mississippi</v>
+          </cell>
+          <cell r="B67">
+            <v>39.700000000000003</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Mississippi State</v>
+          </cell>
+          <cell r="B68">
+            <v>38.5</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Missouri</v>
+          </cell>
+          <cell r="B69">
+            <v>25.2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Navy</v>
+          </cell>
+          <cell r="B70">
+            <v>21.2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Nebraska</v>
+          </cell>
+          <cell r="B71">
+            <v>28.5</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Nevada</v>
+          </cell>
+          <cell r="B72">
+            <v>22.7</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>New Mexico</v>
+          </cell>
+          <cell r="B73">
+            <v>19.3</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>New Mexico State</v>
+          </cell>
+          <cell r="B74">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>North Carolina</v>
+          </cell>
+          <cell r="B75">
+            <v>42.3</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>North Carolina State</v>
+          </cell>
+          <cell r="B76">
+            <v>30.5</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>North Texas</v>
+          </cell>
+          <cell r="B77">
+            <v>34.299999999999997</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Northern Illinois</v>
+          </cell>
+          <cell r="B78">
+            <v>31.7</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Northwestern</v>
+          </cell>
+          <cell r="B79">
+            <v>17.7</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Notre Dame</v>
+          </cell>
+          <cell r="B80">
+            <v>25.6</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Ohio</v>
+          </cell>
+          <cell r="B81">
+            <v>33.200000000000003</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Ohio State</v>
+          </cell>
+          <cell r="B82">
+            <v>48.8</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Oklahoma</v>
+          </cell>
+          <cell r="B83">
+            <v>30.8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Oklahoma State</v>
+          </cell>
+          <cell r="B84">
+            <v>46.4</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Old Dominion</v>
+          </cell>
+          <cell r="B85">
+            <v>21.6</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>Oregon</v>
+          </cell>
+          <cell r="B86">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>Oregon State</v>
+          </cell>
+          <cell r="B87">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>Penn State</v>
+          </cell>
+          <cell r="B88">
+            <v>34.4</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>Pittsburgh</v>
+          </cell>
+          <cell r="B89">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>Purdue</v>
+          </cell>
+          <cell r="B90">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>Rice</v>
+          </cell>
+          <cell r="B91">
+            <v>30.8</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>Rutgers</v>
+          </cell>
+          <cell r="B92">
+            <v>22.8</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>San Diego State</v>
+          </cell>
+          <cell r="B93">
+            <v>18.5</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>San Jose State</v>
+          </cell>
+          <cell r="B94">
+            <v>28.8</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>SMU</v>
+          </cell>
+          <cell r="B95">
+            <v>34.6</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>South Alabama</v>
+          </cell>
+          <cell r="B96">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>South Carolina</v>
+          </cell>
+          <cell r="B97">
+            <v>33.700000000000003</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>South Florida</v>
+          </cell>
+          <cell r="B98">
+            <v>24.3</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>Southern Mississippi</v>
+          </cell>
+          <cell r="B99">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>Stanford</v>
+          </cell>
+          <cell r="B100">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>Syracuse</v>
+          </cell>
+          <cell r="B101">
+            <v>38.4</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>TCU</v>
+          </cell>
+          <cell r="B102">
+            <v>46.4</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>Temple</v>
+          </cell>
+          <cell r="B103">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>Tennessee</v>
+          </cell>
+          <cell r="B104">
+            <v>46.8</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>Texas</v>
+          </cell>
+          <cell r="B105">
+            <v>38.799999999999997</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>Texas A&amp;M</v>
+          </cell>
+          <cell r="B106">
+            <v>21.5</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>Texas State</v>
+          </cell>
+          <cell r="B107">
+            <v>24.2</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>Texas Tech</v>
+          </cell>
+          <cell r="B108">
+            <v>34.299999999999997</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>Toledo</v>
+          </cell>
+          <cell r="B109">
+            <v>36.200000000000003</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>Troy</v>
+          </cell>
+          <cell r="B110">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>Tulane</v>
+          </cell>
+          <cell r="B111">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>Tulsa</v>
+          </cell>
+          <cell r="B112">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>UAB</v>
+          </cell>
+          <cell r="B113">
+            <v>34.6</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>UCF</v>
+          </cell>
+          <cell r="B114">
+            <v>35.6</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>UCLA</v>
+          </cell>
+          <cell r="B115">
+            <v>41.5</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>UNLV</v>
+          </cell>
+          <cell r="B116">
+            <v>32.700000000000003</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>USC</v>
+          </cell>
+          <cell r="B117">
+            <v>40.200000000000003</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>Utah</v>
+          </cell>
+          <cell r="B118">
+            <v>40.299999999999997</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>Utah State</v>
+          </cell>
+          <cell r="B119">
+            <v>20.3</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>UTEP</v>
+          </cell>
+          <cell r="B120">
+            <v>22.1</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>UTSA</v>
+          </cell>
+          <cell r="B121">
+            <v>37.299999999999997</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>Vanderbilt</v>
+          </cell>
+          <cell r="B122">
+            <v>33.200000000000003</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>Virginia</v>
+          </cell>
+          <cell r="B123">
+            <v>17.8</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>Virginia Tech</v>
+          </cell>
+          <cell r="B124">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>Wake Forest</v>
+          </cell>
+          <cell r="B125">
+            <v>41.2</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="B126">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>Washington State</v>
+          </cell>
+          <cell r="B127">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>West Virginia</v>
+          </cell>
+          <cell r="B128">
+            <v>38.200000000000003</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>Western Kentucky</v>
+          </cell>
+          <cell r="B129">
+            <v>40.799999999999997</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>Western Michigan</v>
+          </cell>
+          <cell r="B130">
+            <v>22.7</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>Wisconsin</v>
+          </cell>
+          <cell r="B131">
+            <v>31.8</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>Wyoming</v>
+          </cell>
+          <cell r="B132">
+            <v>23.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Air Force</v>
+          </cell>
+          <cell r="B2">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Akron</v>
+          </cell>
+          <cell r="B3">
+            <v>40.799999999999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Alabama</v>
+          </cell>
+          <cell r="B4">
+            <v>12.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Appalachian State</v>
+          </cell>
+          <cell r="B5">
+            <v>28.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Arizona</v>
+          </cell>
+          <cell r="B6">
+            <v>34.200000000000003</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Arizona State</v>
+          </cell>
+          <cell r="B7">
+            <v>30.2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Arkansas</v>
+          </cell>
+          <cell r="B8">
+            <v>32.200000000000003</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Arkansas State</v>
+          </cell>
+          <cell r="B9">
+            <v>31.8</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Army</v>
+          </cell>
+          <cell r="B10">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Auburn</v>
+          </cell>
+          <cell r="B11">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Ball State</v>
+          </cell>
+          <cell r="B12">
+            <v>30.7</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Baylor</v>
+          </cell>
+          <cell r="B13">
+            <v>20.6</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Boise State</v>
+          </cell>
+          <cell r="B14">
+            <v>19.2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Boston College</v>
+          </cell>
+          <cell r="B15">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Bowling Green</v>
+          </cell>
+          <cell r="B16">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Buffalo</v>
+          </cell>
+          <cell r="B17">
+            <v>27.3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>BYU</v>
+          </cell>
+          <cell r="B18">
+            <v>26.7</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>California</v>
+          </cell>
+          <cell r="B19">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Central Michigan</v>
+          </cell>
+          <cell r="B20">
+            <v>30.7</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Charlotte</v>
+          </cell>
+          <cell r="B21">
+            <v>46.3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Cincinnati</v>
+          </cell>
+          <cell r="B22">
+            <v>21.2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Clemson</v>
+          </cell>
+          <cell r="B23">
+            <v>18.3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Coastal Carolina</v>
+          </cell>
+          <cell r="B24">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Colorado</v>
+          </cell>
+          <cell r="B25">
+            <v>43.2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Colorado State</v>
+          </cell>
+          <cell r="B26">
+            <v>35.6</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Connecticut</v>
+          </cell>
+          <cell r="B27">
+            <v>29.7</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Duke</v>
+          </cell>
+          <cell r="B28">
+            <v>19.7</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>East Carolina</v>
+          </cell>
+          <cell r="B29">
+            <v>21.2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Eastern Michigan</v>
+          </cell>
+          <cell r="B30">
+            <v>31.7</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Florida</v>
+          </cell>
+          <cell r="B31">
+            <v>25.3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Florida Atlantic</v>
+          </cell>
+          <cell r="B32">
+            <v>29.3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Florida International</v>
+          </cell>
+          <cell r="B33">
+            <v>38.200000000000003</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Florida State</v>
+          </cell>
+          <cell r="B34">
+            <v>20.8</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Fresno State</v>
+          </cell>
+          <cell r="B35">
+            <v>29.2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Georgia</v>
+          </cell>
+          <cell r="B36">
+            <v>10.7</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Georgia Southern</v>
+          </cell>
+          <cell r="B37">
+            <v>30.3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Georgia State</v>
+          </cell>
+          <cell r="B38">
+            <v>33.299999999999997</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Georgia Tech</v>
+          </cell>
+          <cell r="B39">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Hawai'i</v>
+          </cell>
+          <cell r="B40">
+            <v>40.5</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Houston</v>
+          </cell>
+          <cell r="B41">
+            <v>33.700000000000003</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Illinois</v>
+          </cell>
+          <cell r="B42">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Indiana</v>
+          </cell>
+          <cell r="B43">
+            <v>30.5</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Iowa</v>
+          </cell>
+          <cell r="B44">
+            <v>9.8000000000000007</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Iowa State</v>
+          </cell>
+          <cell r="B45">
+            <v>13.7</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>James Madison</v>
+          </cell>
+          <cell r="B46">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Kansas</v>
+          </cell>
+          <cell r="B47">
+            <v>26.3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Kansas State</v>
+          </cell>
+          <cell r="B48">
+            <v>16.7</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Kent State</v>
+          </cell>
+          <cell r="B49">
+            <v>29.7</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Kentucky</v>
+          </cell>
+          <cell r="B50">
+            <v>16.3</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Liberty</v>
+          </cell>
+          <cell r="B51">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Louisiana Tech</v>
+          </cell>
+          <cell r="B52">
+            <v>37.200000000000003</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Louisiana-Lafayette</v>
+          </cell>
+          <cell r="B53">
+            <v>20.399999999999999</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Louisiana-Monroe</v>
+          </cell>
+          <cell r="B54">
+            <v>35.299999999999997</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Louisville</v>
+          </cell>
+          <cell r="B55">
+            <v>22.3</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>LSU</v>
+          </cell>
+          <cell r="B56">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Marshall</v>
+          </cell>
+          <cell r="B57">
+            <v>16.2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Maryland</v>
+          </cell>
+          <cell r="B58">
+            <v>22.7</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Massachusetts</v>
+          </cell>
+          <cell r="B59">
+            <v>31.7</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Memphis</v>
+          </cell>
+          <cell r="B60">
+            <v>27.3</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Miami (Florida)</v>
+          </cell>
+          <cell r="B61">
+            <v>21.8</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Miami (Ohio)</v>
+          </cell>
+          <cell r="B62">
+            <v>25.2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Michigan</v>
+          </cell>
+          <cell r="B63">
+            <v>11.3</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Michigan State</v>
+          </cell>
+          <cell r="B64">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Middle Tennessee</v>
+          </cell>
+          <cell r="B65">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Minnesota</v>
+          </cell>
+          <cell r="B66">
+            <v>8.8000000000000007</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Mississippi</v>
+          </cell>
+          <cell r="B67">
+            <v>14.5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Mississippi State</v>
+          </cell>
+          <cell r="B68">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Missouri</v>
+          </cell>
+          <cell r="B69">
+            <v>24.7</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Navy</v>
+          </cell>
+          <cell r="B70">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Nebraska</v>
+          </cell>
+          <cell r="B71">
+            <v>29.3</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Nevada</v>
+          </cell>
+          <cell r="B72">
+            <v>28.8</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>New Mexico</v>
+          </cell>
+          <cell r="B73">
+            <v>22.8</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>New Mexico State</v>
+          </cell>
+          <cell r="B74">
+            <v>32.299999999999997</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>North Carolina</v>
+          </cell>
+          <cell r="B75">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>North Carolina State</v>
+          </cell>
+          <cell r="B76">
+            <v>15.7</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>North Texas</v>
+          </cell>
+          <cell r="B77">
+            <v>36.299999999999997</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Northern Illinois</v>
+          </cell>
+          <cell r="B78">
+            <v>38.299999999999997</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Northwestern</v>
+          </cell>
+          <cell r="B79">
+            <v>27.7</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Notre Dame</v>
+          </cell>
+          <cell r="B80">
+            <v>23.2</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Ohio</v>
+          </cell>
+          <cell r="B81">
+            <v>40.700000000000003</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Ohio State</v>
+          </cell>
+          <cell r="B82">
+            <v>15.7</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Oklahoma</v>
+          </cell>
+          <cell r="B83">
+            <v>29.2</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Oklahoma State</v>
+          </cell>
+          <cell r="B84">
+            <v>24.8</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Old Dominion</v>
+          </cell>
+          <cell r="B85">
+            <v>27.2</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>Oregon</v>
+          </cell>
+          <cell r="B86">
+            <v>28.8</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>Oregon State</v>
+          </cell>
+          <cell r="B87">
+            <v>27.2</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>Penn State</v>
+          </cell>
+          <cell r="B88">
+            <v>14.8</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>Pittsburgh</v>
+          </cell>
+          <cell r="B89">
+            <v>26.2</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>Purdue</v>
+          </cell>
+          <cell r="B90">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>Rice</v>
+          </cell>
+          <cell r="B91">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>Rutgers</v>
+          </cell>
+          <cell r="B92">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>San Diego State</v>
+          </cell>
+          <cell r="B93">
+            <v>23.8</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>San Jose State</v>
+          </cell>
+          <cell r="B94">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>SMU</v>
+          </cell>
+          <cell r="B95">
+            <v>28.6</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>South Alabama</v>
+          </cell>
+          <cell r="B96">
+            <v>18.8</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>South Carolina</v>
+          </cell>
+          <cell r="B97">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>South Florida</v>
+          </cell>
+          <cell r="B98">
+            <v>36.299999999999997</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>Southern Mississippi</v>
+          </cell>
+          <cell r="B99">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>Stanford</v>
+          </cell>
+          <cell r="B100">
+            <v>32.799999999999997</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>Syracuse</v>
+          </cell>
+          <cell r="B101">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>TCU</v>
+          </cell>
+          <cell r="B102">
+            <v>23.8</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>Temple</v>
+          </cell>
+          <cell r="B103">
+            <v>16.8</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>Tennessee</v>
+          </cell>
+          <cell r="B104">
+            <v>17.8</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>Texas</v>
+          </cell>
+          <cell r="B105">
+            <v>17.8</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>Texas A&amp;M</v>
+          </cell>
+          <cell r="B106">
+            <v>18.8</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>Texas State</v>
+          </cell>
+          <cell r="B107">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>Texas Tech</v>
+          </cell>
+          <cell r="B108">
+            <v>29.8</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>Toledo</v>
+          </cell>
+          <cell r="B109">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>Troy</v>
+          </cell>
+          <cell r="B110">
+            <v>20.2</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>Tulane</v>
+          </cell>
+          <cell r="B111">
+            <v>13.3</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>Tulsa</v>
+          </cell>
+          <cell r="B112">
+            <v>35.200000000000003</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>UAB</v>
+          </cell>
+          <cell r="B113">
+            <v>16.8</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>UCF</v>
+          </cell>
+          <cell r="B114">
+            <v>14.6</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>UCLA</v>
+          </cell>
+          <cell r="B115">
+            <v>22.7</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>UNLV</v>
+          </cell>
+          <cell r="B116">
+            <v>25.3</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>USC</v>
+          </cell>
+          <cell r="B117">
+            <v>18.7</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>Utah</v>
+          </cell>
+          <cell r="B118">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>Utah State</v>
+          </cell>
+          <cell r="B119">
+            <v>34.799999999999997</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>UTEP</v>
+          </cell>
+          <cell r="B120">
+            <v>28.9</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>UTSA</v>
+          </cell>
+          <cell r="B121">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>Vanderbilt</v>
+          </cell>
+          <cell r="B122">
+            <v>36.799999999999997</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>Virginia</v>
+          </cell>
+          <cell r="B123">
+            <v>24.8</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>Virginia Tech</v>
+          </cell>
+          <cell r="B124">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>Wake Forest</v>
+          </cell>
+          <cell r="B125">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="B126">
+            <v>26.8</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>Washington State</v>
+          </cell>
+          <cell r="B127">
+            <v>20.2</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>West Virginia</v>
+          </cell>
+          <cell r="B128">
+            <v>29.6</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>Western Kentucky</v>
+          </cell>
+          <cell r="B129">
+            <v>23.7</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>Western Michigan</v>
+          </cell>
+          <cell r="B130">
+            <v>30.8</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>Wisconsin</v>
+          </cell>
+          <cell r="B131">
+            <v>19.5</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>Wyoming</v>
+          </cell>
+          <cell r="B132">
+            <v>26.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Air Force</v>
+          </cell>
+          <cell r="B2">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Akron</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Alabama</v>
+          </cell>
+          <cell r="B4">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Appalachian State</v>
+          </cell>
+          <cell r="B5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Arizona</v>
+          </cell>
+          <cell r="B6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Arizona State</v>
+          </cell>
+          <cell r="B7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Arkansas</v>
+          </cell>
+          <cell r="B8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Arkansas State</v>
+          </cell>
+          <cell r="B9">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Army</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Auburn</v>
+          </cell>
+          <cell r="B11">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Ball State</v>
+          </cell>
+          <cell r="B12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Baylor</v>
+          </cell>
+          <cell r="B13">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Boise State</v>
+          </cell>
+          <cell r="B14">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Boston College</v>
+          </cell>
+          <cell r="B15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Bowling Green</v>
+          </cell>
+          <cell r="B16">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Buffalo</v>
+          </cell>
+          <cell r="B17">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>BYU</v>
+          </cell>
+          <cell r="B18">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>California</v>
+          </cell>
+          <cell r="B19">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Central Michigan</v>
+          </cell>
+          <cell r="B20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Charlotte</v>
+          </cell>
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Cincinnati</v>
+          </cell>
+          <cell r="B22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Clemson</v>
+          </cell>
+          <cell r="B23">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Coastal Carolina</v>
+          </cell>
+          <cell r="B24">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Colorado State</v>
+          </cell>
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Connecticut</v>
+          </cell>
+          <cell r="B26">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Duke</v>
+          </cell>
+          <cell r="B27">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>East Carolina</v>
+          </cell>
+          <cell r="B28">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Eastern Michigan</v>
+          </cell>
+          <cell r="B29">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Florida</v>
+          </cell>
+          <cell r="B30">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Florida Atlantic</v>
+          </cell>
+          <cell r="B31">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Florida International</v>
+          </cell>
+          <cell r="B32">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Florida State</v>
+          </cell>
+          <cell r="B33">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Fresno State</v>
+          </cell>
+          <cell r="B34">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Georgia</v>
+          </cell>
+          <cell r="B35">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Georgia Southern</v>
+          </cell>
+          <cell r="B36">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Georgia State</v>
+          </cell>
+          <cell r="B37">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Georgia Tech</v>
+          </cell>
+          <cell r="B38">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Hawai'i</v>
+          </cell>
+          <cell r="B39">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Houston</v>
+          </cell>
+          <cell r="B40">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Illinois</v>
+          </cell>
+          <cell r="B41">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Indiana</v>
+          </cell>
+          <cell r="B42">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Iowa</v>
+          </cell>
+          <cell r="B43">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Iowa State</v>
+          </cell>
+          <cell r="B44">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>James Madison</v>
+          </cell>
+          <cell r="B45">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Kansas</v>
+          </cell>
+          <cell r="B46">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Kansas State</v>
+          </cell>
+          <cell r="B47">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Kent State</v>
+          </cell>
+          <cell r="B48">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Kentucky</v>
+          </cell>
+          <cell r="B49">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Liberty</v>
+          </cell>
+          <cell r="B50">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Louisiana Tech</v>
+          </cell>
+          <cell r="B51">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Louisiana-Lafayette</v>
+          </cell>
+          <cell r="B52">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Louisiana-Monroe</v>
+          </cell>
+          <cell r="B53">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Louisville</v>
+          </cell>
+          <cell r="B54">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>LSU</v>
+          </cell>
+          <cell r="B55">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Marshall</v>
+          </cell>
+          <cell r="B56">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Maryland</v>
+          </cell>
+          <cell r="B57">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Massachusetts</v>
+          </cell>
+          <cell r="B58">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Memphis</v>
+          </cell>
+          <cell r="B59">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Miami (Florida)</v>
+          </cell>
+          <cell r="B60">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Miami (Ohio)</v>
+          </cell>
+          <cell r="B61">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Michigan</v>
+          </cell>
+          <cell r="B62">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Michigan State</v>
+          </cell>
+          <cell r="B63">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Middle Tennessee</v>
+          </cell>
+          <cell r="B64">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Minnesota</v>
+          </cell>
+          <cell r="B65">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Mississippi</v>
+          </cell>
+          <cell r="B66">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Mississippi State</v>
+          </cell>
+          <cell r="B67">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Missouri</v>
+          </cell>
+          <cell r="B68">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Navy</v>
+          </cell>
+          <cell r="B69">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Nebraska</v>
+          </cell>
+          <cell r="B70">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Nevada</v>
+          </cell>
+          <cell r="B71">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>New Mexico</v>
+          </cell>
+          <cell r="B72">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>New Mexico State</v>
+          </cell>
+          <cell r="B73">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>North Carolina</v>
+          </cell>
+          <cell r="B74">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>North Carolina State</v>
+          </cell>
+          <cell r="B75">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>North Texas</v>
+          </cell>
+          <cell r="B76">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Northern Illinois</v>
+          </cell>
+          <cell r="B77">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Northwestern</v>
+          </cell>
+          <cell r="B78">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Notre Dame</v>
+          </cell>
+          <cell r="B79">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Ohio</v>
+          </cell>
+          <cell r="B80">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Ohio State</v>
+          </cell>
+          <cell r="B81">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Oklahoma</v>
+          </cell>
+          <cell r="B82">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Oklahoma State</v>
+          </cell>
+          <cell r="B83">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Old Dominion</v>
+          </cell>
+          <cell r="B84">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Oregon</v>
+          </cell>
+          <cell r="B85">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>Oregon State</v>
+          </cell>
+          <cell r="B86">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>Penn State</v>
+          </cell>
+          <cell r="B87">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>Pittsburgh</v>
+          </cell>
+          <cell r="B88">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>Purdue</v>
+          </cell>
+          <cell r="B89">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>Rice</v>
+          </cell>
+          <cell r="B90">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>Rutgers</v>
+          </cell>
+          <cell r="B91">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>San Diego State</v>
+          </cell>
+          <cell r="B92">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>San Jose State</v>
+          </cell>
+          <cell r="B93">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>SMU</v>
+          </cell>
+          <cell r="B94">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>South Alabama</v>
+          </cell>
+          <cell r="B95">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>South Carolina</v>
+          </cell>
+          <cell r="B96">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>South Florida</v>
+          </cell>
+          <cell r="B97">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>Southern Mississippi</v>
+          </cell>
+          <cell r="B98">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>Stanford</v>
+          </cell>
+          <cell r="B99">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>Syracuse</v>
+          </cell>
+          <cell r="B100">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>TCU</v>
+          </cell>
+          <cell r="B101">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>Temple</v>
+          </cell>
+          <cell r="B102">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>Tennessee</v>
+          </cell>
+          <cell r="B103">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>Texas</v>
+          </cell>
+          <cell r="B104">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>Texas A&amp;M</v>
+          </cell>
+          <cell r="B105">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>Texas State</v>
+          </cell>
+          <cell r="B106">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>Texas Tech</v>
+          </cell>
+          <cell r="B107">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>Toledo</v>
+          </cell>
+          <cell r="B108">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>Troy</v>
+          </cell>
+          <cell r="B109">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>Tulane</v>
+          </cell>
+          <cell r="B110">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>Tulsa</v>
+          </cell>
+          <cell r="B111">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>UAB</v>
+          </cell>
+          <cell r="B112">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>UCF</v>
+          </cell>
+          <cell r="B113">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>UCLA</v>
+          </cell>
+          <cell r="B114">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>UNLV</v>
+          </cell>
+          <cell r="B115">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>USC</v>
+          </cell>
+          <cell r="B116">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>Utah</v>
+          </cell>
+          <cell r="B117">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>Utah State</v>
+          </cell>
+          <cell r="B118">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>UTEP</v>
+          </cell>
+          <cell r="B119">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>UTSA</v>
+          </cell>
+          <cell r="B120">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>Vanderbilt</v>
+          </cell>
+          <cell r="B121">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>Virginia</v>
+          </cell>
+          <cell r="B122">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>Virginia Tech</v>
+          </cell>
+          <cell r="B123">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>Wake Forest</v>
+          </cell>
+          <cell r="B124">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="B125">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>Washington State</v>
+          </cell>
+          <cell r="B126">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>West Virginia</v>
+          </cell>
+          <cell r="B127">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>Western Kentucky</v>
+          </cell>
+          <cell r="B128">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>Western Michigan</v>
+          </cell>
+          <cell r="B129">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>Wisconsin</v>
+          </cell>
+          <cell r="B130">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>Wyoming</v>
+          </cell>
+          <cell r="B131">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Air Force</v>
+          </cell>
+          <cell r="B2">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Akron</v>
+          </cell>
+          <cell r="B3">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Appalachian State</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Arizona</v>
+          </cell>
+          <cell r="B5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Arizona State</v>
+          </cell>
+          <cell r="B6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Arkansas</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Arkansas State</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Army</v>
+          </cell>
+          <cell r="B9">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Auburn</v>
+          </cell>
+          <cell r="B10">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Ball State</v>
+          </cell>
+          <cell r="B11">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Baylor</v>
+          </cell>
+          <cell r="B12">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Boise State</v>
+          </cell>
+          <cell r="B13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Boston College</v>
+          </cell>
+          <cell r="B14">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Bowling Green</v>
+          </cell>
+          <cell r="B15">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Buffalo</v>
+          </cell>
+          <cell r="B16">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>BYU</v>
+          </cell>
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>California</v>
+          </cell>
+          <cell r="B18">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Central Michigan</v>
+          </cell>
+          <cell r="B19">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Charlotte</v>
+          </cell>
+          <cell r="B20">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Cincinnati</v>
+          </cell>
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Colorado</v>
+          </cell>
+          <cell r="B22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Colorado State</v>
+          </cell>
+          <cell r="B23">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Connecticut</v>
+          </cell>
+          <cell r="B24">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Duke</v>
+          </cell>
+          <cell r="B25">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>East Carolina</v>
+          </cell>
+          <cell r="B26">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Eastern Michigan</v>
+          </cell>
+          <cell r="B27">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Florida</v>
+          </cell>
+          <cell r="B28">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Florida Atlantic</v>
+          </cell>
+          <cell r="B29">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Florida International</v>
+          </cell>
+          <cell r="B30">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Florida State</v>
+          </cell>
+          <cell r="B31">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Fresno State</v>
+          </cell>
+          <cell r="B32">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Georgia Southern</v>
+          </cell>
+          <cell r="B33">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Georgia State</v>
+          </cell>
+          <cell r="B34">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Georgia Tech</v>
+          </cell>
+          <cell r="B35">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Hawai'i</v>
+          </cell>
+          <cell r="B36">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Houston</v>
+          </cell>
+          <cell r="B37">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Illinois</v>
+          </cell>
+          <cell r="B38">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Indiana</v>
+          </cell>
+          <cell r="B39">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Iowa</v>
+          </cell>
+          <cell r="B40">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Iowa State</v>
+          </cell>
+          <cell r="B41">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Kansas</v>
+          </cell>
+          <cell r="B42">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Kansas State</v>
+          </cell>
+          <cell r="B43">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Kent State</v>
+          </cell>
+          <cell r="B44">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Kentucky</v>
+          </cell>
+          <cell r="B45">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Liberty</v>
+          </cell>
+          <cell r="B46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Louisiana Tech</v>
+          </cell>
+          <cell r="B47">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Louisiana-Lafayette</v>
+          </cell>
+          <cell r="B48">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Louisiana-Monroe</v>
+          </cell>
+          <cell r="B49">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Louisville</v>
+          </cell>
+          <cell r="B50">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>LSU</v>
+          </cell>
+          <cell r="B51">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Marshall</v>
+          </cell>
+          <cell r="B52">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Maryland</v>
+          </cell>
+          <cell r="B53">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Massachusetts</v>
+          </cell>
+          <cell r="B54">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Memphis</v>
+          </cell>
+          <cell r="B55">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Miami (Florida)</v>
+          </cell>
+          <cell r="B56">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Miami (Ohio)</v>
+          </cell>
+          <cell r="B57">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Michigan State</v>
+          </cell>
+          <cell r="B58">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Middle Tennessee</v>
+          </cell>
+          <cell r="B59">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Minnesota</v>
+          </cell>
+          <cell r="B60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Mississippi State</v>
+          </cell>
+          <cell r="B61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Missouri</v>
+          </cell>
+          <cell r="B62">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Navy</v>
+          </cell>
+          <cell r="B63">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Nebraska</v>
+          </cell>
+          <cell r="B64">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Nevada</v>
+          </cell>
+          <cell r="B65">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>New Mexico</v>
+          </cell>
+          <cell r="B66">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>New Mexico State</v>
+          </cell>
+          <cell r="B67">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>North Carolina</v>
+          </cell>
+          <cell r="B68">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>North Carolina State</v>
+          </cell>
+          <cell r="B69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>North Texas</v>
+          </cell>
+          <cell r="B70">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Northern Illinois</v>
+          </cell>
+          <cell r="B71">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Northwestern</v>
+          </cell>
+          <cell r="B72">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Notre Dame</v>
+          </cell>
+          <cell r="B73">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Ohio</v>
+          </cell>
+          <cell r="B74">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Oklahoma</v>
+          </cell>
+          <cell r="B75">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Old Dominion</v>
+          </cell>
+          <cell r="B76">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Oregon</v>
+          </cell>
+          <cell r="B77">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Oregon State</v>
+          </cell>
+          <cell r="B78">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Pittsburgh</v>
+          </cell>
+          <cell r="B79">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Purdue</v>
+          </cell>
+          <cell r="B80">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Rice</v>
+          </cell>
+          <cell r="B81">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Rutgers</v>
+          </cell>
+          <cell r="B82">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>San Diego State</v>
+          </cell>
+          <cell r="B83">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>San Jose State</v>
+          </cell>
+          <cell r="B84">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>SMU</v>
+          </cell>
+          <cell r="B85">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>South Alabama</v>
+          </cell>
+          <cell r="B86">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>South Carolina</v>
+          </cell>
+          <cell r="B87">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>South Florida</v>
+          </cell>
+          <cell r="B88">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>Southern Mississippi</v>
+          </cell>
+          <cell r="B89">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>Stanford</v>
+          </cell>
+          <cell r="B90">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>Temple</v>
+          </cell>
+          <cell r="B91">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>Texas</v>
+          </cell>
+          <cell r="B92">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>Texas A&amp;M</v>
+          </cell>
+          <cell r="B93">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>Texas State</v>
+          </cell>
+          <cell r="B94">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>Texas Tech</v>
+          </cell>
+          <cell r="B95">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>Toledo</v>
+          </cell>
+          <cell r="B96">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>Troy</v>
+          </cell>
+          <cell r="B97">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>Tulane</v>
+          </cell>
+          <cell r="B98">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>Tulsa</v>
+          </cell>
+          <cell r="B99">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>UAB</v>
+          </cell>
+          <cell r="B100">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>UCF</v>
+          </cell>
+          <cell r="B101">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>UNLV</v>
+          </cell>
+          <cell r="B102">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>Utah</v>
+          </cell>
+          <cell r="B103">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>Utah State</v>
+          </cell>
+          <cell r="B104">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>UTEP</v>
+          </cell>
+          <cell r="B105">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>UTSA</v>
+          </cell>
+          <cell r="B106">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>Vanderbilt</v>
+          </cell>
+          <cell r="B107">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>Virginia</v>
+          </cell>
+          <cell r="B108">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>Virginia Tech</v>
+          </cell>
+          <cell r="B109">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>Wake Forest</v>
+          </cell>
+          <cell r="B110">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="B111">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>Washington State</v>
+          </cell>
+          <cell r="B112">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>West Virginia</v>
+          </cell>
+          <cell r="B113">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>Western Kentucky</v>
+          </cell>
+          <cell r="B114">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>Western Michigan</v>
+          </cell>
+          <cell r="B115">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>Wisconsin</v>
+          </cell>
+          <cell r="B116">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>Wyoming</v>
+          </cell>
+          <cell r="B117">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -989,11 +5084,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
-  <dimension ref="A1:AA125"/>
+  <dimension ref="A1:AA143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A113" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="S105" sqref="S105:W125"/>
+      <pane ySplit="760" topLeftCell="A134" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10441,7 +14536,7 @@
         <v>163</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>866000</v>
       </c>
       <c r="G106">
         <v>2022</v>
@@ -10534,7 +14629,7 @@
         <v>22</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1153000</v>
       </c>
       <c r="G107">
         <v>2022</v>
@@ -10627,7 +14722,7 @@
         <v>40</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>699000</v>
       </c>
       <c r="G108">
         <v>2022</v>
@@ -10720,7 +14815,7 @@
         <v>59</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>433000</v>
       </c>
       <c r="G109">
         <v>2022</v>
@@ -10813,7 +14908,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>4005000</v>
       </c>
       <c r="G110">
         <v>2022</v>
@@ -10906,7 +15001,7 @@
         <v>104</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>2959000</v>
       </c>
       <c r="G111">
         <v>2022</v>
@@ -10999,7 +15094,7 @@
         <v>168</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1309000</v>
       </c>
       <c r="G112">
         <v>2022</v>
@@ -11092,7 +15187,7 @@
         <v>90</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>3364000</v>
       </c>
       <c r="G113">
         <v>2022</v>
@@ -11185,7 +15280,7 @@
         <v>122</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>4237000</v>
       </c>
       <c r="G114">
         <v>2022</v>
@@ -11278,7 +15373,7 @@
         <v>95</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1633000</v>
       </c>
       <c r="G115">
         <v>2022</v>
@@ -11371,7 +15466,7 @@
         <v>53</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>2652000</v>
       </c>
       <c r="G116">
         <v>2022</v>
@@ -11464,7 +15559,7 @@
         <v>26</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>4439000</v>
       </c>
       <c r="G117">
         <v>2022</v>
@@ -11557,7 +15652,7 @@
         <v>154</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1253000</v>
       </c>
       <c r="G118">
         <v>2022</v>
@@ -11650,7 +15745,7 @@
         <v>106</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>433000</v>
       </c>
       <c r="G119">
         <v>2022</v>
@@ -11743,7 +15838,7 @@
         <v>87</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1933000</v>
       </c>
       <c r="G120">
         <v>2022</v>
@@ -11836,7 +15931,7 @@
         <v>105</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1841000</v>
       </c>
       <c r="G121">
         <v>2022</v>
@@ -11929,7 +16024,7 @@
         <v>97</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>2525000</v>
       </c>
       <c r="G122">
         <v>2022</v>
@@ -12022,7 +16117,7 @@
         <v>101</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>7145000</v>
       </c>
       <c r="G123">
         <v>2022</v>
@@ -12115,7 +16210,7 @@
         <v>132</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>375000</v>
       </c>
       <c r="G124">
         <v>2022</v>
@@ -12208,7 +16303,7 @@
         <v>42</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1082000</v>
       </c>
       <c r="G125">
         <v>2022</v>
@@ -12253,18 +16348,23 @@
         <v>27.2</v>
       </c>
       <c r="S125">
+        <f>S124</f>
         <v>0</v>
       </c>
       <c r="T125">
+        <f>T124</f>
         <v>0</v>
       </c>
       <c r="U125">
+        <f>U124</f>
         <v>0</v>
       </c>
       <c r="V125">
+        <f>V124</f>
         <v>0</v>
       </c>
       <c r="W125">
+        <f>W124</f>
         <v>0</v>
       </c>
       <c r="X125" cm="1">
@@ -12282,6 +16382,1410 @@
       <c r="AA125" cm="1">
         <f t="array" ref="AA125">_xlfn.XLOOKUP(E125&amp;I125,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" t="s">
+        <v>142</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>2022</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>7</v>
+      </c>
+      <c r="J126" t="str" cm="1">
+        <f t="array" ref="J126">_xlfn.XLOOKUP(D126&amp;I126,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K126" t="str" cm="1">
+        <f t="array" ref="K126">_xlfn.XLOOKUP(E126&amp;I126,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L126" t="s">
+        <v>103</v>
+      </c>
+      <c r="M126" t="s">
+        <v>103</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" cm="1">
+        <f t="array" ref="O126">_xlfn.XLOOKUP(D126&amp;I126,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.4</v>
+      </c>
+      <c r="P126" cm="1">
+        <f t="array" ref="P126">_xlfn.XLOOKUP(D126&amp;I126,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.2</v>
+      </c>
+      <c r="Q126" cm="1">
+        <f t="array" ref="Q126">_xlfn.XLOOKUP(E126&amp;I126,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.6</v>
+      </c>
+      <c r="R126" cm="1">
+        <f t="array" ref="R126">_xlfn.XLOOKUP(E126&amp;I126,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="X126" cm="1">
+        <f t="array" ref="X126">_xlfn.XLOOKUP(D126&amp;I126,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y126" cm="1">
+        <f t="array" ref="Y126">_xlfn.XLOOKUP(D126&amp;I126,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z126" cm="1">
+        <f t="array" ref="Z126">_xlfn.XLOOKUP(E126&amp;I126,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA126" cm="1">
+        <f t="array" ref="AA126">_xlfn.XLOOKUP(E126&amp;I126,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C127" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>2022</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>7</v>
+      </c>
+      <c r="J127" t="str" cm="1">
+        <f t="array" ref="J127">_xlfn.XLOOKUP(D127&amp;I127,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K127" t="str" cm="1">
+        <f t="array" ref="K127">_xlfn.XLOOKUP(E127&amp;I127,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L127" t="s">
+        <v>71</v>
+      </c>
+      <c r="M127" t="s">
+        <v>71</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" cm="1">
+        <f t="array" ref="O127">_xlfn.XLOOKUP(D127&amp;I127,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="P127" cm="1">
+        <f t="array" ref="P127">_xlfn.XLOOKUP(D127&amp;I127,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.6</v>
+      </c>
+      <c r="Q127" cm="1">
+        <f t="array" ref="Q127">_xlfn.XLOOKUP(E127&amp;I127,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>37.4</v>
+      </c>
+      <c r="R127" cm="1">
+        <f t="array" ref="R127">_xlfn.XLOOKUP(E127&amp;I127,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.6</v>
+      </c>
+      <c r="X127" cm="1">
+        <f t="array" ref="X127">_xlfn.XLOOKUP(D127&amp;I127,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y127" cm="1">
+        <f t="array" ref="Y127">_xlfn.XLOOKUP(D127&amp;I127,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z127" cm="1">
+        <f t="array" ref="Z127">_xlfn.XLOOKUP(E127&amp;I127,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA127" cm="1">
+        <f t="array" ref="AA127">_xlfn.XLOOKUP(E127&amp;I127,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C128" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" t="s">
+        <v>88</v>
+      </c>
+      <c r="E128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>2022</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>7</v>
+      </c>
+      <c r="J128" t="str" cm="1">
+        <f t="array" ref="J128">_xlfn.XLOOKUP(D128&amp;I128,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K128" t="str" cm="1">
+        <f t="array" ref="K128">_xlfn.XLOOKUP(E128&amp;I128,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L128" t="s">
+        <v>68</v>
+      </c>
+      <c r="M128" t="s">
+        <v>68</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" cm="1">
+        <f t="array" ref="O128">_xlfn.XLOOKUP(D128&amp;I128,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.6</v>
+      </c>
+      <c r="P128" cm="1">
+        <f t="array" ref="P128">_xlfn.XLOOKUP(D128&amp;I128,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.6</v>
+      </c>
+      <c r="Q128" cm="1">
+        <f t="array" ref="Q128">_xlfn.XLOOKUP(E128&amp;I128,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>15</v>
+      </c>
+      <c r="R128" cm="1">
+        <f t="array" ref="R128">_xlfn.XLOOKUP(E128&amp;I128,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.8</v>
+      </c>
+      <c r="X128" cm="1">
+        <f t="array" ref="X128">_xlfn.XLOOKUP(D128&amp;I128,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y128" cm="1">
+        <f t="array" ref="Y128">_xlfn.XLOOKUP(D128&amp;I128,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z128" cm="1">
+        <f t="array" ref="Z128">_xlfn.XLOOKUP(E128&amp;I128,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA128" cm="1">
+        <f t="array" ref="AA128">_xlfn.XLOOKUP(E128&amp;I128,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" t="s">
+        <v>163</v>
+      </c>
+      <c r="E129" t="s">
+        <v>152</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>2022</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>7</v>
+      </c>
+      <c r="J129" t="str" cm="1">
+        <f t="array" ref="J129">_xlfn.XLOOKUP(D129&amp;I129,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K129" t="str" cm="1">
+        <f t="array" ref="K129">_xlfn.XLOOKUP(E129&amp;I129,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L129" t="s">
+        <v>68</v>
+      </c>
+      <c r="M129" t="s">
+        <v>68</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" cm="1">
+        <f t="array" ref="O129">_xlfn.XLOOKUP(D129&amp;I129,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.6</v>
+      </c>
+      <c r="P129" cm="1">
+        <f t="array" ref="P129">_xlfn.XLOOKUP(D129&amp;I129,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.6</v>
+      </c>
+      <c r="Q129" cm="1">
+        <f t="array" ref="Q129">_xlfn.XLOOKUP(E129&amp;I129,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>21.2</v>
+      </c>
+      <c r="R129" cm="1">
+        <f t="array" ref="R129">_xlfn.XLOOKUP(E129&amp;I129,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21</v>
+      </c>
+      <c r="X129" cm="1">
+        <f t="array" ref="X129">_xlfn.XLOOKUP(D129&amp;I129,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y129" cm="1">
+        <f t="array" ref="Y129">_xlfn.XLOOKUP(D129&amp;I129,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z129" cm="1">
+        <f t="array" ref="Z129">_xlfn.XLOOKUP(E129&amp;I129,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA129" cm="1">
+        <f t="array" ref="AA129">_xlfn.XLOOKUP(E129&amp;I129,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>2022</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>7</v>
+      </c>
+      <c r="J130" cm="1">
+        <f t="array" ref="J130">_xlfn.XLOOKUP(D130&amp;I130,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>5</v>
+      </c>
+      <c r="K130" cm="1">
+        <f t="array" ref="K130">_xlfn.XLOOKUP(E130&amp;I130,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>10</v>
+      </c>
+      <c r="L130" t="s">
+        <v>64</v>
+      </c>
+      <c r="M130" t="s">
+        <v>64</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" cm="1">
+        <f t="array" ref="O130">_xlfn.XLOOKUP(D130&amp;I130,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>43</v>
+      </c>
+      <c r="P130" cm="1">
+        <f t="array" ref="P130">_xlfn.XLOOKUP(D130&amp;I130,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.3</v>
+      </c>
+      <c r="Q130" cm="1">
+        <f t="array" ref="Q130">_xlfn.XLOOKUP(E130&amp;I130,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.4</v>
+      </c>
+      <c r="R130" cm="1">
+        <f t="array" ref="R130">_xlfn.XLOOKUP(E130&amp;I130,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.8</v>
+      </c>
+      <c r="X130" cm="1">
+        <f t="array" ref="X130">_xlfn.XLOOKUP(D130&amp;I130,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y130" cm="1">
+        <f t="array" ref="Y130">_xlfn.XLOOKUP(D130&amp;I130,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z130" cm="1">
+        <f t="array" ref="Z130">_xlfn.XLOOKUP(E130&amp;I130,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA130" cm="1">
+        <f t="array" ref="AA130">_xlfn.XLOOKUP(E130&amp;I130,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" t="s">
+        <v>122</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>2022</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>7</v>
+      </c>
+      <c r="J131" cm="1">
+        <f t="array" ref="J131">_xlfn.XLOOKUP(D131&amp;I131,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>9</v>
+      </c>
+      <c r="K131" t="str" cm="1">
+        <f t="array" ref="K131">_xlfn.XLOOKUP(E131&amp;I131,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L131" t="s">
+        <v>70</v>
+      </c>
+      <c r="M131" t="s">
+        <v>70</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" cm="1">
+        <f t="array" ref="O131">_xlfn.XLOOKUP(D131&amp;I131,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="P131" cm="1">
+        <f t="array" ref="P131">_xlfn.XLOOKUP(D131&amp;I131,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.5</v>
+      </c>
+      <c r="Q131" cm="1">
+        <f t="array" ref="Q131">_xlfn.XLOOKUP(E131&amp;I131,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>20.3</v>
+      </c>
+      <c r="R131" cm="1">
+        <f t="array" ref="R131">_xlfn.XLOOKUP(E131&amp;I131,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25</v>
+      </c>
+      <c r="X131" cm="1">
+        <f t="array" ref="X131">_xlfn.XLOOKUP(D131&amp;I131,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y131" cm="1">
+        <f t="array" ref="Y131">_xlfn.XLOOKUP(D131&amp;I131,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z131" cm="1">
+        <f t="array" ref="Z131">_xlfn.XLOOKUP(E131&amp;I131,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA131" cm="1">
+        <f t="array" ref="AA131">_xlfn.XLOOKUP(E131&amp;I131,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" t="s">
+        <v>138</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>2022</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>7</v>
+      </c>
+      <c r="J132" t="str" cm="1">
+        <f t="array" ref="J132">_xlfn.XLOOKUP(D132&amp;I132,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K132" cm="1">
+        <f t="array" ref="K132">_xlfn.XLOOKUP(E132&amp;I132,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>19</v>
+      </c>
+      <c r="L132" t="s">
+        <v>71</v>
+      </c>
+      <c r="M132" t="s">
+        <v>71</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" cm="1">
+        <f t="array" ref="O132">_xlfn.XLOOKUP(D132&amp;I132,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.8</v>
+      </c>
+      <c r="P132" cm="1">
+        <f t="array" ref="P132">_xlfn.XLOOKUP(D132&amp;I132,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.2</v>
+      </c>
+      <c r="Q132" cm="1">
+        <f t="array" ref="Q132">_xlfn.XLOOKUP(E132&amp;I132,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="R132" cm="1">
+        <f t="array" ref="R132">_xlfn.XLOOKUP(E132&amp;I132,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.3</v>
+      </c>
+      <c r="X132" cm="1">
+        <f t="array" ref="X132">_xlfn.XLOOKUP(D132&amp;I132,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y132" cm="1">
+        <f t="array" ref="Y132">_xlfn.XLOOKUP(D132&amp;I132,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z132" cm="1">
+        <f t="array" ref="Z132">_xlfn.XLOOKUP(E132&amp;I132,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA132" cm="1">
+        <f t="array" ref="AA132">_xlfn.XLOOKUP(E132&amp;I132,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" t="s">
+        <v>90</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>2022</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>7</v>
+      </c>
+      <c r="J133" cm="1">
+        <f t="array" ref="J133">_xlfn.XLOOKUP(D133&amp;I133,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>22</v>
+      </c>
+      <c r="K133" t="str" cm="1">
+        <f t="array" ref="K133">_xlfn.XLOOKUP(E133&amp;I133,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L133" t="s">
+        <v>71</v>
+      </c>
+      <c r="M133" t="s">
+        <v>71</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" cm="1">
+        <f t="array" ref="O133">_xlfn.XLOOKUP(D133&amp;I133,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P133" cm="1">
+        <f t="array" ref="P133">_xlfn.XLOOKUP(D133&amp;I133,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.8</v>
+      </c>
+      <c r="Q133" cm="1">
+        <f t="array" ref="Q133">_xlfn.XLOOKUP(E133&amp;I133,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.2</v>
+      </c>
+      <c r="R133" cm="1">
+        <f t="array" ref="R133">_xlfn.XLOOKUP(E133&amp;I133,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>13.7</v>
+      </c>
+      <c r="X133" cm="1">
+        <f t="array" ref="X133">_xlfn.XLOOKUP(D133&amp;I133,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y133" cm="1">
+        <f t="array" ref="Y133">_xlfn.XLOOKUP(D133&amp;I133,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z133" cm="1">
+        <f t="array" ref="Z133">_xlfn.XLOOKUP(E133&amp;I133,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA133" cm="1">
+        <f t="array" ref="AA133">_xlfn.XLOOKUP(E133&amp;I133,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C134" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" t="s">
+        <v>104</v>
+      </c>
+      <c r="E134" t="s">
+        <v>91</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>2022</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>7</v>
+      </c>
+      <c r="J134" cm="1">
+        <f t="array" ref="J134">_xlfn.XLOOKUP(D134&amp;I134,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>6</v>
+      </c>
+      <c r="K134" cm="1">
+        <f t="array" ref="K134">_xlfn.XLOOKUP(E134&amp;I134,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>3</v>
+      </c>
+      <c r="L134" t="s">
+        <v>70</v>
+      </c>
+      <c r="M134" t="s">
+        <v>70</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" cm="1">
+        <f t="array" ref="O134">_xlfn.XLOOKUP(D134&amp;I134,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>46.8</v>
+      </c>
+      <c r="P134" cm="1">
+        <f t="array" ref="P134">_xlfn.XLOOKUP(D134&amp;I134,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.8</v>
+      </c>
+      <c r="Q134" cm="1">
+        <f t="array" ref="Q134">_xlfn.XLOOKUP(E134&amp;I134,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>44.3</v>
+      </c>
+      <c r="R134" cm="1">
+        <f t="array" ref="R134">_xlfn.XLOOKUP(E134&amp;I134,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>12.5</v>
+      </c>
+      <c r="X134" cm="1">
+        <f t="array" ref="X134">_xlfn.XLOOKUP(D134&amp;I134,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y134" cm="1">
+        <f t="array" ref="Y134">_xlfn.XLOOKUP(D134&amp;I134,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z134" cm="1">
+        <f t="array" ref="Z134">_xlfn.XLOOKUP(E134&amp;I134,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA134" cm="1">
+        <f t="array" ref="AA134">_xlfn.XLOOKUP(E134&amp;I134,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>168</v>
+      </c>
+      <c r="E135" t="s">
+        <v>56</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>2022</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>7</v>
+      </c>
+      <c r="J135" cm="1">
+        <f t="array" ref="J135">_xlfn.XLOOKUP(D135&amp;I135,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>13</v>
+      </c>
+      <c r="K135" cm="1">
+        <f t="array" ref="K135">_xlfn.XLOOKUP(E135&amp;I135,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>8</v>
+      </c>
+      <c r="L135" t="s">
+        <v>71</v>
+      </c>
+      <c r="M135" t="s">
+        <v>71</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" cm="1">
+        <f t="array" ref="O135">_xlfn.XLOOKUP(D135&amp;I135,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>46.4</v>
+      </c>
+      <c r="P135" cm="1">
+        <f t="array" ref="P135">_xlfn.XLOOKUP(D135&amp;I135,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.8</v>
+      </c>
+      <c r="Q135" cm="1">
+        <f t="array" ref="Q135">_xlfn.XLOOKUP(E135&amp;I135,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>46.4</v>
+      </c>
+      <c r="R135" cm="1">
+        <f t="array" ref="R135">_xlfn.XLOOKUP(E135&amp;I135,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.8</v>
+      </c>
+      <c r="X135" cm="1">
+        <f t="array" ref="X135">_xlfn.XLOOKUP(D135&amp;I135,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y135" cm="1">
+        <f t="array" ref="Y135">_xlfn.XLOOKUP(D135&amp;I135,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z135" cm="1">
+        <f t="array" ref="Z135">_xlfn.XLOOKUP(E135&amp;I135,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA135" cm="1">
+        <f t="array" ref="AA135">_xlfn.XLOOKUP(E135&amp;I135,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" t="s">
+        <v>97</v>
+      </c>
+      <c r="E136" t="s">
+        <v>50</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>2022</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>7</v>
+      </c>
+      <c r="J136" t="str" cm="1">
+        <f t="array" ref="J136">_xlfn.XLOOKUP(D136&amp;I136,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K136" t="str" cm="1">
+        <f t="array" ref="K136">_xlfn.XLOOKUP(E136&amp;I136,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L136" t="s">
+        <v>73</v>
+      </c>
+      <c r="M136" t="s">
+        <v>70</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" cm="1">
+        <f t="array" ref="O136">_xlfn.XLOOKUP(D136&amp;I136,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32</v>
+      </c>
+      <c r="P136" cm="1">
+        <f t="array" ref="P136">_xlfn.XLOOKUP(D136&amp;I136,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.7</v>
+      </c>
+      <c r="Q136" cm="1">
+        <f t="array" ref="Q136">_xlfn.XLOOKUP(E136&amp;I136,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.5</v>
+      </c>
+      <c r="R136" cm="1">
+        <f t="array" ref="R136">_xlfn.XLOOKUP(E136&amp;I136,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="X136" cm="1">
+        <f t="array" ref="X136">_xlfn.XLOOKUP(D136&amp;I136,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y136" cm="1">
+        <f t="array" ref="Y136">_xlfn.XLOOKUP(D136&amp;I136,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z136" cm="1">
+        <f t="array" ref="Z136">_xlfn.XLOOKUP(E136&amp;I136,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA136" cm="1">
+        <f t="array" ref="AA136">_xlfn.XLOOKUP(E136&amp;I136,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C137" t="s">
+        <v>47</v>
+      </c>
+      <c r="D137" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" t="s">
+        <v>144</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>2022</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>7</v>
+      </c>
+      <c r="J137" t="str" cm="1">
+        <f t="array" ref="J137">_xlfn.XLOOKUP(D137&amp;I137,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K137" t="str" cm="1">
+        <f t="array" ref="K137">_xlfn.XLOOKUP(E137&amp;I137,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L137" t="s">
+        <v>64</v>
+      </c>
+      <c r="M137" t="s">
+        <v>64</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" cm="1">
+        <f t="array" ref="O137">_xlfn.XLOOKUP(D137&amp;I137,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.3</v>
+      </c>
+      <c r="P137" cm="1">
+        <f t="array" ref="P137">_xlfn.XLOOKUP(D137&amp;I137,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.5</v>
+      </c>
+      <c r="Q137" cm="1">
+        <f t="array" ref="Q137">_xlfn.XLOOKUP(E137&amp;I137,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34</v>
+      </c>
+      <c r="R137" cm="1">
+        <f t="array" ref="R137">_xlfn.XLOOKUP(E137&amp;I137,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.7</v>
+      </c>
+      <c r="X137" cm="1">
+        <f t="array" ref="X137">_xlfn.XLOOKUP(D137&amp;I137,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y137" cm="1">
+        <f t="array" ref="Y137">_xlfn.XLOOKUP(D137&amp;I137,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z137" cm="1">
+        <f t="array" ref="Z137">_xlfn.XLOOKUP(E137&amp;I137,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA137" cm="1">
+        <f t="array" ref="AA137">_xlfn.XLOOKUP(E137&amp;I137,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" t="s">
+        <v>35</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>2022</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>7</v>
+      </c>
+      <c r="J138" t="str" cm="1">
+        <f t="array" ref="J138">_xlfn.XLOOKUP(D138&amp;I138,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K138" t="str" cm="1">
+        <f t="array" ref="K138">_xlfn.XLOOKUP(E138&amp;I138,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L138" t="s">
+        <v>64</v>
+      </c>
+      <c r="M138" t="s">
+        <v>64</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" cm="1">
+        <f t="array" ref="O138">_xlfn.XLOOKUP(D138&amp;I138,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.8</v>
+      </c>
+      <c r="P138" cm="1">
+        <f t="array" ref="P138">_xlfn.XLOOKUP(D138&amp;I138,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27</v>
+      </c>
+      <c r="Q138" cm="1">
+        <f t="array" ref="Q138">_xlfn.XLOOKUP(E138&amp;I138,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.8</v>
+      </c>
+      <c r="R138" cm="1">
+        <f t="array" ref="R138">_xlfn.XLOOKUP(E138&amp;I138,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.5</v>
+      </c>
+      <c r="X138" cm="1">
+        <f t="array" ref="X138">_xlfn.XLOOKUP(D138&amp;I138,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y138" cm="1">
+        <f t="array" ref="Y138">_xlfn.XLOOKUP(D138&amp;I138,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z138" cm="1">
+        <f t="array" ref="Z138">_xlfn.XLOOKUP(E138&amp;I138,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA138" cm="1">
+        <f t="array" ref="AA138">_xlfn.XLOOKUP(E138&amp;I138,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" t="s">
+        <v>114</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>2022</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>7</v>
+      </c>
+      <c r="J139" t="str" cm="1">
+        <f t="array" ref="J139">_xlfn.XLOOKUP(D139&amp;I139,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K139" t="str" cm="1">
+        <f t="array" ref="K139">_xlfn.XLOOKUP(E139&amp;I139,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L139" t="s">
+        <v>70</v>
+      </c>
+      <c r="M139" t="s">
+        <v>70</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" cm="1">
+        <f t="array" ref="O139">_xlfn.XLOOKUP(D139&amp;I139,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.8</v>
+      </c>
+      <c r="P139" cm="1">
+        <f t="array" ref="P139">_xlfn.XLOOKUP(D139&amp;I139,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.3</v>
+      </c>
+      <c r="Q139" cm="1">
+        <f t="array" ref="Q139">_xlfn.XLOOKUP(E139&amp;I139,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.8</v>
+      </c>
+      <c r="R139" cm="1">
+        <f t="array" ref="R139">_xlfn.XLOOKUP(E139&amp;I139,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19</v>
+      </c>
+      <c r="X139" cm="1">
+        <f t="array" ref="X139">_xlfn.XLOOKUP(D139&amp;I139,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y139" cm="1">
+        <f t="array" ref="Y139">_xlfn.XLOOKUP(D139&amp;I139,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z139" cm="1">
+        <f t="array" ref="Z139">_xlfn.XLOOKUP(E139&amp;I139,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA139" cm="1">
+        <f t="array" ref="AA139">_xlfn.XLOOKUP(E139&amp;I139,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E140" t="s">
+        <v>87</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>2022</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>7</v>
+      </c>
+      <c r="J140" t="str" cm="1">
+        <f t="array" ref="J140">_xlfn.XLOOKUP(D140&amp;I140,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K140" cm="1">
+        <f t="array" ref="K140">_xlfn.XLOOKUP(E140&amp;I140,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>4</v>
+      </c>
+      <c r="L140" t="s">
+        <v>69</v>
+      </c>
+      <c r="M140" t="s">
+        <v>69</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" cm="1">
+        <f t="array" ref="O140">_xlfn.XLOOKUP(D140&amp;I140,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.3</v>
+      </c>
+      <c r="P140" cm="1">
+        <f t="array" ref="P140">_xlfn.XLOOKUP(D140&amp;I140,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.8</v>
+      </c>
+      <c r="Q140" cm="1">
+        <f t="array" ref="Q140">_xlfn.XLOOKUP(E140&amp;I140,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R140" cm="1">
+        <f t="array" ref="R140">_xlfn.XLOOKUP(E140&amp;I140,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.3</v>
+      </c>
+      <c r="X140" cm="1">
+        <f t="array" ref="X140">_xlfn.XLOOKUP(D140&amp;I140,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y140" cm="1">
+        <f t="array" ref="Y140">_xlfn.XLOOKUP(D140&amp;I140,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z140" cm="1">
+        <f t="array" ref="Z140">_xlfn.XLOOKUP(E140&amp;I140,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA140" cm="1">
+        <f t="array" ref="AA140">_xlfn.XLOOKUP(E140&amp;I140,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C141" t="s">
+        <v>99</v>
+      </c>
+      <c r="D141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" t="s">
+        <v>109</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>2022</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>7</v>
+      </c>
+      <c r="J141" t="str" cm="1">
+        <f t="array" ref="J141">_xlfn.XLOOKUP(D141&amp;I141,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K141" t="str" cm="1">
+        <f t="array" ref="K141">_xlfn.XLOOKUP(E141&amp;I141,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L141" t="s">
+        <v>73</v>
+      </c>
+      <c r="M141" t="s">
+        <v>65</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" cm="1">
+        <f t="array" ref="O141">_xlfn.XLOOKUP(D141&amp;I141,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.6</v>
+      </c>
+      <c r="P141" cm="1">
+        <f t="array" ref="P141">_xlfn.XLOOKUP(D141&amp;I141,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.2</v>
+      </c>
+      <c r="Q141" cm="1">
+        <f t="array" ref="Q141">_xlfn.XLOOKUP(E141&amp;I141,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29</v>
+      </c>
+      <c r="R141" cm="1">
+        <f t="array" ref="R141">_xlfn.XLOOKUP(E141&amp;I141,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="X141" cm="1">
+        <f t="array" ref="X141">_xlfn.XLOOKUP(D141&amp;I141,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y141" cm="1">
+        <f t="array" ref="Y141">_xlfn.XLOOKUP(D141&amp;I141,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z141" cm="1">
+        <f t="array" ref="Z141">_xlfn.XLOOKUP(E141&amp;I141,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA141" cm="1">
+        <f t="array" ref="AA141">_xlfn.XLOOKUP(E141&amp;I141,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C142" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" t="s">
+        <v>110</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>2022</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>7</v>
+      </c>
+      <c r="J142" cm="1">
+        <f t="array" ref="J142">_xlfn.XLOOKUP(D142&amp;I142,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>20</v>
+      </c>
+      <c r="K142" cm="1">
+        <f t="array" ref="K142">_xlfn.XLOOKUP(E142&amp;I142,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>7</v>
+      </c>
+      <c r="L142" t="s">
+        <v>65</v>
+      </c>
+      <c r="M142" t="s">
+        <v>65</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" cm="1">
+        <f t="array" ref="O142">_xlfn.XLOOKUP(D142&amp;I142,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="P142" cm="1">
+        <f t="array" ref="P142">_xlfn.XLOOKUP(D142&amp;I142,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19</v>
+      </c>
+      <c r="Q142" cm="1">
+        <f t="array" ref="Q142">_xlfn.XLOOKUP(E142&amp;I142,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="R142" cm="1">
+        <f t="array" ref="R142">_xlfn.XLOOKUP(E142&amp;I142,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.7</v>
+      </c>
+      <c r="X142" cm="1">
+        <f t="array" ref="X142">_xlfn.XLOOKUP(D142&amp;I142,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y142" cm="1">
+        <f t="array" ref="Y142">_xlfn.XLOOKUP(D142&amp;I142,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z142" cm="1">
+        <f t="array" ref="Z142">_xlfn.XLOOKUP(E142&amp;I142,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA142" cm="1">
+        <f t="array" ref="AA142">_xlfn.XLOOKUP(E142&amp;I142,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C143" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" t="s">
+        <v>132</v>
+      </c>
+      <c r="E143" t="s">
+        <v>162</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>2022</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>7</v>
+      </c>
+      <c r="J143" t="str" cm="1">
+        <f t="array" ref="J143">_xlfn.XLOOKUP(D143&amp;I143,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K143" t="str" cm="1">
+        <f t="array" ref="K143">_xlfn.XLOOKUP(E143&amp;I143,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L143" t="s">
+        <v>66</v>
+      </c>
+      <c r="M143" t="s">
+        <v>66</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" cm="1">
+        <f t="array" ref="O143">_xlfn.XLOOKUP(D143&amp;I143,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.6</v>
+      </c>
+      <c r="P143" cm="1">
+        <f t="array" ref="P143">_xlfn.XLOOKUP(D143&amp;I143,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.2</v>
+      </c>
+      <c r="Q143" cm="1">
+        <f t="array" ref="Q143">_xlfn.XLOOKUP(E143&amp;I143,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>28.8</v>
+      </c>
+      <c r="R143" cm="1">
+        <f t="array" ref="R143">_xlfn.XLOOKUP(E143&amp;I143,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14</v>
+      </c>
+      <c r="X143" cm="1">
+        <f t="array" ref="X143">_xlfn.XLOOKUP(D143&amp;I143,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Y143" cm="1">
+        <f t="array" ref="Y143">_xlfn.XLOOKUP(D143&amp;I143,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z143" cm="1">
+        <f t="array" ref="Z143">_xlfn.XLOOKUP(E143&amp;I143,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA143" cm="1">
+        <f t="array" ref="AA143">_xlfn.XLOOKUP(E143&amp;I143,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12293,10 +17797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
-  <dimension ref="A1:F654"/>
+  <dimension ref="A1:F785"/>
   <sheetViews>
-    <sheetView topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="A524" sqref="A524:F654"/>
+    <sheetView topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="A655" sqref="A655:F785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25381,6 +30885,3150 @@
         <v>3</v>
       </c>
     </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>106</v>
+      </c>
+      <c r="B655">
+        <v>7</v>
+      </c>
+      <c r="C655">
+        <f>_xlfn.XLOOKUP(A655,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.8</v>
+      </c>
+      <c r="D655">
+        <f>_xlfn.XLOOKUP(A655,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E655">
+        <f>_xlfn.XLOOKUP(A655,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F655">
+        <f>_xlfn.XLOOKUP(A655,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>119</v>
+      </c>
+      <c r="B656">
+        <v>7</v>
+      </c>
+      <c r="C656">
+        <f>_xlfn.XLOOKUP(A656,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>18.3</v>
+      </c>
+      <c r="D656">
+        <f>_xlfn.XLOOKUP(A656,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E656">
+        <f>_xlfn.XLOOKUP(A656,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F656">
+        <f>_xlfn.XLOOKUP(A656,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>91</v>
+      </c>
+      <c r="B657">
+        <v>7</v>
+      </c>
+      <c r="C657">
+        <f>_xlfn.XLOOKUP(A657,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>44.3</v>
+      </c>
+      <c r="D657">
+        <f>_xlfn.XLOOKUP(A657,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E657">
+        <f>_xlfn.XLOOKUP(A657,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F657">
+        <f>_xlfn.XLOOKUP(A657,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>102</v>
+      </c>
+      <c r="B658">
+        <v>7</v>
+      </c>
+      <c r="C658">
+        <f>_xlfn.XLOOKUP(A658,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D658">
+        <f>_xlfn.XLOOKUP(A658,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>28.8</v>
+      </c>
+      <c r="E658">
+        <f>_xlfn.XLOOKUP(A658,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F658">
+        <f>_xlfn.XLOOKUP(A658,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>112</v>
+      </c>
+      <c r="B659">
+        <v>7</v>
+      </c>
+      <c r="C659">
+        <f>_xlfn.XLOOKUP(A659,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>30.3</v>
+      </c>
+      <c r="D659">
+        <f>_xlfn.XLOOKUP(A659,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E659">
+        <f>_xlfn.XLOOKUP(A659,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F659">
+        <f>_xlfn.XLOOKUP(A659,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>96</v>
+      </c>
+      <c r="B660">
+        <v>7</v>
+      </c>
+      <c r="C660">
+        <f>_xlfn.XLOOKUP(A660,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>26.8</v>
+      </c>
+      <c r="D660">
+        <f>_xlfn.XLOOKUP(A660,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>30.2</v>
+      </c>
+      <c r="E660">
+        <f>_xlfn.XLOOKUP(A660,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F660">
+        <f>_xlfn.XLOOKUP(A660,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>50</v>
+      </c>
+      <c r="B661">
+        <v>7</v>
+      </c>
+      <c r="C661">
+        <f>_xlfn.XLOOKUP(A661,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>29.5</v>
+      </c>
+      <c r="D661">
+        <f>_xlfn.XLOOKUP(A661,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E661">
+        <f>_xlfn.XLOOKUP(A661,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F661">
+        <f>_xlfn.XLOOKUP(A661,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>120</v>
+      </c>
+      <c r="B662">
+        <v>7</v>
+      </c>
+      <c r="C662">
+        <f>_xlfn.XLOOKUP(A662,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D662">
+        <f>_xlfn.XLOOKUP(A662,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>31.8</v>
+      </c>
+      <c r="E662">
+        <f>_xlfn.XLOOKUP(A662,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F662">
+        <f>_xlfn.XLOOKUP(A662,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>121</v>
+      </c>
+      <c r="B663">
+        <v>7</v>
+      </c>
+      <c r="C663">
+        <f>_xlfn.XLOOKUP(A663,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>27.8</v>
+      </c>
+      <c r="D663">
+        <f>_xlfn.XLOOKUP(A663,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>33</v>
+      </c>
+      <c r="E663">
+        <f>_xlfn.XLOOKUP(A663,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F663">
+        <f>_xlfn.XLOOKUP(A663,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>122</v>
+      </c>
+      <c r="B664">
+        <v>7</v>
+      </c>
+      <c r="C664">
+        <f>_xlfn.XLOOKUP(A664,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>20.3</v>
+      </c>
+      <c r="D664">
+        <f>_xlfn.XLOOKUP(A664,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E664">
+        <f>_xlfn.XLOOKUP(A664,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F664">
+        <f>_xlfn.XLOOKUP(A664,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>123</v>
+      </c>
+      <c r="B665">
+        <v>7</v>
+      </c>
+      <c r="C665">
+        <f>_xlfn.XLOOKUP(A665,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>25.8</v>
+      </c>
+      <c r="D665">
+        <f>_xlfn.XLOOKUP(A665,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>30.7</v>
+      </c>
+      <c r="E665">
+        <f>_xlfn.XLOOKUP(A665,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F665">
+        <f>_xlfn.XLOOKUP(A665,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>98</v>
+      </c>
+      <c r="B666">
+        <v>7</v>
+      </c>
+      <c r="C666">
+        <f>_xlfn.XLOOKUP(A666,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>37.4</v>
+      </c>
+      <c r="D666">
+        <f>_xlfn.XLOOKUP(A666,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>20.6</v>
+      </c>
+      <c r="E666">
+        <f>_xlfn.XLOOKUP(A666,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F666">
+        <f>_xlfn.XLOOKUP(A666,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>27</v>
+      </c>
+      <c r="B667">
+        <v>7</v>
+      </c>
+      <c r="C667">
+        <f>_xlfn.XLOOKUP(A667,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>27.2</v>
+      </c>
+      <c r="D667">
+        <f>_xlfn.XLOOKUP(A667,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>19.2</v>
+      </c>
+      <c r="E667">
+        <f>_xlfn.XLOOKUP(A667,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F667">
+        <f>_xlfn.XLOOKUP(A667,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>124</v>
+      </c>
+      <c r="B668">
+        <v>7</v>
+      </c>
+      <c r="C668">
+        <f>_xlfn.XLOOKUP(A668,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>20</v>
+      </c>
+      <c r="D668">
+        <f>_xlfn.XLOOKUP(A668,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29</v>
+      </c>
+      <c r="E668">
+        <f>_xlfn.XLOOKUP(A668,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F668">
+        <f>_xlfn.XLOOKUP(A668,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>125</v>
+      </c>
+      <c r="B669">
+        <v>7</v>
+      </c>
+      <c r="C669">
+        <f>_xlfn.XLOOKUP(A669,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>26.7</v>
+      </c>
+      <c r="D669">
+        <f>_xlfn.XLOOKUP(A669,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>41</v>
+      </c>
+      <c r="E669">
+        <f>_xlfn.XLOOKUP(A669,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F669">
+        <f>_xlfn.XLOOKUP(A669,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>126</v>
+      </c>
+      <c r="B670">
+        <v>7</v>
+      </c>
+      <c r="C670">
+        <f>_xlfn.XLOOKUP(A670,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>29.8</v>
+      </c>
+      <c r="D670">
+        <f>_xlfn.XLOOKUP(A670,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>27.3</v>
+      </c>
+      <c r="E670">
+        <f>_xlfn.XLOOKUP(A670,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F670">
+        <f>_xlfn.XLOOKUP(A670,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>97</v>
+      </c>
+      <c r="B671">
+        <v>7</v>
+      </c>
+      <c r="C671">
+        <f>_xlfn.XLOOKUP(A671,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>32</v>
+      </c>
+      <c r="D671">
+        <f>_xlfn.XLOOKUP(A671,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>26.7</v>
+      </c>
+      <c r="E671">
+        <f>_xlfn.XLOOKUP(A671,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F671">
+        <f>_xlfn.XLOOKUP(A671,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>127</v>
+      </c>
+      <c r="B672">
+        <v>7</v>
+      </c>
+      <c r="C672">
+        <f>_xlfn.XLOOKUP(A672,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>25.8</v>
+      </c>
+      <c r="D672">
+        <f>_xlfn.XLOOKUP(A672,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>22</v>
+      </c>
+      <c r="E672">
+        <f>_xlfn.XLOOKUP(A672,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F672">
+        <f>_xlfn.XLOOKUP(A672,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>61</v>
+      </c>
+      <c r="B673">
+        <v>7</v>
+      </c>
+      <c r="C673">
+        <f>_xlfn.XLOOKUP(A673,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>26</v>
+      </c>
+      <c r="D673">
+        <f>_xlfn.XLOOKUP(A673,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>30.7</v>
+      </c>
+      <c r="E673">
+        <f>_xlfn.XLOOKUP(A673,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F673">
+        <f>_xlfn.XLOOKUP(A673,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>82</v>
+      </c>
+      <c r="B674">
+        <v>7</v>
+      </c>
+      <c r="C674">
+        <f>_xlfn.XLOOKUP(A674,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>25.8</v>
+      </c>
+      <c r="D674">
+        <f>_xlfn.XLOOKUP(A674,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>46.3</v>
+      </c>
+      <c r="E674">
+        <f>_xlfn.XLOOKUP(A674,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F674">
+        <f>_xlfn.XLOOKUP(A674,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>57</v>
+      </c>
+      <c r="B675">
+        <v>7</v>
+      </c>
+      <c r="C675">
+        <f>_xlfn.XLOOKUP(A675,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D675">
+        <f>_xlfn.XLOOKUP(A675,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>21.2</v>
+      </c>
+      <c r="E675">
+        <f>_xlfn.XLOOKUP(A675,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F675">
+        <f>_xlfn.XLOOKUP(A675,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>87</v>
+      </c>
+      <c r="B676">
+        <v>7</v>
+      </c>
+      <c r="C676">
+        <f>_xlfn.XLOOKUP(A676,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D676">
+        <f>_xlfn.XLOOKUP(A676,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>18.3</v>
+      </c>
+      <c r="E676">
+        <f>_xlfn.XLOOKUP(A676,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F676">
+        <f>_xlfn.XLOOKUP(A676,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>128</v>
+      </c>
+      <c r="B677">
+        <v>7</v>
+      </c>
+      <c r="C677">
+        <f>_xlfn.XLOOKUP(A677,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>35</v>
+      </c>
+      <c r="D677">
+        <f>_xlfn.XLOOKUP(A677,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E677">
+        <f>_xlfn.XLOOKUP(A677,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F677">
+        <f>_xlfn.XLOOKUP(A677,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>107</v>
+      </c>
+      <c r="B678">
+        <v>7</v>
+      </c>
+      <c r="C678">
+        <f>_xlfn.XLOOKUP(A678,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>13.4</v>
+      </c>
+      <c r="D678">
+        <f>_xlfn.XLOOKUP(A678,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>43.2</v>
+      </c>
+      <c r="E678">
+        <f>_xlfn.XLOOKUP(A678,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F678">
+        <f>_xlfn.XLOOKUP(A678,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>59</v>
+      </c>
+      <c r="B679">
+        <v>7</v>
+      </c>
+      <c r="C679">
+        <f>_xlfn.XLOOKUP(A679,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>12</v>
+      </c>
+      <c r="D679">
+        <f>_xlfn.XLOOKUP(A679,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>35.6</v>
+      </c>
+      <c r="E679">
+        <f>_xlfn.XLOOKUP(A679,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F679">
+        <f>_xlfn.XLOOKUP(A679,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>80</v>
+      </c>
+      <c r="B680">
+        <v>7</v>
+      </c>
+      <c r="C680">
+        <f>_xlfn.XLOOKUP(A680,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>17.7</v>
+      </c>
+      <c r="D680">
+        <f>_xlfn.XLOOKUP(A680,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29.7</v>
+      </c>
+      <c r="E680">
+        <f>_xlfn.XLOOKUP(A680,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F680">
+        <f>_xlfn.XLOOKUP(A680,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>129</v>
+      </c>
+      <c r="B681">
+        <v>7</v>
+      </c>
+      <c r="C681">
+        <f>_xlfn.XLOOKUP(A681,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D681">
+        <f>_xlfn.XLOOKUP(A681,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>19.7</v>
+      </c>
+      <c r="E681">
+        <f>_xlfn.XLOOKUP(A681,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F681">
+        <f>_xlfn.XLOOKUP(A681,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>28</v>
+      </c>
+      <c r="B682">
+        <v>7</v>
+      </c>
+      <c r="C682">
+        <f>_xlfn.XLOOKUP(A682,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>30.8</v>
+      </c>
+      <c r="D682">
+        <f>_xlfn.XLOOKUP(A682,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>21.2</v>
+      </c>
+      <c r="E682">
+        <f>_xlfn.XLOOKUP(A682,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F682">
+        <f>_xlfn.XLOOKUP(A682,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>130</v>
+      </c>
+      <c r="B683">
+        <v>7</v>
+      </c>
+      <c r="C683">
+        <f>_xlfn.XLOOKUP(A683,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D683">
+        <f>_xlfn.XLOOKUP(A683,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>31.7</v>
+      </c>
+      <c r="E683">
+        <f>_xlfn.XLOOKUP(A683,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F683">
+        <f>_xlfn.XLOOKUP(A683,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>52</v>
+      </c>
+      <c r="B684">
+        <v>7</v>
+      </c>
+      <c r="C684">
+        <f>_xlfn.XLOOKUP(A684,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>30.8</v>
+      </c>
+      <c r="D684">
+        <f>_xlfn.XLOOKUP(A684,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>25.3</v>
+      </c>
+      <c r="E684">
+        <f>_xlfn.XLOOKUP(A684,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F684">
+        <f>_xlfn.XLOOKUP(A684,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>81</v>
+      </c>
+      <c r="B685">
+        <v>7</v>
+      </c>
+      <c r="C685">
+        <f>_xlfn.XLOOKUP(A685,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.8</v>
+      </c>
+      <c r="D685">
+        <f>_xlfn.XLOOKUP(A685,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29.3</v>
+      </c>
+      <c r="E685">
+        <f>_xlfn.XLOOKUP(A685,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F685">
+        <f>_xlfn.XLOOKUP(A685,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>131</v>
+      </c>
+      <c r="B686">
+        <v>7</v>
+      </c>
+      <c r="C686">
+        <f>_xlfn.XLOOKUP(A686,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D686">
+        <f>_xlfn.XLOOKUP(A686,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E686">
+        <f>_xlfn.XLOOKUP(A686,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F686">
+        <f>_xlfn.XLOOKUP(A686,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>115</v>
+      </c>
+      <c r="B687">
+        <v>7</v>
+      </c>
+      <c r="C687">
+        <f>_xlfn.XLOOKUP(A687,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.3</v>
+      </c>
+      <c r="D687">
+        <f>_xlfn.XLOOKUP(A687,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>20.8</v>
+      </c>
+      <c r="E687">
+        <f>_xlfn.XLOOKUP(A687,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F687">
+        <f>_xlfn.XLOOKUP(A687,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>132</v>
+      </c>
+      <c r="B688">
+        <v>7</v>
+      </c>
+      <c r="C688">
+        <f>_xlfn.XLOOKUP(A688,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>23.6</v>
+      </c>
+      <c r="D688">
+        <f>_xlfn.XLOOKUP(A688,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29.2</v>
+      </c>
+      <c r="E688">
+        <f>_xlfn.XLOOKUP(A688,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F688">
+        <f>_xlfn.XLOOKUP(A688,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>32</v>
+      </c>
+      <c r="B689">
+        <v>7</v>
+      </c>
+      <c r="C689">
+        <f>_xlfn.XLOOKUP(A689,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>39.5</v>
+      </c>
+      <c r="D689">
+        <f>_xlfn.XLOOKUP(A689,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>10.7</v>
+      </c>
+      <c r="E689">
+        <f>_xlfn.XLOOKUP(A689,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F689">
+        <f>_xlfn.XLOOKUP(A689,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>111</v>
+      </c>
+      <c r="B690">
+        <v>7</v>
+      </c>
+      <c r="C690">
+        <f>_xlfn.XLOOKUP(A690,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>37</v>
+      </c>
+      <c r="D690">
+        <f>_xlfn.XLOOKUP(A690,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>30.3</v>
+      </c>
+      <c r="E690">
+        <f>_xlfn.XLOOKUP(A690,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F690">
+        <f>_xlfn.XLOOKUP(A690,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>133</v>
+      </c>
+      <c r="B691">
+        <v>7</v>
+      </c>
+      <c r="C691">
+        <f>_xlfn.XLOOKUP(A691,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>29.8</v>
+      </c>
+      <c r="D691">
+        <f>_xlfn.XLOOKUP(A691,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E691">
+        <f>_xlfn.XLOOKUP(A691,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F691">
+        <f>_xlfn.XLOOKUP(A691,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>86</v>
+      </c>
+      <c r="B692">
+        <v>7</v>
+      </c>
+      <c r="C692">
+        <f>_xlfn.XLOOKUP(A692,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>17.3</v>
+      </c>
+      <c r="D692">
+        <f>_xlfn.XLOOKUP(A692,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>28</v>
+      </c>
+      <c r="E692">
+        <f>_xlfn.XLOOKUP(A692,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F692">
+        <f>_xlfn.XLOOKUP(A692,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>134</v>
+      </c>
+      <c r="B693">
+        <v>7</v>
+      </c>
+      <c r="C693">
+        <f>_xlfn.XLOOKUP(A693,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>16.8</v>
+      </c>
+      <c r="D693">
+        <f>_xlfn.XLOOKUP(A693,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>40.5</v>
+      </c>
+      <c r="E693">
+        <f>_xlfn.XLOOKUP(A693,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F693">
+        <f>_xlfn.XLOOKUP(A693,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>40</v>
+      </c>
+      <c r="B694">
+        <v>7</v>
+      </c>
+      <c r="C694">
+        <f>_xlfn.XLOOKUP(A694,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.3</v>
+      </c>
+      <c r="D694">
+        <f>_xlfn.XLOOKUP(A694,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E694">
+        <f>_xlfn.XLOOKUP(A694,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F694">
+        <f>_xlfn.XLOOKUP(A694,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>23</v>
+      </c>
+      <c r="B695">
+        <v>7</v>
+      </c>
+      <c r="C695">
+        <f>_xlfn.XLOOKUP(A695,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>26</v>
+      </c>
+      <c r="D695">
+        <f>_xlfn.XLOOKUP(A695,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E695">
+        <f>_xlfn.XLOOKUP(A695,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F695">
+        <f>_xlfn.XLOOKUP(A695,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>41</v>
+      </c>
+      <c r="B696">
+        <v>7</v>
+      </c>
+      <c r="C696">
+        <f>_xlfn.XLOOKUP(A696,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>24.3</v>
+      </c>
+      <c r="D696">
+        <f>_xlfn.XLOOKUP(A696,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>30.5</v>
+      </c>
+      <c r="E696">
+        <f>_xlfn.XLOOKUP(A696,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F696">
+        <f>_xlfn.XLOOKUP(A696,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>135</v>
+      </c>
+      <c r="B697">
+        <v>7</v>
+      </c>
+      <c r="C697">
+        <f>_xlfn.XLOOKUP(A697,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>14.7</v>
+      </c>
+      <c r="D697">
+        <f>_xlfn.XLOOKUP(A697,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E697">
+        <f>_xlfn.XLOOKUP(A697,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F697">
+        <f>_xlfn.XLOOKUP(A697,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>136</v>
+      </c>
+      <c r="B698">
+        <v>7</v>
+      </c>
+      <c r="C698">
+        <f>_xlfn.XLOOKUP(A698,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>23.2</v>
+      </c>
+      <c r="D698">
+        <f>_xlfn.XLOOKUP(A698,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>13.7</v>
+      </c>
+      <c r="E698">
+        <f>_xlfn.XLOOKUP(A698,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F698">
+        <f>_xlfn.XLOOKUP(A698,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>137</v>
+      </c>
+      <c r="B699">
+        <v>7</v>
+      </c>
+      <c r="C699">
+        <f>_xlfn.XLOOKUP(A699,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>44.2</v>
+      </c>
+      <c r="D699">
+        <f>_xlfn.XLOOKUP(A699,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E699">
+        <f>_xlfn.XLOOKUP(A699,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F699">
+        <f>_xlfn.XLOOKUP(A699,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>138</v>
+      </c>
+      <c r="B700">
+        <v>7</v>
+      </c>
+      <c r="C700">
+        <f>_xlfn.XLOOKUP(A700,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D700">
+        <f>_xlfn.XLOOKUP(A700,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>26.3</v>
+      </c>
+      <c r="E700">
+        <f>_xlfn.XLOOKUP(A700,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F700">
+        <f>_xlfn.XLOOKUP(A700,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>93</v>
+      </c>
+      <c r="B701">
+        <v>7</v>
+      </c>
+      <c r="C701">
+        <f>_xlfn.XLOOKUP(A701,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>28.7</v>
+      </c>
+      <c r="D701">
+        <f>_xlfn.XLOOKUP(A701,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>16.7</v>
+      </c>
+      <c r="E701">
+        <f>_xlfn.XLOOKUP(A701,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F701">
+        <f>_xlfn.XLOOKUP(A701,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>139</v>
+      </c>
+      <c r="B702">
+        <v>7</v>
+      </c>
+      <c r="C702">
+        <f>_xlfn.XLOOKUP(A702,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>27.2</v>
+      </c>
+      <c r="D702">
+        <f>_xlfn.XLOOKUP(A702,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29.7</v>
+      </c>
+      <c r="E702">
+        <f>_xlfn.XLOOKUP(A702,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F702">
+        <f>_xlfn.XLOOKUP(A702,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>108</v>
+      </c>
+      <c r="B703">
+        <v>7</v>
+      </c>
+      <c r="C703">
+        <f>_xlfn.XLOOKUP(A703,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>26.3</v>
+      </c>
+      <c r="D703">
+        <f>_xlfn.XLOOKUP(A703,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>16.3</v>
+      </c>
+      <c r="E703">
+        <f>_xlfn.XLOOKUP(A703,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F703">
+        <f>_xlfn.XLOOKUP(A703,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>140</v>
+      </c>
+      <c r="B704">
+        <v>7</v>
+      </c>
+      <c r="C704">
+        <f>_xlfn.XLOOKUP(A704,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.2</v>
+      </c>
+      <c r="D704">
+        <f>_xlfn.XLOOKUP(A704,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E704">
+        <f>_xlfn.XLOOKUP(A704,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F704">
+        <f>_xlfn.XLOOKUP(A704,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>141</v>
+      </c>
+      <c r="B705">
+        <v>7</v>
+      </c>
+      <c r="C705">
+        <f>_xlfn.XLOOKUP(A705,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>30.2</v>
+      </c>
+      <c r="D705">
+        <f>_xlfn.XLOOKUP(A705,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E705">
+        <f>_xlfn.XLOOKUP(A705,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F705">
+        <f>_xlfn.XLOOKUP(A705,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>142</v>
+      </c>
+      <c r="B706">
+        <v>7</v>
+      </c>
+      <c r="C706">
+        <f>_xlfn.XLOOKUP(A706,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>25.6</v>
+      </c>
+      <c r="D706">
+        <f>_xlfn.XLOOKUP(A706,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E706">
+        <f>_xlfn.XLOOKUP(A706,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F706">
+        <f>_xlfn.XLOOKUP(A706,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>143</v>
+      </c>
+      <c r="B707">
+        <v>7</v>
+      </c>
+      <c r="C707">
+        <f>_xlfn.XLOOKUP(A707,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>20.3</v>
+      </c>
+      <c r="D707">
+        <f>_xlfn.XLOOKUP(A707,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E707">
+        <f>_xlfn.XLOOKUP(A707,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F707">
+        <f>_xlfn.XLOOKUP(A707,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>89</v>
+      </c>
+      <c r="B708">
+        <v>7</v>
+      </c>
+      <c r="C708">
+        <f>_xlfn.XLOOKUP(A708,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>27.7</v>
+      </c>
+      <c r="D708">
+        <f>_xlfn.XLOOKUP(A708,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>22.3</v>
+      </c>
+      <c r="E708">
+        <f>_xlfn.XLOOKUP(A708,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F708">
+        <f>_xlfn.XLOOKUP(A708,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>114</v>
+      </c>
+      <c r="B709">
+        <v>7</v>
+      </c>
+      <c r="C709">
+        <f>_xlfn.XLOOKUP(A709,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.8</v>
+      </c>
+      <c r="D709">
+        <f>_xlfn.XLOOKUP(A709,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>19</v>
+      </c>
+      <c r="E709">
+        <f>_xlfn.XLOOKUP(A709,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F709">
+        <f>_xlfn.XLOOKUP(A709,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>100</v>
+      </c>
+      <c r="B710">
+        <v>7</v>
+      </c>
+      <c r="C710">
+        <f>_xlfn.XLOOKUP(A710,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>29.4</v>
+      </c>
+      <c r="D710">
+        <f>_xlfn.XLOOKUP(A710,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>16.2</v>
+      </c>
+      <c r="E710">
+        <f>_xlfn.XLOOKUP(A710,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F710">
+        <f>_xlfn.XLOOKUP(A710,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>144</v>
+      </c>
+      <c r="B711">
+        <v>7</v>
+      </c>
+      <c r="C711">
+        <f>_xlfn.XLOOKUP(A711,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>34</v>
+      </c>
+      <c r="D711">
+        <f>_xlfn.XLOOKUP(A711,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>22.7</v>
+      </c>
+      <c r="E711">
+        <f>_xlfn.XLOOKUP(A711,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F711">
+        <f>_xlfn.XLOOKUP(A711,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>145</v>
+      </c>
+      <c r="B712">
+        <v>7</v>
+      </c>
+      <c r="C712">
+        <f>_xlfn.XLOOKUP(A712,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>12.8</v>
+      </c>
+      <c r="D712">
+        <f>_xlfn.XLOOKUP(A712,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>31.7</v>
+      </c>
+      <c r="E712">
+        <f>_xlfn.XLOOKUP(A712,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F712">
+        <f>_xlfn.XLOOKUP(A712,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>146</v>
+      </c>
+      <c r="B713">
+        <v>7</v>
+      </c>
+      <c r="C713">
+        <f>_xlfn.XLOOKUP(A713,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>34</v>
+      </c>
+      <c r="D713">
+        <f>_xlfn.XLOOKUP(A713,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>27.3</v>
+      </c>
+      <c r="E713">
+        <f>_xlfn.XLOOKUP(A713,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F713">
+        <f>_xlfn.XLOOKUP(A713,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>147</v>
+      </c>
+      <c r="B714">
+        <v>7</v>
+      </c>
+      <c r="C714">
+        <f>_xlfn.XLOOKUP(A714,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D714">
+        <f>_xlfn.XLOOKUP(A714,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>21.8</v>
+      </c>
+      <c r="E714">
+        <f>_xlfn.XLOOKUP(A714,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F714">
+        <f>_xlfn.XLOOKUP(A714,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>148</v>
+      </c>
+      <c r="B715">
+        <v>7</v>
+      </c>
+      <c r="C715">
+        <f>_xlfn.XLOOKUP(A715,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>20.8</v>
+      </c>
+      <c r="D715">
+        <f>_xlfn.XLOOKUP(A715,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>25.2</v>
+      </c>
+      <c r="E715">
+        <f>_xlfn.XLOOKUP(A715,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F715">
+        <f>_xlfn.XLOOKUP(A715,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>38</v>
+      </c>
+      <c r="B716">
+        <v>7</v>
+      </c>
+      <c r="C716">
+        <f>_xlfn.XLOOKUP(A716,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>43</v>
+      </c>
+      <c r="D716">
+        <f>_xlfn.XLOOKUP(A716,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>11.3</v>
+      </c>
+      <c r="E716">
+        <f>_xlfn.XLOOKUP(A716,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F716">
+        <f>_xlfn.XLOOKUP(A716,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>29</v>
+      </c>
+      <c r="B717">
+        <v>7</v>
+      </c>
+      <c r="C717">
+        <f>_xlfn.XLOOKUP(A717,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>25.8</v>
+      </c>
+      <c r="D717">
+        <f>_xlfn.XLOOKUP(A717,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>27</v>
+      </c>
+      <c r="E717">
+        <f>_xlfn.XLOOKUP(A717,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F717">
+        <f>_xlfn.XLOOKUP(A717,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>149</v>
+      </c>
+      <c r="B718">
+        <v>7</v>
+      </c>
+      <c r="C718">
+        <f>_xlfn.XLOOKUP(A718,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>29.8</v>
+      </c>
+      <c r="D718">
+        <f>_xlfn.XLOOKUP(A718,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>31</v>
+      </c>
+      <c r="E718">
+        <f>_xlfn.XLOOKUP(A718,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F718">
+        <f>_xlfn.XLOOKUP(A718,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>150</v>
+      </c>
+      <c r="B719">
+        <v>7</v>
+      </c>
+      <c r="C719">
+        <f>_xlfn.XLOOKUP(A719,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>38.6</v>
+      </c>
+      <c r="D719">
+        <f>_xlfn.XLOOKUP(A719,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E719">
+        <f>_xlfn.XLOOKUP(A719,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F719">
+        <f>_xlfn.XLOOKUP(A719,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>151</v>
+      </c>
+      <c r="B720">
+        <v>7</v>
+      </c>
+      <c r="C720">
+        <f>_xlfn.XLOOKUP(A720,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D720">
+        <f>_xlfn.XLOOKUP(A720,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>14.5</v>
+      </c>
+      <c r="E720">
+        <f>_xlfn.XLOOKUP(A720,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F720">
+        <f>_xlfn.XLOOKUP(A720,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>113</v>
+      </c>
+      <c r="B721">
+        <v>7</v>
+      </c>
+      <c r="C721">
+        <f>_xlfn.XLOOKUP(A721,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>38.5</v>
+      </c>
+      <c r="D721">
+        <f>_xlfn.XLOOKUP(A721,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E721">
+        <f>_xlfn.XLOOKUP(A721,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F721">
+        <f>_xlfn.XLOOKUP(A721,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>94</v>
+      </c>
+      <c r="B722">
+        <v>7</v>
+      </c>
+      <c r="C722">
+        <f>_xlfn.XLOOKUP(A722,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>25.2</v>
+      </c>
+      <c r="D722">
+        <f>_xlfn.XLOOKUP(A722,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>24.7</v>
+      </c>
+      <c r="E722">
+        <f>_xlfn.XLOOKUP(A722,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F722">
+        <f>_xlfn.XLOOKUP(A722,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>152</v>
+      </c>
+      <c r="B723">
+        <v>7</v>
+      </c>
+      <c r="C723">
+        <f>_xlfn.XLOOKUP(A723,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>21.2</v>
+      </c>
+      <c r="D723">
+        <f>_xlfn.XLOOKUP(A723,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E723">
+        <f>_xlfn.XLOOKUP(A723,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F723">
+        <f>_xlfn.XLOOKUP(A723,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>22</v>
+      </c>
+      <c r="B724">
+        <v>7</v>
+      </c>
+      <c r="C724">
+        <f>_xlfn.XLOOKUP(A724,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>28.5</v>
+      </c>
+      <c r="D724">
+        <f>_xlfn.XLOOKUP(A724,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29.3</v>
+      </c>
+      <c r="E724">
+        <f>_xlfn.XLOOKUP(A724,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F724">
+        <f>_xlfn.XLOOKUP(A724,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>44</v>
+      </c>
+      <c r="B725">
+        <v>7</v>
+      </c>
+      <c r="C725">
+        <f>_xlfn.XLOOKUP(A725,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>22.7</v>
+      </c>
+      <c r="D725">
+        <f>_xlfn.XLOOKUP(A725,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>28.8</v>
+      </c>
+      <c r="E725">
+        <f>_xlfn.XLOOKUP(A725,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F725">
+        <f>_xlfn.XLOOKUP(A725,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>153</v>
+      </c>
+      <c r="B726">
+        <v>7</v>
+      </c>
+      <c r="C726">
+        <f>_xlfn.XLOOKUP(A726,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>19.3</v>
+      </c>
+      <c r="D726">
+        <f>_xlfn.XLOOKUP(A726,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>22.8</v>
+      </c>
+      <c r="E726">
+        <f>_xlfn.XLOOKUP(A726,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F726">
+        <f>_xlfn.XLOOKUP(A726,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>83</v>
+      </c>
+      <c r="B727">
+        <v>7</v>
+      </c>
+      <c r="C727">
+        <f>_xlfn.XLOOKUP(A727,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>14</v>
+      </c>
+      <c r="D727">
+        <f>_xlfn.XLOOKUP(A727,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E727">
+        <f>_xlfn.XLOOKUP(A727,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F727">
+        <f>_xlfn.XLOOKUP(A727,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>154</v>
+      </c>
+      <c r="B728">
+        <v>7</v>
+      </c>
+      <c r="C728">
+        <f>_xlfn.XLOOKUP(A728,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>42.3</v>
+      </c>
+      <c r="D728">
+        <f>_xlfn.XLOOKUP(A728,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>32</v>
+      </c>
+      <c r="E728">
+        <f>_xlfn.XLOOKUP(A728,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F728">
+        <f>_xlfn.XLOOKUP(A728,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>189</v>
+      </c>
+      <c r="B729">
+        <v>7</v>
+      </c>
+      <c r="C729">
+        <f>_xlfn.XLOOKUP(A729,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D729">
+        <f>_xlfn.XLOOKUP(A729,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>15.7</v>
+      </c>
+      <c r="E729">
+        <f>_xlfn.XLOOKUP(A729,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F729">
+        <f>_xlfn.XLOOKUP(A729,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>155</v>
+      </c>
+      <c r="B730">
+        <v>7</v>
+      </c>
+      <c r="C730">
+        <f>_xlfn.XLOOKUP(A730,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D730">
+        <f>_xlfn.XLOOKUP(A730,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E730">
+        <f>_xlfn.XLOOKUP(A730,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F730">
+        <f>_xlfn.XLOOKUP(A730,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>156</v>
+      </c>
+      <c r="B731">
+        <v>7</v>
+      </c>
+      <c r="C731">
+        <f>_xlfn.XLOOKUP(A731,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.7</v>
+      </c>
+      <c r="D731">
+        <f>_xlfn.XLOOKUP(A731,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E731">
+        <f>_xlfn.XLOOKUP(A731,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F731">
+        <f>_xlfn.XLOOKUP(A731,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>30</v>
+      </c>
+      <c r="B732">
+        <v>7</v>
+      </c>
+      <c r="C732">
+        <f>_xlfn.XLOOKUP(A732,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>17.7</v>
+      </c>
+      <c r="D732">
+        <f>_xlfn.XLOOKUP(A732,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>27.7</v>
+      </c>
+      <c r="E732">
+        <f>_xlfn.XLOOKUP(A732,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F732">
+        <f>_xlfn.XLOOKUP(A732,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>46</v>
+      </c>
+      <c r="B733">
+        <v>7</v>
+      </c>
+      <c r="C733">
+        <f>_xlfn.XLOOKUP(A733,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>25.6</v>
+      </c>
+      <c r="D733">
+        <f>_xlfn.XLOOKUP(A733,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>23.2</v>
+      </c>
+      <c r="E733">
+        <f>_xlfn.XLOOKUP(A733,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F733">
+        <f>_xlfn.XLOOKUP(A733,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>157</v>
+      </c>
+      <c r="B734">
+        <v>7</v>
+      </c>
+      <c r="C734">
+        <f>_xlfn.XLOOKUP(A734,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D734">
+        <f>_xlfn.XLOOKUP(A734,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E734">
+        <f>_xlfn.XLOOKUP(A734,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F734">
+        <f>_xlfn.XLOOKUP(A734,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>26</v>
+      </c>
+      <c r="B735">
+        <v>7</v>
+      </c>
+      <c r="C735">
+        <f>_xlfn.XLOOKUP(A735,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>48.8</v>
+      </c>
+      <c r="D735">
+        <f>_xlfn.XLOOKUP(A735,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>15.7</v>
+      </c>
+      <c r="E735">
+        <f>_xlfn.XLOOKUP(A735,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F735">
+        <f>_xlfn.XLOOKUP(A735,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>36</v>
+      </c>
+      <c r="B736">
+        <v>7</v>
+      </c>
+      <c r="C736">
+        <f>_xlfn.XLOOKUP(A736,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>30.8</v>
+      </c>
+      <c r="D736">
+        <f>_xlfn.XLOOKUP(A736,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29.2</v>
+      </c>
+      <c r="E736">
+        <f>_xlfn.XLOOKUP(A736,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F736">
+        <f>_xlfn.XLOOKUP(A736,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>56</v>
+      </c>
+      <c r="B737">
+        <v>7</v>
+      </c>
+      <c r="C737">
+        <f>_xlfn.XLOOKUP(A737,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>46.4</v>
+      </c>
+      <c r="D737">
+        <f>_xlfn.XLOOKUP(A737,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>24.8</v>
+      </c>
+      <c r="E737">
+        <f>_xlfn.XLOOKUP(A737,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F737">
+        <f>_xlfn.XLOOKUP(A737,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>158</v>
+      </c>
+      <c r="B738">
+        <v>7</v>
+      </c>
+      <c r="C738">
+        <f>_xlfn.XLOOKUP(A738,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>21.6</v>
+      </c>
+      <c r="D738">
+        <f>_xlfn.XLOOKUP(A738,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>27.2</v>
+      </c>
+      <c r="E738">
+        <f>_xlfn.XLOOKUP(A738,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F738">
+        <f>_xlfn.XLOOKUP(A738,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>49</v>
+      </c>
+      <c r="B739">
+        <v>7</v>
+      </c>
+      <c r="C739">
+        <f>_xlfn.XLOOKUP(A739,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>42</v>
+      </c>
+      <c r="D739">
+        <f>_xlfn.XLOOKUP(A739,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>28.8</v>
+      </c>
+      <c r="E739">
+        <f>_xlfn.XLOOKUP(A739,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F739">
+        <f>_xlfn.XLOOKUP(A739,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>42</v>
+      </c>
+      <c r="B740">
+        <v>7</v>
+      </c>
+      <c r="C740">
+        <f>_xlfn.XLOOKUP(A740,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D740">
+        <f>_xlfn.XLOOKUP(A740,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>27.2</v>
+      </c>
+      <c r="E740">
+        <f>_xlfn.XLOOKUP(A740,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F740">
+        <f>_xlfn.XLOOKUP(A740,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>34</v>
+      </c>
+      <c r="B741">
+        <v>7</v>
+      </c>
+      <c r="C741">
+        <f>_xlfn.XLOOKUP(A741,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>34.4</v>
+      </c>
+      <c r="D741">
+        <f>_xlfn.XLOOKUP(A741,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>14.8</v>
+      </c>
+      <c r="E741">
+        <f>_xlfn.XLOOKUP(A741,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F741">
+        <f>_xlfn.XLOOKUP(A741,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>51</v>
+      </c>
+      <c r="B742">
+        <v>7</v>
+      </c>
+      <c r="C742">
+        <f>_xlfn.XLOOKUP(A742,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>35</v>
+      </c>
+      <c r="D742">
+        <f>_xlfn.XLOOKUP(A742,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>26.2</v>
+      </c>
+      <c r="E742">
+        <f>_xlfn.XLOOKUP(A742,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F742">
+        <f>_xlfn.XLOOKUP(A742,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>43</v>
+      </c>
+      <c r="B743">
+        <v>7</v>
+      </c>
+      <c r="C743">
+        <f>_xlfn.XLOOKUP(A743,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D743">
+        <f>_xlfn.XLOOKUP(A743,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>22</v>
+      </c>
+      <c r="E743">
+        <f>_xlfn.XLOOKUP(A743,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F743">
+        <f>_xlfn.XLOOKUP(A743,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>159</v>
+      </c>
+      <c r="B744">
+        <v>7</v>
+      </c>
+      <c r="C744">
+        <f>_xlfn.XLOOKUP(A744,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>30.8</v>
+      </c>
+      <c r="D744">
+        <f>_xlfn.XLOOKUP(A744,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>31</v>
+      </c>
+      <c r="E744">
+        <f>_xlfn.XLOOKUP(A744,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F744">
+        <f>_xlfn.XLOOKUP(A744,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>160</v>
+      </c>
+      <c r="B745">
+        <v>7</v>
+      </c>
+      <c r="C745">
+        <f>_xlfn.XLOOKUP(A745,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>22.8</v>
+      </c>
+      <c r="D745">
+        <f>_xlfn.XLOOKUP(A745,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>22</v>
+      </c>
+      <c r="E745">
+        <f>_xlfn.XLOOKUP(A745,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F745">
+        <f>_xlfn.XLOOKUP(A745,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>161</v>
+      </c>
+      <c r="B746">
+        <v>7</v>
+      </c>
+      <c r="C746">
+        <f>_xlfn.XLOOKUP(A746,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>18.5</v>
+      </c>
+      <c r="D746">
+        <f>_xlfn.XLOOKUP(A746,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>23.8</v>
+      </c>
+      <c r="E746">
+        <f>_xlfn.XLOOKUP(A746,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F746">
+        <f>_xlfn.XLOOKUP(A746,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>162</v>
+      </c>
+      <c r="B747">
+        <v>7</v>
+      </c>
+      <c r="C747">
+        <f>_xlfn.XLOOKUP(A747,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>28.8</v>
+      </c>
+      <c r="D747">
+        <f>_xlfn.XLOOKUP(A747,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E747">
+        <f>_xlfn.XLOOKUP(A747,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F747">
+        <f>_xlfn.XLOOKUP(A747,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>163</v>
+      </c>
+      <c r="B748">
+        <v>7</v>
+      </c>
+      <c r="C748">
+        <f>_xlfn.XLOOKUP(A748,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>34.6</v>
+      </c>
+      <c r="D748">
+        <f>_xlfn.XLOOKUP(A748,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>28.6</v>
+      </c>
+      <c r="E748">
+        <f>_xlfn.XLOOKUP(A748,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F748">
+        <f>_xlfn.XLOOKUP(A748,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>164</v>
+      </c>
+      <c r="B749">
+        <v>7</v>
+      </c>
+      <c r="C749">
+        <f>_xlfn.XLOOKUP(A749,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>35</v>
+      </c>
+      <c r="D749">
+        <f>_xlfn.XLOOKUP(A749,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>18.8</v>
+      </c>
+      <c r="E749">
+        <f>_xlfn.XLOOKUP(A749,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F749">
+        <f>_xlfn.XLOOKUP(A749,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>92</v>
+      </c>
+      <c r="B750">
+        <v>7</v>
+      </c>
+      <c r="C750">
+        <f>_xlfn.XLOOKUP(A750,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D750">
+        <f>_xlfn.XLOOKUP(A750,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E750">
+        <f>_xlfn.XLOOKUP(A750,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F750">
+        <f>_xlfn.XLOOKUP(A750,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>165</v>
+      </c>
+      <c r="B751">
+        <v>7</v>
+      </c>
+      <c r="C751">
+        <f>_xlfn.XLOOKUP(A751,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>24.3</v>
+      </c>
+      <c r="D751">
+        <f>_xlfn.XLOOKUP(A751,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E751">
+        <f>_xlfn.XLOOKUP(A751,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F751">
+        <f>_xlfn.XLOOKUP(A751,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>166</v>
+      </c>
+      <c r="B752">
+        <v>7</v>
+      </c>
+      <c r="C752">
+        <f>_xlfn.XLOOKUP(A752,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>27</v>
+      </c>
+      <c r="D752">
+        <f>_xlfn.XLOOKUP(A752,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>24</v>
+      </c>
+      <c r="E752">
+        <f>_xlfn.XLOOKUP(A752,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F752">
+        <f>_xlfn.XLOOKUP(A752,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>109</v>
+      </c>
+      <c r="B753">
+        <v>7</v>
+      </c>
+      <c r="C753">
+        <f>_xlfn.XLOOKUP(A753,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>29</v>
+      </c>
+      <c r="D753">
+        <f>_xlfn.XLOOKUP(A753,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E753">
+        <f>_xlfn.XLOOKUP(A753,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F753">
+        <f>_xlfn.XLOOKUP(A753,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>167</v>
+      </c>
+      <c r="B754">
+        <v>7</v>
+      </c>
+      <c r="C754">
+        <f>_xlfn.XLOOKUP(A754,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>38.4</v>
+      </c>
+      <c r="D754">
+        <f>_xlfn.XLOOKUP(A754,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E754">
+        <f>_xlfn.XLOOKUP(A754,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F754">
+        <f>_xlfn.XLOOKUP(A754,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>168</v>
+      </c>
+      <c r="B755">
+        <v>7</v>
+      </c>
+      <c r="C755">
+        <f>_xlfn.XLOOKUP(A755,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>46.4</v>
+      </c>
+      <c r="D755">
+        <f>_xlfn.XLOOKUP(A755,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>23.8</v>
+      </c>
+      <c r="E755">
+        <f>_xlfn.XLOOKUP(A755,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F755">
+        <f>_xlfn.XLOOKUP(A755,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>169</v>
+      </c>
+      <c r="B756">
+        <v>7</v>
+      </c>
+      <c r="C756">
+        <f>_xlfn.XLOOKUP(A756,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>15</v>
+      </c>
+      <c r="D756">
+        <f>_xlfn.XLOOKUP(A756,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>16.8</v>
+      </c>
+      <c r="E756">
+        <f>_xlfn.XLOOKUP(A756,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F756">
+        <f>_xlfn.XLOOKUP(A756,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>104</v>
+      </c>
+      <c r="B757">
+        <v>7</v>
+      </c>
+      <c r="C757">
+        <f>_xlfn.XLOOKUP(A757,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>46.8</v>
+      </c>
+      <c r="D757">
+        <f>_xlfn.XLOOKUP(A757,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>17.8</v>
+      </c>
+      <c r="E757">
+        <f>_xlfn.XLOOKUP(A757,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F757">
+        <f>_xlfn.XLOOKUP(A757,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>90</v>
+      </c>
+      <c r="B758">
+        <v>7</v>
+      </c>
+      <c r="C758">
+        <f>_xlfn.XLOOKUP(A758,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D758">
+        <f>_xlfn.XLOOKUP(A758,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>17.8</v>
+      </c>
+      <c r="E758">
+        <f>_xlfn.XLOOKUP(A758,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F758">
+        <f>_xlfn.XLOOKUP(A758,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>101</v>
+      </c>
+      <c r="B759">
+        <v>7</v>
+      </c>
+      <c r="C759">
+        <f>_xlfn.XLOOKUP(A759,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>21.5</v>
+      </c>
+      <c r="D759">
+        <f>_xlfn.XLOOKUP(A759,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>18.8</v>
+      </c>
+      <c r="E759">
+        <f>_xlfn.XLOOKUP(A759,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F759">
+        <f>_xlfn.XLOOKUP(A759,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>170</v>
+      </c>
+      <c r="B760">
+        <v>7</v>
+      </c>
+      <c r="C760">
+        <f>_xlfn.XLOOKUP(A760,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>24.2</v>
+      </c>
+      <c r="D760">
+        <f>_xlfn.XLOOKUP(A760,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E760">
+        <f>_xlfn.XLOOKUP(A760,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F760">
+        <f>_xlfn.XLOOKUP(A760,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>95</v>
+      </c>
+      <c r="B761">
+        <v>7</v>
+      </c>
+      <c r="C761">
+        <f>_xlfn.XLOOKUP(A761,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D761">
+        <f>_xlfn.XLOOKUP(A761,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29.8</v>
+      </c>
+      <c r="E761">
+        <f>_xlfn.XLOOKUP(A761,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F761">
+        <f>_xlfn.XLOOKUP(A761,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>171</v>
+      </c>
+      <c r="B762">
+        <v>7</v>
+      </c>
+      <c r="C762">
+        <f>_xlfn.XLOOKUP(A762,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D762">
+        <f>_xlfn.XLOOKUP(A762,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E762">
+        <f>_xlfn.XLOOKUP(A762,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F762">
+        <f>_xlfn.XLOOKUP(A762,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>172</v>
+      </c>
+      <c r="B763">
+        <v>7</v>
+      </c>
+      <c r="C763">
+        <f>_xlfn.XLOOKUP(A763,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>25.5</v>
+      </c>
+      <c r="D763">
+        <f>_xlfn.XLOOKUP(A763,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>20.2</v>
+      </c>
+      <c r="E763">
+        <f>_xlfn.XLOOKUP(A763,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F763">
+        <f>_xlfn.XLOOKUP(A763,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>173</v>
+      </c>
+      <c r="B764">
+        <v>7</v>
+      </c>
+      <c r="C764">
+        <f>_xlfn.XLOOKUP(A764,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31</v>
+      </c>
+      <c r="D764">
+        <f>_xlfn.XLOOKUP(A764,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>13.3</v>
+      </c>
+      <c r="E764">
+        <f>_xlfn.XLOOKUP(A764,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F764">
+        <f>_xlfn.XLOOKUP(A764,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>55</v>
+      </c>
+      <c r="B765">
+        <v>7</v>
+      </c>
+      <c r="C765">
+        <f>_xlfn.XLOOKUP(A765,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>33</v>
+      </c>
+      <c r="D765">
+        <f>_xlfn.XLOOKUP(A765,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E765">
+        <f>_xlfn.XLOOKUP(A765,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F765">
+        <f>_xlfn.XLOOKUP(A765,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>174</v>
+      </c>
+      <c r="B766">
+        <v>7</v>
+      </c>
+      <c r="C766">
+        <f>_xlfn.XLOOKUP(A766,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>34.6</v>
+      </c>
+      <c r="D766">
+        <f>_xlfn.XLOOKUP(A766,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>16.8</v>
+      </c>
+      <c r="E766">
+        <f>_xlfn.XLOOKUP(A766,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F766">
+        <f>_xlfn.XLOOKUP(A766,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>88</v>
+      </c>
+      <c r="B767">
+        <v>7</v>
+      </c>
+      <c r="C767">
+        <f>_xlfn.XLOOKUP(A767,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>35.6</v>
+      </c>
+      <c r="D767">
+        <f>_xlfn.XLOOKUP(A767,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>14.6</v>
+      </c>
+      <c r="E767">
+        <f>_xlfn.XLOOKUP(A767,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F767">
+        <f>_xlfn.XLOOKUP(A767,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>175</v>
+      </c>
+      <c r="B768">
+        <v>7</v>
+      </c>
+      <c r="C768">
+        <f>_xlfn.XLOOKUP(A768,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>41.5</v>
+      </c>
+      <c r="D768">
+        <f>_xlfn.XLOOKUP(A768,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>22.7</v>
+      </c>
+      <c r="E768">
+        <f>_xlfn.XLOOKUP(A768,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F768">
+        <f>_xlfn.XLOOKUP(A768,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>176</v>
+      </c>
+      <c r="B769">
+        <v>7</v>
+      </c>
+      <c r="C769">
+        <f>_xlfn.XLOOKUP(A769,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D769">
+        <f>_xlfn.XLOOKUP(A769,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>25.3</v>
+      </c>
+      <c r="E769">
+        <f>_xlfn.XLOOKUP(A769,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F769">
+        <f>_xlfn.XLOOKUP(A769,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>110</v>
+      </c>
+      <c r="B770">
+        <v>7</v>
+      </c>
+      <c r="C770">
+        <f>_xlfn.XLOOKUP(A770,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D770">
+        <f>_xlfn.XLOOKUP(A770,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>18.7</v>
+      </c>
+      <c r="E770">
+        <f>_xlfn.XLOOKUP(A770,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F770">
+        <f>_xlfn.XLOOKUP(A770,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>53</v>
+      </c>
+      <c r="B771">
+        <v>7</v>
+      </c>
+      <c r="C771">
+        <f>_xlfn.XLOOKUP(A771,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D771">
+        <f>_xlfn.XLOOKUP(A771,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>19</v>
+      </c>
+      <c r="E771">
+        <f>_xlfn.XLOOKUP(A771,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F771">
+        <f>_xlfn.XLOOKUP(A771,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>58</v>
+      </c>
+      <c r="B772">
+        <v>7</v>
+      </c>
+      <c r="C772">
+        <f>_xlfn.XLOOKUP(A772,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>20.3</v>
+      </c>
+      <c r="D772">
+        <f>_xlfn.XLOOKUP(A772,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E772">
+        <f>_xlfn.XLOOKUP(A772,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F772">
+        <f>_xlfn.XLOOKUP(A772,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>48</v>
+      </c>
+      <c r="B773">
+        <v>7</v>
+      </c>
+      <c r="C773">
+        <f>_xlfn.XLOOKUP(A773,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>22.1</v>
+      </c>
+      <c r="D773">
+        <f>_xlfn.XLOOKUP(A773,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>28.9</v>
+      </c>
+      <c r="E773">
+        <f>_xlfn.XLOOKUP(A773,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F773">
+        <f>_xlfn.XLOOKUP(A773,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>45</v>
+      </c>
+      <c r="B774">
+        <v>7</v>
+      </c>
+      <c r="C774">
+        <f>_xlfn.XLOOKUP(A774,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D774">
+        <f>_xlfn.XLOOKUP(A774,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>33</v>
+      </c>
+      <c r="E774">
+        <f>_xlfn.XLOOKUP(A774,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F774">
+        <f>_xlfn.XLOOKUP(A774,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>177</v>
+      </c>
+      <c r="B775">
+        <v>7</v>
+      </c>
+      <c r="C775">
+        <f>_xlfn.XLOOKUP(A775,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D775">
+        <f>_xlfn.XLOOKUP(A775,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E775">
+        <f>_xlfn.XLOOKUP(A775,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F775">
+        <f>_xlfn.XLOOKUP(A775,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>178</v>
+      </c>
+      <c r="B776">
+        <v>7</v>
+      </c>
+      <c r="C776">
+        <f>_xlfn.XLOOKUP(A776,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>17.8</v>
+      </c>
+      <c r="D776">
+        <f>_xlfn.XLOOKUP(A776,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>24.8</v>
+      </c>
+      <c r="E776">
+        <f>_xlfn.XLOOKUP(A776,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F776">
+        <f>_xlfn.XLOOKUP(A776,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>179</v>
+      </c>
+      <c r="B777">
+        <v>7</v>
+      </c>
+      <c r="C777">
+        <f>_xlfn.XLOOKUP(A777,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>20</v>
+      </c>
+      <c r="D777">
+        <f>_xlfn.XLOOKUP(A777,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E777">
+        <f>_xlfn.XLOOKUP(A777,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F777">
+        <f>_xlfn.XLOOKUP(A777,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>180</v>
+      </c>
+      <c r="B778">
+        <v>7</v>
+      </c>
+      <c r="C778">
+        <f>_xlfn.XLOOKUP(A778,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>41.2</v>
+      </c>
+      <c r="D778">
+        <f>_xlfn.XLOOKUP(A778,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E778">
+        <f>_xlfn.XLOOKUP(A778,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F778">
+        <f>_xlfn.XLOOKUP(A778,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>181</v>
+      </c>
+      <c r="B779">
+        <v>7</v>
+      </c>
+      <c r="C779">
+        <f>_xlfn.XLOOKUP(A779,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>41</v>
+      </c>
+      <c r="D779">
+        <f>_xlfn.XLOOKUP(A779,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>26.8</v>
+      </c>
+      <c r="E779">
+        <f>_xlfn.XLOOKUP(A779,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F779">
+        <f>_xlfn.XLOOKUP(A779,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>105</v>
+      </c>
+      <c r="B780">
+        <v>7</v>
+      </c>
+      <c r="C780">
+        <f>_xlfn.XLOOKUP(A780,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>27</v>
+      </c>
+      <c r="D780">
+        <f>_xlfn.XLOOKUP(A780,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>20.2</v>
+      </c>
+      <c r="E780">
+        <f>_xlfn.XLOOKUP(A780,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F780">
+        <f>_xlfn.XLOOKUP(A780,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>39</v>
+      </c>
+      <c r="B781">
+        <v>7</v>
+      </c>
+      <c r="C781">
+        <f>_xlfn.XLOOKUP(A781,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D781">
+        <f>_xlfn.XLOOKUP(A781,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>29.6</v>
+      </c>
+      <c r="E781">
+        <f>_xlfn.XLOOKUP(A781,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F781">
+        <f>_xlfn.XLOOKUP(A781,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>182</v>
+      </c>
+      <c r="B782">
+        <v>7</v>
+      </c>
+      <c r="C782">
+        <f>_xlfn.XLOOKUP(A782,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D782">
+        <f>_xlfn.XLOOKUP(A782,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>23.7</v>
+      </c>
+      <c r="E782">
+        <f>_xlfn.XLOOKUP(A782,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F782">
+        <f>_xlfn.XLOOKUP(A782,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>37</v>
+      </c>
+      <c r="B783">
+        <v>7</v>
+      </c>
+      <c r="C783">
+        <f>_xlfn.XLOOKUP(A783,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>22.7</v>
+      </c>
+      <c r="D783">
+        <f>_xlfn.XLOOKUP(A783,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>30.8</v>
+      </c>
+      <c r="E783">
+        <f>_xlfn.XLOOKUP(A783,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F783">
+        <f>_xlfn.XLOOKUP(A783,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>35</v>
+      </c>
+      <c r="B784">
+        <v>7</v>
+      </c>
+      <c r="C784">
+        <f>_xlfn.XLOOKUP(A784,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>31.8</v>
+      </c>
+      <c r="D784">
+        <f>_xlfn.XLOOKUP(A784,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>19.5</v>
+      </c>
+      <c r="E784">
+        <f>_xlfn.XLOOKUP(A784,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F784">
+        <f>_xlfn.XLOOKUP(A784,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>62</v>
+      </c>
+      <c r="B785">
+        <v>7</v>
+      </c>
+      <c r="C785">
+        <f>_xlfn.XLOOKUP(A785,[1]Offense!A$2:A$150,[1]Offense!B$2:B$150)</f>
+        <v>23.3</v>
+      </c>
+      <c r="D785">
+        <f>_xlfn.XLOOKUP(A785,[1]Defense!A$2:A$132,[1]Defense!B$2:B$132,0)</f>
+        <v>26.3</v>
+      </c>
+      <c r="E785">
+        <f>_xlfn.XLOOKUP(A785,[1]Wins!A$2:A$132,[1]Wins!B$2:B$132,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F785">
+        <f>_xlfn.XLOOKUP(A785,[1]Losses!A$2:A$132,[1]Losses!B$2:B$132,0)</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25388,10 +34036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:B126"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26782,7 +35430,296 @@
         <v>114</v>
       </c>
     </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>7</v>
+      </c>
+      <c r="B138">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>7</v>
+      </c>
+      <c r="B143">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>7</v>
+      </c>
+      <c r="B146">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>21</v>
+      </c>
+      <c r="C147" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>7</v>
+      </c>
+      <c r="B150">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>25</v>
+      </c>
+      <c r="C151" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33160419-DCCA-2F45-920B-8E6948AFB582}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE71122-309B-1745-8585-6FBFE0749E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465F568-571F-D043-AB22-CAA409077C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="13400" windowWidth="37240" windowHeight="11000" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="1560" yWindow="13400" windowWidth="37240" windowHeight="11000" activeTab="2" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="189">
   <si>
     <t>Time</t>
   </si>
@@ -670,10 +670,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
-  <dimension ref="A1:AA179"/>
+  <dimension ref="A1:AA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A144" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154:XFD154"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="760" topLeftCell="A179" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15219,7 +15220,7 @@
         <v>179</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1233000</v>
       </c>
       <c r="G159">
         <v>2022</v>
@@ -15297,7 +15298,7 @@
         <v>142</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>190000</v>
       </c>
       <c r="G160">
         <v>2022</v>
@@ -15375,7 +15376,7 @@
         <v>53</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>470000</v>
       </c>
       <c r="G161">
         <v>2022</v>
@@ -15453,7 +15454,7 @@
         <v>28</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>823000</v>
       </c>
       <c r="G162">
         <v>2022</v>
@@ -15531,7 +15532,7 @@
         <v>26</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>8273000</v>
       </c>
       <c r="G163">
         <v>2022</v>
@@ -15609,7 +15610,7 @@
         <v>168</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1507000</v>
       </c>
       <c r="G164">
         <v>2022</v>
@@ -15687,7 +15688,7 @@
         <v>46</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>2337000</v>
       </c>
       <c r="G165">
         <v>2022</v>
@@ -15765,7 +15766,7 @@
         <v>36</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>711000</v>
       </c>
       <c r="G166">
         <v>2022</v>
@@ -15843,7 +15844,7 @@
         <v>165</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>131000</v>
       </c>
       <c r="G167">
         <v>2022</v>
@@ -15921,7 +15922,7 @@
         <v>52</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>5620000</v>
       </c>
       <c r="G168">
         <v>2022</v>
@@ -15999,7 +16000,7 @@
         <v>49</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>738000</v>
       </c>
       <c r="G169">
         <v>2022</v>
@@ -16077,7 +16078,7 @@
         <v>56</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>3378000</v>
       </c>
       <c r="G170">
         <v>2022</v>
@@ -16155,7 +16156,7 @@
         <v>23</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2488000</v>
       </c>
       <c r="G171">
         <v>2022</v>
@@ -16233,7 +16234,7 @@
         <v>57</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1059000</v>
       </c>
       <c r="G172">
         <v>2022</v>
@@ -16311,7 +16312,7 @@
         <v>30</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>483000</v>
       </c>
       <c r="G173">
         <v>2022</v>
@@ -16389,7 +16390,7 @@
         <v>108</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>4042000</v>
       </c>
       <c r="G174">
         <v>2022</v>
@@ -16467,7 +16468,7 @@
         <v>59</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>269000</v>
       </c>
       <c r="G175">
         <v>2022</v>
@@ -16545,7 +16546,7 @@
         <v>29</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>5583000</v>
       </c>
       <c r="G176">
         <v>2022</v>
@@ -16623,7 +16624,7 @@
         <v>98</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>572000</v>
       </c>
       <c r="G177">
         <v>2022</v>
@@ -16701,7 +16702,7 @@
         <v>109</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1263000</v>
       </c>
       <c r="G178">
         <v>2022</v>
@@ -16779,7 +16780,7 @@
         <v>161</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>219000</v>
       </c>
       <c r="G179">
         <v>2022</v>
@@ -16838,6 +16839,1644 @@
       <c r="AA179" cm="1">
         <f t="array" ref="AA179">_xlfn.XLOOKUP(E179&amp;I179,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C180" t="s">
+        <v>47</v>
+      </c>
+      <c r="D180" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" t="s">
+        <v>126</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>2022</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>10</v>
+      </c>
+      <c r="J180" t="str" cm="1">
+        <f t="array" ref="J180">_xlfn.XLOOKUP(D180&amp;I180,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K180" t="str" cm="1">
+        <f t="array" ref="K180">_xlfn.XLOOKUP(E180&amp;I180,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L180" t="s">
+        <v>72</v>
+      </c>
+      <c r="M180" t="s">
+        <v>72</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" cm="1">
+        <f t="array" ref="O180">_xlfn.XLOOKUP(D180&amp;I180,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32</v>
+      </c>
+      <c r="P180" cm="1">
+        <f t="array" ref="P180">_xlfn.XLOOKUP(D180&amp;I180,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>34.4</v>
+      </c>
+      <c r="Q180" cm="1">
+        <f t="array" ref="Q180">_xlfn.XLOOKUP(E180&amp;I180,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.9</v>
+      </c>
+      <c r="R180" cm="1">
+        <f t="array" ref="R180">_xlfn.XLOOKUP(E180&amp;I180,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.8</v>
+      </c>
+      <c r="X180" cm="1">
+        <f t="array" ref="X180">_xlfn.XLOOKUP(D180&amp;I180,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y180" cm="1">
+        <f t="array" ref="Y180">_xlfn.XLOOKUP(D180&amp;I180,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z180" cm="1">
+        <f t="array" ref="Z180">_xlfn.XLOOKUP(E180&amp;I180,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA180" cm="1">
+        <f t="array" ref="AA180">_xlfn.XLOOKUP(E180&amp;I180,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C181" t="s">
+        <v>47</v>
+      </c>
+      <c r="D181" t="s">
+        <v>125</v>
+      </c>
+      <c r="E181" t="s">
+        <v>37</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>2022</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>10</v>
+      </c>
+      <c r="J181" t="str" cm="1">
+        <f t="array" ref="J181">_xlfn.XLOOKUP(D181&amp;I181,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K181" t="str" cm="1">
+        <f t="array" ref="K181">_xlfn.XLOOKUP(E181&amp;I181,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L181" t="s">
+        <v>72</v>
+      </c>
+      <c r="M181" t="s">
+        <v>72</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" cm="1">
+        <f t="array" ref="O181">_xlfn.XLOOKUP(D181&amp;I181,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>26.4</v>
+      </c>
+      <c r="P181" cm="1">
+        <f t="array" ref="P181">_xlfn.XLOOKUP(D181&amp;I181,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>34.6</v>
+      </c>
+      <c r="Q181" cm="1">
+        <f t="array" ref="Q181">_xlfn.XLOOKUP(E181&amp;I181,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>20.8</v>
+      </c>
+      <c r="R181" cm="1">
+        <f t="array" ref="R181">_xlfn.XLOOKUP(E181&amp;I181,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.5</v>
+      </c>
+      <c r="X181" cm="1">
+        <f t="array" ref="X181">_xlfn.XLOOKUP(D181&amp;I181,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y181" cm="1">
+        <f t="array" ref="Y181">_xlfn.XLOOKUP(D181&amp;I181,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z181" cm="1">
+        <f t="array" ref="Z181">_xlfn.XLOOKUP(E181&amp;I181,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA181" cm="1">
+        <f t="array" ref="AA181">_xlfn.XLOOKUP(E181&amp;I181,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C182" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" t="s">
+        <v>128</v>
+      </c>
+      <c r="E182" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>2022</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>10</v>
+      </c>
+      <c r="J182" t="str" cm="1">
+        <f t="array" ref="J182">_xlfn.XLOOKUP(D182&amp;I182,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K182" t="str" cm="1">
+        <f t="array" ref="K182">_xlfn.XLOOKUP(E182&amp;I182,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L182" t="s">
+        <v>103</v>
+      </c>
+      <c r="M182" t="s">
+        <v>103</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" cm="1">
+        <f t="array" ref="O182">_xlfn.XLOOKUP(D182&amp;I182,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.9</v>
+      </c>
+      <c r="P182" cm="1">
+        <f t="array" ref="P182">_xlfn.XLOOKUP(D182&amp;I182,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.3</v>
+      </c>
+      <c r="Q182" cm="1">
+        <f t="array" ref="Q182">_xlfn.XLOOKUP(E182&amp;I182,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36.9</v>
+      </c>
+      <c r="R182" cm="1">
+        <f t="array" ref="R182">_xlfn.XLOOKUP(E182&amp;I182,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.1</v>
+      </c>
+      <c r="X182" cm="1">
+        <f t="array" ref="X182">_xlfn.XLOOKUP(D182&amp;I182,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y182" cm="1">
+        <f t="array" ref="Y182">_xlfn.XLOOKUP(D182&amp;I182,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z182" cm="1">
+        <f t="array" ref="Z182">_xlfn.XLOOKUP(E182&amp;I182,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA182" cm="1">
+        <f t="array" ref="AA182">_xlfn.XLOOKUP(E182&amp;I182,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C183" t="s">
+        <v>47</v>
+      </c>
+      <c r="D183" t="s">
+        <v>124</v>
+      </c>
+      <c r="E183" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>2022</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>10</v>
+      </c>
+      <c r="J183" t="str" cm="1">
+        <f t="array" ref="J183">_xlfn.XLOOKUP(D183&amp;I183,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K183" t="str" cm="1">
+        <f t="array" ref="K183">_xlfn.XLOOKUP(E183&amp;I183,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L183" t="s">
+        <v>69</v>
+      </c>
+      <c r="M183" t="s">
+        <v>69</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" cm="1">
+        <f t="array" ref="O183">_xlfn.XLOOKUP(D183&amp;I183,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>17.3</v>
+      </c>
+      <c r="P183" cm="1">
+        <f t="array" ref="P183">_xlfn.XLOOKUP(D183&amp;I183,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.8</v>
+      </c>
+      <c r="Q183" cm="1">
+        <f t="array" ref="Q183">_xlfn.XLOOKUP(E183&amp;I183,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.4</v>
+      </c>
+      <c r="R183" cm="1">
+        <f t="array" ref="R183">_xlfn.XLOOKUP(E183&amp;I183,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.1</v>
+      </c>
+      <c r="X183" cm="1">
+        <f t="array" ref="X183">_xlfn.XLOOKUP(D183&amp;I183,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y183" cm="1">
+        <f t="array" ref="Y183">_xlfn.XLOOKUP(D183&amp;I183,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z183" cm="1">
+        <f t="array" ref="Z183">_xlfn.XLOOKUP(E183&amp;I183,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA183" cm="1">
+        <f t="array" ref="AA183">_xlfn.XLOOKUP(E183&amp;I183,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C184" t="s">
+        <v>47</v>
+      </c>
+      <c r="D184" t="s">
+        <v>181</v>
+      </c>
+      <c r="E184" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>2022</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>10</v>
+      </c>
+      <c r="J184" t="str" cm="1">
+        <f t="array" ref="J184">_xlfn.XLOOKUP(D184&amp;I184,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K184" cm="1">
+        <f t="array" ref="K184">_xlfn.XLOOKUP(E184&amp;I184,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>23</v>
+      </c>
+      <c r="L184" t="s">
+        <v>65</v>
+      </c>
+      <c r="M184" t="s">
+        <v>65</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" cm="1">
+        <f t="array" ref="O184">_xlfn.XLOOKUP(D184&amp;I184,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.4</v>
+      </c>
+      <c r="P184" cm="1">
+        <f t="array" ref="P184">_xlfn.XLOOKUP(D184&amp;I184,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.6</v>
+      </c>
+      <c r="Q184" cm="1">
+        <f t="array" ref="Q184">_xlfn.XLOOKUP(E184&amp;I184,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.6</v>
+      </c>
+      <c r="R184" cm="1">
+        <f t="array" ref="R184">_xlfn.XLOOKUP(E184&amp;I184,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.8</v>
+      </c>
+      <c r="X184" cm="1">
+        <f t="array" ref="X184">_xlfn.XLOOKUP(D184&amp;I184,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y184" cm="1">
+        <f t="array" ref="Y184">_xlfn.XLOOKUP(D184&amp;I184,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z184" cm="1">
+        <f t="array" ref="Z184">_xlfn.XLOOKUP(E184&amp;I184,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA184" cm="1">
+        <f t="array" ref="AA184">_xlfn.XLOOKUP(E184&amp;I184,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C185" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185" t="s">
+        <v>121</v>
+      </c>
+      <c r="E185" t="s">
+        <v>106</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>2022</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>10</v>
+      </c>
+      <c r="J185" t="str" cm="1">
+        <f t="array" ref="J185">_xlfn.XLOOKUP(D185&amp;I185,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K185" t="str" cm="1">
+        <f t="array" ref="K185">_xlfn.XLOOKUP(E185&amp;I185,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L185" t="s">
+        <v>73</v>
+      </c>
+      <c r="M185" t="s">
+        <v>66</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" cm="1">
+        <f t="array" ref="O185">_xlfn.XLOOKUP(D185&amp;I185,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="P185" cm="1">
+        <f t="array" ref="P185">_xlfn.XLOOKUP(D185&amp;I185,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.4</v>
+      </c>
+      <c r="Q185" cm="1">
+        <f t="array" ref="Q185">_xlfn.XLOOKUP(E185&amp;I185,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.9</v>
+      </c>
+      <c r="R185" cm="1">
+        <f t="array" ref="R185">_xlfn.XLOOKUP(E185&amp;I185,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.8</v>
+      </c>
+      <c r="X185" cm="1">
+        <f t="array" ref="X185">_xlfn.XLOOKUP(D185&amp;I185,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y185" cm="1">
+        <f t="array" ref="Y185">_xlfn.XLOOKUP(D185&amp;I185,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z185" cm="1">
+        <f t="array" ref="Z185">_xlfn.XLOOKUP(E185&amp;I185,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA185" cm="1">
+        <f t="array" ref="AA185">_xlfn.XLOOKUP(E185&amp;I185,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" t="s">
+        <v>26</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>2022</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>10</v>
+      </c>
+      <c r="J186" t="str" cm="1">
+        <f t="array" ref="J186">_xlfn.XLOOKUP(D186&amp;I186,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K186" cm="1">
+        <f t="array" ref="K186">_xlfn.XLOOKUP(E186&amp;I186,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>2</v>
+      </c>
+      <c r="L186" t="s">
+        <v>64</v>
+      </c>
+      <c r="M186" t="s">
+        <v>64</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" cm="1">
+        <f t="array" ref="O186">_xlfn.XLOOKUP(D186&amp;I186,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P186" cm="1">
+        <f t="array" ref="P186">_xlfn.XLOOKUP(D186&amp;I186,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.8</v>
+      </c>
+      <c r="Q186" cm="1">
+        <f t="array" ref="Q186">_xlfn.XLOOKUP(E186&amp;I186,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>48.9</v>
+      </c>
+      <c r="R186" cm="1">
+        <f t="array" ref="R186">_xlfn.XLOOKUP(E186&amp;I186,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X186" cm="1">
+        <f t="array" ref="X186">_xlfn.XLOOKUP(D186&amp;I186,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Y186" cm="1">
+        <f t="array" ref="Y186">_xlfn.XLOOKUP(D186&amp;I186,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Z186" cm="1">
+        <f t="array" ref="Z186">_xlfn.XLOOKUP(E186&amp;I186,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA186" cm="1">
+        <f t="array" ref="AA186">_xlfn.XLOOKUP(E186&amp;I186,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" t="s">
+        <v>168</v>
+      </c>
+      <c r="E187" t="s">
+        <v>95</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>2022</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>10</v>
+      </c>
+      <c r="J187" cm="1">
+        <f t="array" ref="J187">_xlfn.XLOOKUP(D187&amp;I187,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>7</v>
+      </c>
+      <c r="K187" t="str" cm="1">
+        <f t="array" ref="K187">_xlfn.XLOOKUP(E187&amp;I187,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L187" t="s">
+        <v>71</v>
+      </c>
+      <c r="M187" t="s">
+        <v>71</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" cm="1">
+        <f t="array" ref="O187">_xlfn.XLOOKUP(D187&amp;I187,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>44.3</v>
+      </c>
+      <c r="P187" cm="1">
+        <f t="array" ref="P187">_xlfn.XLOOKUP(D187&amp;I187,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.3</v>
+      </c>
+      <c r="Q187" cm="1">
+        <f t="array" ref="Q187">_xlfn.XLOOKUP(E187&amp;I187,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.9</v>
+      </c>
+      <c r="R187" cm="1">
+        <f t="array" ref="R187">_xlfn.XLOOKUP(E187&amp;I187,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.3</v>
+      </c>
+      <c r="X187" cm="1">
+        <f t="array" ref="X187">_xlfn.XLOOKUP(D187&amp;I187,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y187" cm="1">
+        <f t="array" ref="Y187">_xlfn.XLOOKUP(D187&amp;I187,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z187" cm="1">
+        <f t="array" ref="Z187">_xlfn.XLOOKUP(E187&amp;I187,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA187" cm="1">
+        <f t="array" ref="AA187">_xlfn.XLOOKUP(E187&amp;I187,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" t="s">
+        <v>101</v>
+      </c>
+      <c r="E188" t="s">
+        <v>52</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>2022</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>10</v>
+      </c>
+      <c r="J188" t="str" cm="1">
+        <f t="array" ref="J188">_xlfn.XLOOKUP(D188&amp;I188,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K188" t="str" cm="1">
+        <f t="array" ref="K188">_xlfn.XLOOKUP(E188&amp;I188,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L188" t="s">
+        <v>70</v>
+      </c>
+      <c r="M188" t="s">
+        <v>70</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" cm="1">
+        <f t="array" ref="O188">_xlfn.XLOOKUP(D188&amp;I188,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22.6</v>
+      </c>
+      <c r="P188" cm="1">
+        <f t="array" ref="P188">_xlfn.XLOOKUP(D188&amp;I188,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.8</v>
+      </c>
+      <c r="Q188" cm="1">
+        <f t="array" ref="Q188">_xlfn.XLOOKUP(E188&amp;I188,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30</v>
+      </c>
+      <c r="R188" cm="1">
+        <f t="array" ref="R188">_xlfn.XLOOKUP(E188&amp;I188,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.9</v>
+      </c>
+      <c r="X188" cm="1">
+        <f t="array" ref="X188">_xlfn.XLOOKUP(D188&amp;I188,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y188" cm="1">
+        <f t="array" ref="Y188">_xlfn.XLOOKUP(D188&amp;I188,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z188" cm="1">
+        <f t="array" ref="Z188">_xlfn.XLOOKUP(E188&amp;I188,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA188" cm="1">
+        <f t="array" ref="AA188">_xlfn.XLOOKUP(E188&amp;I188,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>47</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" t="s">
+        <v>150</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>2022</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>10</v>
+      </c>
+      <c r="J189" t="str" cm="1">
+        <f t="array" ref="J189">_xlfn.XLOOKUP(D189&amp;I189,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K189" t="str" cm="1">
+        <f t="array" ref="K189">_xlfn.XLOOKUP(E189&amp;I189,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L189" t="s">
+        <v>64</v>
+      </c>
+      <c r="M189" t="s">
+        <v>64</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" cm="1">
+        <f t="array" ref="O189">_xlfn.XLOOKUP(D189&amp;I189,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.1</v>
+      </c>
+      <c r="P189" cm="1">
+        <f t="array" ref="P189">_xlfn.XLOOKUP(D189&amp;I189,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.6</v>
+      </c>
+      <c r="Q189" cm="1">
+        <f t="array" ref="Q189">_xlfn.XLOOKUP(E189&amp;I189,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.9</v>
+      </c>
+      <c r="R189" cm="1">
+        <f t="array" ref="R189">_xlfn.XLOOKUP(E189&amp;I189,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.4</v>
+      </c>
+      <c r="X189" cm="1">
+        <f t="array" ref="X189">_xlfn.XLOOKUP(D189&amp;I189,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y189" cm="1">
+        <f t="array" ref="Y189">_xlfn.XLOOKUP(D189&amp;I189,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z189" cm="1">
+        <f t="array" ref="Z189">_xlfn.XLOOKUP(E189&amp;I189,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA189" cm="1">
+        <f t="array" ref="AA189">_xlfn.XLOOKUP(E189&amp;I189,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>31</v>
+      </c>
+      <c r="D190" t="s">
+        <v>43</v>
+      </c>
+      <c r="E190" t="s">
+        <v>135</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>2022</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>10</v>
+      </c>
+      <c r="J190" t="str" cm="1">
+        <f t="array" ref="J190">_xlfn.XLOOKUP(D190&amp;I190,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K190" t="str" cm="1">
+        <f t="array" ref="K190">_xlfn.XLOOKUP(E190&amp;I190,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L190" t="s">
+        <v>64</v>
+      </c>
+      <c r="M190" t="s">
+        <v>64</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" cm="1">
+        <f t="array" ref="O190">_xlfn.XLOOKUP(D190&amp;I190,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="P190" cm="1">
+        <f t="array" ref="P190">_xlfn.XLOOKUP(D190&amp;I190,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.5</v>
+      </c>
+      <c r="Q190" cm="1">
+        <f t="array" ref="Q190">_xlfn.XLOOKUP(E190&amp;I190,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R190" cm="1">
+        <f t="array" ref="R190">_xlfn.XLOOKUP(E190&amp;I190,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>15.8</v>
+      </c>
+      <c r="X190" cm="1">
+        <f t="array" ref="X190">_xlfn.XLOOKUP(D190&amp;I190,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y190" cm="1">
+        <f t="array" ref="Y190">_xlfn.XLOOKUP(D190&amp;I190,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z190" cm="1">
+        <f t="array" ref="Z190">_xlfn.XLOOKUP(E190&amp;I190,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA190" cm="1">
+        <f t="array" ref="AA190">_xlfn.XLOOKUP(E190&amp;I190,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C191" t="s">
+        <v>54</v>
+      </c>
+      <c r="D191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E191" t="s">
+        <v>104</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>2022</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>10</v>
+      </c>
+      <c r="J191" cm="1">
+        <f t="array" ref="J191">_xlfn.XLOOKUP(D191&amp;I191,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>3</v>
+      </c>
+      <c r="K191" cm="1">
+        <f t="array" ref="K191">_xlfn.XLOOKUP(E191&amp;I191,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L191" t="s">
+        <v>70</v>
+      </c>
+      <c r="M191" t="s">
+        <v>70</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" cm="1">
+        <f t="array" ref="O191">_xlfn.XLOOKUP(D191&amp;I191,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41.8</v>
+      </c>
+      <c r="P191" cm="1">
+        <f t="array" ref="P191">_xlfn.XLOOKUP(D191&amp;I191,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>10.5</v>
+      </c>
+      <c r="Q191" cm="1">
+        <f t="array" ref="Q191">_xlfn.XLOOKUP(E191&amp;I191,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>49.4</v>
+      </c>
+      <c r="R191" cm="1">
+        <f t="array" ref="R191">_xlfn.XLOOKUP(E191&amp;I191,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21</v>
+      </c>
+      <c r="X191" cm="1">
+        <f t="array" ref="X191">_xlfn.XLOOKUP(D191&amp;I191,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y191" cm="1">
+        <f t="array" ref="Y191">_xlfn.XLOOKUP(D191&amp;I191,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z191" cm="1">
+        <f t="array" ref="Z191">_xlfn.XLOOKUP(E191&amp;I191,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA191" cm="1">
+        <f t="array" ref="AA191">_xlfn.XLOOKUP(E191&amp;I191,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C192" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" t="s">
+        <v>107</v>
+      </c>
+      <c r="E192" t="s">
+        <v>49</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>2022</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>10</v>
+      </c>
+      <c r="J192" t="str" cm="1">
+        <f t="array" ref="J192">_xlfn.XLOOKUP(D192&amp;I192,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K192" cm="1">
+        <f t="array" ref="K192">_xlfn.XLOOKUP(E192&amp;I192,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>8</v>
+      </c>
+      <c r="L192" t="s">
+        <v>65</v>
+      </c>
+      <c r="M192" t="s">
+        <v>65</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" cm="1">
+        <f t="array" ref="O192">_xlfn.XLOOKUP(D192&amp;I192,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>16.3</v>
+      </c>
+      <c r="P192" cm="1">
+        <f t="array" ref="P192">_xlfn.XLOOKUP(D192&amp;I192,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>39.1</v>
+      </c>
+      <c r="Q192" cm="1">
+        <f t="array" ref="Q192">_xlfn.XLOOKUP(E192&amp;I192,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.4</v>
+      </c>
+      <c r="R192" cm="1">
+        <f t="array" ref="R192">_xlfn.XLOOKUP(E192&amp;I192,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.4</v>
+      </c>
+      <c r="X192" cm="1">
+        <f t="array" ref="X192">_xlfn.XLOOKUP(D192&amp;I192,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Y192" cm="1">
+        <f t="array" ref="Y192">_xlfn.XLOOKUP(D192&amp;I192,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Z192" cm="1">
+        <f t="array" ref="Z192">_xlfn.XLOOKUP(E192&amp;I192,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA192" cm="1">
+        <f t="array" ref="AA192">_xlfn.XLOOKUP(E192&amp;I192,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C193" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" t="s">
+        <v>41</v>
+      </c>
+      <c r="E193" t="s">
+        <v>34</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>2022</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>10</v>
+      </c>
+      <c r="J193" t="str" cm="1">
+        <f t="array" ref="J193">_xlfn.XLOOKUP(D193&amp;I193,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K193" cm="1">
+        <f t="array" ref="K193">_xlfn.XLOOKUP(E193&amp;I193,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>15</v>
+      </c>
+      <c r="L193" t="s">
+        <v>64</v>
+      </c>
+      <c r="M193" t="s">
+        <v>64</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" cm="1">
+        <f t="array" ref="O193">_xlfn.XLOOKUP(D193&amp;I193,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.5</v>
+      </c>
+      <c r="P193" cm="1">
+        <f t="array" ref="P193">_xlfn.XLOOKUP(D193&amp;I193,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.6</v>
+      </c>
+      <c r="Q193" cm="1">
+        <f t="array" ref="Q193">_xlfn.XLOOKUP(E193&amp;I193,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.1</v>
+      </c>
+      <c r="R193" cm="1">
+        <f t="array" ref="R193">_xlfn.XLOOKUP(E193&amp;I193,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22</v>
+      </c>
+      <c r="X193" cm="1">
+        <f t="array" ref="X193">_xlfn.XLOOKUP(D193&amp;I193,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y193" cm="1">
+        <f t="array" ref="Y193">_xlfn.XLOOKUP(D193&amp;I193,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z193" cm="1">
+        <f t="array" ref="Z193">_xlfn.XLOOKUP(E193&amp;I193,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA193" cm="1">
+        <f t="array" ref="AA193">_xlfn.XLOOKUP(E193&amp;I193,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C194" t="s">
+        <v>47</v>
+      </c>
+      <c r="D194" t="s">
+        <v>146</v>
+      </c>
+      <c r="E194" t="s">
+        <v>88</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>2022</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>10</v>
+      </c>
+      <c r="J194" t="str" cm="1">
+        <f t="array" ref="J194">_xlfn.XLOOKUP(D194&amp;I194,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K194" cm="1">
+        <f t="array" ref="K194">_xlfn.XLOOKUP(E194&amp;I194,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>25</v>
+      </c>
+      <c r="L194" t="s">
+        <v>68</v>
+      </c>
+      <c r="M194" t="s">
+        <v>68</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" cm="1">
+        <f t="array" ref="O194">_xlfn.XLOOKUP(D194&amp;I194,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.6</v>
+      </c>
+      <c r="P194" cm="1">
+        <f t="array" ref="P194">_xlfn.XLOOKUP(D194&amp;I194,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>31.1</v>
+      </c>
+      <c r="Q194" cm="1">
+        <f t="array" ref="Q194">_xlfn.XLOOKUP(E194&amp;I194,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R194" cm="1">
+        <f t="array" ref="R194">_xlfn.XLOOKUP(E194&amp;I194,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="X194" cm="1">
+        <f t="array" ref="X194">_xlfn.XLOOKUP(D194&amp;I194,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y194" cm="1">
+        <f t="array" ref="Y194">_xlfn.XLOOKUP(D194&amp;I194,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z194" cm="1">
+        <f t="array" ref="Z194">_xlfn.XLOOKUP(E194&amp;I194,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA194" cm="1">
+        <f t="array" ref="AA194">_xlfn.XLOOKUP(E194&amp;I194,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B195" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C195" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" t="s">
+        <v>114</v>
+      </c>
+      <c r="E195" t="s">
+        <v>91</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>2022</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>10</v>
+      </c>
+      <c r="J195" cm="1">
+        <f t="array" ref="J195">_xlfn.XLOOKUP(D195&amp;I195,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>10</v>
+      </c>
+      <c r="K195" cm="1">
+        <f t="array" ref="K195">_xlfn.XLOOKUP(E195&amp;I195,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>6</v>
+      </c>
+      <c r="L195" t="s">
+        <v>70</v>
+      </c>
+      <c r="M195" t="s">
+        <v>70</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" cm="1">
+        <f t="array" ref="O195">_xlfn.XLOOKUP(D195&amp;I195,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.1</v>
+      </c>
+      <c r="P195" cm="1">
+        <f t="array" ref="P195">_xlfn.XLOOKUP(D195&amp;I195,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.1</v>
+      </c>
+      <c r="Q195" cm="1">
+        <f t="array" ref="Q195">_xlfn.XLOOKUP(E195&amp;I195,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>43.1</v>
+      </c>
+      <c r="R195" cm="1">
+        <f t="array" ref="R195">_xlfn.XLOOKUP(E195&amp;I195,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="X195" cm="1">
+        <f t="array" ref="X195">_xlfn.XLOOKUP(D195&amp;I195,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y195" cm="1">
+        <f t="array" ref="Y195">_xlfn.XLOOKUP(D195&amp;I195,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z195" cm="1">
+        <f t="array" ref="Z195">_xlfn.XLOOKUP(E195&amp;I195,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA195" cm="1">
+        <f t="array" ref="AA195">_xlfn.XLOOKUP(E195&amp;I195,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B196" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C196" t="s">
+        <v>31</v>
+      </c>
+      <c r="D196" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" t="s">
+        <v>90</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>2022</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>10</v>
+      </c>
+      <c r="J196" cm="1">
+        <f t="array" ref="J196">_xlfn.XLOOKUP(D196&amp;I196,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>13</v>
+      </c>
+      <c r="K196" cm="1">
+        <f t="array" ref="K196">_xlfn.XLOOKUP(E196&amp;I196,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>24</v>
+      </c>
+      <c r="L196" t="s">
+        <v>71</v>
+      </c>
+      <c r="M196" t="s">
+        <v>71</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" cm="1">
+        <f t="array" ref="O196">_xlfn.XLOOKUP(D196&amp;I196,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31</v>
+      </c>
+      <c r="P196" cm="1">
+        <f t="array" ref="P196">_xlfn.XLOOKUP(D196&amp;I196,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.3</v>
+      </c>
+      <c r="Q196" cm="1">
+        <f t="array" ref="Q196">_xlfn.XLOOKUP(E196&amp;I196,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36.4</v>
+      </c>
+      <c r="R196" cm="1">
+        <f t="array" ref="R196">_xlfn.XLOOKUP(E196&amp;I196,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.1</v>
+      </c>
+      <c r="X196" cm="1">
+        <f t="array" ref="X196">_xlfn.XLOOKUP(D196&amp;I196,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y196" cm="1">
+        <f t="array" ref="Y196">_xlfn.XLOOKUP(D196&amp;I196,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z196" cm="1">
+        <f t="array" ref="Z196">_xlfn.XLOOKUP(E196&amp;I196,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA196" cm="1">
+        <f t="array" ref="AA196">_xlfn.XLOOKUP(E196&amp;I196,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B197" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C197" t="s">
+        <v>47</v>
+      </c>
+      <c r="D197" t="s">
+        <v>113</v>
+      </c>
+      <c r="E197" t="s">
+        <v>122</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>2022</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>10</v>
+      </c>
+      <c r="J197" t="str" cm="1">
+        <f t="array" ref="J197">_xlfn.XLOOKUP(D197&amp;I197,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K197" t="str" cm="1">
+        <f t="array" ref="K197">_xlfn.XLOOKUP(E197&amp;I197,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L197" t="s">
+        <v>70</v>
+      </c>
+      <c r="M197" t="s">
+        <v>70</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" cm="1">
+        <f t="array" ref="O197">_xlfn.XLOOKUP(D197&amp;I197,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.8</v>
+      </c>
+      <c r="P197" cm="1">
+        <f t="array" ref="P197">_xlfn.XLOOKUP(D197&amp;I197,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.9</v>
+      </c>
+      <c r="Q197" cm="1">
+        <f t="array" ref="Q197">_xlfn.XLOOKUP(E197&amp;I197,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22.9</v>
+      </c>
+      <c r="R197" cm="1">
+        <f t="array" ref="R197">_xlfn.XLOOKUP(E197&amp;I197,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.9</v>
+      </c>
+      <c r="X197" cm="1">
+        <f t="array" ref="X197">_xlfn.XLOOKUP(D197&amp;I197,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y197" cm="1">
+        <f t="array" ref="Y197">_xlfn.XLOOKUP(D197&amp;I197,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z197" cm="1">
+        <f t="array" ref="Z197">_xlfn.XLOOKUP(E197&amp;I197,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA197" cm="1">
+        <f t="array" ref="AA197">_xlfn.XLOOKUP(E197&amp;I197,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B198" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" t="s">
+        <v>147</v>
+      </c>
+      <c r="E198" t="s">
+        <v>115</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>2022</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>10</v>
+      </c>
+      <c r="J198" t="str" cm="1">
+        <f t="array" ref="J198">_xlfn.XLOOKUP(D198&amp;I198,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K198" t="str" cm="1">
+        <f t="array" ref="K198">_xlfn.XLOOKUP(E198&amp;I198,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L198" t="s">
+        <v>69</v>
+      </c>
+      <c r="M198" t="s">
+        <v>69</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" cm="1">
+        <f t="array" ref="O198">_xlfn.XLOOKUP(D198&amp;I198,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.4</v>
+      </c>
+      <c r="P198" cm="1">
+        <f t="array" ref="P198">_xlfn.XLOOKUP(D198&amp;I198,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.5</v>
+      </c>
+      <c r="Q198" cm="1">
+        <f t="array" ref="Q198">_xlfn.XLOOKUP(E198&amp;I198,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.1</v>
+      </c>
+      <c r="R198" cm="1">
+        <f t="array" ref="R198">_xlfn.XLOOKUP(E198&amp;I198,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.9</v>
+      </c>
+      <c r="X198" cm="1">
+        <f t="array" ref="X198">_xlfn.XLOOKUP(D198&amp;I198,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y198" cm="1">
+        <f t="array" ref="Y198">_xlfn.XLOOKUP(D198&amp;I198,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z198" cm="1">
+        <f t="array" ref="Z198">_xlfn.XLOOKUP(E198&amp;I198,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA198" cm="1">
+        <f t="array" ref="AA198">_xlfn.XLOOKUP(E198&amp;I198,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B199" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C199" t="s">
+        <v>31</v>
+      </c>
+      <c r="D199" t="s">
+        <v>96</v>
+      </c>
+      <c r="E199" t="s">
+        <v>175</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>2022</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>10</v>
+      </c>
+      <c r="J199" t="str" cm="1">
+        <f t="array" ref="J199">_xlfn.XLOOKUP(D199&amp;I199,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K199" cm="1">
+        <f t="array" ref="K199">_xlfn.XLOOKUP(E199&amp;I199,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>12</v>
+      </c>
+      <c r="L199" t="s">
+        <v>65</v>
+      </c>
+      <c r="M199" t="s">
+        <v>65</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" cm="1">
+        <f t="array" ref="O199">_xlfn.XLOOKUP(D199&amp;I199,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.1</v>
+      </c>
+      <c r="P199" cm="1">
+        <f t="array" ref="P199">_xlfn.XLOOKUP(D199&amp;I199,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.8</v>
+      </c>
+      <c r="Q199" cm="1">
+        <f t="array" ref="Q199">_xlfn.XLOOKUP(E199&amp;I199,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.6</v>
+      </c>
+      <c r="R199" cm="1">
+        <f t="array" ref="R199">_xlfn.XLOOKUP(E199&amp;I199,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.3</v>
+      </c>
+      <c r="X199" cm="1">
+        <f t="array" ref="X199">_xlfn.XLOOKUP(D199&amp;I199,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y199" cm="1">
+        <f t="array" ref="Y199">_xlfn.XLOOKUP(D199&amp;I199,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z199" cm="1">
+        <f t="array" ref="Z199">_xlfn.XLOOKUP(E199&amp;I199,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA199" cm="1">
+        <f t="array" ref="AA199">_xlfn.XLOOKUP(E199&amp;I199,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" t="s">
+        <v>110</v>
+      </c>
+      <c r="E200" t="s">
+        <v>127</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>2022</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>10</v>
+      </c>
+      <c r="J200" cm="1">
+        <f t="array" ref="J200">_xlfn.XLOOKUP(D200&amp;I200,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>9</v>
+      </c>
+      <c r="K200" t="str" cm="1">
+        <f t="array" ref="K200">_xlfn.XLOOKUP(E200&amp;I200,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L200" t="s">
+        <v>65</v>
+      </c>
+      <c r="M200" t="s">
+        <v>65</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200" cm="1">
+        <f t="array" ref="O200">_xlfn.XLOOKUP(D200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41</v>
+      </c>
+      <c r="P200" cm="1">
+        <f t="array" ref="P200">_xlfn.XLOOKUP(D200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24</v>
+      </c>
+      <c r="Q200" cm="1">
+        <f t="array" ref="Q200">_xlfn.XLOOKUP(E200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.4</v>
+      </c>
+      <c r="R200" cm="1">
+        <f t="array" ref="R200">_xlfn.XLOOKUP(E200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25</v>
+      </c>
+      <c r="X200" cm="1">
+        <f t="array" ref="X200">_xlfn.XLOOKUP(D200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y200" cm="1">
+        <f t="array" ref="Y200">_xlfn.XLOOKUP(D200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z200" cm="1">
+        <f t="array" ref="Z200">_xlfn.XLOOKUP(E200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA200" cm="1">
+        <f t="array" ref="AA200">_xlfn.XLOOKUP(E200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -16849,10 +18488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
-  <dimension ref="A1:F1047"/>
+  <dimension ref="A1:F1178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G747" sqref="G747"/>
+    <sheetView topLeftCell="A1151" workbookViewId="0">
+      <selection activeCell="D1141" sqref="D1141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37794,6 +39433,2626 @@
         <v>5</v>
       </c>
       <c r="F1047">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1048">
+        <v>10</v>
+      </c>
+      <c r="C1048">
+        <v>30.9</v>
+      </c>
+      <c r="D1048">
+        <v>16.8</v>
+      </c>
+      <c r="E1048">
+        <v>5</v>
+      </c>
+      <c r="F1048">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1049">
+        <v>10</v>
+      </c>
+      <c r="C1049">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D1049">
+        <v>37</v>
+      </c>
+      <c r="E1049">
+        <v>1</v>
+      </c>
+      <c r="F1049">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1050">
+        <v>10</v>
+      </c>
+      <c r="C1050">
+        <v>43.1</v>
+      </c>
+      <c r="D1050">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E1050">
+        <v>7</v>
+      </c>
+      <c r="F1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1051">
+        <v>10</v>
+      </c>
+      <c r="C1051">
+        <v>36.9</v>
+      </c>
+      <c r="D1051">
+        <v>24.1</v>
+      </c>
+      <c r="E1051">
+        <v>5</v>
+      </c>
+      <c r="F1051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1052">
+        <v>10</v>
+      </c>
+      <c r="C1052">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D1052">
+        <v>37.4</v>
+      </c>
+      <c r="E1052">
+        <v>3</v>
+      </c>
+      <c r="F1052">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1053">
+        <v>10</v>
+      </c>
+      <c r="C1053">
+        <v>27.1</v>
+      </c>
+      <c r="D1053">
+        <v>28.8</v>
+      </c>
+      <c r="E1053">
+        <v>3</v>
+      </c>
+      <c r="F1053">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1054">
+        <v>10</v>
+      </c>
+      <c r="C1054">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D1054">
+        <v>31.9</v>
+      </c>
+      <c r="E1054">
+        <v>5</v>
+      </c>
+      <c r="F1054">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1055">
+        <v>10</v>
+      </c>
+      <c r="C1055">
+        <v>25.9</v>
+      </c>
+      <c r="D1055">
+        <v>31.1</v>
+      </c>
+      <c r="E1055">
+        <v>2</v>
+      </c>
+      <c r="F1055">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1056">
+        <v>10</v>
+      </c>
+      <c r="C1056">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D1056">
+        <v>29.4</v>
+      </c>
+      <c r="E1056">
+        <v>3</v>
+      </c>
+      <c r="F1056">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1057">
+        <v>10</v>
+      </c>
+      <c r="C1057">
+        <v>22.9</v>
+      </c>
+      <c r="D1057">
+        <v>29.9</v>
+      </c>
+      <c r="E1057">
+        <v>3</v>
+      </c>
+      <c r="F1057">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1058">
+        <v>10</v>
+      </c>
+      <c r="C1058">
+        <v>24.5</v>
+      </c>
+      <c r="D1058">
+        <v>28.1</v>
+      </c>
+      <c r="E1058">
+        <v>4</v>
+      </c>
+      <c r="F1058">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1059">
+        <v>10</v>
+      </c>
+      <c r="C1059">
+        <v>38.4</v>
+      </c>
+      <c r="D1059">
+        <v>23.3</v>
+      </c>
+      <c r="E1059">
+        <v>5</v>
+      </c>
+      <c r="F1059">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1060">
+        <v>10</v>
+      </c>
+      <c r="C1060">
+        <v>28.9</v>
+      </c>
+      <c r="D1060">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E1060">
+        <v>6</v>
+      </c>
+      <c r="F1060">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1061">
+        <v>10</v>
+      </c>
+      <c r="C1061">
+        <v>17.3</v>
+      </c>
+      <c r="D1061">
+        <v>28.8</v>
+      </c>
+      <c r="E1061">
+        <v>2</v>
+      </c>
+      <c r="F1061">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1062">
+        <v>10</v>
+      </c>
+      <c r="C1062">
+        <v>26.4</v>
+      </c>
+      <c r="D1062">
+        <v>34.6</v>
+      </c>
+      <c r="E1062">
+        <v>4</v>
+      </c>
+      <c r="F1062">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1063">
+        <v>10</v>
+      </c>
+      <c r="C1063">
+        <v>30.9</v>
+      </c>
+      <c r="D1063">
+        <v>24.8</v>
+      </c>
+      <c r="E1063">
+        <v>5</v>
+      </c>
+      <c r="F1063">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1064">
+        <v>10</v>
+      </c>
+      <c r="C1064">
+        <v>29.4</v>
+      </c>
+      <c r="D1064">
+        <v>31.1</v>
+      </c>
+      <c r="E1064">
+        <v>4</v>
+      </c>
+      <c r="F1064">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1065">
+        <v>10</v>
+      </c>
+      <c r="C1065">
+        <v>23.4</v>
+      </c>
+      <c r="D1065">
+        <v>25</v>
+      </c>
+      <c r="E1065">
+        <v>3</v>
+      </c>
+      <c r="F1065">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1066">
+        <v>10</v>
+      </c>
+      <c r="C1066">
+        <v>25.3</v>
+      </c>
+      <c r="D1066">
+        <v>29.9</v>
+      </c>
+      <c r="E1066">
+        <v>2</v>
+      </c>
+      <c r="F1066">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1067">
+        <v>10</v>
+      </c>
+      <c r="C1067">
+        <v>27.3</v>
+      </c>
+      <c r="D1067">
+        <v>41</v>
+      </c>
+      <c r="E1067">
+        <v>2</v>
+      </c>
+      <c r="F1067">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1068">
+        <v>10</v>
+      </c>
+      <c r="C1068">
+        <v>34.9</v>
+      </c>
+      <c r="D1068">
+        <v>22.4</v>
+      </c>
+      <c r="E1068">
+        <v>6</v>
+      </c>
+      <c r="F1068">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1069">
+        <v>10</v>
+      </c>
+      <c r="C1069">
+        <v>37.1</v>
+      </c>
+      <c r="D1069">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E1069">
+        <v>8</v>
+      </c>
+      <c r="F1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1070">
+        <v>10</v>
+      </c>
+      <c r="C1070">
+        <v>31.9</v>
+      </c>
+      <c r="D1070">
+        <v>27.3</v>
+      </c>
+      <c r="E1070">
+        <v>7</v>
+      </c>
+      <c r="F1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1071">
+        <v>10</v>
+      </c>
+      <c r="C1071">
+        <v>16.3</v>
+      </c>
+      <c r="D1071">
+        <v>39.1</v>
+      </c>
+      <c r="E1071">
+        <v>1</v>
+      </c>
+      <c r="F1071">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1072">
+        <v>10</v>
+      </c>
+      <c r="C1072">
+        <v>12.5</v>
+      </c>
+      <c r="D1072">
+        <v>32.1</v>
+      </c>
+      <c r="E1072">
+        <v>2</v>
+      </c>
+      <c r="F1072">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1073">
+        <v>10</v>
+      </c>
+      <c r="C1073">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D1073">
+        <v>26.2</v>
+      </c>
+      <c r="E1073">
+        <v>4</v>
+      </c>
+      <c r="F1073">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1074">
+        <v>10</v>
+      </c>
+      <c r="C1074">
+        <v>34.4</v>
+      </c>
+      <c r="D1074">
+        <v>22.1</v>
+      </c>
+      <c r="E1074">
+        <v>5</v>
+      </c>
+      <c r="F1074">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1075">
+        <v>10</v>
+      </c>
+      <c r="C1075">
+        <v>32.6</v>
+      </c>
+      <c r="D1075">
+        <v>23.2</v>
+      </c>
+      <c r="E1075">
+        <v>6</v>
+      </c>
+      <c r="F1075">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1076">
+        <v>10</v>
+      </c>
+      <c r="C1076">
+        <v>27</v>
+      </c>
+      <c r="D1076">
+        <v>30.2</v>
+      </c>
+      <c r="E1076">
+        <v>5</v>
+      </c>
+      <c r="F1076">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1077">
+        <v>10</v>
+      </c>
+      <c r="C1077">
+        <v>30</v>
+      </c>
+      <c r="D1077">
+        <v>29.9</v>
+      </c>
+      <c r="E1077">
+        <v>4</v>
+      </c>
+      <c r="F1077">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1078">
+        <v>10</v>
+      </c>
+      <c r="C1078">
+        <v>28.1</v>
+      </c>
+      <c r="D1078">
+        <v>25.7</v>
+      </c>
+      <c r="E1078">
+        <v>4</v>
+      </c>
+      <c r="F1078">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1079">
+        <v>10</v>
+      </c>
+      <c r="C1079">
+        <v>21.1</v>
+      </c>
+      <c r="D1079">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E1079">
+        <v>4</v>
+      </c>
+      <c r="F1079">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1080">
+        <v>10</v>
+      </c>
+      <c r="C1080">
+        <v>32.1</v>
+      </c>
+      <c r="D1080">
+        <v>21.9</v>
+      </c>
+      <c r="E1080">
+        <v>5</v>
+      </c>
+      <c r="F1080">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1081">
+        <v>10</v>
+      </c>
+      <c r="C1081">
+        <v>26</v>
+      </c>
+      <c r="D1081">
+        <v>24.1</v>
+      </c>
+      <c r="E1081">
+        <v>4</v>
+      </c>
+      <c r="F1081">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1082">
+        <v>10</v>
+      </c>
+      <c r="C1082">
+        <v>41.8</v>
+      </c>
+      <c r="D1082">
+        <v>10.5</v>
+      </c>
+      <c r="E1082">
+        <v>8</v>
+      </c>
+      <c r="F1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1083">
+        <v>10</v>
+      </c>
+      <c r="C1083">
+        <v>36.9</v>
+      </c>
+      <c r="D1083">
+        <v>30.4</v>
+      </c>
+      <c r="E1083">
+        <v>5</v>
+      </c>
+      <c r="F1083">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1084">
+        <v>10</v>
+      </c>
+      <c r="C1084">
+        <v>28.4</v>
+      </c>
+      <c r="D1084">
+        <v>32.4</v>
+      </c>
+      <c r="E1084">
+        <v>3</v>
+      </c>
+      <c r="F1084">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1085">
+        <v>10</v>
+      </c>
+      <c r="C1085">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D1085">
+        <v>28.1</v>
+      </c>
+      <c r="E1085">
+        <v>3</v>
+      </c>
+      <c r="F1085">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1086">
+        <v>10</v>
+      </c>
+      <c r="C1086">
+        <v>18.3</v>
+      </c>
+      <c r="D1086">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E1086">
+        <v>2</v>
+      </c>
+      <c r="F1086">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1087">
+        <v>10</v>
+      </c>
+      <c r="C1087">
+        <v>33.5</v>
+      </c>
+      <c r="D1087">
+        <v>31.1</v>
+      </c>
+      <c r="E1087">
+        <v>5</v>
+      </c>
+      <c r="F1087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1088">
+        <v>10</v>
+      </c>
+      <c r="C1088">
+        <v>26</v>
+      </c>
+      <c r="D1088">
+        <v>8.9</v>
+      </c>
+      <c r="E1088">
+        <v>7</v>
+      </c>
+      <c r="F1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1089">
+        <v>10</v>
+      </c>
+      <c r="C1089">
+        <v>24.5</v>
+      </c>
+      <c r="D1089">
+        <v>30.6</v>
+      </c>
+      <c r="E1089">
+        <v>3</v>
+      </c>
+      <c r="F1089">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1090">
+        <v>10</v>
+      </c>
+      <c r="C1090">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D1090">
+        <v>15.8</v>
+      </c>
+      <c r="E1090">
+        <v>4</v>
+      </c>
+      <c r="F1090">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1091">
+        <v>10</v>
+      </c>
+      <c r="C1091">
+        <v>21.6</v>
+      </c>
+      <c r="D1091">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E1091">
+        <v>3</v>
+      </c>
+      <c r="F1091">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1092">
+        <v>10</v>
+      </c>
+      <c r="C1092">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D1092">
+        <v>20.9</v>
+      </c>
+      <c r="E1092">
+        <v>5</v>
+      </c>
+      <c r="F1092">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1093">
+        <v>10</v>
+      </c>
+      <c r="C1093">
+        <v>38</v>
+      </c>
+      <c r="D1093">
+        <v>30.6</v>
+      </c>
+      <c r="E1093">
+        <v>5</v>
+      </c>
+      <c r="F1093">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1094">
+        <v>10</v>
+      </c>
+      <c r="C1094">
+        <v>31</v>
+      </c>
+      <c r="D1094">
+        <v>17.3</v>
+      </c>
+      <c r="E1094">
+        <v>6</v>
+      </c>
+      <c r="F1094">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1095">
+        <v>10</v>
+      </c>
+      <c r="C1095">
+        <v>28.4</v>
+      </c>
+      <c r="D1095">
+        <v>32.1</v>
+      </c>
+      <c r="E1095">
+        <v>3</v>
+      </c>
+      <c r="F1095">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1096">
+        <v>10</v>
+      </c>
+      <c r="C1096">
+        <v>23.9</v>
+      </c>
+      <c r="D1096">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E1096">
+        <v>5</v>
+      </c>
+      <c r="F1096">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1097">
+        <v>10</v>
+      </c>
+      <c r="C1097">
+        <v>31.1</v>
+      </c>
+      <c r="D1097">
+        <v>21.5</v>
+      </c>
+      <c r="E1097">
+        <v>7</v>
+      </c>
+      <c r="F1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1098">
+        <v>10</v>
+      </c>
+      <c r="C1098">
+        <v>31.6</v>
+      </c>
+      <c r="D1098">
+        <v>39.6</v>
+      </c>
+      <c r="E1098">
+        <v>2</v>
+      </c>
+      <c r="F1098">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1099">
+        <v>10</v>
+      </c>
+      <c r="C1099">
+        <v>26.6</v>
+      </c>
+      <c r="D1099">
+        <v>21.5</v>
+      </c>
+      <c r="E1099">
+        <v>4</v>
+      </c>
+      <c r="F1099">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1100">
+        <v>10</v>
+      </c>
+      <c r="C1100">
+        <v>22.5</v>
+      </c>
+      <c r="D1100">
+        <v>37.6</v>
+      </c>
+      <c r="E1100">
+        <v>2</v>
+      </c>
+      <c r="F1100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1101">
+        <v>10</v>
+      </c>
+      <c r="C1101">
+        <v>29.8</v>
+      </c>
+      <c r="D1101">
+        <v>20.6</v>
+      </c>
+      <c r="E1101">
+        <v>5</v>
+      </c>
+      <c r="F1101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1102">
+        <v>10</v>
+      </c>
+      <c r="C1102">
+        <v>35.1</v>
+      </c>
+      <c r="D1102">
+        <v>21.1</v>
+      </c>
+      <c r="E1102">
+        <v>6</v>
+      </c>
+      <c r="F1102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1103">
+        <v>10</v>
+      </c>
+      <c r="C1103">
+        <v>24.9</v>
+      </c>
+      <c r="D1103">
+        <v>17.5</v>
+      </c>
+      <c r="E1103">
+        <v>4</v>
+      </c>
+      <c r="F1103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1104">
+        <v>10</v>
+      </c>
+      <c r="C1104">
+        <v>34.1</v>
+      </c>
+      <c r="D1104">
+        <v>24.1</v>
+      </c>
+      <c r="E1104">
+        <v>6</v>
+      </c>
+      <c r="F1104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1105">
+        <v>10</v>
+      </c>
+      <c r="C1105">
+        <v>12.1</v>
+      </c>
+      <c r="D1105">
+        <v>30.9</v>
+      </c>
+      <c r="E1105">
+        <v>1</v>
+      </c>
+      <c r="F1105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1106">
+        <v>10</v>
+      </c>
+      <c r="C1106">
+        <v>34.6</v>
+      </c>
+      <c r="D1106">
+        <v>31.1</v>
+      </c>
+      <c r="E1106">
+        <v>4</v>
+      </c>
+      <c r="F1106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1107">
+        <v>10</v>
+      </c>
+      <c r="C1107">
+        <v>27.4</v>
+      </c>
+      <c r="D1107">
+        <v>22.5</v>
+      </c>
+      <c r="E1107">
+        <v>4</v>
+      </c>
+      <c r="F1107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1108">
+        <v>10</v>
+      </c>
+      <c r="C1108">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D1108">
+        <v>21.4</v>
+      </c>
+      <c r="E1108">
+        <v>4</v>
+      </c>
+      <c r="F1108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1109">
+        <v>10</v>
+      </c>
+      <c r="C1109">
+        <v>41</v>
+      </c>
+      <c r="D1109">
+        <v>11.5</v>
+      </c>
+      <c r="E1109">
+        <v>8</v>
+      </c>
+      <c r="F1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1110">
+        <v>10</v>
+      </c>
+      <c r="C1110">
+        <v>24.5</v>
+      </c>
+      <c r="D1110">
+        <v>27.4</v>
+      </c>
+      <c r="E1110">
+        <v>3</v>
+      </c>
+      <c r="F1110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1111">
+        <v>10</v>
+      </c>
+      <c r="C1111">
+        <v>27.5</v>
+      </c>
+      <c r="D1111">
+        <v>29.3</v>
+      </c>
+      <c r="E1111">
+        <v>4</v>
+      </c>
+      <c r="F1111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1112">
+        <v>10</v>
+      </c>
+      <c r="C1112">
+        <v>31.9</v>
+      </c>
+      <c r="D1112">
+        <v>14.4</v>
+      </c>
+      <c r="E1112">
+        <v>5</v>
+      </c>
+      <c r="F1112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1113">
+        <v>10</v>
+      </c>
+      <c r="C1113">
+        <v>37.4</v>
+      </c>
+      <c r="D1113">
+        <v>21.6</v>
+      </c>
+      <c r="E1113">
+        <v>8</v>
+      </c>
+      <c r="F1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1114">
+        <v>10</v>
+      </c>
+      <c r="C1114">
+        <v>31.8</v>
+      </c>
+      <c r="D1114">
+        <v>22.9</v>
+      </c>
+      <c r="E1114">
+        <v>5</v>
+      </c>
+      <c r="F1114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1115">
+        <v>10</v>
+      </c>
+      <c r="C1115">
+        <v>23.9</v>
+      </c>
+      <c r="D1115">
+        <v>21.5</v>
+      </c>
+      <c r="E1115">
+        <v>4</v>
+      </c>
+      <c r="F1115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1116">
+        <v>10</v>
+      </c>
+      <c r="C1116">
+        <v>23.4</v>
+      </c>
+      <c r="D1116">
+        <v>25.4</v>
+      </c>
+      <c r="E1116">
+        <v>3</v>
+      </c>
+      <c r="F1116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1117">
+        <v>10</v>
+      </c>
+      <c r="C1117">
+        <v>27.1</v>
+      </c>
+      <c r="D1117">
+        <v>30.6</v>
+      </c>
+      <c r="E1117">
+        <v>3</v>
+      </c>
+      <c r="F1117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1118">
+        <v>10</v>
+      </c>
+      <c r="C1118">
+        <v>20.8</v>
+      </c>
+      <c r="D1118">
+        <v>29.1</v>
+      </c>
+      <c r="E1118">
+        <v>2</v>
+      </c>
+      <c r="F1118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1119">
+        <v>10</v>
+      </c>
+      <c r="C1119">
+        <v>16.8</v>
+      </c>
+      <c r="D1119">
+        <v>24.9</v>
+      </c>
+      <c r="E1119">
+        <v>2</v>
+      </c>
+      <c r="F1119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1120">
+        <v>10</v>
+      </c>
+      <c r="C1120">
+        <v>16</v>
+      </c>
+      <c r="D1120">
+        <v>27</v>
+      </c>
+      <c r="E1120">
+        <v>3</v>
+      </c>
+      <c r="F1120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1121">
+        <v>10</v>
+      </c>
+      <c r="C1121">
+        <v>41.8</v>
+      </c>
+      <c r="D1121">
+        <v>31.4</v>
+      </c>
+      <c r="E1121">
+        <v>7</v>
+      </c>
+      <c r="F1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1122">
+        <v>10</v>
+      </c>
+      <c r="C1122">
+        <v>26.8</v>
+      </c>
+      <c r="D1122">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E1122">
+        <v>6</v>
+      </c>
+      <c r="F1122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1123">
+        <v>10</v>
+      </c>
+      <c r="C1123">
+        <v>35.6</v>
+      </c>
+      <c r="D1123">
+        <v>32.1</v>
+      </c>
+      <c r="E1123">
+        <v>5</v>
+      </c>
+      <c r="F1123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1124">
+        <v>10</v>
+      </c>
+      <c r="C1124">
+        <v>30.8</v>
+      </c>
+      <c r="D1124">
+        <v>33</v>
+      </c>
+      <c r="E1124">
+        <v>2</v>
+      </c>
+      <c r="F1124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1125">
+        <v>10</v>
+      </c>
+      <c r="C1125">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D1125">
+        <v>28.8</v>
+      </c>
+      <c r="E1125">
+        <v>1</v>
+      </c>
+      <c r="F1125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1126">
+        <v>10</v>
+      </c>
+      <c r="C1126">
+        <v>28.4</v>
+      </c>
+      <c r="D1126">
+        <v>22.1</v>
+      </c>
+      <c r="E1126">
+        <v>5</v>
+      </c>
+      <c r="F1126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1127">
+        <v>10</v>
+      </c>
+      <c r="C1127">
+        <v>32</v>
+      </c>
+      <c r="D1127">
+        <v>34.4</v>
+      </c>
+      <c r="E1127">
+        <v>5</v>
+      </c>
+      <c r="F1127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1128">
+        <v>10</v>
+      </c>
+      <c r="C1128">
+        <v>48.9</v>
+      </c>
+      <c r="D1128">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E1128">
+        <v>8</v>
+      </c>
+      <c r="F1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1129">
+        <v>10</v>
+      </c>
+      <c r="C1129">
+        <v>33</v>
+      </c>
+      <c r="D1129">
+        <v>28.8</v>
+      </c>
+      <c r="E1129">
+        <v>5</v>
+      </c>
+      <c r="F1129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1130">
+        <v>10</v>
+      </c>
+      <c r="C1130">
+        <v>39.1</v>
+      </c>
+      <c r="D1130">
+        <v>31.1</v>
+      </c>
+      <c r="E1130">
+        <v>6</v>
+      </c>
+      <c r="F1130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1131">
+        <v>10</v>
+      </c>
+      <c r="C1131">
+        <v>24.6</v>
+      </c>
+      <c r="D1131">
+        <v>27</v>
+      </c>
+      <c r="E1131">
+        <v>3</v>
+      </c>
+      <c r="F1131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1132">
+        <v>10</v>
+      </c>
+      <c r="C1132">
+        <v>42.4</v>
+      </c>
+      <c r="D1132">
+        <v>28.4</v>
+      </c>
+      <c r="E1132">
+        <v>7</v>
+      </c>
+      <c r="F1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1133">
+        <v>10</v>
+      </c>
+      <c r="C1133">
+        <v>32.6</v>
+      </c>
+      <c r="D1133">
+        <v>22.8</v>
+      </c>
+      <c r="E1133">
+        <v>6</v>
+      </c>
+      <c r="F1133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1134">
+        <v>10</v>
+      </c>
+      <c r="C1134">
+        <v>33.1</v>
+      </c>
+      <c r="D1134">
+        <v>22</v>
+      </c>
+      <c r="E1134">
+        <v>6</v>
+      </c>
+      <c r="F1134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1135">
+        <v>10</v>
+      </c>
+      <c r="C1135">
+        <v>30.5</v>
+      </c>
+      <c r="D1135">
+        <v>27.9</v>
+      </c>
+      <c r="E1135">
+        <v>4</v>
+      </c>
+      <c r="F1135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1136">
+        <v>10</v>
+      </c>
+      <c r="C1136">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D1136">
+        <v>25.5</v>
+      </c>
+      <c r="E1136">
+        <v>5</v>
+      </c>
+      <c r="F1136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1137">
+        <v>10</v>
+      </c>
+      <c r="C1137">
+        <v>29.1</v>
+      </c>
+      <c r="D1137">
+        <v>33.6</v>
+      </c>
+      <c r="E1137">
+        <v>4</v>
+      </c>
+      <c r="F1137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1138">
+        <v>10</v>
+      </c>
+      <c r="C1138">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D1138">
+        <v>22.5</v>
+      </c>
+      <c r="E1138">
+        <v>4</v>
+      </c>
+      <c r="F1138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1139">
+        <v>10</v>
+      </c>
+      <c r="C1139">
+        <v>20.3</v>
+      </c>
+      <c r="D1139">
+        <v>22.8</v>
+      </c>
+      <c r="E1139">
+        <v>4</v>
+      </c>
+      <c r="F1139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1140">
+        <v>10</v>
+      </c>
+      <c r="C1140">
+        <v>27</v>
+      </c>
+      <c r="D1140">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E1140">
+        <v>5</v>
+      </c>
+      <c r="F1140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1141">
+        <v>10</v>
+      </c>
+      <c r="C1141">
+        <v>35.6</v>
+      </c>
+      <c r="D1141">
+        <v>30</v>
+      </c>
+      <c r="E1141">
+        <v>4</v>
+      </c>
+      <c r="F1141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1142">
+        <v>10</v>
+      </c>
+      <c r="C1142">
+        <v>31.6</v>
+      </c>
+      <c r="D1142">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E1142">
+        <v>6</v>
+      </c>
+      <c r="F1142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1143">
+        <v>10</v>
+      </c>
+      <c r="C1143">
+        <v>30.3</v>
+      </c>
+      <c r="D1143">
+        <v>24.6</v>
+      </c>
+      <c r="E1143">
+        <v>5</v>
+      </c>
+      <c r="F1143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1144">
+        <v>10</v>
+      </c>
+      <c r="C1144">
+        <v>25.5</v>
+      </c>
+      <c r="D1144">
+        <v>38.1</v>
+      </c>
+      <c r="E1144">
+        <v>1</v>
+      </c>
+      <c r="F1144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1145">
+        <v>10</v>
+      </c>
+      <c r="C1145">
+        <v>26.8</v>
+      </c>
+      <c r="D1145">
+        <v>22.1</v>
+      </c>
+      <c r="E1145">
+        <v>5</v>
+      </c>
+      <c r="F1145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1146">
+        <v>10</v>
+      </c>
+      <c r="C1146">
+        <v>23.6</v>
+      </c>
+      <c r="D1146">
+        <v>28.8</v>
+      </c>
+      <c r="E1146">
+        <v>3</v>
+      </c>
+      <c r="F1146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1147">
+        <v>10</v>
+      </c>
+      <c r="C1147">
+        <v>32.6</v>
+      </c>
+      <c r="D1147">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E1147">
+        <v>6</v>
+      </c>
+      <c r="F1147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1148">
+        <v>10</v>
+      </c>
+      <c r="C1148">
+        <v>44.3</v>
+      </c>
+      <c r="D1148">
+        <v>27.3</v>
+      </c>
+      <c r="E1148">
+        <v>8</v>
+      </c>
+      <c r="F1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1149">
+        <v>10</v>
+      </c>
+      <c r="C1149">
+        <v>15.5</v>
+      </c>
+      <c r="D1149">
+        <v>26</v>
+      </c>
+      <c r="E1149">
+        <v>2</v>
+      </c>
+      <c r="F1149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1150">
+        <v>10</v>
+      </c>
+      <c r="C1150">
+        <v>49.4</v>
+      </c>
+      <c r="D1150">
+        <v>21</v>
+      </c>
+      <c r="E1150">
+        <v>8</v>
+      </c>
+      <c r="F1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1151">
+        <v>10</v>
+      </c>
+      <c r="C1151">
+        <v>36.4</v>
+      </c>
+      <c r="D1151">
+        <v>21.1</v>
+      </c>
+      <c r="E1151">
+        <v>5</v>
+      </c>
+      <c r="F1151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1152">
+        <v>10</v>
+      </c>
+      <c r="C1152">
+        <v>22.6</v>
+      </c>
+      <c r="D1152">
+        <v>21.8</v>
+      </c>
+      <c r="E1152">
+        <v>3</v>
+      </c>
+      <c r="F1152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1153">
+        <v>10</v>
+      </c>
+      <c r="C1153">
+        <v>21.6</v>
+      </c>
+      <c r="D1153">
+        <v>24.1</v>
+      </c>
+      <c r="E1153">
+        <v>3</v>
+      </c>
+      <c r="F1153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1154">
+        <v>10</v>
+      </c>
+      <c r="C1154">
+        <v>33.9</v>
+      </c>
+      <c r="D1154">
+        <v>29.3</v>
+      </c>
+      <c r="E1154">
+        <v>4</v>
+      </c>
+      <c r="F1154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1155">
+        <v>10</v>
+      </c>
+      <c r="C1155">
+        <v>35.9</v>
+      </c>
+      <c r="D1155">
+        <v>26.9</v>
+      </c>
+      <c r="E1155">
+        <v>6</v>
+      </c>
+      <c r="F1155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1156">
+        <v>10</v>
+      </c>
+      <c r="C1156">
+        <v>22.5</v>
+      </c>
+      <c r="D1156">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E1156">
+        <v>6</v>
+      </c>
+      <c r="F1156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1157">
+        <v>10</v>
+      </c>
+      <c r="C1157">
+        <v>33.6</v>
+      </c>
+      <c r="D1157">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E1157">
+        <v>7</v>
+      </c>
+      <c r="F1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1158">
+        <v>10</v>
+      </c>
+      <c r="C1158">
+        <v>32.4</v>
+      </c>
+      <c r="D1158">
+        <v>34</v>
+      </c>
+      <c r="E1158">
+        <v>3</v>
+      </c>
+      <c r="F1158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1159">
+        <v>10</v>
+      </c>
+      <c r="C1159">
+        <v>30.1</v>
+      </c>
+      <c r="D1159">
+        <v>18.5</v>
+      </c>
+      <c r="E1159">
+        <v>4</v>
+      </c>
+      <c r="F1159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1160">
+        <v>10</v>
+      </c>
+      <c r="C1160">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D1160">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E1160">
+        <v>6</v>
+      </c>
+      <c r="F1160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1161">
+        <v>10</v>
+      </c>
+      <c r="C1161">
+        <v>39.6</v>
+      </c>
+      <c r="D1161">
+        <v>24.3</v>
+      </c>
+      <c r="E1161">
+        <v>7</v>
+      </c>
+      <c r="F1161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1162">
+        <v>10</v>
+      </c>
+      <c r="C1162">
+        <v>28</v>
+      </c>
+      <c r="D1162">
+        <v>29.8</v>
+      </c>
+      <c r="E1162">
+        <v>4</v>
+      </c>
+      <c r="F1162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1163">
+        <v>10</v>
+      </c>
+      <c r="C1163">
+        <v>41</v>
+      </c>
+      <c r="D1163">
+        <v>24</v>
+      </c>
+      <c r="E1163">
+        <v>7</v>
+      </c>
+      <c r="F1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1164">
+        <v>10</v>
+      </c>
+      <c r="C1164">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D1164">
+        <v>21.6</v>
+      </c>
+      <c r="E1164">
+        <v>6</v>
+      </c>
+      <c r="F1164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1165">
+        <v>10</v>
+      </c>
+      <c r="C1165">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D1165">
+        <v>31.3</v>
+      </c>
+      <c r="E1165">
+        <v>3</v>
+      </c>
+      <c r="F1165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1166">
+        <v>10</v>
+      </c>
+      <c r="C1166">
+        <v>21.3</v>
+      </c>
+      <c r="D1166">
+        <v>27.4</v>
+      </c>
+      <c r="E1166">
+        <v>4</v>
+      </c>
+      <c r="F1166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1167">
+        <v>10</v>
+      </c>
+      <c r="C1167">
+        <v>35.6</v>
+      </c>
+      <c r="D1167">
+        <v>29.4</v>
+      </c>
+      <c r="E1167">
+        <v>6</v>
+      </c>
+      <c r="F1167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1168">
+        <v>10</v>
+      </c>
+      <c r="C1168">
+        <v>26.6</v>
+      </c>
+      <c r="D1168">
+        <v>36.6</v>
+      </c>
+      <c r="E1168">
+        <v>3</v>
+      </c>
+      <c r="F1168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1169">
+        <v>10</v>
+      </c>
+      <c r="C1169">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D1169">
+        <v>21.5</v>
+      </c>
+      <c r="E1169">
+        <v>3</v>
+      </c>
+      <c r="F1169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1170">
+        <v>10</v>
+      </c>
+      <c r="C1170">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D1170">
+        <v>24.8</v>
+      </c>
+      <c r="E1170">
+        <v>2</v>
+      </c>
+      <c r="F1170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1171">
+        <v>10</v>
+      </c>
+      <c r="C1171">
+        <v>38.9</v>
+      </c>
+      <c r="D1171">
+        <v>27</v>
+      </c>
+      <c r="E1171">
+        <v>6</v>
+      </c>
+      <c r="F1171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1172">
+        <v>10</v>
+      </c>
+      <c r="C1172">
+        <v>40.4</v>
+      </c>
+      <c r="D1172">
+        <v>27.6</v>
+      </c>
+      <c r="E1172">
+        <v>6</v>
+      </c>
+      <c r="F1172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1173">
+        <v>10</v>
+      </c>
+      <c r="C1173">
+        <v>23.6</v>
+      </c>
+      <c r="D1173">
+        <v>20.8</v>
+      </c>
+      <c r="E1173">
+        <v>4</v>
+      </c>
+      <c r="F1173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1174">
+        <v>10</v>
+      </c>
+      <c r="C1174">
+        <v>34.4</v>
+      </c>
+      <c r="D1174">
+        <v>34.6</v>
+      </c>
+      <c r="E1174">
+        <v>3</v>
+      </c>
+      <c r="F1174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1175">
+        <v>10</v>
+      </c>
+      <c r="C1175">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D1175">
+        <v>24</v>
+      </c>
+      <c r="E1175">
+        <v>5</v>
+      </c>
+      <c r="F1175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1176">
+        <v>10</v>
+      </c>
+      <c r="C1176">
+        <v>20.8</v>
+      </c>
+      <c r="D1176">
+        <v>28.5</v>
+      </c>
+      <c r="E1176">
+        <v>3</v>
+      </c>
+      <c r="F1176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1177">
+        <v>10</v>
+      </c>
+      <c r="C1177">
+        <v>31.8</v>
+      </c>
+      <c r="D1177">
+        <v>21.9</v>
+      </c>
+      <c r="E1177">
+        <v>4</v>
+      </c>
+      <c r="F1177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1178">
+        <v>10</v>
+      </c>
+      <c r="C1178">
+        <v>24.2</v>
+      </c>
+      <c r="D1178">
+        <v>24.2</v>
+      </c>
+      <c r="E1178">
+        <v>6</v>
+      </c>
+      <c r="F1178">
         <v>3</v>
       </c>
     </row>
@@ -37805,10 +42064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177:B201"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40022,6 +44281,281 @@
       </c>
       <c r="C201" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>10</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>10</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>10</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>10</v>
+      </c>
+      <c r="B207">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>10</v>
+      </c>
+      <c r="B208">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>10</v>
+      </c>
+      <c r="B209">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>10</v>
+      </c>
+      <c r="B211">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>10</v>
+      </c>
+      <c r="B212">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>10</v>
+      </c>
+      <c r="B213">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>10</v>
+      </c>
+      <c r="B214">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>10</v>
+      </c>
+      <c r="B215">
+        <v>14</v>
+      </c>
+      <c r="C215" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>10</v>
+      </c>
+      <c r="B216">
+        <v>15</v>
+      </c>
+      <c r="C216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>10</v>
+      </c>
+      <c r="B217">
+        <v>16</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>10</v>
+      </c>
+      <c r="B218">
+        <v>17</v>
+      </c>
+      <c r="C218" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>10</v>
+      </c>
+      <c r="B219">
+        <v>18</v>
+      </c>
+      <c r="C219" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>10</v>
+      </c>
+      <c r="B220">
+        <v>19</v>
+      </c>
+      <c r="C220" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>10</v>
+      </c>
+      <c r="B221">
+        <v>20</v>
+      </c>
+      <c r="C221" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>10</v>
+      </c>
+      <c r="B222">
+        <v>21</v>
+      </c>
+      <c r="C222" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>10</v>
+      </c>
+      <c r="B223">
+        <v>22</v>
+      </c>
+      <c r="C223" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>10</v>
+      </c>
+      <c r="B224">
+        <v>23</v>
+      </c>
+      <c r="C224" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>10</v>
+      </c>
+      <c r="B225">
+        <v>24</v>
+      </c>
+      <c r="C225" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>10</v>
+      </c>
+      <c r="B226">
+        <v>25</v>
+      </c>
+      <c r="C226" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465F568-571F-D043-AB22-CAA409077C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF89696-5EB2-FB49-9E95-7719B213587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="13400" windowWidth="37240" windowHeight="11000" activeTab="2" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="1200" yWindow="14680" windowWidth="37240" windowHeight="10280" activeTab="2" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="189">
   <si>
     <t>Time</t>
   </si>
@@ -989,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
-  <dimension ref="A1:AA200"/>
+  <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A179" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+      <pane ySplit="760" topLeftCell="A184" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16858,7 +16858,7 @@
         <v>126</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>276000</v>
       </c>
       <c r="G180">
         <v>2022</v>
@@ -16936,7 +16936,7 @@
         <v>37</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>361000</v>
       </c>
       <c r="G181">
         <v>2022</v>
@@ -17014,7 +17014,7 @@
         <v>102</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>743000</v>
       </c>
       <c r="G182">
         <v>2022</v>
@@ -17092,7 +17092,7 @@
         <v>129</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>787000</v>
       </c>
       <c r="G183">
         <v>2022</v>
@@ -17170,7 +17170,7 @@
         <v>42</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1125000</v>
       </c>
       <c r="G184">
         <v>2022</v>
@@ -17326,7 +17326,7 @@
         <v>26</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>4757000</v>
       </c>
       <c r="G186">
         <v>2022</v>
@@ -17404,7 +17404,7 @@
         <v>95</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>2506000</v>
       </c>
       <c r="G187">
         <v>2022</v>
@@ -17482,7 +17482,7 @@
         <v>52</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>2726000</v>
       </c>
       <c r="G188">
         <v>2022</v>
@@ -17560,7 +17560,7 @@
         <v>150</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1071000</v>
       </c>
       <c r="G189">
         <v>2022</v>
@@ -17638,7 +17638,7 @@
         <v>135</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>582000</v>
       </c>
       <c r="G190">
         <v>2022</v>
@@ -17716,7 +17716,7 @@
         <v>104</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>13059000</v>
       </c>
       <c r="G191">
         <v>2022</v>
@@ -17794,7 +17794,7 @@
         <v>49</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>962000</v>
       </c>
       <c r="G192">
         <v>2022</v>
@@ -17872,7 +17872,7 @@
         <v>34</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>2228000</v>
       </c>
       <c r="G193">
         <v>2022</v>
@@ -17950,7 +17950,7 @@
         <v>88</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>321000</v>
       </c>
       <c r="G194">
         <v>2022</v>
@@ -18028,7 +18028,7 @@
         <v>91</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>7582000</v>
       </c>
       <c r="G195">
         <v>2022</v>
@@ -18106,7 +18106,7 @@
         <v>90</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="G196">
         <v>2022</v>
@@ -18184,7 +18184,7 @@
         <v>122</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>512000</v>
       </c>
       <c r="G197">
         <v>2022</v>
@@ -18262,7 +18262,7 @@
         <v>115</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1497000</v>
       </c>
       <c r="G198">
         <v>2022</v>
@@ -18340,7 +18340,7 @@
         <v>175</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>490000</v>
       </c>
       <c r="G199">
         <v>2022</v>
@@ -18418,7 +18418,7 @@
         <v>127</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>2037000</v>
       </c>
       <c r="G200">
         <v>2022</v>
@@ -18477,6 +18477,2034 @@
       <c r="AA200" cm="1">
         <f t="array" ref="AA200">_xlfn.XLOOKUP(E200&amp;I200,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B201" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C201" t="s">
+        <v>47</v>
+      </c>
+      <c r="D201" t="s">
+        <v>148</v>
+      </c>
+      <c r="E201" t="s">
+        <v>157</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>2022</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>11</v>
+      </c>
+      <c r="J201" t="str" cm="1">
+        <f t="array" ref="J201">_xlfn.XLOOKUP(D201&amp;I201,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K201" t="str" cm="1">
+        <f t="array" ref="K201">_xlfn.XLOOKUP(E201&amp;I201,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L201" t="s">
+        <v>72</v>
+      </c>
+      <c r="M201" t="s">
+        <v>72</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201" cm="1">
+        <f t="array" ref="O201">_xlfn.XLOOKUP(D201&amp;I201,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P201" cm="1">
+        <f t="array" ref="P201">_xlfn.XLOOKUP(D201&amp;I201,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.4</v>
+      </c>
+      <c r="Q201" cm="1">
+        <f t="array" ref="Q201">_xlfn.XLOOKUP(E201&amp;I201,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.4</v>
+      </c>
+      <c r="R201" cm="1">
+        <f t="array" ref="R201">_xlfn.XLOOKUP(E201&amp;I201,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="X201" cm="1">
+        <f t="array" ref="X201">_xlfn.XLOOKUP(D201&amp;I201,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y201" cm="1">
+        <f t="array" ref="Y201">_xlfn.XLOOKUP(D201&amp;I201,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z201" cm="1">
+        <f t="array" ref="Z201">_xlfn.XLOOKUP(E201&amp;I201,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA201" cm="1">
+        <f t="array" ref="AA201">_xlfn.XLOOKUP(E201&amp;I201,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B202" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C202" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" t="s">
+        <v>171</v>
+      </c>
+      <c r="E202" t="s">
+        <v>123</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>2022</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>11</v>
+      </c>
+      <c r="J202" t="str" cm="1">
+        <f t="array" ref="J202">_xlfn.XLOOKUP(D202&amp;I202,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K202" t="str" cm="1">
+        <f t="array" ref="K202">_xlfn.XLOOKUP(E202&amp;I202,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L202" t="s">
+        <v>72</v>
+      </c>
+      <c r="M202" t="s">
+        <v>72</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" cm="1">
+        <f t="array" ref="O202">_xlfn.XLOOKUP(D202&amp;I202,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.9</v>
+      </c>
+      <c r="P202" cm="1">
+        <f t="array" ref="P202">_xlfn.XLOOKUP(D202&amp;I202,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.9</v>
+      </c>
+      <c r="Q202" cm="1">
+        <f t="array" ref="Q202">_xlfn.XLOOKUP(E202&amp;I202,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.8</v>
+      </c>
+      <c r="R202" cm="1">
+        <f t="array" ref="R202">_xlfn.XLOOKUP(E202&amp;I202,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.2</v>
+      </c>
+      <c r="X202" cm="1">
+        <f t="array" ref="X202">_xlfn.XLOOKUP(D202&amp;I202,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y202" cm="1">
+        <f t="array" ref="Y202">_xlfn.XLOOKUP(D202&amp;I202,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z202" cm="1">
+        <f t="array" ref="Z202">_xlfn.XLOOKUP(E202&amp;I202,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA202" cm="1">
+        <f t="array" ref="AA202">_xlfn.XLOOKUP(E202&amp;I202,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C203" t="s">
+        <v>47</v>
+      </c>
+      <c r="D203" t="s">
+        <v>61</v>
+      </c>
+      <c r="E203" t="s">
+        <v>126</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>2022</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>11</v>
+      </c>
+      <c r="J203" t="str" cm="1">
+        <f t="array" ref="J203">_xlfn.XLOOKUP(D203&amp;I203,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K203" t="str" cm="1">
+        <f t="array" ref="K203">_xlfn.XLOOKUP(E203&amp;I203,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L203" t="s">
+        <v>72</v>
+      </c>
+      <c r="M203" t="s">
+        <v>72</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" cm="1">
+        <f t="array" ref="O203">_xlfn.XLOOKUP(D203&amp;I203,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>26.3</v>
+      </c>
+      <c r="P203" cm="1">
+        <f t="array" ref="P203">_xlfn.XLOOKUP(D203&amp;I203,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29</v>
+      </c>
+      <c r="Q203" cm="1">
+        <f t="array" ref="Q203">_xlfn.XLOOKUP(E203&amp;I203,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.1</v>
+      </c>
+      <c r="R203" cm="1">
+        <f t="array" ref="R203">_xlfn.XLOOKUP(E203&amp;I203,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27</v>
+      </c>
+      <c r="X203" cm="1">
+        <f t="array" ref="X203">_xlfn.XLOOKUP(D203&amp;I203,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y203" cm="1">
+        <f t="array" ref="Y203">_xlfn.XLOOKUP(D203&amp;I203,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z203" cm="1">
+        <f t="array" ref="Z203">_xlfn.XLOOKUP(E203&amp;I203,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA203" cm="1">
+        <f t="array" ref="AA203">_xlfn.XLOOKUP(E203&amp;I203,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C204" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" t="s">
+        <v>146</v>
+      </c>
+      <c r="E204" t="s">
+        <v>55</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>2022</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>11</v>
+      </c>
+      <c r="J204" t="str" cm="1">
+        <f t="array" ref="J204">_xlfn.XLOOKUP(D204&amp;I204,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K204" t="str" cm="1">
+        <f t="array" ref="K204">_xlfn.XLOOKUP(E204&amp;I204,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L204" t="s">
+        <v>68</v>
+      </c>
+      <c r="M204" t="s">
+        <v>68</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" cm="1">
+        <f t="array" ref="O204">_xlfn.XLOOKUP(D204&amp;I204,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.9</v>
+      </c>
+      <c r="P204" cm="1">
+        <f t="array" ref="P204">_xlfn.XLOOKUP(D204&amp;I204,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>31.6</v>
+      </c>
+      <c r="Q204" cm="1">
+        <f t="array" ref="Q204">_xlfn.XLOOKUP(E204&amp;I204,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.2</v>
+      </c>
+      <c r="R204" cm="1">
+        <f t="array" ref="R204">_xlfn.XLOOKUP(E204&amp;I204,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="X204" cm="1">
+        <f t="array" ref="X204">_xlfn.XLOOKUP(D204&amp;I204,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y204" cm="1">
+        <f t="array" ref="Y204">_xlfn.XLOOKUP(D204&amp;I204,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z204" cm="1">
+        <f t="array" ref="Z204">_xlfn.XLOOKUP(E204&amp;I204,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA204" cm="1">
+        <f t="array" ref="AA204">_xlfn.XLOOKUP(E204&amp;I204,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C205" t="s">
+        <v>47</v>
+      </c>
+      <c r="D205" t="s">
+        <v>57</v>
+      </c>
+      <c r="E205" t="s">
+        <v>28</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>2022</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>11</v>
+      </c>
+      <c r="J205" t="str" cm="1">
+        <f t="array" ref="J205">_xlfn.XLOOKUP(D205&amp;I205,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K205" t="str" cm="1">
+        <f t="array" ref="K205">_xlfn.XLOOKUP(E205&amp;I205,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L205" t="s">
+        <v>68</v>
+      </c>
+      <c r="M205" t="s">
+        <v>68</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" cm="1">
+        <f t="array" ref="O205">_xlfn.XLOOKUP(D205&amp;I205,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="P205" cm="1">
+        <f t="array" ref="P205">_xlfn.XLOOKUP(D205&amp;I205,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21</v>
+      </c>
+      <c r="Q205" cm="1">
+        <f t="array" ref="Q205">_xlfn.XLOOKUP(E205&amp;I205,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.6</v>
+      </c>
+      <c r="R205" cm="1">
+        <f t="array" ref="R205">_xlfn.XLOOKUP(E205&amp;I205,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.2</v>
+      </c>
+      <c r="X205" cm="1">
+        <f t="array" ref="X205">_xlfn.XLOOKUP(D205&amp;I205,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y205" cm="1">
+        <f t="array" ref="Y205">_xlfn.XLOOKUP(D205&amp;I205,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z205" cm="1">
+        <f t="array" ref="Z205">_xlfn.XLOOKUP(E205&amp;I205,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA205" cm="1">
+        <f t="array" ref="AA205">_xlfn.XLOOKUP(E205&amp;I205,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C206" t="s">
+        <v>31</v>
+      </c>
+      <c r="D206" t="s">
+        <v>110</v>
+      </c>
+      <c r="E206" t="s">
+        <v>107</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>2022</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>11</v>
+      </c>
+      <c r="J206" cm="1">
+        <f t="array" ref="J206">_xlfn.XLOOKUP(D206&amp;I206,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>8</v>
+      </c>
+      <c r="K206" t="str" cm="1">
+        <f t="array" ref="K206">_xlfn.XLOOKUP(E206&amp;I206,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L206" t="s">
+        <v>65</v>
+      </c>
+      <c r="M206" t="s">
+        <v>65</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+      <c r="O206" cm="1">
+        <f t="array" ref="O206">_xlfn.XLOOKUP(D206&amp;I206,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41</v>
+      </c>
+      <c r="P206" cm="1">
+        <f t="array" ref="P206">_xlfn.XLOOKUP(D206&amp;I206,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.2</v>
+      </c>
+      <c r="Q206" cm="1">
+        <f t="array" ref="Q206">_xlfn.XLOOKUP(E206&amp;I206,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>15.6</v>
+      </c>
+      <c r="R206" cm="1">
+        <f t="array" ref="R206">_xlfn.XLOOKUP(E206&amp;I206,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="X206" cm="1">
+        <f t="array" ref="X206">_xlfn.XLOOKUP(D206&amp;I206,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y206" cm="1">
+        <f t="array" ref="Y206">_xlfn.XLOOKUP(D206&amp;I206,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z206" cm="1">
+        <f t="array" ref="Z206">_xlfn.XLOOKUP(E206&amp;I206,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA206" cm="1">
+        <f t="array" ref="AA206">_xlfn.XLOOKUP(E206&amp;I206,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" t="s">
+        <v>104</v>
+      </c>
+      <c r="E207" t="s">
+        <v>94</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>2022</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>11</v>
+      </c>
+      <c r="J207" cm="1">
+        <f t="array" ref="J207">_xlfn.XLOOKUP(D207&amp;I207,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>5</v>
+      </c>
+      <c r="K207" t="str" cm="1">
+        <f t="array" ref="K207">_xlfn.XLOOKUP(E207&amp;I207,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L207" t="s">
+        <v>70</v>
+      </c>
+      <c r="M207" t="s">
+        <v>70</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" cm="1">
+        <f t="array" ref="O207">_xlfn.XLOOKUP(D207&amp;I207,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>45.3</v>
+      </c>
+      <c r="P207" cm="1">
+        <f t="array" ref="P207">_xlfn.XLOOKUP(D207&amp;I207,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.7</v>
+      </c>
+      <c r="Q207" cm="1">
+        <f t="array" ref="Q207">_xlfn.XLOOKUP(E207&amp;I207,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.1</v>
+      </c>
+      <c r="R207" cm="1">
+        <f t="array" ref="R207">_xlfn.XLOOKUP(E207&amp;I207,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.4</v>
+      </c>
+      <c r="X207" cm="1">
+        <f t="array" ref="X207">_xlfn.XLOOKUP(D207&amp;I207,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y207" cm="1">
+        <f t="array" ref="Y207">_xlfn.XLOOKUP(D207&amp;I207,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z207" cm="1">
+        <f t="array" ref="Z207">_xlfn.XLOOKUP(E207&amp;I207,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA207" cm="1">
+        <f t="array" ref="AA207">_xlfn.XLOOKUP(E207&amp;I207,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s">
+        <v>26</v>
+      </c>
+      <c r="E208" t="s">
+        <v>41</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>2022</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>11</v>
+      </c>
+      <c r="J208" cm="1">
+        <f t="array" ref="J208">_xlfn.XLOOKUP(D208&amp;I208,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>2</v>
+      </c>
+      <c r="K208" t="str" cm="1">
+        <f t="array" ref="K208">_xlfn.XLOOKUP(E208&amp;I208,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L208" t="s">
+        <v>64</v>
+      </c>
+      <c r="M208" t="s">
+        <v>64</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" cm="1">
+        <f t="array" ref="O208">_xlfn.XLOOKUP(D208&amp;I208,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>45.8</v>
+      </c>
+      <c r="P208" cm="1">
+        <f t="array" ref="P208">_xlfn.XLOOKUP(D208&amp;I208,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>15.8</v>
+      </c>
+      <c r="Q208" cm="1">
+        <f t="array" ref="Q208">_xlfn.XLOOKUP(E208&amp;I208,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.3</v>
+      </c>
+      <c r="R208" cm="1">
+        <f t="array" ref="R208">_xlfn.XLOOKUP(E208&amp;I208,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="X208" cm="1">
+        <f t="array" ref="X208">_xlfn.XLOOKUP(D208&amp;I208,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y208" cm="1">
+        <f t="array" ref="Y208">_xlfn.XLOOKUP(D208&amp;I208,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z208" cm="1">
+        <f t="array" ref="Z208">_xlfn.XLOOKUP(E208&amp;I208,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA208" cm="1">
+        <f t="array" ref="AA208">_xlfn.XLOOKUP(E208&amp;I208,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" t="s">
+        <v>50</v>
+      </c>
+      <c r="E209" t="s">
+        <v>114</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>2022</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>11</v>
+      </c>
+      <c r="J209" t="str" cm="1">
+        <f t="array" ref="J209">_xlfn.XLOOKUP(D209&amp;I209,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K209" cm="1">
+        <f t="array" ref="K209">_xlfn.XLOOKUP(E209&amp;I209,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>7</v>
+      </c>
+      <c r="L209" t="s">
+        <v>70</v>
+      </c>
+      <c r="M209" t="s">
+        <v>70</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" cm="1">
+        <f t="array" ref="O209">_xlfn.XLOOKUP(D209&amp;I209,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.1</v>
+      </c>
+      <c r="P209" cm="1">
+        <f t="array" ref="P209">_xlfn.XLOOKUP(D209&amp;I209,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.7</v>
+      </c>
+      <c r="Q209" cm="1">
+        <f t="array" ref="Q209">_xlfn.XLOOKUP(E209&amp;I209,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="R209" cm="1">
+        <f t="array" ref="R209">_xlfn.XLOOKUP(E209&amp;I209,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.2</v>
+      </c>
+      <c r="X209" cm="1">
+        <f t="array" ref="X209">_xlfn.XLOOKUP(D209&amp;I209,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y209" cm="1">
+        <f t="array" ref="Y209">_xlfn.XLOOKUP(D209&amp;I209,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z209" cm="1">
+        <f t="array" ref="Z209">_xlfn.XLOOKUP(E209&amp;I209,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA209" cm="1">
+        <f t="array" ref="AA209">_xlfn.XLOOKUP(E209&amp;I209,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>47</v>
+      </c>
+      <c r="D210" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" t="s">
+        <v>43</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>2022</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>11</v>
+      </c>
+      <c r="J210" cm="1">
+        <f t="array" ref="J210">_xlfn.XLOOKUP(D210&amp;I210,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>21</v>
+      </c>
+      <c r="K210" t="str" cm="1">
+        <f t="array" ref="K210">_xlfn.XLOOKUP(E210&amp;I210,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L210" t="s">
+        <v>64</v>
+      </c>
+      <c r="M210" t="s">
+        <v>64</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" cm="1">
+        <f t="array" ref="O210">_xlfn.XLOOKUP(D210&amp;I210,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.8</v>
+      </c>
+      <c r="P210" cm="1">
+        <f t="array" ref="P210">_xlfn.XLOOKUP(D210&amp;I210,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>10.4</v>
+      </c>
+      <c r="Q210" cm="1">
+        <f t="array" ref="Q210">_xlfn.XLOOKUP(E210&amp;I210,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.4</v>
+      </c>
+      <c r="R210" cm="1">
+        <f t="array" ref="R210">_xlfn.XLOOKUP(E210&amp;I210,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.3</v>
+      </c>
+      <c r="X210" cm="1">
+        <f t="array" ref="X210">_xlfn.XLOOKUP(D210&amp;I210,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y210" cm="1">
+        <f t="array" ref="Y210">_xlfn.XLOOKUP(D210&amp;I210,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z210" cm="1">
+        <f t="array" ref="Z210">_xlfn.XLOOKUP(E210&amp;I210,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA210" cm="1">
+        <f t="array" ref="AA210">_xlfn.XLOOKUP(E210&amp;I210,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>31</v>
+      </c>
+      <c r="D211" t="s">
+        <v>39</v>
+      </c>
+      <c r="E211" t="s">
+        <v>36</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>2022</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>11</v>
+      </c>
+      <c r="J211" t="str" cm="1">
+        <f t="array" ref="J211">_xlfn.XLOOKUP(D211&amp;I211,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K211" t="str" cm="1">
+        <f t="array" ref="K211">_xlfn.XLOOKUP(E211&amp;I211,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L211" t="s">
+        <v>71</v>
+      </c>
+      <c r="M211" t="s">
+        <v>71</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" cm="1">
+        <f t="array" ref="O211">_xlfn.XLOOKUP(D211&amp;I211,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.1</v>
+      </c>
+      <c r="P211" cm="1">
+        <f t="array" ref="P211">_xlfn.XLOOKUP(D211&amp;I211,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Q211" cm="1">
+        <f t="array" ref="Q211">_xlfn.XLOOKUP(E211&amp;I211,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="R211" cm="1">
+        <f t="array" ref="R211">_xlfn.XLOOKUP(E211&amp;I211,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.8</v>
+      </c>
+      <c r="X211" cm="1">
+        <f t="array" ref="X211">_xlfn.XLOOKUP(D211&amp;I211,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y211" cm="1">
+        <f t="array" ref="Y211">_xlfn.XLOOKUP(D211&amp;I211,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z211" cm="1">
+        <f t="array" ref="Z211">_xlfn.XLOOKUP(E211&amp;I211,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA211" cm="1">
+        <f t="array" ref="AA211">_xlfn.XLOOKUP(E211&amp;I211,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B212" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" t="s">
+        <v>152</v>
+      </c>
+      <c r="E212" t="s">
+        <v>46</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>2022</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>11</v>
+      </c>
+      <c r="J212" t="str" cm="1">
+        <f t="array" ref="J212">_xlfn.XLOOKUP(D212&amp;I212,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K212" cm="1">
+        <f t="array" ref="K212">_xlfn.XLOOKUP(E212&amp;I212,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>20</v>
+      </c>
+      <c r="L212" t="s">
+        <v>68</v>
+      </c>
+      <c r="M212" t="s">
+        <v>73</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212" cm="1">
+        <f t="array" ref="O212">_xlfn.XLOOKUP(D212&amp;I212,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>21.9</v>
+      </c>
+      <c r="P212" cm="1">
+        <f t="array" ref="P212">_xlfn.XLOOKUP(D212&amp;I212,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.8</v>
+      </c>
+      <c r="Q212" cm="1">
+        <f t="array" ref="Q212">_xlfn.XLOOKUP(E212&amp;I212,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.1</v>
+      </c>
+      <c r="R212" cm="1">
+        <f t="array" ref="R212">_xlfn.XLOOKUP(E212&amp;I212,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.2</v>
+      </c>
+      <c r="X212" cm="1">
+        <f t="array" ref="X212">_xlfn.XLOOKUP(D212&amp;I212,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y212" cm="1">
+        <f t="array" ref="Y212">_xlfn.XLOOKUP(D212&amp;I212,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z212" cm="1">
+        <f t="array" ref="Z212">_xlfn.XLOOKUP(E212&amp;I212,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA212" cm="1">
+        <f t="array" ref="AA212">_xlfn.XLOOKUP(E212&amp;I212,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B213" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C213" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" t="s">
+        <v>87</v>
+      </c>
+      <c r="E213" t="s">
+        <v>89</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>2022</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>11</v>
+      </c>
+      <c r="J213" cm="1">
+        <f t="array" ref="J213">_xlfn.XLOOKUP(D213&amp;I213,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>10</v>
+      </c>
+      <c r="K213" t="str" cm="1">
+        <f t="array" ref="K213">_xlfn.XLOOKUP(E213&amp;I213,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L213" t="s">
+        <v>69</v>
+      </c>
+      <c r="M213" t="s">
+        <v>69</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" cm="1">
+        <f t="array" ref="O213">_xlfn.XLOOKUP(D213&amp;I213,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.6</v>
+      </c>
+      <c r="P213" cm="1">
+        <f t="array" ref="P213">_xlfn.XLOOKUP(D213&amp;I213,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.6</v>
+      </c>
+      <c r="Q213" cm="1">
+        <f t="array" ref="Q213">_xlfn.XLOOKUP(E213&amp;I213,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.2</v>
+      </c>
+      <c r="R213" cm="1">
+        <f t="array" ref="R213">_xlfn.XLOOKUP(E213&amp;I213,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="X213" cm="1">
+        <f t="array" ref="X213">_xlfn.XLOOKUP(D213&amp;I213,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y213" cm="1">
+        <f t="array" ref="Y213">_xlfn.XLOOKUP(D213&amp;I213,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z213" cm="1">
+        <f t="array" ref="Z213">_xlfn.XLOOKUP(E213&amp;I213,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA213" cm="1">
+        <f t="array" ref="AA213">_xlfn.XLOOKUP(E213&amp;I213,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C214" t="s">
+        <v>33</v>
+      </c>
+      <c r="D214" t="s">
+        <v>38</v>
+      </c>
+      <c r="E214" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>2022</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>11</v>
+      </c>
+      <c r="J214" cm="1">
+        <f t="array" ref="J214">_xlfn.XLOOKUP(D214&amp;I214,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>3</v>
+      </c>
+      <c r="K214" t="str" cm="1">
+        <f t="array" ref="K214">_xlfn.XLOOKUP(E214&amp;I214,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L214" t="s">
+        <v>64</v>
+      </c>
+      <c r="M214" t="s">
+        <v>64</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" cm="1">
+        <f t="array" ref="O214">_xlfn.XLOOKUP(D214&amp;I214,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.2</v>
+      </c>
+      <c r="P214" cm="1">
+        <f t="array" ref="P214">_xlfn.XLOOKUP(D214&amp;I214,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>12.1</v>
+      </c>
+      <c r="Q214" cm="1">
+        <f t="array" ref="Q214">_xlfn.XLOOKUP(E214&amp;I214,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.6</v>
+      </c>
+      <c r="R214" cm="1">
+        <f t="array" ref="R214">_xlfn.XLOOKUP(E214&amp;I214,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.4</v>
+      </c>
+      <c r="X214" cm="1">
+        <f t="array" ref="X214">_xlfn.XLOOKUP(D214&amp;I214,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y214" cm="1">
+        <f t="array" ref="Y214">_xlfn.XLOOKUP(D214&amp;I214,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z214" cm="1">
+        <f t="array" ref="Z214">_xlfn.XLOOKUP(E214&amp;I214,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA214" cm="1">
+        <f t="array" ref="AA214">_xlfn.XLOOKUP(E214&amp;I214,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B215" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C215" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" t="s">
+        <v>151</v>
+      </c>
+      <c r="E215" t="s">
+        <v>91</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>2022</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>11</v>
+      </c>
+      <c r="J215" cm="1">
+        <f t="array" ref="J215">_xlfn.XLOOKUP(D215&amp;I215,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>11</v>
+      </c>
+      <c r="K215" cm="1">
+        <f t="array" ref="K215">_xlfn.XLOOKUP(E215&amp;I215,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>9</v>
+      </c>
+      <c r="L215" t="s">
+        <v>70</v>
+      </c>
+      <c r="M215" t="s">
+        <v>70</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" cm="1">
+        <f t="array" ref="O215">_xlfn.XLOOKUP(D215&amp;I215,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>37.4</v>
+      </c>
+      <c r="P215" cm="1">
+        <f t="array" ref="P215">_xlfn.XLOOKUP(D215&amp;I215,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.6</v>
+      </c>
+      <c r="Q215" cm="1">
+        <f t="array" ref="Q215">_xlfn.XLOOKUP(E215&amp;I215,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41.8</v>
+      </c>
+      <c r="R215" cm="1">
+        <f t="array" ref="R215">_xlfn.XLOOKUP(E215&amp;I215,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.3</v>
+      </c>
+      <c r="X215" cm="1">
+        <f t="array" ref="X215">_xlfn.XLOOKUP(D215&amp;I215,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y215" cm="1">
+        <f t="array" ref="Y215">_xlfn.XLOOKUP(D215&amp;I215,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z215" cm="1">
+        <f t="array" ref="Z215">_xlfn.XLOOKUP(E215&amp;I215,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA215" cm="1">
+        <f t="array" ref="AA215">_xlfn.XLOOKUP(E215&amp;I215,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B216" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C216" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" t="s">
+        <v>34</v>
+      </c>
+      <c r="E216" t="s">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>2022</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>11</v>
+      </c>
+      <c r="J216" cm="1">
+        <f t="array" ref="J216">_xlfn.XLOOKUP(D216&amp;I216,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>14</v>
+      </c>
+      <c r="K216" t="str" cm="1">
+        <f t="array" ref="K216">_xlfn.XLOOKUP(E216&amp;I216,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L216" t="s">
+        <v>64</v>
+      </c>
+      <c r="M216" t="s">
+        <v>64</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="O216" cm="1">
+        <f t="array" ref="O216">_xlfn.XLOOKUP(D216&amp;I216,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.4</v>
+      </c>
+      <c r="P216" cm="1">
+        <f t="array" ref="P216">_xlfn.XLOOKUP(D216&amp;I216,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.1</v>
+      </c>
+      <c r="Q216" cm="1">
+        <f t="array" ref="Q216">_xlfn.XLOOKUP(E216&amp;I216,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.4</v>
+      </c>
+      <c r="R216" cm="1">
+        <f t="array" ref="R216">_xlfn.XLOOKUP(E216&amp;I216,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24</v>
+      </c>
+      <c r="X216" cm="1">
+        <f t="array" ref="X216">_xlfn.XLOOKUP(D216&amp;I216,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y216" cm="1">
+        <f t="array" ref="Y216">_xlfn.XLOOKUP(D216&amp;I216,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z216" cm="1">
+        <f t="array" ref="Z216">_xlfn.XLOOKUP(E216&amp;I216,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA216" cm="1">
+        <f t="array" ref="AA216">_xlfn.XLOOKUP(E216&amp;I216,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B217" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C217" t="s">
+        <v>47</v>
+      </c>
+      <c r="D217" t="s">
+        <v>173</v>
+      </c>
+      <c r="E217" t="s">
+        <v>88</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>2022</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>11</v>
+      </c>
+      <c r="J217" cm="1">
+        <f t="array" ref="J217">_xlfn.XLOOKUP(D217&amp;I217,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>17</v>
+      </c>
+      <c r="K217" cm="1">
+        <f t="array" ref="K217">_xlfn.XLOOKUP(E217&amp;I217,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>22</v>
+      </c>
+      <c r="L217" t="s">
+        <v>68</v>
+      </c>
+      <c r="M217" t="s">
+        <v>68</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" cm="1">
+        <f t="array" ref="O217">_xlfn.XLOOKUP(D217&amp;I217,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.9</v>
+      </c>
+      <c r="P217" cm="1">
+        <f t="array" ref="P217">_xlfn.XLOOKUP(D217&amp;I217,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Q217" cm="1">
+        <f t="array" ref="Q217">_xlfn.XLOOKUP(E217&amp;I217,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="R217" cm="1">
+        <f t="array" ref="R217">_xlfn.XLOOKUP(E217&amp;I217,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.8</v>
+      </c>
+      <c r="X217" cm="1">
+        <f t="array" ref="X217">_xlfn.XLOOKUP(D217&amp;I217,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y217" cm="1">
+        <f t="array" ref="Y217">_xlfn.XLOOKUP(D217&amp;I217,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z217" cm="1">
+        <f t="array" ref="Z217">_xlfn.XLOOKUP(E217&amp;I217,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA217" cm="1">
+        <f t="array" ref="AA217">_xlfn.XLOOKUP(E217&amp;I217,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B218" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C218" t="s">
+        <v>31</v>
+      </c>
+      <c r="D218" t="s">
+        <v>135</v>
+      </c>
+      <c r="E218" t="s">
+        <v>35</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>2022</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>11</v>
+      </c>
+      <c r="J218" t="str" cm="1">
+        <f t="array" ref="J218">_xlfn.XLOOKUP(D218&amp;I218,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K218" t="str" cm="1">
+        <f t="array" ref="K218">_xlfn.XLOOKUP(E218&amp;I218,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L218" t="s">
+        <v>64</v>
+      </c>
+      <c r="M218" t="s">
+        <v>64</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" cm="1">
+        <f t="array" ref="O218">_xlfn.XLOOKUP(D218&amp;I218,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>17.2</v>
+      </c>
+      <c r="P218" cm="1">
+        <f t="array" ref="P218">_xlfn.XLOOKUP(D218&amp;I218,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>14.3</v>
+      </c>
+      <c r="Q218" cm="1">
+        <f t="array" ref="Q218">_xlfn.XLOOKUP(E218&amp;I218,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.8</v>
+      </c>
+      <c r="R218" cm="1">
+        <f t="array" ref="R218">_xlfn.XLOOKUP(E218&amp;I218,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.6</v>
+      </c>
+      <c r="X218" cm="1">
+        <f t="array" ref="X218">_xlfn.XLOOKUP(D218&amp;I218,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y218" cm="1">
+        <f t="array" ref="Y218">_xlfn.XLOOKUP(D218&amp;I218,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z218" cm="1">
+        <f t="array" ref="Z218">_xlfn.XLOOKUP(E218&amp;I218,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA218" cm="1">
+        <f t="array" ref="AA218">_xlfn.XLOOKUP(E218&amp;I218,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B219" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C219" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" t="s">
+        <v>32</v>
+      </c>
+      <c r="E219" t="s">
+        <v>113</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>2022</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>11</v>
+      </c>
+      <c r="J219" cm="1">
+        <f t="array" ref="J219">_xlfn.XLOOKUP(D219&amp;I219,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K219" t="str" cm="1">
+        <f t="array" ref="K219">_xlfn.XLOOKUP(E219&amp;I219,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L219" t="s">
+        <v>70</v>
+      </c>
+      <c r="M219" t="s">
+        <v>70</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" cm="1">
+        <f t="array" ref="O219">_xlfn.XLOOKUP(D219&amp;I219,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.1</v>
+      </c>
+      <c r="P219" cm="1">
+        <f t="array" ref="P219">_xlfn.XLOOKUP(D219&amp;I219,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>10.8</v>
+      </c>
+      <c r="Q219" cm="1">
+        <f t="array" ref="Q219">_xlfn.XLOOKUP(E219&amp;I219,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.6</v>
+      </c>
+      <c r="R219" cm="1">
+        <f t="array" ref="R219">_xlfn.XLOOKUP(E219&amp;I219,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24</v>
+      </c>
+      <c r="X219" cm="1">
+        <f t="array" ref="X219">_xlfn.XLOOKUP(D219&amp;I219,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y219" cm="1">
+        <f t="array" ref="Y219">_xlfn.XLOOKUP(D219&amp;I219,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z219" cm="1">
+        <f t="array" ref="Z219">_xlfn.XLOOKUP(E219&amp;I219,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA219" cm="1">
+        <f t="array" ref="AA219">_xlfn.XLOOKUP(E219&amp;I219,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" t="s">
+        <v>49</v>
+      </c>
+      <c r="E220" t="s">
+        <v>181</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>2022</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>11</v>
+      </c>
+      <c r="J220" cm="1">
+        <f t="array" ref="J220">_xlfn.XLOOKUP(D220&amp;I220,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>6</v>
+      </c>
+      <c r="K220" cm="1">
+        <f t="array" ref="K220">_xlfn.XLOOKUP(E220&amp;I220,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>25</v>
+      </c>
+      <c r="L220" t="s">
+        <v>65</v>
+      </c>
+      <c r="M220" t="s">
+        <v>65</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" cm="1">
+        <f t="array" ref="O220">_xlfn.XLOOKUP(D220&amp;I220,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>43.1</v>
+      </c>
+      <c r="P220" cm="1">
+        <f t="array" ref="P220">_xlfn.XLOOKUP(D220&amp;I220,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.3</v>
+      </c>
+      <c r="Q220" cm="1">
+        <f t="array" ref="Q220">_xlfn.XLOOKUP(E220&amp;I220,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.6</v>
+      </c>
+      <c r="R220" cm="1">
+        <f t="array" ref="R220">_xlfn.XLOOKUP(E220&amp;I220,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.9</v>
+      </c>
+      <c r="X220" cm="1">
+        <f t="array" ref="X220">_xlfn.XLOOKUP(D220&amp;I220,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y220" cm="1">
+        <f t="array" ref="Y220">_xlfn.XLOOKUP(D220&amp;I220,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z220" cm="1">
+        <f t="array" ref="Z220">_xlfn.XLOOKUP(E220&amp;I220,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA220" cm="1">
+        <f t="array" ref="AA220">_xlfn.XLOOKUP(E220&amp;I220,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B221" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C221" t="s">
+        <v>31</v>
+      </c>
+      <c r="D221" t="s">
+        <v>98</v>
+      </c>
+      <c r="E221" t="s">
+        <v>93</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>2022</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>11</v>
+      </c>
+      <c r="J221" t="str" cm="1">
+        <f t="array" ref="J221">_xlfn.XLOOKUP(D221&amp;I221,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K221" cm="1">
+        <f t="array" ref="K221">_xlfn.XLOOKUP(E221&amp;I221,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>19</v>
+      </c>
+      <c r="L221" t="s">
+        <v>71</v>
+      </c>
+      <c r="M221" t="s">
+        <v>71</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" cm="1">
+        <f t="array" ref="O221">_xlfn.XLOOKUP(D221&amp;I221,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="P221" cm="1">
+        <f t="array" ref="P221">_xlfn.XLOOKUP(D221&amp;I221,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.6</v>
+      </c>
+      <c r="Q221" cm="1">
+        <f t="array" ref="Q221">_xlfn.XLOOKUP(E221&amp;I221,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.6</v>
+      </c>
+      <c r="R221" cm="1">
+        <f t="array" ref="R221">_xlfn.XLOOKUP(E221&amp;I221,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="X221" cm="1">
+        <f t="array" ref="X221">_xlfn.XLOOKUP(D221&amp;I221,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y221" cm="1">
+        <f t="array" ref="Y221">_xlfn.XLOOKUP(D221&amp;I221,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z221" cm="1">
+        <f t="array" ref="Z221">_xlfn.XLOOKUP(E221&amp;I221,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA221" cm="1">
+        <f t="array" ref="AA221">_xlfn.XLOOKUP(E221&amp;I221,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B222" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C222" t="s">
+        <v>33</v>
+      </c>
+      <c r="D222" t="s">
+        <v>90</v>
+      </c>
+      <c r="E222" t="s">
+        <v>168</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>2022</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>11</v>
+      </c>
+      <c r="J222" cm="1">
+        <f t="array" ref="J222">_xlfn.XLOOKUP(D222&amp;I222,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>18</v>
+      </c>
+      <c r="K222" cm="1">
+        <f t="array" ref="K222">_xlfn.XLOOKUP(E222&amp;I222,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>4</v>
+      </c>
+      <c r="L222" t="s">
+        <v>71</v>
+      </c>
+      <c r="M222" t="s">
+        <v>71</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" cm="1">
+        <f t="array" ref="O222">_xlfn.XLOOKUP(D222&amp;I222,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36.1</v>
+      </c>
+      <c r="P222" cm="1">
+        <f t="array" ref="P222">_xlfn.XLOOKUP(D222&amp;I222,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.8</v>
+      </c>
+      <c r="Q222" cm="1">
+        <f t="array" ref="Q222">_xlfn.XLOOKUP(E222&amp;I222,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>43.1</v>
+      </c>
+      <c r="R222" cm="1">
+        <f t="array" ref="R222">_xlfn.XLOOKUP(E222&amp;I222,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.9</v>
+      </c>
+      <c r="X222" cm="1">
+        <f t="array" ref="X222">_xlfn.XLOOKUP(D222&amp;I222,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y222" cm="1">
+        <f t="array" ref="Y222">_xlfn.XLOOKUP(D222&amp;I222,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z222" cm="1">
+        <f t="array" ref="Z222">_xlfn.XLOOKUP(E222&amp;I222,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA222" cm="1">
+        <f t="array" ref="AA222">_xlfn.XLOOKUP(E222&amp;I222,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B223" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C223" t="s">
+        <v>47</v>
+      </c>
+      <c r="D223" t="s">
+        <v>180</v>
+      </c>
+      <c r="E223" t="s">
+        <v>154</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>2022</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>11</v>
+      </c>
+      <c r="J223" t="str" cm="1">
+        <f t="array" ref="J223">_xlfn.XLOOKUP(D223&amp;I223,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K223" cm="1">
+        <f t="array" ref="K223">_xlfn.XLOOKUP(E223&amp;I223,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>15</v>
+      </c>
+      <c r="L223" t="s">
+        <v>69</v>
+      </c>
+      <c r="M223" t="s">
+        <v>69</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223" cm="1">
+        <f t="array" ref="O223">_xlfn.XLOOKUP(D223&amp;I223,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36.9</v>
+      </c>
+      <c r="P223" cm="1">
+        <f t="array" ref="P223">_xlfn.XLOOKUP(D223&amp;I223,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.3</v>
+      </c>
+      <c r="Q223" cm="1">
+        <f t="array" ref="Q223">_xlfn.XLOOKUP(E223&amp;I223,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.6</v>
+      </c>
+      <c r="R223" cm="1">
+        <f t="array" ref="R223">_xlfn.XLOOKUP(E223&amp;I223,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>31</v>
+      </c>
+      <c r="X223" cm="1">
+        <f t="array" ref="X223">_xlfn.XLOOKUP(D223&amp;I223,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y223" cm="1">
+        <f t="array" ref="Y223">_xlfn.XLOOKUP(D223&amp;I223,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z223" cm="1">
+        <f t="array" ref="Z223">_xlfn.XLOOKUP(E223&amp;I223,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA223" cm="1">
+        <f t="array" ref="AA223">_xlfn.XLOOKUP(E223&amp;I223,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C224" t="s">
+        <v>25</v>
+      </c>
+      <c r="D224" t="s">
+        <v>53</v>
+      </c>
+      <c r="E224" t="s">
+        <v>109</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>2022</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>11</v>
+      </c>
+      <c r="J224" cm="1">
+        <f t="array" ref="J224">_xlfn.XLOOKUP(D224&amp;I224,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>13</v>
+      </c>
+      <c r="K224" t="str" cm="1">
+        <f t="array" ref="K224">_xlfn.XLOOKUP(E224&amp;I224,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L224" t="s">
+        <v>65</v>
+      </c>
+      <c r="M224" t="s">
+        <v>65</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" cm="1">
+        <f t="array" ref="O224">_xlfn.XLOOKUP(D224&amp;I224,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39</v>
+      </c>
+      <c r="P224" cm="1">
+        <f t="array" ref="P224">_xlfn.XLOOKUP(D224&amp;I224,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.4</v>
+      </c>
+      <c r="Q224" cm="1">
+        <f t="array" ref="Q224">_xlfn.XLOOKUP(E224&amp;I224,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22.6</v>
+      </c>
+      <c r="R224" cm="1">
+        <f t="array" ref="R224">_xlfn.XLOOKUP(E224&amp;I224,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>31.3</v>
+      </c>
+      <c r="X224" cm="1">
+        <f t="array" ref="X224">_xlfn.XLOOKUP(D224&amp;I224,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y224" cm="1">
+        <f t="array" ref="Y224">_xlfn.XLOOKUP(D224&amp;I224,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z224" cm="1">
+        <f t="array" ref="Z224">_xlfn.XLOOKUP(E224&amp;I224,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA224" cm="1">
+        <f t="array" ref="AA224">_xlfn.XLOOKUP(E224&amp;I224,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C225" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" t="s">
+        <v>175</v>
+      </c>
+      <c r="E225" t="s">
+        <v>112</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>2022</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>11</v>
+      </c>
+      <c r="J225" cm="1">
+        <f t="array" ref="J225">_xlfn.XLOOKUP(D225&amp;I225,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>12</v>
+      </c>
+      <c r="K225" t="str" cm="1">
+        <f t="array" ref="K225">_xlfn.XLOOKUP(E225&amp;I225,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L225" t="s">
+        <v>65</v>
+      </c>
+      <c r="M225" t="s">
+        <v>65</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" cm="1">
+        <f t="array" ref="O225">_xlfn.XLOOKUP(D225&amp;I225,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="P225" cm="1">
+        <f t="array" ref="P225">_xlfn.XLOOKUP(D225&amp;I225,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.6</v>
+      </c>
+      <c r="Q225" cm="1">
+        <f t="array" ref="Q225">_xlfn.XLOOKUP(E225&amp;I225,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.9</v>
+      </c>
+      <c r="R225" cm="1">
+        <f t="array" ref="R225">_xlfn.XLOOKUP(E225&amp;I225,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="X225" cm="1">
+        <f t="array" ref="X225">_xlfn.XLOOKUP(D225&amp;I225,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y225" cm="1">
+        <f t="array" ref="Y225">_xlfn.XLOOKUP(D225&amp;I225,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z225" cm="1">
+        <f t="array" ref="Z225">_xlfn.XLOOKUP(E225&amp;I225,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA225" cm="1">
+        <f t="array" ref="AA225">_xlfn.XLOOKUP(E225&amp;I225,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B226" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C226" t="s">
+        <v>31</v>
+      </c>
+      <c r="D226" t="s">
+        <v>161</v>
+      </c>
+      <c r="E226" t="s">
+        <v>162</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>2022</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>11</v>
+      </c>
+      <c r="J226" t="str" cm="1">
+        <f t="array" ref="J226">_xlfn.XLOOKUP(D226&amp;I226,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K226" t="str" cm="1">
+        <f t="array" ref="K226">_xlfn.XLOOKUP(E226&amp;I226,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L226" t="s">
+        <v>66</v>
+      </c>
+      <c r="M226" t="s">
+        <v>66</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" cm="1">
+        <f t="array" ref="O226">_xlfn.XLOOKUP(D226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P226" cm="1">
+        <f t="array" ref="P226">_xlfn.XLOOKUP(D226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.3</v>
+      </c>
+      <c r="Q226" cm="1">
+        <f t="array" ref="Q226">_xlfn.XLOOKUP(E226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.1</v>
+      </c>
+      <c r="R226" cm="1">
+        <f t="array" ref="R226">_xlfn.XLOOKUP(E226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="X226" cm="1">
+        <f t="array" ref="X226">_xlfn.XLOOKUP(D226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y226" cm="1">
+        <f t="array" ref="Y226">_xlfn.XLOOKUP(D226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z226" cm="1">
+        <f t="array" ref="Z226">_xlfn.XLOOKUP(E226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA226" cm="1">
+        <f t="array" ref="AA226">_xlfn.XLOOKUP(E226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -18488,10 +20516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
-  <dimension ref="A1:F1178"/>
+  <dimension ref="A1:F1309"/>
   <sheetViews>
-    <sheetView topLeftCell="A1151" workbookViewId="0">
-      <selection activeCell="D1141" sqref="D1141"/>
+    <sheetView topLeftCell="A1251" workbookViewId="0">
+      <selection activeCell="B1253" sqref="B1253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42053,6 +44081,2626 @@
         <v>6</v>
       </c>
       <c r="F1178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1179">
+        <v>11</v>
+      </c>
+      <c r="C1179">
+        <v>28.9</v>
+      </c>
+      <c r="D1179">
+        <v>15.7</v>
+      </c>
+      <c r="E1179">
+        <v>6</v>
+      </c>
+      <c r="F1179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1180">
+        <v>11</v>
+      </c>
+      <c r="C1180">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D1180">
+        <v>37</v>
+      </c>
+      <c r="E1180">
+        <v>1</v>
+      </c>
+      <c r="F1180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1181">
+        <v>11</v>
+      </c>
+      <c r="C1181">
+        <v>41.8</v>
+      </c>
+      <c r="D1181">
+        <v>18.3</v>
+      </c>
+      <c r="E1181">
+        <v>7</v>
+      </c>
+      <c r="F1181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1182">
+        <v>11</v>
+      </c>
+      <c r="C1182">
+        <v>35.9</v>
+      </c>
+      <c r="D1182">
+        <v>25.3</v>
+      </c>
+      <c r="E1182">
+        <v>5</v>
+      </c>
+      <c r="F1182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1183">
+        <v>11</v>
+      </c>
+      <c r="C1183">
+        <v>30.9</v>
+      </c>
+      <c r="D1183">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E1183">
+        <v>3</v>
+      </c>
+      <c r="F1183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1184">
+        <v>11</v>
+      </c>
+      <c r="C1184">
+        <v>28.1</v>
+      </c>
+      <c r="D1184">
+        <v>31.1</v>
+      </c>
+      <c r="E1184">
+        <v>3</v>
+      </c>
+      <c r="F1184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1185">
+        <v>11</v>
+      </c>
+      <c r="C1185">
+        <v>32.1</v>
+      </c>
+      <c r="D1185">
+        <v>30.7</v>
+      </c>
+      <c r="E1185">
+        <v>5</v>
+      </c>
+      <c r="F1185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1186">
+        <v>11</v>
+      </c>
+      <c r="C1186">
+        <v>25.9</v>
+      </c>
+      <c r="D1186">
+        <v>31.1</v>
+      </c>
+      <c r="E1186">
+        <v>2</v>
+      </c>
+      <c r="F1186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1187">
+        <v>11</v>
+      </c>
+      <c r="C1187">
+        <v>29.5</v>
+      </c>
+      <c r="D1187">
+        <v>27.4</v>
+      </c>
+      <c r="E1187">
+        <v>3</v>
+      </c>
+      <c r="F1187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1188">
+        <v>11</v>
+      </c>
+      <c r="C1188">
+        <v>24</v>
+      </c>
+      <c r="D1188">
+        <v>30.9</v>
+      </c>
+      <c r="E1188">
+        <v>3</v>
+      </c>
+      <c r="F1188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1189">
+        <v>11</v>
+      </c>
+      <c r="C1189">
+        <v>24.8</v>
+      </c>
+      <c r="D1189">
+        <v>27.2</v>
+      </c>
+      <c r="E1189">
+        <v>5</v>
+      </c>
+      <c r="F1189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1190">
+        <v>11</v>
+      </c>
+      <c r="C1190">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D1190">
+        <v>24.6</v>
+      </c>
+      <c r="E1190">
+        <v>6</v>
+      </c>
+      <c r="F1190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1191">
+        <v>11</v>
+      </c>
+      <c r="C1191">
+        <v>28.8</v>
+      </c>
+      <c r="D1191">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E1191">
+        <v>6</v>
+      </c>
+      <c r="F1191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1192">
+        <v>11</v>
+      </c>
+      <c r="C1192">
+        <v>18.8</v>
+      </c>
+      <c r="D1192">
+        <v>29.8</v>
+      </c>
+      <c r="E1192">
+        <v>2</v>
+      </c>
+      <c r="F1192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1193">
+        <v>11</v>
+      </c>
+      <c r="C1193">
+        <v>24.9</v>
+      </c>
+      <c r="D1193">
+        <v>31.8</v>
+      </c>
+      <c r="E1193">
+        <v>5</v>
+      </c>
+      <c r="F1193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1194">
+        <v>11</v>
+      </c>
+      <c r="C1194">
+        <v>30.1</v>
+      </c>
+      <c r="D1194">
+        <v>27</v>
+      </c>
+      <c r="E1194">
+        <v>5</v>
+      </c>
+      <c r="F1194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1195">
+        <v>11</v>
+      </c>
+      <c r="C1195">
+        <v>29.6</v>
+      </c>
+      <c r="D1195">
+        <v>30.8</v>
+      </c>
+      <c r="E1195">
+        <v>5</v>
+      </c>
+      <c r="F1195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1196">
+        <v>11</v>
+      </c>
+      <c r="C1196">
+        <v>24.7</v>
+      </c>
+      <c r="D1196">
+        <v>26.8</v>
+      </c>
+      <c r="E1196">
+        <v>3</v>
+      </c>
+      <c r="F1196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1197">
+        <v>11</v>
+      </c>
+      <c r="C1197">
+        <v>26.3</v>
+      </c>
+      <c r="D1197">
+        <v>29</v>
+      </c>
+      <c r="E1197">
+        <v>3</v>
+      </c>
+      <c r="F1197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1198">
+        <v>11</v>
+      </c>
+      <c r="C1198">
+        <v>25.3</v>
+      </c>
+      <c r="D1198">
+        <v>42.8</v>
+      </c>
+      <c r="E1198">
+        <v>2</v>
+      </c>
+      <c r="F1198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1199">
+        <v>11</v>
+      </c>
+      <c r="C1199">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D1199">
+        <v>21</v>
+      </c>
+      <c r="E1199">
+        <v>7</v>
+      </c>
+      <c r="F1199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1200">
+        <v>11</v>
+      </c>
+      <c r="C1200">
+        <v>34.6</v>
+      </c>
+      <c r="D1200">
+        <v>21.6</v>
+      </c>
+      <c r="E1200">
+        <v>8</v>
+      </c>
+      <c r="F1200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1201">
+        <v>11</v>
+      </c>
+      <c r="C1201">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D1201">
+        <v>27.3</v>
+      </c>
+      <c r="E1201">
+        <v>8</v>
+      </c>
+      <c r="F1201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1202">
+        <v>11</v>
+      </c>
+      <c r="C1202">
+        <v>15.6</v>
+      </c>
+      <c r="D1202">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E1202">
+        <v>1</v>
+      </c>
+      <c r="F1202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1203">
+        <v>11</v>
+      </c>
+      <c r="C1203">
+        <v>12.9</v>
+      </c>
+      <c r="D1203">
+        <v>31.7</v>
+      </c>
+      <c r="E1203">
+        <v>2</v>
+      </c>
+      <c r="F1203">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1204">
+        <v>11</v>
+      </c>
+      <c r="C1204">
+        <v>18.5</v>
+      </c>
+      <c r="D1204">
+        <v>24.6</v>
+      </c>
+      <c r="E1204">
+        <v>5</v>
+      </c>
+      <c r="F1204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1205">
+        <v>11</v>
+      </c>
+      <c r="C1205">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D1205">
+        <v>23.1</v>
+      </c>
+      <c r="E1205">
+        <v>6</v>
+      </c>
+      <c r="F1205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1206">
+        <v>11</v>
+      </c>
+      <c r="C1206">
+        <v>32.6</v>
+      </c>
+      <c r="D1206">
+        <v>23.2</v>
+      </c>
+      <c r="E1206">
+        <v>6</v>
+      </c>
+      <c r="F1206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1207">
+        <v>11</v>
+      </c>
+      <c r="C1207">
+        <v>27</v>
+      </c>
+      <c r="D1207">
+        <v>30.2</v>
+      </c>
+      <c r="E1207">
+        <v>5</v>
+      </c>
+      <c r="F1207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1208">
+        <v>11</v>
+      </c>
+      <c r="C1208">
+        <v>31.2</v>
+      </c>
+      <c r="D1208">
+        <v>29.2</v>
+      </c>
+      <c r="E1208">
+        <v>5</v>
+      </c>
+      <c r="F1208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1209">
+        <v>11</v>
+      </c>
+      <c r="C1209">
+        <v>28.1</v>
+      </c>
+      <c r="D1209">
+        <v>25.7</v>
+      </c>
+      <c r="E1209">
+        <v>4</v>
+      </c>
+      <c r="F1209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1210">
+        <v>11</v>
+      </c>
+      <c r="C1210">
+        <v>20.3</v>
+      </c>
+      <c r="D1210">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E1210">
+        <v>4</v>
+      </c>
+      <c r="F1210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1211">
+        <v>11</v>
+      </c>
+      <c r="C1211">
+        <v>33.6</v>
+      </c>
+      <c r="D1211">
+        <v>19.8</v>
+      </c>
+      <c r="E1211">
+        <v>6</v>
+      </c>
+      <c r="F1211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1212">
+        <v>11</v>
+      </c>
+      <c r="C1212">
+        <v>29.2</v>
+      </c>
+      <c r="D1212">
+        <v>22.9</v>
+      </c>
+      <c r="E1212">
+        <v>5</v>
+      </c>
+      <c r="F1212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1213">
+        <v>11</v>
+      </c>
+      <c r="C1213">
+        <v>40.1</v>
+      </c>
+      <c r="D1213">
+        <v>10.8</v>
+      </c>
+      <c r="E1213">
+        <v>9</v>
+      </c>
+      <c r="F1213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1214">
+        <v>11</v>
+      </c>
+      <c r="C1214">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D1214">
+        <v>31.2</v>
+      </c>
+      <c r="E1214">
+        <v>5</v>
+      </c>
+      <c r="F1214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1215">
+        <v>11</v>
+      </c>
+      <c r="C1215">
+        <v>29.9</v>
+      </c>
+      <c r="D1215">
+        <v>30.3</v>
+      </c>
+      <c r="E1215">
+        <v>4</v>
+      </c>
+      <c r="F1215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1216">
+        <v>11</v>
+      </c>
+      <c r="C1216">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D1216">
+        <v>28</v>
+      </c>
+      <c r="E1216">
+        <v>4</v>
+      </c>
+      <c r="F1216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1217">
+        <v>11</v>
+      </c>
+      <c r="C1217">
+        <v>17.8</v>
+      </c>
+      <c r="D1217">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E1217">
+        <v>2</v>
+      </c>
+      <c r="F1217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1218">
+        <v>11</v>
+      </c>
+      <c r="C1218">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D1218">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E1218">
+        <v>5</v>
+      </c>
+      <c r="F1218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1219">
+        <v>11</v>
+      </c>
+      <c r="C1219">
+        <v>24.8</v>
+      </c>
+      <c r="D1219">
+        <v>10.4</v>
+      </c>
+      <c r="E1219">
+        <v>7</v>
+      </c>
+      <c r="F1219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1220">
+        <v>11</v>
+      </c>
+      <c r="C1220">
+        <v>23.3</v>
+      </c>
+      <c r="D1220">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E1220">
+        <v>3</v>
+      </c>
+      <c r="F1220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1221">
+        <v>11</v>
+      </c>
+      <c r="C1221">
+        <v>17.2</v>
+      </c>
+      <c r="D1221">
+        <v>14.3</v>
+      </c>
+      <c r="E1221">
+        <v>5</v>
+      </c>
+      <c r="F1221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1222">
+        <v>11</v>
+      </c>
+      <c r="C1222">
+        <v>22.7</v>
+      </c>
+      <c r="D1222">
+        <v>16.3</v>
+      </c>
+      <c r="E1222">
+        <v>4</v>
+      </c>
+      <c r="F1222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1223">
+        <v>11</v>
+      </c>
+      <c r="C1223">
+        <v>35.1</v>
+      </c>
+      <c r="D1223">
+        <v>22.5</v>
+      </c>
+      <c r="E1223">
+        <v>5</v>
+      </c>
+      <c r="F1223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1224">
+        <v>11</v>
+      </c>
+      <c r="C1224">
+        <v>37.9</v>
+      </c>
+      <c r="D1224">
+        <v>29</v>
+      </c>
+      <c r="E1224">
+        <v>6</v>
+      </c>
+      <c r="F1224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1225">
+        <v>11</v>
+      </c>
+      <c r="C1225">
+        <v>30.6</v>
+      </c>
+      <c r="D1225">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E1225">
+        <v>6</v>
+      </c>
+      <c r="F1225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1226">
+        <v>11</v>
+      </c>
+      <c r="C1226">
+        <v>27.4</v>
+      </c>
+      <c r="D1226">
+        <v>31.6</v>
+      </c>
+      <c r="E1226">
+        <v>3</v>
+      </c>
+      <c r="F1226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1227">
+        <v>11</v>
+      </c>
+      <c r="C1227">
+        <v>23.6</v>
+      </c>
+      <c r="D1227">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E1227">
+        <v>6</v>
+      </c>
+      <c r="F1227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1228">
+        <v>11</v>
+      </c>
+      <c r="C1228">
+        <v>30</v>
+      </c>
+      <c r="D1228">
+        <v>21.2</v>
+      </c>
+      <c r="E1228">
+        <v>8</v>
+      </c>
+      <c r="F1228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1229">
+        <v>11</v>
+      </c>
+      <c r="C1229">
+        <v>32.6</v>
+      </c>
+      <c r="D1229">
+        <v>37.9</v>
+      </c>
+      <c r="E1229">
+        <v>3</v>
+      </c>
+      <c r="F1229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1230">
+        <v>11</v>
+      </c>
+      <c r="C1230">
+        <v>25.6</v>
+      </c>
+      <c r="D1230">
+        <v>21.7</v>
+      </c>
+      <c r="E1230">
+        <v>4</v>
+      </c>
+      <c r="F1230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1231">
+        <v>11</v>
+      </c>
+      <c r="C1231">
+        <v>23.4</v>
+      </c>
+      <c r="D1231">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E1231">
+        <v>3</v>
+      </c>
+      <c r="F1231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1232">
+        <v>11</v>
+      </c>
+      <c r="C1232">
+        <v>30.2</v>
+      </c>
+      <c r="D1232">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E1232">
+        <v>6</v>
+      </c>
+      <c r="F1232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1233">
+        <v>11</v>
+      </c>
+      <c r="C1233">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D1233">
+        <v>22.2</v>
+      </c>
+      <c r="E1233">
+        <v>7</v>
+      </c>
+      <c r="F1233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1234">
+        <v>11</v>
+      </c>
+      <c r="C1234">
+        <v>23.4</v>
+      </c>
+      <c r="D1234">
+        <v>15.6</v>
+      </c>
+      <c r="E1234">
+        <v>5</v>
+      </c>
+      <c r="F1234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1235">
+        <v>11</v>
+      </c>
+      <c r="C1235">
+        <v>31.4</v>
+      </c>
+      <c r="D1235">
+        <v>24</v>
+      </c>
+      <c r="E1235">
+        <v>6</v>
+      </c>
+      <c r="F1235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1236">
+        <v>11</v>
+      </c>
+      <c r="C1236">
+        <v>11.9</v>
+      </c>
+      <c r="D1236">
+        <v>30.4</v>
+      </c>
+      <c r="E1236">
+        <v>1</v>
+      </c>
+      <c r="F1236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1237">
+        <v>11</v>
+      </c>
+      <c r="C1237">
+        <v>33.9</v>
+      </c>
+      <c r="D1237">
+        <v>31.6</v>
+      </c>
+      <c r="E1237">
+        <v>4</v>
+      </c>
+      <c r="F1237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1238">
+        <v>11</v>
+      </c>
+      <c r="C1238">
+        <v>24.7</v>
+      </c>
+      <c r="D1238">
+        <v>25</v>
+      </c>
+      <c r="E1238">
+        <v>4</v>
+      </c>
+      <c r="F1238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1239">
+        <v>11</v>
+      </c>
+      <c r="C1239">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D1239">
+        <v>21.4</v>
+      </c>
+      <c r="E1239">
+        <v>4</v>
+      </c>
+      <c r="F1239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1240">
+        <v>11</v>
+      </c>
+      <c r="C1240">
+        <v>42.2</v>
+      </c>
+      <c r="D1240">
+        <v>12.1</v>
+      </c>
+      <c r="E1240">
+        <v>9</v>
+      </c>
+      <c r="F1240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1241">
+        <v>11</v>
+      </c>
+      <c r="C1241">
+        <v>24.3</v>
+      </c>
+      <c r="D1241">
+        <v>26</v>
+      </c>
+      <c r="E1241">
+        <v>4</v>
+      </c>
+      <c r="F1241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1242">
+        <v>11</v>
+      </c>
+      <c r="C1242">
+        <v>27.1</v>
+      </c>
+      <c r="D1242">
+        <v>30.4</v>
+      </c>
+      <c r="E1242">
+        <v>4</v>
+      </c>
+      <c r="F1242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1243">
+        <v>11</v>
+      </c>
+      <c r="C1243">
+        <v>30.6</v>
+      </c>
+      <c r="D1243">
+        <v>14.2</v>
+      </c>
+      <c r="E1243">
+        <v>6</v>
+      </c>
+      <c r="F1243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1244">
+        <v>11</v>
+      </c>
+      <c r="C1244">
+        <v>37.4</v>
+      </c>
+      <c r="D1244">
+        <v>21.6</v>
+      </c>
+      <c r="E1244">
+        <v>8</v>
+      </c>
+      <c r="F1244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1245">
+        <v>11</v>
+      </c>
+      <c r="C1245">
+        <v>32.6</v>
+      </c>
+      <c r="D1245">
+        <v>24</v>
+      </c>
+      <c r="E1245">
+        <v>6</v>
+      </c>
+      <c r="F1245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1246">
+        <v>11</v>
+      </c>
+      <c r="C1246">
+        <v>23.1</v>
+      </c>
+      <c r="D1246">
+        <v>21.4</v>
+      </c>
+      <c r="E1246">
+        <v>4</v>
+      </c>
+      <c r="F1246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1247">
+        <v>11</v>
+      </c>
+      <c r="C1247">
+        <v>21.9</v>
+      </c>
+      <c r="D1247">
+        <v>24.8</v>
+      </c>
+      <c r="E1247">
+        <v>3</v>
+      </c>
+      <c r="F1247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1248">
+        <v>11</v>
+      </c>
+      <c r="C1248">
+        <v>25.6</v>
+      </c>
+      <c r="D1248">
+        <v>29.4</v>
+      </c>
+      <c r="E1248">
+        <v>3</v>
+      </c>
+      <c r="F1248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1249">
+        <v>11</v>
+      </c>
+      <c r="C1249">
+        <v>20.8</v>
+      </c>
+      <c r="D1249">
+        <v>29.1</v>
+      </c>
+      <c r="E1249">
+        <v>2</v>
+      </c>
+      <c r="F1249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1250">
+        <v>11</v>
+      </c>
+      <c r="C1250">
+        <v>16</v>
+      </c>
+      <c r="D1250">
+        <v>25.1</v>
+      </c>
+      <c r="E1250">
+        <v>2</v>
+      </c>
+      <c r="F1250">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1251">
+        <v>11</v>
+      </c>
+      <c r="C1251">
+        <v>16</v>
+      </c>
+      <c r="D1251">
+        <v>27</v>
+      </c>
+      <c r="E1251">
+        <v>3</v>
+      </c>
+      <c r="F1251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1252">
+        <v>11</v>
+      </c>
+      <c r="C1252">
+        <v>40.6</v>
+      </c>
+      <c r="D1252">
+        <v>31</v>
+      </c>
+      <c r="E1252">
+        <v>8</v>
+      </c>
+      <c r="F1252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1253">
+        <v>11</v>
+      </c>
+      <c r="C1253">
+        <v>27.1</v>
+      </c>
+      <c r="D1253">
+        <v>17.8</v>
+      </c>
+      <c r="E1253">
+        <v>7</v>
+      </c>
+      <c r="F1253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1254">
+        <v>11</v>
+      </c>
+      <c r="C1254">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D1254">
+        <v>30.3</v>
+      </c>
+      <c r="E1254">
+        <v>6</v>
+      </c>
+      <c r="F1254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1255">
+        <v>11</v>
+      </c>
+      <c r="C1255">
+        <v>29.8</v>
+      </c>
+      <c r="D1255">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E1255">
+        <v>2</v>
+      </c>
+      <c r="F1255">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1256">
+        <v>11</v>
+      </c>
+      <c r="C1256">
+        <v>16.7</v>
+      </c>
+      <c r="D1256">
+        <v>27.9</v>
+      </c>
+      <c r="E1256">
+        <v>1</v>
+      </c>
+      <c r="F1256">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1257">
+        <v>11</v>
+      </c>
+      <c r="C1257">
+        <v>29.1</v>
+      </c>
+      <c r="D1257">
+        <v>21.2</v>
+      </c>
+      <c r="E1257">
+        <v>6</v>
+      </c>
+      <c r="F1257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1258">
+        <v>11</v>
+      </c>
+      <c r="C1258">
+        <v>33.4</v>
+      </c>
+      <c r="D1258">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E1258">
+        <v>6</v>
+      </c>
+      <c r="F1258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1259">
+        <v>11</v>
+      </c>
+      <c r="C1259">
+        <v>45.8</v>
+      </c>
+      <c r="D1259">
+        <v>15.8</v>
+      </c>
+      <c r="E1259">
+        <v>9</v>
+      </c>
+      <c r="F1259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1260">
+        <v>11</v>
+      </c>
+      <c r="C1260">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D1260">
+        <v>29.8</v>
+      </c>
+      <c r="E1260">
+        <v>5</v>
+      </c>
+      <c r="F1260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1261">
+        <v>11</v>
+      </c>
+      <c r="C1261">
+        <v>36.6</v>
+      </c>
+      <c r="D1261">
+        <v>31.8</v>
+      </c>
+      <c r="E1261">
+        <v>6</v>
+      </c>
+      <c r="F1261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1262">
+        <v>11</v>
+      </c>
+      <c r="C1262">
+        <v>21.9</v>
+      </c>
+      <c r="D1262">
+        <v>25.3</v>
+      </c>
+      <c r="E1262">
+        <v>3</v>
+      </c>
+      <c r="F1262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1263">
+        <v>11</v>
+      </c>
+      <c r="C1263">
+        <v>43.1</v>
+      </c>
+      <c r="D1263">
+        <v>26.3</v>
+      </c>
+      <c r="E1263">
+        <v>8</v>
+      </c>
+      <c r="F1263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1264">
+        <v>11</v>
+      </c>
+      <c r="C1264">
+        <v>31.3</v>
+      </c>
+      <c r="D1264">
+        <v>22.9</v>
+      </c>
+      <c r="E1264">
+        <v>6</v>
+      </c>
+      <c r="F1264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1265">
+        <v>11</v>
+      </c>
+      <c r="C1265">
+        <v>34.4</v>
+      </c>
+      <c r="D1265">
+        <v>21.1</v>
+      </c>
+      <c r="E1265">
+        <v>7</v>
+      </c>
+      <c r="F1265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1266">
+        <v>11</v>
+      </c>
+      <c r="C1266">
+        <v>29.2</v>
+      </c>
+      <c r="D1266">
+        <v>25.8</v>
+      </c>
+      <c r="E1266">
+        <v>5</v>
+      </c>
+      <c r="F1266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1267">
+        <v>11</v>
+      </c>
+      <c r="C1267">
+        <v>29.4</v>
+      </c>
+      <c r="D1267">
+        <v>25.3</v>
+      </c>
+      <c r="E1267">
+        <v>5</v>
+      </c>
+      <c r="F1267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1268">
+        <v>11</v>
+      </c>
+      <c r="C1268">
+        <v>30</v>
+      </c>
+      <c r="D1268">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E1268">
+        <v>5</v>
+      </c>
+      <c r="F1268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1269">
+        <v>11</v>
+      </c>
+      <c r="C1269">
+        <v>19.8</v>
+      </c>
+      <c r="D1269">
+        <v>25.8</v>
+      </c>
+      <c r="E1269">
+        <v>4</v>
+      </c>
+      <c r="F1269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1270">
+        <v>11</v>
+      </c>
+      <c r="C1270">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D1270">
+        <v>21.3</v>
+      </c>
+      <c r="E1270">
+        <v>5</v>
+      </c>
+      <c r="F1270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1271">
+        <v>11</v>
+      </c>
+      <c r="C1271">
+        <v>27.1</v>
+      </c>
+      <c r="D1271">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E1271">
+        <v>6</v>
+      </c>
+      <c r="F1271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1272">
+        <v>11</v>
+      </c>
+      <c r="C1272">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D1272">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E1272">
+        <v>5</v>
+      </c>
+      <c r="F1272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1273">
+        <v>11</v>
+      </c>
+      <c r="C1273">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D1273">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E1273">
+        <v>7</v>
+      </c>
+      <c r="F1273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1274">
+        <v>11</v>
+      </c>
+      <c r="C1274">
+        <v>31.1</v>
+      </c>
+      <c r="D1274">
+        <v>24.9</v>
+      </c>
+      <c r="E1274">
+        <v>6</v>
+      </c>
+      <c r="F1274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1275">
+        <v>11</v>
+      </c>
+      <c r="C1275">
+        <v>25.8</v>
+      </c>
+      <c r="D1275">
+        <v>39.9</v>
+      </c>
+      <c r="E1275">
+        <v>1</v>
+      </c>
+      <c r="F1275">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1276">
+        <v>11</v>
+      </c>
+      <c r="C1276">
+        <v>25.3</v>
+      </c>
+      <c r="D1276">
+        <v>24.3</v>
+      </c>
+      <c r="E1276">
+        <v>5</v>
+      </c>
+      <c r="F1276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1277">
+        <v>11</v>
+      </c>
+      <c r="C1277">
+        <v>22.6</v>
+      </c>
+      <c r="D1277">
+        <v>31.3</v>
+      </c>
+      <c r="E1277">
+        <v>3</v>
+      </c>
+      <c r="F1277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1278">
+        <v>11</v>
+      </c>
+      <c r="C1278">
+        <v>30</v>
+      </c>
+      <c r="D1278">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E1278">
+        <v>6</v>
+      </c>
+      <c r="F1278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1279">
+        <v>11</v>
+      </c>
+      <c r="C1279">
+        <v>43.1</v>
+      </c>
+      <c r="D1279">
+        <v>26.9</v>
+      </c>
+      <c r="E1279">
+        <v>9</v>
+      </c>
+      <c r="F1279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1280">
+        <v>11</v>
+      </c>
+      <c r="C1280">
+        <v>19.8</v>
+      </c>
+      <c r="D1280">
+        <v>26.2</v>
+      </c>
+      <c r="E1280">
+        <v>3</v>
+      </c>
+      <c r="F1280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1281">
+        <v>11</v>
+      </c>
+      <c r="C1281">
+        <v>45.3</v>
+      </c>
+      <c r="D1281">
+        <v>21.7</v>
+      </c>
+      <c r="E1281">
+        <v>8</v>
+      </c>
+      <c r="F1281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1282">
+        <v>11</v>
+      </c>
+      <c r="C1282">
+        <v>36.1</v>
+      </c>
+      <c r="D1282">
+        <v>21.8</v>
+      </c>
+      <c r="E1282">
+        <v>6</v>
+      </c>
+      <c r="F1282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1283">
+        <v>11</v>
+      </c>
+      <c r="C1283">
+        <v>22.8</v>
+      </c>
+      <c r="D1283">
+        <v>23.9</v>
+      </c>
+      <c r="E1283">
+        <v>3</v>
+      </c>
+      <c r="F1283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1284">
+        <v>11</v>
+      </c>
+      <c r="C1284">
+        <v>22.6</v>
+      </c>
+      <c r="D1284">
+        <v>24.9</v>
+      </c>
+      <c r="E1284">
+        <v>3</v>
+      </c>
+      <c r="F1284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1285">
+        <v>11</v>
+      </c>
+      <c r="C1285">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D1285">
+        <v>29.8</v>
+      </c>
+      <c r="E1285">
+        <v>4</v>
+      </c>
+      <c r="F1285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1286">
+        <v>11</v>
+      </c>
+      <c r="C1286">
+        <v>35.9</v>
+      </c>
+      <c r="D1286">
+        <v>26.9</v>
+      </c>
+      <c r="E1286">
+        <v>6</v>
+      </c>
+      <c r="F1286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1287">
+        <v>11</v>
+      </c>
+      <c r="C1287">
+        <v>22.6</v>
+      </c>
+      <c r="D1287">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E1287">
+        <v>7</v>
+      </c>
+      <c r="F1287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1288">
+        <v>11</v>
+      </c>
+      <c r="C1288">
+        <v>32.9</v>
+      </c>
+      <c r="D1288">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E1288">
+        <v>8</v>
+      </c>
+      <c r="F1288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1289">
+        <v>11</v>
+      </c>
+      <c r="C1289">
+        <v>30.2</v>
+      </c>
+      <c r="D1289">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E1289">
+        <v>3</v>
+      </c>
+      <c r="F1289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1290">
+        <v>11</v>
+      </c>
+      <c r="C1290">
+        <v>31</v>
+      </c>
+      <c r="D1290">
+        <v>21.3</v>
+      </c>
+      <c r="E1290">
+        <v>4</v>
+      </c>
+      <c r="F1290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1291">
+        <v>11</v>
+      </c>
+      <c r="C1291">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D1291">
+        <v>18.8</v>
+      </c>
+      <c r="E1291">
+        <v>7</v>
+      </c>
+      <c r="F1291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1292">
+        <v>11</v>
+      </c>
+      <c r="C1292">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D1292">
+        <v>25.6</v>
+      </c>
+      <c r="E1292">
+        <v>8</v>
+      </c>
+      <c r="F1292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1293">
+        <v>11</v>
+      </c>
+      <c r="C1293">
+        <v>26</v>
+      </c>
+      <c r="D1293">
+        <v>28</v>
+      </c>
+      <c r="E1293">
+        <v>4</v>
+      </c>
+      <c r="F1293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1294">
+        <v>11</v>
+      </c>
+      <c r="C1294">
+        <v>41</v>
+      </c>
+      <c r="D1294">
+        <v>25.2</v>
+      </c>
+      <c r="E1294">
+        <v>8</v>
+      </c>
+      <c r="F1294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1295">
+        <v>11</v>
+      </c>
+      <c r="C1295">
+        <v>39</v>
+      </c>
+      <c r="D1295">
+        <v>21.4</v>
+      </c>
+      <c r="E1295">
+        <v>7</v>
+      </c>
+      <c r="F1295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1296">
+        <v>11</v>
+      </c>
+      <c r="C1296">
+        <v>20</v>
+      </c>
+      <c r="D1296">
+        <v>28.9</v>
+      </c>
+      <c r="E1296">
+        <v>4</v>
+      </c>
+      <c r="F1296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1297">
+        <v>11</v>
+      </c>
+      <c r="C1297">
+        <v>22.2</v>
+      </c>
+      <c r="D1297">
+        <v>28.4</v>
+      </c>
+      <c r="E1297">
+        <v>4</v>
+      </c>
+      <c r="F1297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1298">
+        <v>11</v>
+      </c>
+      <c r="C1298">
+        <v>36.6</v>
+      </c>
+      <c r="D1298">
+        <v>30.3</v>
+      </c>
+      <c r="E1298">
+        <v>7</v>
+      </c>
+      <c r="F1298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1299">
+        <v>11</v>
+      </c>
+      <c r="C1299">
+        <v>26.7</v>
+      </c>
+      <c r="D1299">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E1299">
+        <v>3</v>
+      </c>
+      <c r="F1299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1300">
+        <v>11</v>
+      </c>
+      <c r="C1300">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D1300">
+        <v>22.6</v>
+      </c>
+      <c r="E1300">
+        <v>3</v>
+      </c>
+      <c r="F1300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1301">
+        <v>11</v>
+      </c>
+      <c r="C1301">
+        <v>20.2</v>
+      </c>
+      <c r="D1301">
+        <v>25.1</v>
+      </c>
+      <c r="E1301">
+        <v>2</v>
+      </c>
+      <c r="F1301">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1302">
+        <v>11</v>
+      </c>
+      <c r="C1302">
+        <v>36.9</v>
+      </c>
+      <c r="D1302">
+        <v>27.3</v>
+      </c>
+      <c r="E1302">
+        <v>6</v>
+      </c>
+      <c r="F1302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1303">
+        <v>11</v>
+      </c>
+      <c r="C1303">
+        <v>38.6</v>
+      </c>
+      <c r="D1303">
+        <v>26.9</v>
+      </c>
+      <c r="E1303">
+        <v>7</v>
+      </c>
+      <c r="F1303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1304">
+        <v>11</v>
+      </c>
+      <c r="C1304">
+        <v>26.8</v>
+      </c>
+      <c r="D1304">
+        <v>20</v>
+      </c>
+      <c r="E1304">
+        <v>5</v>
+      </c>
+      <c r="F1304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1305">
+        <v>11</v>
+      </c>
+      <c r="C1305">
+        <v>32.1</v>
+      </c>
+      <c r="D1305">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E1305">
+        <v>3</v>
+      </c>
+      <c r="F1305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1306">
+        <v>11</v>
+      </c>
+      <c r="C1306">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D1306">
+        <v>22.3</v>
+      </c>
+      <c r="E1306">
+        <v>6</v>
+      </c>
+      <c r="F1306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1307">
+        <v>11</v>
+      </c>
+      <c r="C1307">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D1307">
+        <v>26.8</v>
+      </c>
+      <c r="E1307">
+        <v>3</v>
+      </c>
+      <c r="F1307">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1308">
+        <v>11</v>
+      </c>
+      <c r="C1308">
+        <v>30.8</v>
+      </c>
+      <c r="D1308">
+        <v>20.6</v>
+      </c>
+      <c r="E1308">
+        <v>5</v>
+      </c>
+      <c r="F1308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1309">
+        <v>11</v>
+      </c>
+      <c r="C1309">
+        <v>24.2</v>
+      </c>
+      <c r="D1309">
+        <v>24.2</v>
+      </c>
+      <c r="E1309">
+        <v>6</v>
+      </c>
+      <c r="F1309">
         <v>3</v>
       </c>
     </row>
@@ -42064,10 +46712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:B226"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227:B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44556,6 +49204,281 @@
       </c>
       <c r="C226" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>11</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>11</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>11</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>11</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>11</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>11</v>
+      </c>
+      <c r="B232">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>11</v>
+      </c>
+      <c r="B233">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>11</v>
+      </c>
+      <c r="B234">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>11</v>
+      </c>
+      <c r="B235">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>11</v>
+      </c>
+      <c r="B236">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>11</v>
+      </c>
+      <c r="B237">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>11</v>
+      </c>
+      <c r="B238">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>11</v>
+      </c>
+      <c r="B239">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>11</v>
+      </c>
+      <c r="B240">
+        <v>14</v>
+      </c>
+      <c r="C240" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>11</v>
+      </c>
+      <c r="B241">
+        <v>15</v>
+      </c>
+      <c r="C241" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>11</v>
+      </c>
+      <c r="B242">
+        <v>16</v>
+      </c>
+      <c r="C242" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>11</v>
+      </c>
+      <c r="B243">
+        <v>17</v>
+      </c>
+      <c r="C243" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>11</v>
+      </c>
+      <c r="B244">
+        <v>18</v>
+      </c>
+      <c r="C244" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>11</v>
+      </c>
+      <c r="B245">
+        <v>19</v>
+      </c>
+      <c r="C245" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>11</v>
+      </c>
+      <c r="B246">
+        <v>20</v>
+      </c>
+      <c r="C246" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>11</v>
+      </c>
+      <c r="B247">
+        <v>21</v>
+      </c>
+      <c r="C247" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>11</v>
+      </c>
+      <c r="B248">
+        <v>22</v>
+      </c>
+      <c r="C248" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>11</v>
+      </c>
+      <c r="B249">
+        <v>23</v>
+      </c>
+      <c r="C249" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>11</v>
+      </c>
+      <c r="B250">
+        <v>24</v>
+      </c>
+      <c r="C250" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>11</v>
+      </c>
+      <c r="B251">
+        <v>25</v>
+      </c>
+      <c r="C251" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF89696-5EB2-FB49-9E95-7719B213587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3EEEE-71F3-2C45-8D7C-F29D029C816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="14680" windowWidth="37240" windowHeight="10280" activeTab="2" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="1200" yWindow="14680" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -991,9 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A184" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F201" sqref="F201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="760" topLeftCell="A183" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17248,7 +17248,7 @@
         <v>106</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1230000</v>
       </c>
       <c r="G185">
         <v>2022</v>
@@ -46714,7 +46714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
   <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+    <sheetView topLeftCell="A240" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:B251"/>
     </sheetView>
   </sheetViews>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3EEEE-71F3-2C45-8D7C-F29D029C816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F7090-9D9E-9D4C-AB30-A279B89068AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="14680" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="71040" yWindow="15740" windowWidth="37240" windowHeight="10280" activeTab="2" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="189">
   <si>
     <t>Time</t>
   </si>
@@ -670,11 +670,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,11 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
-  <dimension ref="A1:AA226"/>
+  <dimension ref="A1:AA250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A183" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F186" sqref="F186"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="760" topLeftCell="A245" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18015,7 +18014,7 @@
       <c r="A195" s="1">
         <v>44870</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="C195" t="s">
@@ -18496,7 +18495,7 @@
         <v>157</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>258000</v>
       </c>
       <c r="G201">
         <v>2022</v>
@@ -18574,7 +18573,7 @@
         <v>123</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>482000</v>
       </c>
       <c r="G202">
         <v>2022</v>
@@ -18652,7 +18651,7 @@
         <v>126</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="G203">
         <v>2022</v>
@@ -18730,7 +18729,7 @@
         <v>55</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>574000</v>
       </c>
       <c r="G204">
         <v>2022</v>
@@ -18808,7 +18807,7 @@
         <v>28</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>803000</v>
       </c>
       <c r="G205">
         <v>2022</v>
@@ -18886,7 +18885,7 @@
         <v>107</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>525000</v>
       </c>
       <c r="G206">
         <v>2022</v>
@@ -18964,7 +18963,7 @@
         <v>94</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>3006000</v>
       </c>
       <c r="G207">
         <v>2022</v>
@@ -19042,7 +19041,7 @@
         <v>41</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>3339000</v>
       </c>
       <c r="G208">
         <v>2022</v>
@@ -19120,7 +19119,7 @@
         <v>114</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>3571000</v>
       </c>
       <c r="G209">
         <v>2022</v>
@@ -19198,7 +19197,7 @@
         <v>43</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>835000</v>
       </c>
       <c r="G210">
         <v>2022</v>
@@ -19276,7 +19275,7 @@
         <v>36</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>956000</v>
       </c>
       <c r="G211">
         <v>2022</v>
@@ -19354,7 +19353,7 @@
         <v>46</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>2070000</v>
       </c>
       <c r="G212">
         <v>2022</v>
@@ -19432,7 +19431,7 @@
         <v>89</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>1349000</v>
       </c>
       <c r="G213">
         <v>2022</v>
@@ -19510,7 +19509,7 @@
         <v>22</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>3876000</v>
       </c>
       <c r="G214">
         <v>2022</v>
@@ -19588,7 +19587,7 @@
         <v>91</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>8706000</v>
       </c>
       <c r="G215">
         <v>2022</v>
@@ -19666,7 +19665,7 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1881000</v>
       </c>
       <c r="G216">
         <v>2022</v>
@@ -19744,7 +19743,7 @@
         <v>88</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>368000</v>
       </c>
       <c r="G217">
         <v>2022</v>
@@ -19822,7 +19821,7 @@
         <v>35</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1086000</v>
       </c>
       <c r="G218">
         <v>2022</v>
@@ -19900,7 +19899,7 @@
         <v>113</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>3344000</v>
       </c>
       <c r="G219">
         <v>2022</v>
@@ -19978,7 +19977,7 @@
         <v>181</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>3634000</v>
       </c>
       <c r="G220">
         <v>2022</v>
@@ -20056,7 +20055,7 @@
         <v>93</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>528000</v>
       </c>
       <c r="G221">
         <v>2022</v>
@@ -20134,7 +20133,7 @@
         <v>168</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>5034000</v>
       </c>
       <c r="G222">
         <v>2022</v>
@@ -20212,7 +20211,7 @@
         <v>154</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>610000</v>
       </c>
       <c r="G223">
         <v>2022</v>
@@ -20290,7 +20289,7 @@
         <v>109</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1036000</v>
       </c>
       <c r="G224">
         <v>2022</v>
@@ -20368,7 +20367,7 @@
         <v>112</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1859000</v>
       </c>
       <c r="G225">
         <v>2022</v>
@@ -20446,7 +20445,7 @@
         <v>162</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>146000</v>
       </c>
       <c r="G226">
         <v>2022</v>
@@ -20504,6 +20503,1878 @@
       </c>
       <c r="AA226" cm="1">
         <f t="array" ref="AA226">_xlfn.XLOOKUP(E226&amp;I226,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B227" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C227" t="s">
+        <v>47</v>
+      </c>
+      <c r="D227" t="s">
+        <v>123</v>
+      </c>
+      <c r="E227" t="s">
+        <v>157</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>2022</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>12</v>
+      </c>
+      <c r="J227" t="str" cm="1">
+        <f t="array" ref="J227">_xlfn.XLOOKUP(D227&amp;I227,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K227" t="str" cm="1">
+        <f t="array" ref="K227">_xlfn.XLOOKUP(E227&amp;I227,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L227" t="s">
+        <v>72</v>
+      </c>
+      <c r="M227" t="s">
+        <v>72</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" cm="1">
+        <f t="array" ref="O227">_xlfn.XLOOKUP(D227&amp;I227,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.4</v>
+      </c>
+      <c r="P227" cm="1">
+        <f t="array" ref="P227">_xlfn.XLOOKUP(D227&amp;I227,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.3</v>
+      </c>
+      <c r="Q227" cm="1">
+        <f t="array" ref="Q227">_xlfn.XLOOKUP(E227&amp;I227,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="R227" cm="1">
+        <f t="array" ref="R227">_xlfn.XLOOKUP(E227&amp;I227,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>32</v>
+      </c>
+      <c r="X227" cm="1">
+        <f t="array" ref="X227">_xlfn.XLOOKUP(D227&amp;I227,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y227" cm="1">
+        <f t="array" ref="Y227">_xlfn.XLOOKUP(D227&amp;I227,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z227" cm="1">
+        <f t="array" ref="Z227">_xlfn.XLOOKUP(E227&amp;I227,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA227" cm="1">
+        <f t="array" ref="AA227">_xlfn.XLOOKUP(E227&amp;I227,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B228" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C228" t="s">
+        <v>47</v>
+      </c>
+      <c r="D228" t="s">
+        <v>139</v>
+      </c>
+      <c r="E228" t="s">
+        <v>130</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>2022</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>12</v>
+      </c>
+      <c r="J228" t="str" cm="1">
+        <f t="array" ref="J228">_xlfn.XLOOKUP(D228&amp;I228,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K228" t="str" cm="1">
+        <f t="array" ref="K228">_xlfn.XLOOKUP(E228&amp;I228,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L228" t="s">
+        <v>72</v>
+      </c>
+      <c r="M228" t="s">
+        <v>72</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" cm="1">
+        <f t="array" ref="O228">_xlfn.XLOOKUP(D228&amp;I228,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>28.7</v>
+      </c>
+      <c r="P228" cm="1">
+        <f t="array" ref="P228">_xlfn.XLOOKUP(D228&amp;I228,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29</v>
+      </c>
+      <c r="Q228" cm="1">
+        <f t="array" ref="Q228">_xlfn.XLOOKUP(E228&amp;I228,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.7</v>
+      </c>
+      <c r="R228" cm="1">
+        <f t="array" ref="R228">_xlfn.XLOOKUP(E228&amp;I228,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30</v>
+      </c>
+      <c r="X228" cm="1">
+        <f t="array" ref="X228">_xlfn.XLOOKUP(D228&amp;I228,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y228" cm="1">
+        <f t="array" ref="Y228">_xlfn.XLOOKUP(D228&amp;I228,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z228" cm="1">
+        <f t="array" ref="Z228">_xlfn.XLOOKUP(E228&amp;I228,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA228" cm="1">
+        <f t="array" ref="AA228">_xlfn.XLOOKUP(E228&amp;I228,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B229" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C229" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" t="s">
+        <v>173</v>
+      </c>
+      <c r="E229" t="s">
+        <v>163</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>2022</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>12</v>
+      </c>
+      <c r="J229" cm="1">
+        <f t="array" ref="J229">_xlfn.XLOOKUP(D229&amp;I229,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>21</v>
+      </c>
+      <c r="K229" t="str" cm="1">
+        <f t="array" ref="K229">_xlfn.XLOOKUP(E229&amp;I229,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L229" t="s">
+        <v>68</v>
+      </c>
+      <c r="M229" t="s">
+        <v>68</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" cm="1">
+        <f t="array" ref="O229">_xlfn.XLOOKUP(D229&amp;I229,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="P229" cm="1">
+        <f t="array" ref="P229">_xlfn.XLOOKUP(D229&amp;I229,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19</v>
+      </c>
+      <c r="Q229" cm="1">
+        <f t="array" ref="Q229">_xlfn.XLOOKUP(E229&amp;I229,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="R229" cm="1">
+        <f t="array" ref="R229">_xlfn.XLOOKUP(E229&amp;I229,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>32.6</v>
+      </c>
+      <c r="X229" cm="1">
+        <f t="array" ref="X229">_xlfn.XLOOKUP(D229&amp;I229,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y229" cm="1">
+        <f t="array" ref="Y229">_xlfn.XLOOKUP(D229&amp;I229,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z229" cm="1">
+        <f t="array" ref="Z229">_xlfn.XLOOKUP(E229&amp;I229,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA229" cm="1">
+        <f t="array" ref="AA229">_xlfn.XLOOKUP(E229&amp;I229,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B230" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C230" t="s">
+        <v>47</v>
+      </c>
+      <c r="D230" t="s">
+        <v>55</v>
+      </c>
+      <c r="E230" t="s">
+        <v>165</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>2022</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>12</v>
+      </c>
+      <c r="J230" t="str" cm="1">
+        <f t="array" ref="J230">_xlfn.XLOOKUP(D230&amp;I230,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K230" t="str" cm="1">
+        <f t="array" ref="K230">_xlfn.XLOOKUP(E230&amp;I230,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L230" t="s">
+        <v>68</v>
+      </c>
+      <c r="M230" t="s">
+        <v>68</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" cm="1">
+        <f t="array" ref="O230">_xlfn.XLOOKUP(D230&amp;I230,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>28.2</v>
+      </c>
+      <c r="P230" cm="1">
+        <f t="array" ref="P230">_xlfn.XLOOKUP(D230&amp;I230,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>32.5</v>
+      </c>
+      <c r="Q230" cm="1">
+        <f t="array" ref="Q230">_xlfn.XLOOKUP(E230&amp;I230,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.5</v>
+      </c>
+      <c r="R230" cm="1">
+        <f t="array" ref="R230">_xlfn.XLOOKUP(E230&amp;I230,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>40</v>
+      </c>
+      <c r="X230" cm="1">
+        <f t="array" ref="X230">_xlfn.XLOOKUP(D230&amp;I230,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y230" cm="1">
+        <f t="array" ref="Y230">_xlfn.XLOOKUP(D230&amp;I230,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Z230" cm="1">
+        <f t="array" ref="Z230">_xlfn.XLOOKUP(E230&amp;I230,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA230" cm="1">
+        <f t="array" ref="AA230">_xlfn.XLOOKUP(E230&amp;I230,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0.90625</v>
+      </c>
+      <c r="C231" t="s">
+        <v>31</v>
+      </c>
+      <c r="D231" t="s">
+        <v>153</v>
+      </c>
+      <c r="E231" t="s">
+        <v>161</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>2022</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>12</v>
+      </c>
+      <c r="J231" t="str" cm="1">
+        <f t="array" ref="J231">_xlfn.XLOOKUP(D231&amp;I231,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K231" t="str" cm="1">
+        <f t="array" ref="K231">_xlfn.XLOOKUP(E231&amp;I231,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L231" t="s">
+        <v>66</v>
+      </c>
+      <c r="M231" t="s">
+        <v>66</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" cm="1">
+        <f t="array" ref="O231">_xlfn.XLOOKUP(D231&amp;I231,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>14.7</v>
+      </c>
+      <c r="P231" cm="1">
+        <f t="array" ref="P231">_xlfn.XLOOKUP(D231&amp;I231,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.1</v>
+      </c>
+      <c r="Q231" cm="1">
+        <f t="array" ref="Q231">_xlfn.XLOOKUP(E231&amp;I231,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>21.9</v>
+      </c>
+      <c r="R231" cm="1">
+        <f t="array" ref="R231">_xlfn.XLOOKUP(E231&amp;I231,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.9</v>
+      </c>
+      <c r="X231" cm="1">
+        <f t="array" ref="X231">_xlfn.XLOOKUP(D231&amp;I231,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Y231" cm="1">
+        <f t="array" ref="Y231">_xlfn.XLOOKUP(D231&amp;I231,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Z231" cm="1">
+        <f t="array" ref="Z231">_xlfn.XLOOKUP(E231&amp;I231,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA231" cm="1">
+        <f t="array" ref="AA231">_xlfn.XLOOKUP(E231&amp;I231,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B232" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C232" t="s">
+        <v>47</v>
+      </c>
+      <c r="D232" t="s">
+        <v>88</v>
+      </c>
+      <c r="E232" t="s">
+        <v>152</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>2022</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>12</v>
+      </c>
+      <c r="J232" cm="1">
+        <f t="array" ref="J232">_xlfn.XLOOKUP(D232&amp;I232,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>20</v>
+      </c>
+      <c r="K232" t="str" cm="1">
+        <f t="array" ref="K232">_xlfn.XLOOKUP(E232&amp;I232,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L232" t="s">
+        <v>68</v>
+      </c>
+      <c r="M232" t="s">
+        <v>68</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232" cm="1">
+        <f t="array" ref="O232">_xlfn.XLOOKUP(D232&amp;I232,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.9</v>
+      </c>
+      <c r="P232" cm="1">
+        <f t="array" ref="P232">_xlfn.XLOOKUP(D232&amp;I232,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20</v>
+      </c>
+      <c r="Q232" cm="1">
+        <f t="array" ref="Q232">_xlfn.XLOOKUP(E232&amp;I232,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22.9</v>
+      </c>
+      <c r="R232" cm="1">
+        <f t="array" ref="R232">_xlfn.XLOOKUP(E232&amp;I232,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.8</v>
+      </c>
+      <c r="X232" cm="1">
+        <f t="array" ref="X232">_xlfn.XLOOKUP(D232&amp;I232,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y232" cm="1">
+        <f t="array" ref="Y232">_xlfn.XLOOKUP(D232&amp;I232,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z232" cm="1">
+        <f t="array" ref="Z232">_xlfn.XLOOKUP(E232&amp;I232,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA232" cm="1">
+        <f t="array" ref="AA232">_xlfn.XLOOKUP(E232&amp;I232,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B233" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>33</v>
+      </c>
+      <c r="D233" t="s">
+        <v>38</v>
+      </c>
+      <c r="E233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>2022</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>12</v>
+      </c>
+      <c r="J233" cm="1">
+        <f t="array" ref="J233">_xlfn.XLOOKUP(D233&amp;I233,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>3</v>
+      </c>
+      <c r="K233" t="str" cm="1">
+        <f t="array" ref="K233">_xlfn.XLOOKUP(E233&amp;I233,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L233" t="s">
+        <v>64</v>
+      </c>
+      <c r="M233" t="s">
+        <v>64</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" cm="1">
+        <f t="array" ref="O233">_xlfn.XLOOKUP(D233&amp;I233,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41.4</v>
+      </c>
+      <c r="P233" cm="1">
+        <f t="array" ref="P233">_xlfn.XLOOKUP(D233&amp;I233,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.2</v>
+      </c>
+      <c r="Q233" cm="1">
+        <f t="array" ref="Q233">_xlfn.XLOOKUP(E233&amp;I233,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.7</v>
+      </c>
+      <c r="R233" cm="1">
+        <f t="array" ref="R233">_xlfn.XLOOKUP(E233&amp;I233,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>12.5</v>
+      </c>
+      <c r="X233" cm="1">
+        <f t="array" ref="X233">_xlfn.XLOOKUP(D233&amp;I233,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="Y233" cm="1">
+        <f t="array" ref="Y233">_xlfn.XLOOKUP(D233&amp;I233,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z233" cm="1">
+        <f t="array" ref="Z233">_xlfn.XLOOKUP(E233&amp;I233,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA233" cm="1">
+        <f t="array" ref="AA233">_xlfn.XLOOKUP(E233&amp;I233,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B234" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234" t="s">
+        <v>98</v>
+      </c>
+      <c r="E234" t="s">
+        <v>168</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>2022</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>12</v>
+      </c>
+      <c r="J234" t="str" cm="1">
+        <f t="array" ref="J234">_xlfn.XLOOKUP(D234&amp;I234,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K234" cm="1">
+        <f t="array" ref="K234">_xlfn.XLOOKUP(E234&amp;I234,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>4</v>
+      </c>
+      <c r="L234" t="s">
+        <v>71</v>
+      </c>
+      <c r="M234" t="s">
+        <v>71</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" cm="1">
+        <f t="array" ref="O234">_xlfn.XLOOKUP(D234&amp;I234,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P234" cm="1">
+        <f t="array" ref="P234">_xlfn.XLOOKUP(D234&amp;I234,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.2</v>
+      </c>
+      <c r="Q234" cm="1">
+        <f t="array" ref="Q234">_xlfn.XLOOKUP(E234&amp;I234,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.5</v>
+      </c>
+      <c r="R234" cm="1">
+        <f t="array" ref="R234">_xlfn.XLOOKUP(E234&amp;I234,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.2</v>
+      </c>
+      <c r="X234" cm="1">
+        <f t="array" ref="X234">_xlfn.XLOOKUP(D234&amp;I234,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y234" cm="1">
+        <f t="array" ref="Y234">_xlfn.XLOOKUP(D234&amp;I234,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z234" cm="1">
+        <f t="array" ref="Z234">_xlfn.XLOOKUP(E234&amp;I234,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="AA234" cm="1">
+        <f t="array" ref="AA234">_xlfn.XLOOKUP(E234&amp;I234,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>25</v>
+      </c>
+      <c r="D235" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" t="s">
+        <v>35</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>2022</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>12</v>
+      </c>
+      <c r="J235" t="str" cm="1">
+        <f t="array" ref="J235">_xlfn.XLOOKUP(D235&amp;I235,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K235" t="str" cm="1">
+        <f t="array" ref="K235">_xlfn.XLOOKUP(E235&amp;I235,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L235" t="s">
+        <v>64</v>
+      </c>
+      <c r="M235" t="s">
+        <v>64</v>
+      </c>
+      <c r="N235">
+        <v>1</v>
+      </c>
+      <c r="O235" cm="1">
+        <f t="array" ref="O235">_xlfn.XLOOKUP(D235&amp;I235,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.3</v>
+      </c>
+      <c r="P235" cm="1">
+        <f t="array" ref="P235">_xlfn.XLOOKUP(D235&amp;I235,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.9</v>
+      </c>
+      <c r="Q235" cm="1">
+        <f t="array" ref="Q235">_xlfn.XLOOKUP(E235&amp;I235,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>28.7</v>
+      </c>
+      <c r="R235" cm="1">
+        <f t="array" ref="R235">_xlfn.XLOOKUP(E235&amp;I235,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.9</v>
+      </c>
+      <c r="X235" cm="1">
+        <f t="array" ref="X235">_xlfn.XLOOKUP(D235&amp;I235,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y235" cm="1">
+        <f t="array" ref="Y235">_xlfn.XLOOKUP(D235&amp;I235,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Z235" cm="1">
+        <f t="array" ref="Z235">_xlfn.XLOOKUP(E235&amp;I235,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA235" cm="1">
+        <f t="array" ref="AA235">_xlfn.XLOOKUP(E235&amp;I235,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B236" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" t="s">
+        <v>43</v>
+      </c>
+      <c r="E236" t="s">
+        <v>30</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>2022</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>12</v>
+      </c>
+      <c r="J236" t="str" cm="1">
+        <f t="array" ref="J236">_xlfn.XLOOKUP(D236&amp;I236,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K236" t="str" cm="1">
+        <f t="array" ref="K236">_xlfn.XLOOKUP(E236&amp;I236,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L236" t="s">
+        <v>64</v>
+      </c>
+      <c r="M236" t="s">
+        <v>64</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" cm="1">
+        <f t="array" ref="O236">_xlfn.XLOOKUP(D236&amp;I236,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.6</v>
+      </c>
+      <c r="P236" cm="1">
+        <f t="array" ref="P236">_xlfn.XLOOKUP(D236&amp;I236,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.2</v>
+      </c>
+      <c r="Q236" cm="1">
+        <f t="array" ref="Q236">_xlfn.XLOOKUP(E236&amp;I236,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>15.3</v>
+      </c>
+      <c r="R236" cm="1">
+        <f t="array" ref="R236">_xlfn.XLOOKUP(E236&amp;I236,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.2</v>
+      </c>
+      <c r="X236" cm="1">
+        <f t="array" ref="X236">_xlfn.XLOOKUP(D236&amp;I236,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y236" cm="1">
+        <f t="array" ref="Y236">_xlfn.XLOOKUP(D236&amp;I236,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z236" cm="1">
+        <f t="array" ref="Z236">_xlfn.XLOOKUP(E236&amp;I236,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA236" cm="1">
+        <f t="array" ref="AA236">_xlfn.XLOOKUP(E236&amp;I236,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="C237" t="s">
+        <v>47</v>
+      </c>
+      <c r="D237" t="s">
+        <v>96</v>
+      </c>
+      <c r="E237" t="s">
+        <v>42</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>2022</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>12</v>
+      </c>
+      <c r="J237" t="str" cm="1">
+        <f t="array" ref="J237">_xlfn.XLOOKUP(D237&amp;I237,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K237" cm="1">
+        <f t="array" ref="K237">_xlfn.XLOOKUP(E237&amp;I237,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>23</v>
+      </c>
+      <c r="L237" t="s">
+        <v>65</v>
+      </c>
+      <c r="M237" t="s">
+        <v>65</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" cm="1">
+        <f t="array" ref="O237">_xlfn.XLOOKUP(D237&amp;I237,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.1</v>
+      </c>
+      <c r="P237" cm="1">
+        <f t="array" ref="P237">_xlfn.XLOOKUP(D237&amp;I237,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.8</v>
+      </c>
+      <c r="Q237" cm="1">
+        <f t="array" ref="Q237">_xlfn.XLOOKUP(E237&amp;I237,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32</v>
+      </c>
+      <c r="R237" cm="1">
+        <f t="array" ref="R237">_xlfn.XLOOKUP(E237&amp;I237,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.6</v>
+      </c>
+      <c r="X237" cm="1">
+        <f t="array" ref="X237">_xlfn.XLOOKUP(D237&amp;I237,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y237" cm="1">
+        <f t="array" ref="Y237">_xlfn.XLOOKUP(D237&amp;I237,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Z237" cm="1">
+        <f t="array" ref="Z237">_xlfn.XLOOKUP(E237&amp;I237,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA237" cm="1">
+        <f t="array" ref="AA237">_xlfn.XLOOKUP(E237&amp;I237,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B238" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C238" t="s">
+        <v>54</v>
+      </c>
+      <c r="D238" t="s">
+        <v>108</v>
+      </c>
+      <c r="E238" t="s">
+        <v>32</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>2022</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>12</v>
+      </c>
+      <c r="J238" t="str" cm="1">
+        <f t="array" ref="J238">_xlfn.XLOOKUP(D238&amp;I238,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K238" cm="1">
+        <f t="array" ref="K238">_xlfn.XLOOKUP(E238&amp;I238,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L238" t="s">
+        <v>70</v>
+      </c>
+      <c r="M238" t="s">
+        <v>70</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" cm="1">
+        <f t="array" ref="O238">_xlfn.XLOOKUP(D238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.3</v>
+      </c>
+      <c r="P238" cm="1">
+        <f t="array" ref="P238">_xlfn.XLOOKUP(D238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20</v>
+      </c>
+      <c r="Q238" cm="1">
+        <f t="array" ref="Q238">_xlfn.XLOOKUP(E238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.6</v>
+      </c>
+      <c r="R238" cm="1">
+        <f t="array" ref="R238">_xlfn.XLOOKUP(E238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.6</v>
+      </c>
+      <c r="X238" cm="1">
+        <f t="array" ref="X238">_xlfn.XLOOKUP(D238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y238" cm="1">
+        <f t="array" ref="Y238">_xlfn.XLOOKUP(D238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z238" cm="1">
+        <f t="array" ref="Z238">_xlfn.XLOOKUP(E238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="AA238" cm="1">
+        <f t="array" ref="AA238">_xlfn.XLOOKUP(E238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B239" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C239" t="s">
+        <v>33</v>
+      </c>
+      <c r="D239" t="s">
+        <v>144</v>
+      </c>
+      <c r="E239" t="s">
+        <v>26</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>2022</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>12</v>
+      </c>
+      <c r="J239" t="str" cm="1">
+        <f t="array" ref="J239">_xlfn.XLOOKUP(D239&amp;I239,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K239" cm="1">
+        <f t="array" ref="K239">_xlfn.XLOOKUP(E239&amp;I239,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>2</v>
+      </c>
+      <c r="L239" t="s">
+        <v>64</v>
+      </c>
+      <c r="M239" t="s">
+        <v>64</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" cm="1">
+        <f t="array" ref="O239">_xlfn.XLOOKUP(D239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>28.3</v>
+      </c>
+      <c r="P239" cm="1">
+        <f t="array" ref="P239">_xlfn.XLOOKUP(D239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.6</v>
+      </c>
+      <c r="Q239" cm="1">
+        <f t="array" ref="Q239">_xlfn.XLOOKUP(E239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>46.8</v>
+      </c>
+      <c r="R239" cm="1">
+        <f t="array" ref="R239">_xlfn.XLOOKUP(E239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>15.6</v>
+      </c>
+      <c r="X239" cm="1">
+        <f t="array" ref="X239">_xlfn.XLOOKUP(D239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y239" cm="1">
+        <f t="array" ref="Y239">_xlfn.XLOOKUP(D239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z239" cm="1">
+        <f t="array" ref="Z239">_xlfn.XLOOKUP(E239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="AA239" cm="1">
+        <f t="array" ref="AA239">_xlfn.XLOOKUP(E239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" t="s">
+        <v>87</v>
+      </c>
+      <c r="E240" t="s">
+        <v>147</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>2022</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>12</v>
+      </c>
+      <c r="J240" cm="1">
+        <f t="array" ref="J240">_xlfn.XLOOKUP(D240&amp;I240,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>9</v>
+      </c>
+      <c r="K240" t="str" cm="1">
+        <f t="array" ref="K240">_xlfn.XLOOKUP(E240&amp;I240,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L240" t="s">
+        <v>69</v>
+      </c>
+      <c r="M240" t="s">
+        <v>69</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" cm="1">
+        <f t="array" ref="O240">_xlfn.XLOOKUP(D240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="P240" cm="1">
+        <f t="array" ref="P240">_xlfn.XLOOKUP(D240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21</v>
+      </c>
+      <c r="Q240" cm="1">
+        <f t="array" ref="Q240">_xlfn.XLOOKUP(E240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.7</v>
+      </c>
+      <c r="R240" cm="1">
+        <f t="array" ref="R240">_xlfn.XLOOKUP(E240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.9</v>
+      </c>
+      <c r="X240" cm="1">
+        <f t="array" ref="X240">_xlfn.XLOOKUP(D240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y240" cm="1">
+        <f t="array" ref="Y240">_xlfn.XLOOKUP(D240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z240" cm="1">
+        <f t="array" ref="Z240">_xlfn.XLOOKUP(E240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA240" cm="1">
+        <f t="array" ref="AA240">_xlfn.XLOOKUP(E240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B241" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C241" t="s">
+        <v>31</v>
+      </c>
+      <c r="D241" t="s">
+        <v>138</v>
+      </c>
+      <c r="E241" t="s">
+        <v>90</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>2022</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>12</v>
+      </c>
+      <c r="J241" t="str" cm="1">
+        <f t="array" ref="J241">_xlfn.XLOOKUP(D241&amp;I241,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K241" t="str" cm="1">
+        <f t="array" ref="K241">_xlfn.XLOOKUP(E241&amp;I241,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L241" t="s">
+        <v>71</v>
+      </c>
+      <c r="M241" t="s">
+        <v>71</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" cm="1">
+        <f t="array" ref="O241">_xlfn.XLOOKUP(D241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>36.9</v>
+      </c>
+      <c r="P241" cm="1">
+        <f t="array" ref="P241">_xlfn.XLOOKUP(D241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.4</v>
+      </c>
+      <c r="Q241" cm="1">
+        <f t="array" ref="Q241">_xlfn.XLOOKUP(E241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.5</v>
+      </c>
+      <c r="R241" cm="1">
+        <f t="array" ref="R241">_xlfn.XLOOKUP(E241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.3</v>
+      </c>
+      <c r="X241" cm="1">
+        <f t="array" ref="X241">_xlfn.XLOOKUP(D241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y241" cm="1">
+        <f t="array" ref="Y241">_xlfn.XLOOKUP(D241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z241" cm="1">
+        <f t="array" ref="Z241">_xlfn.XLOOKUP(E241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA241" cm="1">
+        <f t="array" ref="AA241">_xlfn.XLOOKUP(E241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C242" t="s">
+        <v>24</v>
+      </c>
+      <c r="D242" t="s">
+        <v>150</v>
+      </c>
+      <c r="E242" t="s">
+        <v>135</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>2022</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>12</v>
+      </c>
+      <c r="J242" t="str" cm="1">
+        <f t="array" ref="J242">_xlfn.XLOOKUP(D242&amp;I242,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K242" t="str" cm="1">
+        <f t="array" ref="K242">_xlfn.XLOOKUP(E242&amp;I242,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M242" t="s">
+        <v>64</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" cm="1">
+        <f t="array" ref="O242">_xlfn.XLOOKUP(D242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.6</v>
+      </c>
+      <c r="P242" cm="1">
+        <f t="array" ref="P242">_xlfn.XLOOKUP(D242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>13.1</v>
+      </c>
+      <c r="Q242" cm="1">
+        <f t="array" ref="Q242">_xlfn.XLOOKUP(E242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="R242" cm="1">
+        <f t="array" ref="R242">_xlfn.XLOOKUP(E242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>13.9</v>
+      </c>
+      <c r="X242" cm="1">
+        <f t="array" ref="X242">_xlfn.XLOOKUP(D242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y242" cm="1">
+        <f t="array" ref="Y242">_xlfn.XLOOKUP(D242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z242" cm="1">
+        <f t="array" ref="Z242">_xlfn.XLOOKUP(E242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA242" cm="1">
+        <f t="array" ref="AA242">_xlfn.XLOOKUP(E242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B243" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C243" t="s">
+        <v>47</v>
+      </c>
+      <c r="D243" t="s">
+        <v>154</v>
+      </c>
+      <c r="E243" t="s">
+        <v>86</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>2022</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>12</v>
+      </c>
+      <c r="J243" cm="1">
+        <f t="array" ref="J243">_xlfn.XLOOKUP(D243&amp;I243,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>13</v>
+      </c>
+      <c r="K243" t="str" cm="1">
+        <f t="array" ref="K243">_xlfn.XLOOKUP(E243&amp;I243,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L243" t="s">
+        <v>69</v>
+      </c>
+      <c r="M243" t="s">
+        <v>69</v>
+      </c>
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" cm="1">
+        <f t="array" ref="O243">_xlfn.XLOOKUP(D243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.1</v>
+      </c>
+      <c r="P243" cm="1">
+        <f t="array" ref="P243">_xlfn.XLOOKUP(D243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>31.3</v>
+      </c>
+      <c r="Q243" cm="1">
+        <f t="array" ref="Q243">_xlfn.XLOOKUP(E243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R243" cm="1">
+        <f t="array" ref="R243">_xlfn.XLOOKUP(E243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.7</v>
+      </c>
+      <c r="X243" cm="1">
+        <f t="array" ref="X243">_xlfn.XLOOKUP(D243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y243" cm="1">
+        <f t="array" ref="Y243">_xlfn.XLOOKUP(D243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z243" cm="1">
+        <f t="array" ref="Z243">_xlfn.XLOOKUP(E243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA243" cm="1">
+        <f t="array" ref="AA243">_xlfn.XLOOKUP(E243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C244" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" t="s">
+        <v>92</v>
+      </c>
+      <c r="E244" t="s">
+        <v>104</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>2022</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>12</v>
+      </c>
+      <c r="J244" t="str" cm="1">
+        <f t="array" ref="J244">_xlfn.XLOOKUP(D244&amp;I244,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K244" cm="1">
+        <f t="array" ref="K244">_xlfn.XLOOKUP(E244&amp;I244,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>5</v>
+      </c>
+      <c r="L244" t="s">
+        <v>70</v>
+      </c>
+      <c r="M244" t="s">
+        <v>70</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244" cm="1">
+        <f t="array" ref="O244">_xlfn.XLOOKUP(D244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>28.6</v>
+      </c>
+      <c r="P244" cm="1">
+        <f t="array" ref="P244">_xlfn.XLOOKUP(D244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.2</v>
+      </c>
+      <c r="Q244" cm="1">
+        <f t="array" ref="Q244">_xlfn.XLOOKUP(E244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>47.4</v>
+      </c>
+      <c r="R244" cm="1">
+        <f t="array" ref="R244">_xlfn.XLOOKUP(E244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.9</v>
+      </c>
+      <c r="X244" cm="1">
+        <f t="array" ref="X244">_xlfn.XLOOKUP(D244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y244" cm="1">
+        <f t="array" ref="Y244">_xlfn.XLOOKUP(D244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z244" cm="1">
+        <f t="array" ref="Z244">_xlfn.XLOOKUP(E244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA244" cm="1">
+        <f t="array" ref="AA244">_xlfn.XLOOKUP(E244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B245" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C245" t="s">
+        <v>31</v>
+      </c>
+      <c r="D245" t="s">
+        <v>136</v>
+      </c>
+      <c r="E245" t="s">
+        <v>95</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>2022</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>12</v>
+      </c>
+      <c r="J245" t="str" cm="1">
+        <f t="array" ref="J245">_xlfn.XLOOKUP(D245&amp;I245,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K245" t="str" cm="1">
+        <f t="array" ref="K245">_xlfn.XLOOKUP(E245&amp;I245,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L245" t="s">
+        <v>71</v>
+      </c>
+      <c r="M245" t="s">
+        <v>71</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" cm="1">
+        <f t="array" ref="O245">_xlfn.XLOOKUP(D245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>21.8</v>
+      </c>
+      <c r="P245" cm="1">
+        <f t="array" ref="P245">_xlfn.XLOOKUP(D245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.7</v>
+      </c>
+      <c r="Q245" cm="1">
+        <f t="array" ref="Q245">_xlfn.XLOOKUP(E245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="R245" cm="1">
+        <f t="array" ref="R245">_xlfn.XLOOKUP(E245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.6</v>
+      </c>
+      <c r="X245" cm="1">
+        <f t="array" ref="X245">_xlfn.XLOOKUP(D245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y245" cm="1">
+        <f t="array" ref="Y245">_xlfn.XLOOKUP(D245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z245" cm="1">
+        <f t="array" ref="Z245">_xlfn.XLOOKUP(E245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA245" cm="1">
+        <f t="array" ref="AA245">_xlfn.XLOOKUP(E245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C246" t="s">
+        <v>33</v>
+      </c>
+      <c r="D246" t="s">
+        <v>36</v>
+      </c>
+      <c r="E246" t="s">
+        <v>56</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>2022</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>12</v>
+      </c>
+      <c r="J246" t="str" cm="1">
+        <f t="array" ref="J246">_xlfn.XLOOKUP(D246&amp;I246,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K246" cm="1">
+        <f t="array" ref="K246">_xlfn.XLOOKUP(E246&amp;I246,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>22</v>
+      </c>
+      <c r="L246" t="s">
+        <v>71</v>
+      </c>
+      <c r="M246" t="s">
+        <v>71</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" cm="1">
+        <f t="array" ref="O246">_xlfn.XLOOKUP(D246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.9</v>
+      </c>
+      <c r="P246" cm="1">
+        <f t="array" ref="P246">_xlfn.XLOOKUP(D246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.1</v>
+      </c>
+      <c r="Q246" cm="1">
+        <f t="array" ref="Q246">_xlfn.XLOOKUP(E246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.9</v>
+      </c>
+      <c r="R246" cm="1">
+        <f t="array" ref="R246">_xlfn.XLOOKUP(E246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30</v>
+      </c>
+      <c r="X246" cm="1">
+        <f t="array" ref="X246">_xlfn.XLOOKUP(D246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y246" cm="1">
+        <f t="array" ref="Y246">_xlfn.XLOOKUP(D246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z246" cm="1">
+        <f t="array" ref="Z246">_xlfn.XLOOKUP(E246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA246" cm="1">
+        <f t="array" ref="AA246">_xlfn.XLOOKUP(E246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C247" t="s">
+        <v>24</v>
+      </c>
+      <c r="D247" t="s">
+        <v>175</v>
+      </c>
+      <c r="E247" t="s">
+        <v>110</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>2022</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>12</v>
+      </c>
+      <c r="J247" cm="1">
+        <f t="array" ref="J247">_xlfn.XLOOKUP(D247&amp;I247,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>16</v>
+      </c>
+      <c r="K247" cm="1">
+        <f t="array" ref="K247">_xlfn.XLOOKUP(E247&amp;I247,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>7</v>
+      </c>
+      <c r="L247" t="s">
+        <v>65</v>
+      </c>
+      <c r="M247" t="s">
+        <v>65</v>
+      </c>
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247" cm="1">
+        <f t="array" ref="O247">_xlfn.XLOOKUP(D247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.5</v>
+      </c>
+      <c r="P247" cm="1">
+        <f t="array" ref="P247">_xlfn.XLOOKUP(D247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.4</v>
+      </c>
+      <c r="Q247" cm="1">
+        <f t="array" ref="Q247">_xlfn.XLOOKUP(E247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.4</v>
+      </c>
+      <c r="R247" cm="1">
+        <f t="array" ref="R247">_xlfn.XLOOKUP(E247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.4</v>
+      </c>
+      <c r="X247" cm="1">
+        <f t="array" ref="X247">_xlfn.XLOOKUP(D247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y247" cm="1">
+        <f t="array" ref="Y247">_xlfn.XLOOKUP(D247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z247" cm="1">
+        <f t="array" ref="Z247">_xlfn.XLOOKUP(E247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA247" cm="1">
+        <f t="array" ref="AA247">_xlfn.XLOOKUP(E247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C248" t="s">
+        <v>47</v>
+      </c>
+      <c r="D248" t="s">
+        <v>114</v>
+      </c>
+      <c r="E248" t="s">
+        <v>174</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>2022</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>12</v>
+      </c>
+      <c r="J248" cm="1">
+        <f t="array" ref="J248">_xlfn.XLOOKUP(D248&amp;I248,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>6</v>
+      </c>
+      <c r="K248" t="str" cm="1">
+        <f t="array" ref="K248">_xlfn.XLOOKUP(E248&amp;I248,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L248" t="s">
+        <v>70</v>
+      </c>
+      <c r="M248" t="s">
+        <v>103</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248" cm="1">
+        <f t="array" ref="O248">_xlfn.XLOOKUP(D248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.6</v>
+      </c>
+      <c r="P248" cm="1">
+        <f t="array" ref="P248">_xlfn.XLOOKUP(D248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21</v>
+      </c>
+      <c r="Q248" cm="1">
+        <f t="array" ref="Q248">_xlfn.XLOOKUP(E248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32</v>
+      </c>
+      <c r="R248" cm="1">
+        <f t="array" ref="R248">_xlfn.XLOOKUP(E248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.3</v>
+      </c>
+      <c r="X248" cm="1">
+        <f t="array" ref="X248">_xlfn.XLOOKUP(D248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y248" cm="1">
+        <f t="array" ref="Y248">_xlfn.XLOOKUP(D248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z248" cm="1">
+        <f t="array" ref="Z248">_xlfn.XLOOKUP(E248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA248" cm="1">
+        <f t="array" ref="AA248">_xlfn.XLOOKUP(E248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.90625</v>
+      </c>
+      <c r="C249" t="s">
+        <v>31</v>
+      </c>
+      <c r="D249" t="s">
+        <v>58</v>
+      </c>
+      <c r="E249" t="s">
+        <v>162</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>2022</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>12</v>
+      </c>
+      <c r="J249" t="str" cm="1">
+        <f t="array" ref="J249">_xlfn.XLOOKUP(D249&amp;I249,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K249" t="str" cm="1">
+        <f t="array" ref="K249">_xlfn.XLOOKUP(E249&amp;I249,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L249" t="s">
+        <v>66</v>
+      </c>
+      <c r="M249" t="s">
+        <v>66</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" cm="1">
+        <f t="array" ref="O249">_xlfn.XLOOKUP(D249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22.1</v>
+      </c>
+      <c r="P249" cm="1">
+        <f t="array" ref="P249">_xlfn.XLOOKUP(D249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.4</v>
+      </c>
+      <c r="Q249" cm="1">
+        <f t="array" ref="Q249">_xlfn.XLOOKUP(E249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.1</v>
+      </c>
+      <c r="R249" cm="1">
+        <f t="array" ref="R249">_xlfn.XLOOKUP(E249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.3</v>
+      </c>
+      <c r="X249" cm="1">
+        <f t="array" ref="X249">_xlfn.XLOOKUP(D249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y249" cm="1">
+        <f t="array" ref="Y249">_xlfn.XLOOKUP(D249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z249" cm="1">
+        <f t="array" ref="Z249">_xlfn.XLOOKUP(E249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA249" cm="1">
+        <f t="array" ref="AA249">_xlfn.XLOOKUP(E249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C250" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250" t="s">
+        <v>49</v>
+      </c>
+      <c r="E250" t="s">
+        <v>53</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>2022</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>12</v>
+      </c>
+      <c r="J250" cm="1">
+        <f t="array" ref="J250">_xlfn.XLOOKUP(D250&amp;I250,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>12</v>
+      </c>
+      <c r="K250" cm="1">
+        <f t="array" ref="K250">_xlfn.XLOOKUP(E250&amp;I250,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>10</v>
+      </c>
+      <c r="L250" t="s">
+        <v>65</v>
+      </c>
+      <c r="M250" t="s">
+        <v>65</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" cm="1">
+        <f t="array" ref="O250">_xlfn.XLOOKUP(D250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.2</v>
+      </c>
+      <c r="P250" cm="1">
+        <f t="array" ref="P250">_xlfn.XLOOKUP(D250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.4</v>
+      </c>
+      <c r="Q250" cm="1">
+        <f t="array" ref="Q250">_xlfn.XLOOKUP(E250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R250" cm="1">
+        <f t="array" ref="R250">_xlfn.XLOOKUP(E250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20</v>
+      </c>
+      <c r="X250" cm="1">
+        <f t="array" ref="X250">_xlfn.XLOOKUP(D250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y250" cm="1">
+        <f t="array" ref="Y250">_xlfn.XLOOKUP(D250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z250" cm="1">
+        <f t="array" ref="Z250">_xlfn.XLOOKUP(E250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA250" cm="1">
+        <f t="array" ref="AA250">_xlfn.XLOOKUP(E250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
         <v>2</v>
       </c>
     </row>
@@ -20516,10 +22387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
-  <dimension ref="A1:F1309"/>
+  <dimension ref="A1:F1440"/>
   <sheetViews>
-    <sheetView topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="B1253" sqref="B1253"/>
+    <sheetView topLeftCell="A1286" workbookViewId="0">
+      <selection activeCell="A1385" sqref="A1385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46701,6 +48572,2626 @@
         <v>6</v>
       </c>
       <c r="F1309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1310">
+        <v>12</v>
+      </c>
+      <c r="C1310">
+        <v>29.5</v>
+      </c>
+      <c r="D1310">
+        <v>14.4</v>
+      </c>
+      <c r="E1310">
+        <v>7</v>
+      </c>
+      <c r="F1310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1311">
+        <v>12</v>
+      </c>
+      <c r="C1311">
+        <v>19.5</v>
+      </c>
+      <c r="D1311">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E1311">
+        <v>1</v>
+      </c>
+      <c r="F1311">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1312">
+        <v>12</v>
+      </c>
+      <c r="C1312">
+        <v>40.6</v>
+      </c>
+      <c r="D1312">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E1312">
+        <v>8</v>
+      </c>
+      <c r="F1312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1313">
+        <v>12</v>
+      </c>
+      <c r="C1313">
+        <v>34.4</v>
+      </c>
+      <c r="D1313">
+        <v>25.6</v>
+      </c>
+      <c r="E1313">
+        <v>5</v>
+      </c>
+      <c r="F1313">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1314">
+        <v>12</v>
+      </c>
+      <c r="C1314">
+        <v>31.2</v>
+      </c>
+      <c r="D1314">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E1314">
+        <v>4</v>
+      </c>
+      <c r="F1314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1315">
+        <v>12</v>
+      </c>
+      <c r="C1315">
+        <v>27.1</v>
+      </c>
+      <c r="D1315">
+        <v>30.8</v>
+      </c>
+      <c r="E1315">
+        <v>3</v>
+      </c>
+      <c r="F1315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1316">
+        <v>12</v>
+      </c>
+      <c r="C1316">
+        <v>29.9</v>
+      </c>
+      <c r="D1316">
+        <v>28.9</v>
+      </c>
+      <c r="E1316">
+        <v>5</v>
+      </c>
+      <c r="F1316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1317">
+        <v>12</v>
+      </c>
+      <c r="C1317">
+        <v>26.8</v>
+      </c>
+      <c r="D1317">
+        <v>31.3</v>
+      </c>
+      <c r="E1317">
+        <v>3</v>
+      </c>
+      <c r="F1317">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1318">
+        <v>12</v>
+      </c>
+      <c r="C1318">
+        <v>27.2</v>
+      </c>
+      <c r="D1318">
+        <v>25.4</v>
+      </c>
+      <c r="E1318">
+        <v>3</v>
+      </c>
+      <c r="F1318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1319">
+        <v>12</v>
+      </c>
+      <c r="C1319">
+        <v>22.9</v>
+      </c>
+      <c r="D1319">
+        <v>28.8</v>
+      </c>
+      <c r="E1319">
+        <v>4</v>
+      </c>
+      <c r="F1319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1320">
+        <v>12</v>
+      </c>
+      <c r="C1320">
+        <v>24.4</v>
+      </c>
+      <c r="D1320">
+        <v>27.3</v>
+      </c>
+      <c r="E1320">
+        <v>5</v>
+      </c>
+      <c r="F1320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1321">
+        <v>12</v>
+      </c>
+      <c r="C1321">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D1321">
+        <v>25.2</v>
+      </c>
+      <c r="E1321">
+        <v>6</v>
+      </c>
+      <c r="F1321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1322">
+        <v>12</v>
+      </c>
+      <c r="C1322">
+        <v>30</v>
+      </c>
+      <c r="D1322">
+        <v>17.3</v>
+      </c>
+      <c r="E1322">
+        <v>7</v>
+      </c>
+      <c r="F1322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1323">
+        <v>12</v>
+      </c>
+      <c r="C1323">
+        <v>19</v>
+      </c>
+      <c r="D1323">
+        <v>28.8</v>
+      </c>
+      <c r="E1323">
+        <v>3</v>
+      </c>
+      <c r="F1323">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1324">
+        <v>12</v>
+      </c>
+      <c r="C1324">
+        <v>23</v>
+      </c>
+      <c r="D1324">
+        <v>32.6</v>
+      </c>
+      <c r="E1324">
+        <v>5</v>
+      </c>
+      <c r="F1324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1325">
+        <v>12</v>
+      </c>
+      <c r="C1325">
+        <v>29.8</v>
+      </c>
+      <c r="D1325">
+        <v>27.4</v>
+      </c>
+      <c r="E1325">
+        <v>5</v>
+      </c>
+      <c r="F1325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1326">
+        <v>12</v>
+      </c>
+      <c r="C1326">
+        <v>29.6</v>
+      </c>
+      <c r="D1326">
+        <v>30.8</v>
+      </c>
+      <c r="E1326">
+        <v>5</v>
+      </c>
+      <c r="F1326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1327">
+        <v>12</v>
+      </c>
+      <c r="C1327">
+        <v>23.2</v>
+      </c>
+      <c r="D1327">
+        <v>27.9</v>
+      </c>
+      <c r="E1327">
+        <v>3</v>
+      </c>
+      <c r="F1327">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1328">
+        <v>12</v>
+      </c>
+      <c r="C1328">
+        <v>26.8</v>
+      </c>
+      <c r="D1328">
+        <v>28.8</v>
+      </c>
+      <c r="E1328">
+        <v>4</v>
+      </c>
+      <c r="F1328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1329">
+        <v>12</v>
+      </c>
+      <c r="C1329">
+        <v>24.3</v>
+      </c>
+      <c r="D1329">
+        <v>41.1</v>
+      </c>
+      <c r="E1329">
+        <v>2</v>
+      </c>
+      <c r="F1329">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1330">
+        <v>12</v>
+      </c>
+      <c r="C1330">
+        <v>32.6</v>
+      </c>
+      <c r="D1330">
+        <v>21.4</v>
+      </c>
+      <c r="E1330">
+        <v>8</v>
+      </c>
+      <c r="F1330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1331">
+        <v>12</v>
+      </c>
+      <c r="C1331">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D1331">
+        <v>21</v>
+      </c>
+      <c r="E1331">
+        <v>9</v>
+      </c>
+      <c r="F1331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1332">
+        <v>12</v>
+      </c>
+      <c r="C1332">
+        <v>31.6</v>
+      </c>
+      <c r="D1332">
+        <v>26.9</v>
+      </c>
+      <c r="E1332">
+        <v>9</v>
+      </c>
+      <c r="F1332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1333">
+        <v>12</v>
+      </c>
+      <c r="C1333">
+        <v>15.7</v>
+      </c>
+      <c r="D1333">
+        <v>41.7</v>
+      </c>
+      <c r="E1333">
+        <v>1</v>
+      </c>
+      <c r="F1333">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1334">
+        <v>12</v>
+      </c>
+      <c r="C1334">
+        <v>12.9</v>
+      </c>
+      <c r="D1334">
+        <v>29.9</v>
+      </c>
+      <c r="E1334">
+        <v>2</v>
+      </c>
+      <c r="F1334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1335">
+        <v>12</v>
+      </c>
+      <c r="C1335">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D1335">
+        <v>25.4</v>
+      </c>
+      <c r="E1335">
+        <v>6</v>
+      </c>
+      <c r="F1335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1336">
+        <v>12</v>
+      </c>
+      <c r="C1336">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D1336">
+        <v>21.5</v>
+      </c>
+      <c r="E1336">
+        <v>7</v>
+      </c>
+      <c r="F1336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1337">
+        <v>12</v>
+      </c>
+      <c r="C1337">
+        <v>31.8</v>
+      </c>
+      <c r="D1337">
+        <v>23.6</v>
+      </c>
+      <c r="E1337">
+        <v>6</v>
+      </c>
+      <c r="F1337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1338">
+        <v>12</v>
+      </c>
+      <c r="C1338">
+        <v>27.7</v>
+      </c>
+      <c r="D1338">
+        <v>30</v>
+      </c>
+      <c r="E1338">
+        <v>6</v>
+      </c>
+      <c r="F1338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1339">
+        <v>12</v>
+      </c>
+      <c r="C1339">
+        <v>31.9</v>
+      </c>
+      <c r="D1339">
+        <v>26.9</v>
+      </c>
+      <c r="E1339">
+        <v>6</v>
+      </c>
+      <c r="F1339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1340">
+        <v>12</v>
+      </c>
+      <c r="C1340">
+        <v>30.5</v>
+      </c>
+      <c r="D1340">
+        <v>23.8</v>
+      </c>
+      <c r="E1340">
+        <v>5</v>
+      </c>
+      <c r="F1340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1341">
+        <v>12</v>
+      </c>
+      <c r="C1341">
+        <v>19</v>
+      </c>
+      <c r="D1341">
+        <v>37.4</v>
+      </c>
+      <c r="E1341">
+        <v>4</v>
+      </c>
+      <c r="F1341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1342">
+        <v>12</v>
+      </c>
+      <c r="C1342">
+        <v>34</v>
+      </c>
+      <c r="D1342">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E1342">
+        <v>7</v>
+      </c>
+      <c r="F1342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1343">
+        <v>12</v>
+      </c>
+      <c r="C1343">
+        <v>30</v>
+      </c>
+      <c r="D1343">
+        <v>23.6</v>
+      </c>
+      <c r="E1343">
+        <v>6</v>
+      </c>
+      <c r="F1343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1344">
+        <v>12</v>
+      </c>
+      <c r="C1344">
+        <v>40.6</v>
+      </c>
+      <c r="D1344">
+        <v>11.6</v>
+      </c>
+      <c r="E1344">
+        <v>10</v>
+      </c>
+      <c r="F1344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1345">
+        <v>12</v>
+      </c>
+      <c r="C1345">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D1345">
+        <v>31.7</v>
+      </c>
+      <c r="E1345">
+        <v>5</v>
+      </c>
+      <c r="F1345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1346">
+        <v>12</v>
+      </c>
+      <c r="C1346">
+        <v>29.7</v>
+      </c>
+      <c r="D1346">
+        <v>30.4</v>
+      </c>
+      <c r="E1346">
+        <v>4</v>
+      </c>
+      <c r="F1346">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1347">
+        <v>12</v>
+      </c>
+      <c r="C1347">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D1347">
+        <v>28.7</v>
+      </c>
+      <c r="E1347">
+        <v>4</v>
+      </c>
+      <c r="F1347">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1348">
+        <v>12</v>
+      </c>
+      <c r="C1348">
+        <v>19.3</v>
+      </c>
+      <c r="D1348">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E1348">
+        <v>2</v>
+      </c>
+      <c r="F1348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1349">
+        <v>12</v>
+      </c>
+      <c r="C1349">
+        <v>37.4</v>
+      </c>
+      <c r="D1349">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E1349">
+        <v>6</v>
+      </c>
+      <c r="F1349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1350">
+        <v>12</v>
+      </c>
+      <c r="C1350">
+        <v>24.7</v>
+      </c>
+      <c r="D1350">
+        <v>12.5</v>
+      </c>
+      <c r="E1350">
+        <v>7</v>
+      </c>
+      <c r="F1350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1351">
+        <v>12</v>
+      </c>
+      <c r="C1351">
+        <v>22.4</v>
+      </c>
+      <c r="D1351">
+        <v>34.6</v>
+      </c>
+      <c r="E1351">
+        <v>3</v>
+      </c>
+      <c r="F1351">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1352">
+        <v>12</v>
+      </c>
+      <c r="C1352">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D1352">
+        <v>13.9</v>
+      </c>
+      <c r="E1352">
+        <v>6</v>
+      </c>
+      <c r="F1352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1353">
+        <v>12</v>
+      </c>
+      <c r="C1353">
+        <v>21.8</v>
+      </c>
+      <c r="D1353">
+        <v>16.7</v>
+      </c>
+      <c r="E1353">
+        <v>4</v>
+      </c>
+      <c r="F1353">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1354">
+        <v>12</v>
+      </c>
+      <c r="C1354">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D1354">
+        <v>20.3</v>
+      </c>
+      <c r="E1354">
+        <v>6</v>
+      </c>
+      <c r="F1354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1355">
+        <v>12</v>
+      </c>
+      <c r="C1355">
+        <v>36.9</v>
+      </c>
+      <c r="D1355">
+        <v>30.4</v>
+      </c>
+      <c r="E1355">
+        <v>6</v>
+      </c>
+      <c r="F1355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1356">
+        <v>12</v>
+      </c>
+      <c r="C1356">
+        <v>30.6</v>
+      </c>
+      <c r="D1356">
+        <v>17.5</v>
+      </c>
+      <c r="E1356">
+        <v>7</v>
+      </c>
+      <c r="F1356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1357">
+        <v>12</v>
+      </c>
+      <c r="C1357">
+        <v>28.7</v>
+      </c>
+      <c r="D1357">
+        <v>29</v>
+      </c>
+      <c r="E1357">
+        <v>4</v>
+      </c>
+      <c r="F1357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1358">
+        <v>12</v>
+      </c>
+      <c r="C1358">
+        <v>23.3</v>
+      </c>
+      <c r="D1358">
+        <v>20</v>
+      </c>
+      <c r="E1358">
+        <v>6</v>
+      </c>
+      <c r="F1358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1359">
+        <v>12</v>
+      </c>
+      <c r="C1359">
+        <v>30.3</v>
+      </c>
+      <c r="D1359">
+        <v>22.7</v>
+      </c>
+      <c r="E1359">
+        <v>8</v>
+      </c>
+      <c r="F1359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1360">
+        <v>12</v>
+      </c>
+      <c r="C1360">
+        <v>30</v>
+      </c>
+      <c r="D1360">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E1360">
+        <v>3</v>
+      </c>
+      <c r="F1360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1361">
+        <v>12</v>
+      </c>
+      <c r="C1361">
+        <v>26.6</v>
+      </c>
+      <c r="D1361">
+        <v>21.2</v>
+      </c>
+      <c r="E1361">
+        <v>5</v>
+      </c>
+      <c r="F1361">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1362">
+        <v>12</v>
+      </c>
+      <c r="C1362">
+        <v>24.2</v>
+      </c>
+      <c r="D1362">
+        <v>35.9</v>
+      </c>
+      <c r="E1362">
+        <v>4</v>
+      </c>
+      <c r="F1362">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1363" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1363">
+        <v>12</v>
+      </c>
+      <c r="C1363">
+        <v>28.8</v>
+      </c>
+      <c r="D1363">
+        <v>20.6</v>
+      </c>
+      <c r="E1363">
+        <v>6</v>
+      </c>
+      <c r="F1363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1364">
+        <v>12</v>
+      </c>
+      <c r="C1364">
+        <v>32.6</v>
+      </c>
+      <c r="D1364">
+        <v>21</v>
+      </c>
+      <c r="E1364">
+        <v>8</v>
+      </c>
+      <c r="F1364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1365">
+        <v>12</v>
+      </c>
+      <c r="C1365">
+        <v>23.9</v>
+      </c>
+      <c r="D1365">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1365">
+        <v>6</v>
+      </c>
+      <c r="F1365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1366">
+        <v>12</v>
+      </c>
+      <c r="C1366">
+        <v>28.3</v>
+      </c>
+      <c r="D1366">
+        <v>24.6</v>
+      </c>
+      <c r="E1366">
+        <v>6</v>
+      </c>
+      <c r="F1366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1367">
+        <v>12</v>
+      </c>
+      <c r="C1367">
+        <v>14</v>
+      </c>
+      <c r="D1367">
+        <v>30.9</v>
+      </c>
+      <c r="E1367">
+        <v>1</v>
+      </c>
+      <c r="F1367">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1368">
+        <v>12</v>
+      </c>
+      <c r="C1368">
+        <v>33.1</v>
+      </c>
+      <c r="D1368">
+        <v>29.4</v>
+      </c>
+      <c r="E1368">
+        <v>5</v>
+      </c>
+      <c r="F1368">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1369" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1369">
+        <v>12</v>
+      </c>
+      <c r="C1369">
+        <v>25.7</v>
+      </c>
+      <c r="D1369">
+        <v>23.9</v>
+      </c>
+      <c r="E1369">
+        <v>5</v>
+      </c>
+      <c r="F1369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1370" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1370">
+        <v>12</v>
+      </c>
+      <c r="C1370">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D1370">
+        <v>23</v>
+      </c>
+      <c r="E1370">
+        <v>4</v>
+      </c>
+      <c r="F1370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1371">
+        <v>12</v>
+      </c>
+      <c r="C1371">
+        <v>41.4</v>
+      </c>
+      <c r="D1371">
+        <v>11.2</v>
+      </c>
+      <c r="E1371">
+        <v>10</v>
+      </c>
+      <c r="F1371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1372" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1372">
+        <v>12</v>
+      </c>
+      <c r="C1372">
+        <v>24.6</v>
+      </c>
+      <c r="D1372">
+        <v>25.5</v>
+      </c>
+      <c r="E1372">
+        <v>5</v>
+      </c>
+      <c r="F1372">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1373" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1373">
+        <v>12</v>
+      </c>
+      <c r="C1373">
+        <v>26.8</v>
+      </c>
+      <c r="D1373">
+        <v>28.8</v>
+      </c>
+      <c r="E1373">
+        <v>5</v>
+      </c>
+      <c r="F1373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1374">
+        <v>12</v>
+      </c>
+      <c r="C1374">
+        <v>30.6</v>
+      </c>
+      <c r="D1374">
+        <v>13.1</v>
+      </c>
+      <c r="E1374">
+        <v>7</v>
+      </c>
+      <c r="F1374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1375">
+        <v>12</v>
+      </c>
+      <c r="C1375">
+        <v>36.1</v>
+      </c>
+      <c r="D1375">
+        <v>22.4</v>
+      </c>
+      <c r="E1375">
+        <v>8</v>
+      </c>
+      <c r="F1375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1376">
+        <v>12</v>
+      </c>
+      <c r="C1376">
+        <v>31.2</v>
+      </c>
+      <c r="D1376">
+        <v>26.1</v>
+      </c>
+      <c r="E1376">
+        <v>6</v>
+      </c>
+      <c r="F1376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1377">
+        <v>12</v>
+      </c>
+      <c r="C1377">
+        <v>23.2</v>
+      </c>
+      <c r="D1377">
+        <v>25.9</v>
+      </c>
+      <c r="E1377">
+        <v>4</v>
+      </c>
+      <c r="F1377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1378">
+        <v>12</v>
+      </c>
+      <c r="C1378">
+        <v>22.9</v>
+      </c>
+      <c r="D1378">
+        <v>25.8</v>
+      </c>
+      <c r="E1378">
+        <v>3</v>
+      </c>
+      <c r="F1378">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1379">
+        <v>12</v>
+      </c>
+      <c r="C1379">
+        <v>23.3</v>
+      </c>
+      <c r="D1379">
+        <v>29.9</v>
+      </c>
+      <c r="E1379">
+        <v>3</v>
+      </c>
+      <c r="F1379">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1380">
+        <v>12</v>
+      </c>
+      <c r="C1380">
+        <v>19</v>
+      </c>
+      <c r="D1380">
+        <v>30.3</v>
+      </c>
+      <c r="E1380">
+        <v>2</v>
+      </c>
+      <c r="F1380">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1381" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1381">
+        <v>12</v>
+      </c>
+      <c r="C1381">
+        <v>14.7</v>
+      </c>
+      <c r="D1381">
+        <v>26.1</v>
+      </c>
+      <c r="E1381">
+        <v>2</v>
+      </c>
+      <c r="F1381">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1382" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1382">
+        <v>12</v>
+      </c>
+      <c r="C1382">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D1382">
+        <v>25.6</v>
+      </c>
+      <c r="E1382">
+        <v>4</v>
+      </c>
+      <c r="F1382">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1383">
+        <v>12</v>
+      </c>
+      <c r="C1383">
+        <v>40.1</v>
+      </c>
+      <c r="D1383">
+        <v>31.3</v>
+      </c>
+      <c r="E1383">
+        <v>9</v>
+      </c>
+      <c r="F1383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1384">
+        <v>12</v>
+      </c>
+      <c r="C1384">
+        <v>26.4</v>
+      </c>
+      <c r="D1384">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E1384">
+        <v>7</v>
+      </c>
+      <c r="F1384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1385">
+        <v>12</v>
+      </c>
+      <c r="C1385">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D1385">
+        <v>31.3</v>
+      </c>
+      <c r="E1385">
+        <v>6</v>
+      </c>
+      <c r="F1385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1386">
+        <v>12</v>
+      </c>
+      <c r="C1386">
+        <v>29.2</v>
+      </c>
+      <c r="D1386">
+        <v>32</v>
+      </c>
+      <c r="E1386">
+        <v>3</v>
+      </c>
+      <c r="F1386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1387">
+        <v>12</v>
+      </c>
+      <c r="C1387">
+        <v>15.3</v>
+      </c>
+      <c r="D1387">
+        <v>28.2</v>
+      </c>
+      <c r="E1387">
+        <v>1</v>
+      </c>
+      <c r="F1387">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1388" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1388">
+        <v>12</v>
+      </c>
+      <c r="C1388">
+        <v>29.7</v>
+      </c>
+      <c r="D1388">
+        <v>22.3</v>
+      </c>
+      <c r="E1388">
+        <v>7</v>
+      </c>
+      <c r="F1388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1389" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1389">
+        <v>12</v>
+      </c>
+      <c r="C1389">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D1389">
+        <v>32</v>
+      </c>
+      <c r="E1389">
+        <v>7</v>
+      </c>
+      <c r="F1389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1390" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1390">
+        <v>12</v>
+      </c>
+      <c r="C1390">
+        <v>46.8</v>
+      </c>
+      <c r="D1390">
+        <v>15.6</v>
+      </c>
+      <c r="E1390">
+        <v>10</v>
+      </c>
+      <c r="F1390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1391" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1391">
+        <v>12</v>
+      </c>
+      <c r="C1391">
+        <v>31.9</v>
+      </c>
+      <c r="D1391">
+        <v>29.1</v>
+      </c>
+      <c r="E1391">
+        <v>5</v>
+      </c>
+      <c r="F1391">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1392" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1392">
+        <v>12</v>
+      </c>
+      <c r="C1392">
+        <v>34.9</v>
+      </c>
+      <c r="D1392">
+        <v>30</v>
+      </c>
+      <c r="E1392">
+        <v>7</v>
+      </c>
+      <c r="F1392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1393" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1393">
+        <v>12</v>
+      </c>
+      <c r="C1393">
+        <v>20</v>
+      </c>
+      <c r="D1393">
+        <v>26.5</v>
+      </c>
+      <c r="E1393">
+        <v>3</v>
+      </c>
+      <c r="F1393">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1394" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1394">
+        <v>12</v>
+      </c>
+      <c r="C1394">
+        <v>42.2</v>
+      </c>
+      <c r="D1394">
+        <v>27.4</v>
+      </c>
+      <c r="E1394">
+        <v>8</v>
+      </c>
+      <c r="F1394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1395" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1395">
+        <v>12</v>
+      </c>
+      <c r="C1395">
+        <v>32</v>
+      </c>
+      <c r="D1395">
+        <v>21.6</v>
+      </c>
+      <c r="E1395">
+        <v>7</v>
+      </c>
+      <c r="F1395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1396" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1396">
+        <v>12</v>
+      </c>
+      <c r="C1396">
+        <v>34</v>
+      </c>
+      <c r="D1396">
+        <v>19</v>
+      </c>
+      <c r="E1396">
+        <v>8</v>
+      </c>
+      <c r="F1396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1397" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1397">
+        <v>12</v>
+      </c>
+      <c r="C1397">
+        <v>30</v>
+      </c>
+      <c r="D1397">
+        <v>23.9</v>
+      </c>
+      <c r="E1397">
+        <v>6</v>
+      </c>
+      <c r="F1397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1398" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1398">
+        <v>12</v>
+      </c>
+      <c r="C1398">
+        <v>29.6</v>
+      </c>
+      <c r="D1398">
+        <v>25.2</v>
+      </c>
+      <c r="E1398">
+        <v>6</v>
+      </c>
+      <c r="F1398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1399" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1399">
+        <v>12</v>
+      </c>
+      <c r="C1399">
+        <v>28</v>
+      </c>
+      <c r="D1399">
+        <v>34.4</v>
+      </c>
+      <c r="E1399">
+        <v>5</v>
+      </c>
+      <c r="F1399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1400">
+        <v>12</v>
+      </c>
+      <c r="C1400">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D1400">
+        <v>25.9</v>
+      </c>
+      <c r="E1400">
+        <v>4</v>
+      </c>
+      <c r="F1400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1401">
+        <v>12</v>
+      </c>
+      <c r="C1401">
+        <v>21.9</v>
+      </c>
+      <c r="D1401">
+        <v>21.9</v>
+      </c>
+      <c r="E1401">
+        <v>6</v>
+      </c>
+      <c r="F1401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1402" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1402">
+        <v>12</v>
+      </c>
+      <c r="C1402">
+        <v>27.1</v>
+      </c>
+      <c r="D1402">
+        <v>19.3</v>
+      </c>
+      <c r="E1402">
+        <v>6</v>
+      </c>
+      <c r="F1402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1403" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1403">
+        <v>12</v>
+      </c>
+      <c r="C1403">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D1403">
+        <v>32.6</v>
+      </c>
+      <c r="E1403">
+        <v>6</v>
+      </c>
+      <c r="F1403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1404" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1404">
+        <v>12</v>
+      </c>
+      <c r="C1404">
+        <v>32.9</v>
+      </c>
+      <c r="D1404">
+        <v>19.3</v>
+      </c>
+      <c r="E1404">
+        <v>8</v>
+      </c>
+      <c r="F1404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1405" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1405">
+        <v>12</v>
+      </c>
+      <c r="C1405">
+        <v>28.6</v>
+      </c>
+      <c r="D1405">
+        <v>26.2</v>
+      </c>
+      <c r="E1405">
+        <v>6</v>
+      </c>
+      <c r="F1405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1406" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1406">
+        <v>12</v>
+      </c>
+      <c r="C1406">
+        <v>25.5</v>
+      </c>
+      <c r="D1406">
+        <v>40</v>
+      </c>
+      <c r="E1406">
+        <v>1</v>
+      </c>
+      <c r="F1406">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1407" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1407">
+        <v>12</v>
+      </c>
+      <c r="C1407">
+        <v>25.1</v>
+      </c>
+      <c r="D1407">
+        <v>24.5</v>
+      </c>
+      <c r="E1407">
+        <v>5</v>
+      </c>
+      <c r="F1407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1408" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1408">
+        <v>12</v>
+      </c>
+      <c r="C1408">
+        <v>21</v>
+      </c>
+      <c r="D1408">
+        <v>32.4</v>
+      </c>
+      <c r="E1408">
+        <v>3</v>
+      </c>
+      <c r="F1408">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1409" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1409">
+        <v>12</v>
+      </c>
+      <c r="C1409">
+        <v>27.3</v>
+      </c>
+      <c r="D1409">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E1409">
+        <v>6</v>
+      </c>
+      <c r="F1409">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1410" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1410">
+        <v>12</v>
+      </c>
+      <c r="C1410">
+        <v>40.5</v>
+      </c>
+      <c r="D1410">
+        <v>25.2</v>
+      </c>
+      <c r="E1410">
+        <v>10</v>
+      </c>
+      <c r="F1410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1411" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1411">
+        <v>12</v>
+      </c>
+      <c r="C1411">
+        <v>21.4</v>
+      </c>
+      <c r="D1411">
+        <v>27.9</v>
+      </c>
+      <c r="E1411">
+        <v>3</v>
+      </c>
+      <c r="F1411">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1412" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1412">
+        <v>12</v>
+      </c>
+      <c r="C1412">
+        <v>47.4</v>
+      </c>
+      <c r="D1412">
+        <v>21.9</v>
+      </c>
+      <c r="E1412">
+        <v>9</v>
+      </c>
+      <c r="F1412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1413" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1413">
+        <v>12</v>
+      </c>
+      <c r="C1413">
+        <v>33.5</v>
+      </c>
+      <c r="D1413">
+        <v>21.3</v>
+      </c>
+      <c r="E1413">
+        <v>6</v>
+      </c>
+      <c r="F1413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1414" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1414">
+        <v>12</v>
+      </c>
+      <c r="C1414">
+        <v>21.5</v>
+      </c>
+      <c r="D1414">
+        <v>22.8</v>
+      </c>
+      <c r="E1414">
+        <v>3</v>
+      </c>
+      <c r="F1414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1415" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1415">
+        <v>12</v>
+      </c>
+      <c r="C1415">
+        <v>22.4</v>
+      </c>
+      <c r="D1415">
+        <v>26.2</v>
+      </c>
+      <c r="E1415">
+        <v>3</v>
+      </c>
+      <c r="F1415">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1416" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1416">
+        <v>12</v>
+      </c>
+      <c r="C1416">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D1416">
+        <v>29.6</v>
+      </c>
+      <c r="E1416">
+        <v>5</v>
+      </c>
+      <c r="F1416">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1417" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1417">
+        <v>12</v>
+      </c>
+      <c r="C1417">
+        <v>35.1</v>
+      </c>
+      <c r="D1417">
+        <v>26.3</v>
+      </c>
+      <c r="E1417">
+        <v>7</v>
+      </c>
+      <c r="F1417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1418" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1418">
+        <v>12</v>
+      </c>
+      <c r="C1418">
+        <v>21.3</v>
+      </c>
+      <c r="D1418">
+        <v>16.7</v>
+      </c>
+      <c r="E1418">
+        <v>8</v>
+      </c>
+      <c r="F1418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1419" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1419">
+        <v>12</v>
+      </c>
+      <c r="C1419">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D1419">
+        <v>19</v>
+      </c>
+      <c r="E1419">
+        <v>8</v>
+      </c>
+      <c r="F1419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1420" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1420">
+        <v>12</v>
+      </c>
+      <c r="C1420">
+        <v>28.2</v>
+      </c>
+      <c r="D1420">
+        <v>32.5</v>
+      </c>
+      <c r="E1420">
+        <v>3</v>
+      </c>
+      <c r="F1420">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1421" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1421">
+        <v>12</v>
+      </c>
+      <c r="C1421">
+        <v>32</v>
+      </c>
+      <c r="D1421">
+        <v>21.3</v>
+      </c>
+      <c r="E1421">
+        <v>5</v>
+      </c>
+      <c r="F1421">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1422" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1422">
+        <v>12</v>
+      </c>
+      <c r="C1422">
+        <v>35.9</v>
+      </c>
+      <c r="D1422">
+        <v>20</v>
+      </c>
+      <c r="E1422">
+        <v>8</v>
+      </c>
+      <c r="F1422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1423" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1423">
+        <v>12</v>
+      </c>
+      <c r="C1423">
+        <v>39.5</v>
+      </c>
+      <c r="D1423">
+        <v>26.4</v>
+      </c>
+      <c r="E1423">
+        <v>8</v>
+      </c>
+      <c r="F1423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1424" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1424">
+        <v>12</v>
+      </c>
+      <c r="C1424">
+        <v>26.4</v>
+      </c>
+      <c r="D1424">
+        <v>28.9</v>
+      </c>
+      <c r="E1424">
+        <v>4</v>
+      </c>
+      <c r="F1424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1425" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1425">
+        <v>12</v>
+      </c>
+      <c r="C1425">
+        <v>42.4</v>
+      </c>
+      <c r="D1425">
+        <v>24.4</v>
+      </c>
+      <c r="E1425">
+        <v>9</v>
+      </c>
+      <c r="F1425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1426" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1426">
+        <v>12</v>
+      </c>
+      <c r="C1426">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D1426">
+        <v>20</v>
+      </c>
+      <c r="E1426">
+        <v>8</v>
+      </c>
+      <c r="F1426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1427" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1427">
+        <v>12</v>
+      </c>
+      <c r="C1427">
+        <v>22.1</v>
+      </c>
+      <c r="D1427">
+        <v>29.4</v>
+      </c>
+      <c r="E1427">
+        <v>5</v>
+      </c>
+      <c r="F1427">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1428" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1428">
+        <v>12</v>
+      </c>
+      <c r="C1428">
+        <v>22.2</v>
+      </c>
+      <c r="D1428">
+        <v>28.4</v>
+      </c>
+      <c r="E1428">
+        <v>4</v>
+      </c>
+      <c r="F1428">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1429" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1429">
+        <v>12</v>
+      </c>
+      <c r="C1429">
+        <v>38</v>
+      </c>
+      <c r="D1429">
+        <v>28</v>
+      </c>
+      <c r="E1429">
+        <v>8</v>
+      </c>
+      <c r="F1429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1430" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1430">
+        <v>12</v>
+      </c>
+      <c r="C1430">
+        <v>26.4</v>
+      </c>
+      <c r="D1430">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E1430">
+        <v>4</v>
+      </c>
+      <c r="F1430">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1431" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1431">
+        <v>12</v>
+      </c>
+      <c r="C1431">
+        <v>17</v>
+      </c>
+      <c r="D1431">
+        <v>24</v>
+      </c>
+      <c r="E1431">
+        <v>3</v>
+      </c>
+      <c r="F1431">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1432" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1432">
+        <v>12</v>
+      </c>
+      <c r="C1432">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D1432">
+        <v>25</v>
+      </c>
+      <c r="E1432">
+        <v>2</v>
+      </c>
+      <c r="F1432">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1433" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1433">
+        <v>12</v>
+      </c>
+      <c r="C1433">
+        <v>36.6</v>
+      </c>
+      <c r="D1433">
+        <v>28.2</v>
+      </c>
+      <c r="E1433">
+        <v>6</v>
+      </c>
+      <c r="F1433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1434" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1434">
+        <v>12</v>
+      </c>
+      <c r="C1434">
+        <v>38.4</v>
+      </c>
+      <c r="D1434">
+        <v>27.6</v>
+      </c>
+      <c r="E1434">
+        <v>8</v>
+      </c>
+      <c r="F1434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1435" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1435">
+        <v>12</v>
+      </c>
+      <c r="C1435">
+        <v>26.9</v>
+      </c>
+      <c r="D1435">
+        <v>19.8</v>
+      </c>
+      <c r="E1435">
+        <v>6</v>
+      </c>
+      <c r="F1435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1436" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1436">
+        <v>12</v>
+      </c>
+      <c r="C1436">
+        <v>31.2</v>
+      </c>
+      <c r="D1436">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E1436">
+        <v>4</v>
+      </c>
+      <c r="F1436">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1437" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1437">
+        <v>12</v>
+      </c>
+      <c r="C1437">
+        <v>37.9</v>
+      </c>
+      <c r="D1437">
+        <v>21.2</v>
+      </c>
+      <c r="E1437">
+        <v>7</v>
+      </c>
+      <c r="F1437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1438" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1438">
+        <v>12</v>
+      </c>
+      <c r="C1438">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D1438">
+        <v>26.5</v>
+      </c>
+      <c r="E1438">
+        <v>3</v>
+      </c>
+      <c r="F1438">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1439" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1439">
+        <v>12</v>
+      </c>
+      <c r="C1439">
+        <v>28.7</v>
+      </c>
+      <c r="D1439">
+        <v>20.9</v>
+      </c>
+      <c r="E1439">
+        <v>5</v>
+      </c>
+      <c r="F1439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1440" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1440">
+        <v>12</v>
+      </c>
+      <c r="C1440">
+        <v>23.2</v>
+      </c>
+      <c r="D1440">
+        <v>23.1</v>
+      </c>
+      <c r="E1440">
+        <v>7</v>
+      </c>
+      <c r="F1440">
         <v>3</v>
       </c>
     </row>
@@ -46712,10 +51203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
-    <sheetView topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227:B251"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49479,6 +53970,281 @@
       </c>
       <c r="C251" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>12</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>12</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>12</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>12</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>12</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>12</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>12</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
+      <c r="C259" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>12</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>12</v>
+      </c>
+      <c r="B261">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>12</v>
+      </c>
+      <c r="B262">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>12</v>
+      </c>
+      <c r="B263">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>12</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>12</v>
+      </c>
+      <c r="B265">
+        <v>14</v>
+      </c>
+      <c r="C265" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>12</v>
+      </c>
+      <c r="B266">
+        <v>15</v>
+      </c>
+      <c r="C266" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>12</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>12</v>
+      </c>
+      <c r="B268">
+        <v>17</v>
+      </c>
+      <c r="C268" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>12</v>
+      </c>
+      <c r="B269">
+        <v>18</v>
+      </c>
+      <c r="C269" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>12</v>
+      </c>
+      <c r="B270">
+        <v>19</v>
+      </c>
+      <c r="C270" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>12</v>
+      </c>
+      <c r="B271">
+        <v>20</v>
+      </c>
+      <c r="C271" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>12</v>
+      </c>
+      <c r="B272">
+        <v>21</v>
+      </c>
+      <c r="C272" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>12</v>
+      </c>
+      <c r="B273">
+        <v>22</v>
+      </c>
+      <c r="C273" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>12</v>
+      </c>
+      <c r="B274">
+        <v>23</v>
+      </c>
+      <c r="C274" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>12</v>
+      </c>
+      <c r="B275">
+        <v>24</v>
+      </c>
+      <c r="C275" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>12</v>
+      </c>
+      <c r="B276">
+        <v>25</v>
+      </c>
+      <c r="C276" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F7090-9D9E-9D4C-AB30-A279B89068AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96950E9-36D7-814E-87C7-FBAE59A5C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71040" yWindow="15740" windowWidth="37240" windowHeight="10280" activeTab="2" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="1940" yWindow="14160" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$343</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$1047</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="189">
   <si>
     <t>Time</t>
   </si>
@@ -988,11 +988,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
-  <dimension ref="A1:AA250"/>
+  <dimension ref="A1:AA278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A245" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="760" topLeftCell="A265" activePane="bottomLeft"/>
+      <selection sqref="A1:AA1"/>
+      <selection pane="bottomLeft" activeCell="O278" sqref="O278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20523,7 +20524,7 @@
         <v>157</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="G227">
         <v>2022</v>
@@ -20601,7 +20602,7 @@
         <v>130</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="G228">
         <v>2022</v>
@@ -20679,7 +20680,7 @@
         <v>163</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>767000</v>
       </c>
       <c r="G229">
         <v>2022</v>
@@ -20757,7 +20758,7 @@
         <v>165</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="G230">
         <v>2022</v>
@@ -20835,7 +20836,7 @@
         <v>161</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="G231">
         <v>2022</v>
@@ -20913,7 +20914,7 @@
         <v>152</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>610000</v>
       </c>
       <c r="G232">
         <v>2022</v>
@@ -20991,7 +20992,7 @@
         <v>23</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>5470000</v>
       </c>
       <c r="G233">
         <v>2022</v>
@@ -21069,7 +21070,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>4347000</v>
       </c>
       <c r="G234">
         <v>2022</v>
@@ -21147,7 +21148,7 @@
         <v>35</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1631000</v>
       </c>
       <c r="G235">
         <v>2022</v>
@@ -21225,7 +21226,7 @@
         <v>30</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>209000</v>
       </c>
       <c r="G236">
         <v>2022</v>
@@ -21303,7 +21304,7 @@
         <v>42</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>484000</v>
       </c>
       <c r="G237">
         <v>2022</v>
@@ -21369,19 +21370,19 @@
         <v>44884</v>
       </c>
       <c r="B238" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C238" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="D238" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="E238" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1265000</v>
       </c>
       <c r="G238">
         <v>2022</v>
@@ -21392,54 +21393,54 @@
       <c r="I238">
         <v>12</v>
       </c>
-      <c r="J238" t="str" cm="1">
+      <c r="J238" cm="1">
         <f t="array" ref="J238">_xlfn.XLOOKUP(D238&amp;I238,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>18</v>
+      </c>
+      <c r="K238" t="str" cm="1">
+        <f t="array" ref="K238">_xlfn.XLOOKUP(E238&amp;I238,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
-      <c r="K238" cm="1">
-        <f t="array" ref="K238">_xlfn.XLOOKUP(E238&amp;I238,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>1</v>
-      </c>
       <c r="L238" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M238" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O238" cm="1">
         <f t="array" ref="O238">_xlfn.XLOOKUP(D238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>23.3</v>
+        <v>29.7</v>
       </c>
       <c r="P238" cm="1">
         <f t="array" ref="P238">_xlfn.XLOOKUP(D238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>20</v>
+        <v>22.3</v>
       </c>
       <c r="Q238" cm="1">
         <f t="array" ref="Q238">_xlfn.XLOOKUP(E238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>40.6</v>
+        <v>19</v>
       </c>
       <c r="R238" cm="1">
         <f t="array" ref="R238">_xlfn.XLOOKUP(E238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>11.6</v>
+        <v>28.8</v>
       </c>
       <c r="X238" cm="1">
         <f t="array" ref="X238">_xlfn.XLOOKUP(D238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y238" cm="1">
         <f t="array" ref="Y238">_xlfn.XLOOKUP(D238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z238" cm="1">
         <f t="array" ref="Z238">_xlfn.XLOOKUP(E238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA238" cm="1">
         <f t="array" ref="AA238">_xlfn.XLOOKUP(E238&amp;I238,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
@@ -21450,16 +21451,16 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C239" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D239" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="E239" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>4482000</v>
       </c>
       <c r="G239">
         <v>2022</v>
@@ -21476,32 +21477,32 @@
       </c>
       <c r="K239" cm="1">
         <f t="array" ref="K239">_xlfn.XLOOKUP(E239&amp;I239,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L239" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M239" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N239">
         <v>1</v>
       </c>
       <c r="O239" cm="1">
         <f t="array" ref="O239">_xlfn.XLOOKUP(D239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>28.3</v>
+        <v>23.3</v>
       </c>
       <c r="P239" cm="1">
         <f t="array" ref="P239">_xlfn.XLOOKUP(D239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>24.6</v>
+        <v>20</v>
       </c>
       <c r="Q239" cm="1">
         <f t="array" ref="Q239">_xlfn.XLOOKUP(E239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>46.8</v>
+        <v>40.6</v>
       </c>
       <c r="R239" cm="1">
         <f t="array" ref="R239">_xlfn.XLOOKUP(E239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>15.6</v>
+        <v>11.6</v>
       </c>
       <c r="X239" cm="1">
         <f t="array" ref="X239">_xlfn.XLOOKUP(D239&amp;I239,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
@@ -21528,16 +21529,16 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D240" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="E240" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>6599000</v>
       </c>
       <c r="G240">
         <v>2022</v>
@@ -21548,54 +21549,54 @@
       <c r="I240">
         <v>12</v>
       </c>
-      <c r="J240" cm="1">
+      <c r="J240" t="str" cm="1">
         <f t="array" ref="J240">_xlfn.XLOOKUP(D240&amp;I240,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>9</v>
-      </c>
-      <c r="K240" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="K240" cm="1">
         <f t="array" ref="K240">_xlfn.XLOOKUP(E240&amp;I240,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="L240" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M240" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N240">
         <v>1</v>
       </c>
       <c r="O240" cm="1">
         <f t="array" ref="O240">_xlfn.XLOOKUP(D240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>34.200000000000003</v>
+        <v>28.3</v>
       </c>
       <c r="P240" cm="1">
         <f t="array" ref="P240">_xlfn.XLOOKUP(D240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>21</v>
+        <v>24.6</v>
       </c>
       <c r="Q240" cm="1">
         <f t="array" ref="Q240">_xlfn.XLOOKUP(E240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>25.7</v>
+        <v>46.8</v>
       </c>
       <c r="R240" cm="1">
         <f t="array" ref="R240">_xlfn.XLOOKUP(E240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>23.9</v>
+        <v>15.6</v>
       </c>
       <c r="X240" cm="1">
         <f t="array" ref="X240">_xlfn.XLOOKUP(D240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y240" cm="1">
         <f t="array" ref="Y240">_xlfn.XLOOKUP(D240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z240" cm="1">
         <f t="array" ref="Z240">_xlfn.XLOOKUP(E240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA240" cm="1">
         <f t="array" ref="AA240">_xlfn.XLOOKUP(E240&amp;I240,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
@@ -21606,16 +21607,16 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C241" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="E241" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1142000</v>
       </c>
       <c r="G241">
         <v>2022</v>
@@ -21626,54 +21627,54 @@
       <c r="I241">
         <v>12</v>
       </c>
-      <c r="J241" t="str" cm="1">
+      <c r="J241" cm="1">
         <f t="array" ref="J241">_xlfn.XLOOKUP(D241&amp;I241,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="K241" t="str" cm="1">
         <f t="array" ref="K241">_xlfn.XLOOKUP(E241&amp;I241,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
       <c r="L241" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M241" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N241">
         <v>1</v>
       </c>
       <c r="O241" cm="1">
         <f t="array" ref="O241">_xlfn.XLOOKUP(D241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>36.9</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P241" cm="1">
         <f t="array" ref="P241">_xlfn.XLOOKUP(D241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>30.4</v>
+        <v>21</v>
       </c>
       <c r="Q241" cm="1">
         <f t="array" ref="Q241">_xlfn.XLOOKUP(E241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>33.5</v>
+        <v>25.7</v>
       </c>
       <c r="R241" cm="1">
         <f t="array" ref="R241">_xlfn.XLOOKUP(E241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>21.3</v>
+        <v>23.9</v>
       </c>
       <c r="X241" cm="1">
         <f t="array" ref="X241">_xlfn.XLOOKUP(D241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y241" cm="1">
         <f t="array" ref="Y241">_xlfn.XLOOKUP(D241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z241" cm="1">
         <f t="array" ref="Z241">_xlfn.XLOOKUP(E241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA241" cm="1">
         <f t="array" ref="AA241">_xlfn.XLOOKUP(E241&amp;I241,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
@@ -21681,19 +21682,19 @@
         <v>44884</v>
       </c>
       <c r="B242" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D242" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E242" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>940000</v>
       </c>
       <c r="G242">
         <v>2022</v>
@@ -21713,37 +21714,37 @@
         <v/>
       </c>
       <c r="L242" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M242" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N242">
         <v>1</v>
       </c>
       <c r="O242" cm="1">
         <f t="array" ref="O242">_xlfn.XLOOKUP(D242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>30.6</v>
+        <v>36.9</v>
       </c>
       <c r="P242" cm="1">
         <f t="array" ref="P242">_xlfn.XLOOKUP(D242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>13.1</v>
+        <v>30.4</v>
       </c>
       <c r="Q242" cm="1">
         <f t="array" ref="Q242">_xlfn.XLOOKUP(E242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>17.899999999999999</v>
+        <v>33.5</v>
       </c>
       <c r="R242" cm="1">
         <f t="array" ref="R242">_xlfn.XLOOKUP(E242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>13.9</v>
+        <v>21.3</v>
       </c>
       <c r="X242" cm="1">
         <f t="array" ref="X242">_xlfn.XLOOKUP(D242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y242" cm="1">
         <f t="array" ref="Y242">_xlfn.XLOOKUP(D242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z242" cm="1">
         <f t="array" ref="Z242">_xlfn.XLOOKUP(E242&amp;I242,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
@@ -21759,19 +21760,19 @@
         <v>44884</v>
       </c>
       <c r="B243" s="2">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C243" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E243" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>2496000</v>
       </c>
       <c r="G243">
         <v>2022</v>
@@ -21782,54 +21783,54 @@
       <c r="I243">
         <v>12</v>
       </c>
-      <c r="J243" cm="1">
+      <c r="J243" t="str" cm="1">
         <f t="array" ref="J243">_xlfn.XLOOKUP(D243&amp;I243,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="K243" t="str" cm="1">
         <f t="array" ref="K243">_xlfn.XLOOKUP(E243&amp;I243,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
       <c r="L243" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M243" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N243">
         <v>1</v>
       </c>
       <c r="O243" cm="1">
         <f t="array" ref="O243">_xlfn.XLOOKUP(D243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>40.1</v>
+        <v>30.6</v>
       </c>
       <c r="P243" cm="1">
         <f t="array" ref="P243">_xlfn.XLOOKUP(D243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>31.3</v>
+        <v>13.1</v>
       </c>
       <c r="Q243" cm="1">
         <f t="array" ref="Q243">_xlfn.XLOOKUP(E243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>17.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="R243" cm="1">
         <f t="array" ref="R243">_xlfn.XLOOKUP(E243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>28.7</v>
+        <v>13.9</v>
       </c>
       <c r="X243" cm="1">
         <f t="array" ref="X243">_xlfn.XLOOKUP(D243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y243" cm="1">
         <f t="array" ref="Y243">_xlfn.XLOOKUP(D243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z243" cm="1">
         <f t="array" ref="Z243">_xlfn.XLOOKUP(E243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA243" cm="1">
         <f t="array" ref="AA243">_xlfn.XLOOKUP(E243&amp;I243,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
@@ -21837,19 +21838,19 @@
         <v>44884</v>
       </c>
       <c r="B244" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D244" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E244" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>732000</v>
       </c>
       <c r="G244">
         <v>2022</v>
@@ -21860,54 +21861,54 @@
       <c r="I244">
         <v>12</v>
       </c>
-      <c r="J244" t="str" cm="1">
+      <c r="J244" cm="1">
         <f t="array" ref="J244">_xlfn.XLOOKUP(D244&amp;I244,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>13</v>
+      </c>
+      <c r="K244" t="str" cm="1">
+        <f t="array" ref="K244">_xlfn.XLOOKUP(E244&amp;I244,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
-      <c r="K244" cm="1">
-        <f t="array" ref="K244">_xlfn.XLOOKUP(E244&amp;I244,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>5</v>
-      </c>
       <c r="L244" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M244" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N244">
         <v>1</v>
       </c>
       <c r="O244" cm="1">
         <f t="array" ref="O244">_xlfn.XLOOKUP(D244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>28.6</v>
+        <v>40.1</v>
       </c>
       <c r="P244" cm="1">
         <f t="array" ref="P244">_xlfn.XLOOKUP(D244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>26.2</v>
+        <v>31.3</v>
       </c>
       <c r="Q244" cm="1">
         <f t="array" ref="Q244">_xlfn.XLOOKUP(E244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>47.4</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="R244" cm="1">
         <f t="array" ref="R244">_xlfn.XLOOKUP(E244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>21.9</v>
+        <v>28.7</v>
       </c>
       <c r="X244" cm="1">
         <f t="array" ref="X244">_xlfn.XLOOKUP(D244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y244" cm="1">
         <f t="array" ref="Y244">_xlfn.XLOOKUP(D244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z244" cm="1">
         <f t="array" ref="Z244">_xlfn.XLOOKUP(E244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA244" cm="1">
         <f t="array" ref="AA244">_xlfn.XLOOKUP(E244&amp;I244,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
@@ -21918,16 +21919,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C245" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D245" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E245" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>4867000</v>
       </c>
       <c r="G245">
         <v>2022</v>
@@ -21942,50 +21943,50 @@
         <f t="array" ref="J245">_xlfn.XLOOKUP(D245&amp;I245,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
-      <c r="K245" t="str" cm="1">
+      <c r="K245" cm="1">
         <f t="array" ref="K245">_xlfn.XLOOKUP(E245&amp;I245,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="L245" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M245" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N245">
         <v>1</v>
       </c>
       <c r="O245" cm="1">
         <f t="array" ref="O245">_xlfn.XLOOKUP(D245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>21.8</v>
+        <v>28.6</v>
       </c>
       <c r="P245" cm="1">
         <f t="array" ref="P245">_xlfn.XLOOKUP(D245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>16.7</v>
+        <v>26.2</v>
       </c>
       <c r="Q245" cm="1">
         <f t="array" ref="Q245">_xlfn.XLOOKUP(E245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>33.799999999999997</v>
+        <v>47.4</v>
       </c>
       <c r="R245" cm="1">
         <f t="array" ref="R245">_xlfn.XLOOKUP(E245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>29.6</v>
+        <v>21.9</v>
       </c>
       <c r="X245" cm="1">
         <f t="array" ref="X245">_xlfn.XLOOKUP(D245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y245" cm="1">
         <f t="array" ref="Y245">_xlfn.XLOOKUP(D245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z245" cm="1">
         <f t="array" ref="Z245">_xlfn.XLOOKUP(E245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA245" cm="1">
         <f t="array" ref="AA245">_xlfn.XLOOKUP(E245&amp;I245,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
@@ -21993,19 +21994,19 @@
         <v>44884</v>
       </c>
       <c r="B246" s="2">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C246" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D246" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="E246" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>545000</v>
       </c>
       <c r="G246">
         <v>2022</v>
@@ -22020,9 +22021,9 @@
         <f t="array" ref="J246">_xlfn.XLOOKUP(D246&amp;I246,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
-      <c r="K246" cm="1">
+      <c r="K246" t="str" cm="1">
         <f t="array" ref="K246">_xlfn.XLOOKUP(E246&amp;I246,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="L246" t="s">
         <v>71</v>
@@ -22035,35 +22036,35 @@
       </c>
       <c r="O246" cm="1">
         <f t="array" ref="O246">_xlfn.XLOOKUP(D246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>31.9</v>
+        <v>21.8</v>
       </c>
       <c r="P246" cm="1">
         <f t="array" ref="P246">_xlfn.XLOOKUP(D246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>29.1</v>
+        <v>16.7</v>
       </c>
       <c r="Q246" cm="1">
         <f t="array" ref="Q246">_xlfn.XLOOKUP(E246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>34.9</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="R246" cm="1">
         <f t="array" ref="R246">_xlfn.XLOOKUP(E246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="X246" cm="1">
         <f t="array" ref="X246">_xlfn.XLOOKUP(D246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y246" cm="1">
         <f t="array" ref="Y246">_xlfn.XLOOKUP(D246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z246" cm="1">
         <f t="array" ref="Z246">_xlfn.XLOOKUP(E246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA246" cm="1">
         <f t="array" ref="AA246">_xlfn.XLOOKUP(E246&amp;I246,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
@@ -22071,19 +22072,19 @@
         <v>44884</v>
       </c>
       <c r="B247" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="C247" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D247" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="E247" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>3058000</v>
       </c>
       <c r="G247">
         <v>2022</v>
@@ -22094,54 +22095,54 @@
       <c r="I247">
         <v>12</v>
       </c>
-      <c r="J247" cm="1">
+      <c r="J247" t="str" cm="1">
         <f t="array" ref="J247">_xlfn.XLOOKUP(D247&amp;I247,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="K247" cm="1">
         <f t="array" ref="K247">_xlfn.XLOOKUP(E247&amp;I247,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L247" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M247" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="N247">
         <v>1</v>
       </c>
       <c r="O247" cm="1">
         <f t="array" ref="O247">_xlfn.XLOOKUP(D247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>39.5</v>
+        <v>31.9</v>
       </c>
       <c r="P247" cm="1">
         <f t="array" ref="P247">_xlfn.XLOOKUP(D247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>26.4</v>
+        <v>29.1</v>
       </c>
       <c r="Q247" cm="1">
         <f t="array" ref="Q247">_xlfn.XLOOKUP(E247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>42.4</v>
+        <v>34.9</v>
       </c>
       <c r="R247" cm="1">
         <f t="array" ref="R247">_xlfn.XLOOKUP(E247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>24.4</v>
+        <v>30</v>
       </c>
       <c r="X247" cm="1">
         <f t="array" ref="X247">_xlfn.XLOOKUP(D247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y247" cm="1">
         <f t="array" ref="Y247">_xlfn.XLOOKUP(D247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z247" cm="1">
         <f t="array" ref="Z247">_xlfn.XLOOKUP(E247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA247" cm="1">
         <f t="array" ref="AA247">_xlfn.XLOOKUP(E247&amp;I247,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
@@ -22149,19 +22150,19 @@
         <v>44884</v>
       </c>
       <c r="B248" s="2">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C248" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="E248" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>4528000</v>
       </c>
       <c r="G248">
         <v>2022</v>
@@ -22174,36 +22175,36 @@
       </c>
       <c r="J248" cm="1">
         <f t="array" ref="J248">_xlfn.XLOOKUP(D248&amp;I248,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>6</v>
-      </c>
-      <c r="K248" t="str" cm="1">
+        <v>16</v>
+      </c>
+      <c r="K248" cm="1">
         <f t="array" ref="K248">_xlfn.XLOOKUP(E248&amp;I248,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L248" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M248" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="N248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O248" cm="1">
         <f t="array" ref="O248">_xlfn.XLOOKUP(D248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>32.6</v>
+        <v>39.5</v>
       </c>
       <c r="P248" cm="1">
         <f t="array" ref="P248">_xlfn.XLOOKUP(D248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="Q248" cm="1">
         <f t="array" ref="Q248">_xlfn.XLOOKUP(E248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>32</v>
+        <v>42.4</v>
       </c>
       <c r="R248" cm="1">
         <f t="array" ref="R248">_xlfn.XLOOKUP(E248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>21.3</v>
+        <v>24.4</v>
       </c>
       <c r="X248" cm="1">
         <f t="array" ref="X248">_xlfn.XLOOKUP(D248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
@@ -22215,11 +22216,11 @@
       </c>
       <c r="Z248" cm="1">
         <f t="array" ref="Z248">_xlfn.XLOOKUP(E248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA248" cm="1">
         <f t="array" ref="AA248">_xlfn.XLOOKUP(E248&amp;I248,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
@@ -22227,19 +22228,19 @@
         <v>44884</v>
       </c>
       <c r="B249" s="2">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="C249" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D249" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E249" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>848000</v>
       </c>
       <c r="G249">
         <v>2022</v>
@@ -22250,54 +22251,54 @@
       <c r="I249">
         <v>12</v>
       </c>
-      <c r="J249" t="str" cm="1">
+      <c r="J249" cm="1">
         <f t="array" ref="J249">_xlfn.XLOOKUP(D249&amp;I249,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="K249" t="str" cm="1">
         <f t="array" ref="K249">_xlfn.XLOOKUP(E249&amp;I249,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
         <v/>
       </c>
       <c r="L249" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M249" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="N249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O249" cm="1">
         <f t="array" ref="O249">_xlfn.XLOOKUP(D249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>22.1</v>
+        <v>32.6</v>
       </c>
       <c r="P249" cm="1">
         <f t="array" ref="P249">_xlfn.XLOOKUP(D249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>29.4</v>
+        <v>21</v>
       </c>
       <c r="Q249" cm="1">
         <f t="array" ref="Q249">_xlfn.XLOOKUP(E249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>27.1</v>
+        <v>32</v>
       </c>
       <c r="R249" cm="1">
         <f t="array" ref="R249">_xlfn.XLOOKUP(E249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>19.3</v>
+        <v>21.3</v>
       </c>
       <c r="X249" cm="1">
         <f t="array" ref="X249">_xlfn.XLOOKUP(D249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y249" cm="1">
         <f t="array" ref="Y249">_xlfn.XLOOKUP(D249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z249" cm="1">
         <f t="array" ref="Z249">_xlfn.XLOOKUP(E249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA249" cm="1">
         <f t="array" ref="AA249">_xlfn.XLOOKUP(E249&amp;I249,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
@@ -22305,19 +22306,19 @@
         <v>44884</v>
       </c>
       <c r="B250" s="2">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D250" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E250" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>128000</v>
       </c>
       <c r="G250">
         <v>2022</v>
@@ -22328,58 +22329,2242 @@
       <c r="I250">
         <v>12</v>
       </c>
-      <c r="J250" cm="1">
+      <c r="J250" t="str" cm="1">
         <f t="array" ref="J250">_xlfn.XLOOKUP(D250&amp;I250,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>12</v>
-      </c>
-      <c r="K250" cm="1">
+        <v/>
+      </c>
+      <c r="K250" t="str" cm="1">
         <f t="array" ref="K250">_xlfn.XLOOKUP(E250&amp;I250,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="L250" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M250" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N250">
         <v>1</v>
       </c>
       <c r="O250" cm="1">
         <f t="array" ref="O250">_xlfn.XLOOKUP(D250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>42.2</v>
+        <v>22.1</v>
       </c>
       <c r="P250" cm="1">
         <f t="array" ref="P250">_xlfn.XLOOKUP(D250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>27.4</v>
+        <v>29.4</v>
       </c>
       <c r="Q250" cm="1">
         <f t="array" ref="Q250">_xlfn.XLOOKUP(E250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
-        <v>39.299999999999997</v>
+        <v>27.1</v>
       </c>
       <c r="R250" cm="1">
         <f t="array" ref="R250">_xlfn.XLOOKUP(E250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
-        <v>20</v>
+        <v>19.3</v>
       </c>
       <c r="X250" cm="1">
         <f t="array" ref="X250">_xlfn.XLOOKUP(D250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y250" cm="1">
         <f t="array" ref="Y250">_xlfn.XLOOKUP(D250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z250" cm="1">
         <f t="array" ref="Z250">_xlfn.XLOOKUP(E250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA250" cm="1">
         <f t="array" ref="AA250">_xlfn.XLOOKUP(E250&amp;I250,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C251" t="s">
+        <v>25</v>
+      </c>
+      <c r="D251" t="s">
+        <v>49</v>
+      </c>
+      <c r="E251" t="s">
+        <v>53</v>
+      </c>
+      <c r="F251">
+        <v>2544000</v>
+      </c>
+      <c r="G251">
+        <v>2022</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>12</v>
+      </c>
+      <c r="J251" cm="1">
+        <f t="array" ref="J251">_xlfn.XLOOKUP(D251&amp;I251,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>12</v>
+      </c>
+      <c r="K251" cm="1">
+        <f t="array" ref="K251">_xlfn.XLOOKUP(E251&amp;I251,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>10</v>
+      </c>
+      <c r="L251" t="s">
+        <v>65</v>
+      </c>
+      <c r="M251" t="s">
+        <v>65</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" cm="1">
+        <f t="array" ref="O251">_xlfn.XLOOKUP(D251&amp;I251,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.2</v>
+      </c>
+      <c r="P251" cm="1">
+        <f t="array" ref="P251">_xlfn.XLOOKUP(D251&amp;I251,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.4</v>
+      </c>
+      <c r="Q251" cm="1">
+        <f t="array" ref="Q251">_xlfn.XLOOKUP(E251&amp;I251,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R251" cm="1">
+        <f t="array" ref="R251">_xlfn.XLOOKUP(E251&amp;I251,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20</v>
+      </c>
+      <c r="X251" cm="1">
+        <f t="array" ref="X251">_xlfn.XLOOKUP(D251&amp;I251,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y251" cm="1">
+        <f t="array" ref="Y251">_xlfn.XLOOKUP(D251&amp;I251,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z251" cm="1">
+        <f t="array" ref="Z251">_xlfn.XLOOKUP(E251&amp;I251,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA251" cm="1">
+        <f t="array" ref="AA251">_xlfn.XLOOKUP(E251&amp;I251,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C252" t="s">
+        <v>25</v>
+      </c>
+      <c r="D252" t="s">
+        <v>151</v>
+      </c>
+      <c r="E252" t="s">
+        <v>113</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>2022</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>13</v>
+      </c>
+      <c r="J252" cm="1">
+        <f t="array" ref="J252">_xlfn.XLOOKUP(D252&amp;I252,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>20</v>
+      </c>
+      <c r="K252" t="str" cm="1">
+        <f t="array" ref="K252">_xlfn.XLOOKUP(E252&amp;I252,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L252" t="s">
+        <v>70</v>
+      </c>
+      <c r="M252" t="s">
+        <v>70</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" cm="1">
+        <f t="array" ref="O252">_xlfn.XLOOKUP(D252&amp;I252,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="P252" cm="1">
+        <f t="array" ref="P252">_xlfn.XLOOKUP(D252&amp;I252,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.2</v>
+      </c>
+      <c r="Q252" cm="1">
+        <f t="array" ref="Q252">_xlfn.XLOOKUP(E252&amp;I252,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.5</v>
+      </c>
+      <c r="R252" cm="1">
+        <f t="array" ref="R252">_xlfn.XLOOKUP(E252&amp;I252,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.4</v>
+      </c>
+      <c r="X252" cm="1">
+        <f t="array" ref="X252">_xlfn.XLOOKUP(D252&amp;I252,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y252" cm="1">
+        <f t="array" ref="Y252">_xlfn.XLOOKUP(D252&amp;I252,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z252" cm="1">
+        <f t="array" ref="Z252">_xlfn.XLOOKUP(E252&amp;I252,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA252" cm="1">
+        <f t="array" ref="AA252">_xlfn.XLOOKUP(E252&amp;I252,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B253" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>33</v>
+      </c>
+      <c r="D253" t="s">
+        <v>57</v>
+      </c>
+      <c r="E253" t="s">
+        <v>173</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>2022</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>13</v>
+      </c>
+      <c r="J253" cm="1">
+        <f t="array" ref="J253">_xlfn.XLOOKUP(D253&amp;I253,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>24</v>
+      </c>
+      <c r="K253" cm="1">
+        <f t="array" ref="K253">_xlfn.XLOOKUP(E253&amp;I253,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>19</v>
+      </c>
+      <c r="L253" t="s">
+        <v>68</v>
+      </c>
+      <c r="M253" t="s">
+        <v>68</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" cm="1">
+        <f t="array" ref="O253">_xlfn.XLOOKUP(D253&amp;I253,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.7</v>
+      </c>
+      <c r="P253" cm="1">
+        <f t="array" ref="P253">_xlfn.XLOOKUP(D253&amp;I253,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.7</v>
+      </c>
+      <c r="Q253" cm="1">
+        <f t="array" ref="Q253">_xlfn.XLOOKUP(E253&amp;I253,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.1</v>
+      </c>
+      <c r="R253" cm="1">
+        <f t="array" ref="R253">_xlfn.XLOOKUP(E253&amp;I253,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.5</v>
+      </c>
+      <c r="X253" cm="1">
+        <f t="array" ref="X253">_xlfn.XLOOKUP(D253&amp;I253,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y253" cm="1">
+        <f t="array" ref="Y253">_xlfn.XLOOKUP(D253&amp;I253,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z253" cm="1">
+        <f t="array" ref="Z253">_xlfn.XLOOKUP(E253&amp;I253,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA253" cm="1">
+        <f t="array" ref="AA253">_xlfn.XLOOKUP(E253&amp;I253,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B254" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>25</v>
+      </c>
+      <c r="D254" t="s">
+        <v>90</v>
+      </c>
+      <c r="E254" t="s">
+        <v>98</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>2022</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>13</v>
+      </c>
+      <c r="J254" cm="1">
+        <f t="array" ref="J254">_xlfn.XLOOKUP(D254&amp;I254,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>23</v>
+      </c>
+      <c r="K254" t="str" cm="1">
+        <f t="array" ref="K254">_xlfn.XLOOKUP(E254&amp;I254,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L254" t="s">
+        <v>71</v>
+      </c>
+      <c r="M254" t="s">
+        <v>71</v>
+      </c>
+      <c r="N254">
+        <v>1</v>
+      </c>
+      <c r="O254" cm="1">
+        <f t="array" ref="O254">_xlfn.XLOOKUP(D254&amp;I254,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.5</v>
+      </c>
+      <c r="P254" cm="1">
+        <f t="array" ref="P254">_xlfn.XLOOKUP(D254&amp;I254,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.6</v>
+      </c>
+      <c r="Q254" cm="1">
+        <f t="array" ref="Q254">_xlfn.XLOOKUP(E254&amp;I254,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="R254" cm="1">
+        <f t="array" ref="R254">_xlfn.XLOOKUP(E254&amp;I254,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.5</v>
+      </c>
+      <c r="X254" cm="1">
+        <f t="array" ref="X254">_xlfn.XLOOKUP(D254&amp;I254,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y254" cm="1">
+        <f t="array" ref="Y254">_xlfn.XLOOKUP(D254&amp;I254,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z254" cm="1">
+        <f t="array" ref="Z254">_xlfn.XLOOKUP(E254&amp;I254,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA254" cm="1">
+        <f t="array" ref="AA254">_xlfn.XLOOKUP(E254&amp;I254,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>54</v>
+      </c>
+      <c r="D255" t="s">
+        <v>27</v>
+      </c>
+      <c r="E255" t="s">
+        <v>58</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>2022</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>13</v>
+      </c>
+      <c r="J255" t="str" cm="1">
+        <f t="array" ref="J255">_xlfn.XLOOKUP(D255&amp;I255,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K255" t="str" cm="1">
+        <f t="array" ref="K255">_xlfn.XLOOKUP(E255&amp;I255,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L255" t="s">
+        <v>66</v>
+      </c>
+      <c r="M255" t="s">
+        <v>66</v>
+      </c>
+      <c r="N255">
+        <v>1</v>
+      </c>
+      <c r="O255" cm="1">
+        <f t="array" ref="O255">_xlfn.XLOOKUP(D255&amp;I255,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.1</v>
+      </c>
+      <c r="P255" cm="1">
+        <f t="array" ref="P255">_xlfn.XLOOKUP(D255&amp;I255,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.3</v>
+      </c>
+      <c r="Q255" cm="1">
+        <f t="array" ref="Q255">_xlfn.XLOOKUP(E255&amp;I255,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.3</v>
+      </c>
+      <c r="R255" cm="1">
+        <f t="array" ref="R255">_xlfn.XLOOKUP(E255&amp;I255,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.5</v>
+      </c>
+      <c r="X255" cm="1">
+        <f t="array" ref="X255">_xlfn.XLOOKUP(D255&amp;I255,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y255" cm="1">
+        <f t="array" ref="Y255">_xlfn.XLOOKUP(D255&amp;I255,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z255" cm="1">
+        <f t="array" ref="Z255">_xlfn.XLOOKUP(E255&amp;I255,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA255" cm="1">
+        <f t="array" ref="AA255">_xlfn.XLOOKUP(E255&amp;I255,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C256" t="s">
+        <v>31</v>
+      </c>
+      <c r="D256" t="s">
+        <v>112</v>
+      </c>
+      <c r="E256" t="s">
+        <v>96</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>2022</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>13</v>
+      </c>
+      <c r="J256" t="str" cm="1">
+        <f t="array" ref="J256">_xlfn.XLOOKUP(D256&amp;I256,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K256" t="str" cm="1">
+        <f t="array" ref="K256">_xlfn.XLOOKUP(E256&amp;I256,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L256" t="s">
+        <v>65</v>
+      </c>
+      <c r="M256" t="s">
+        <v>65</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" cm="1">
+        <f t="array" ref="O256">_xlfn.XLOOKUP(D256&amp;I256,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.2</v>
+      </c>
+      <c r="P256" cm="1">
+        <f t="array" ref="P256">_xlfn.XLOOKUP(D256&amp;I256,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>36.6</v>
+      </c>
+      <c r="Q256" cm="1">
+        <f t="array" ref="Q256">_xlfn.XLOOKUP(E256&amp;I256,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.3</v>
+      </c>
+      <c r="R256" cm="1">
+        <f t="array" ref="R256">_xlfn.XLOOKUP(E256&amp;I256,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.8</v>
+      </c>
+      <c r="X256" cm="1">
+        <f t="array" ref="X256">_xlfn.XLOOKUP(D256&amp;I256,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y256" cm="1">
+        <f t="array" ref="Y256">_xlfn.XLOOKUP(D256&amp;I256,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Z256" cm="1">
+        <f t="array" ref="Z256">_xlfn.XLOOKUP(E256&amp;I256,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA256" cm="1">
+        <f t="array" ref="AA256">_xlfn.XLOOKUP(E256&amp;I256,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B257" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C257" t="s">
+        <v>33</v>
+      </c>
+      <c r="D257" t="s">
+        <v>154</v>
+      </c>
+      <c r="E257" t="s">
+        <v>84</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>2022</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>13</v>
+      </c>
+      <c r="J257" cm="1">
+        <f t="array" ref="J257">_xlfn.XLOOKUP(D257&amp;I257,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>17</v>
+      </c>
+      <c r="K257" t="str" cm="1">
+        <f t="array" ref="K257">_xlfn.XLOOKUP(E257&amp;I257,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L257" t="s">
+        <v>69</v>
+      </c>
+      <c r="M257" t="s">
+        <v>69</v>
+      </c>
+      <c r="N257">
+        <v>1</v>
+      </c>
+      <c r="O257" cm="1">
+        <f t="array" ref="O257">_xlfn.XLOOKUP(D257&amp;I257,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38</v>
+      </c>
+      <c r="P257" cm="1">
+        <f t="array" ref="P257">_xlfn.XLOOKUP(D257&amp;I257,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.4</v>
+      </c>
+      <c r="Q257" cm="1">
+        <f t="array" ref="Q257">_xlfn.XLOOKUP(E257&amp;I257,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.9</v>
+      </c>
+      <c r="R257" cm="1">
+        <f t="array" ref="R257">_xlfn.XLOOKUP(E257&amp;I257,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.7</v>
+      </c>
+      <c r="X257" cm="1">
+        <f t="array" ref="X257">_xlfn.XLOOKUP(D257&amp;I257,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y257" cm="1">
+        <f t="array" ref="Y257">_xlfn.XLOOKUP(D257&amp;I257,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z257" cm="1">
+        <f t="array" ref="Z257">_xlfn.XLOOKUP(E257&amp;I257,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA257" cm="1">
+        <f t="array" ref="AA257">_xlfn.XLOOKUP(E257&amp;I257,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C258" t="s">
+        <v>54</v>
+      </c>
+      <c r="D258" t="s">
+        <v>94</v>
+      </c>
+      <c r="E258" t="s">
+        <v>50</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>2022</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>13</v>
+      </c>
+      <c r="J258" t="str" cm="1">
+        <f t="array" ref="J258">_xlfn.XLOOKUP(D258&amp;I258,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K258" t="str" cm="1">
+        <f t="array" ref="K258">_xlfn.XLOOKUP(E258&amp;I258,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L258" t="s">
+        <v>70</v>
+      </c>
+      <c r="M258" t="s">
+        <v>70</v>
+      </c>
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258" cm="1">
+        <f t="array" ref="O258">_xlfn.XLOOKUP(D258&amp;I258,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.2</v>
+      </c>
+      <c r="P258" cm="1">
+        <f t="array" ref="P258">_xlfn.XLOOKUP(D258&amp;I258,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.8</v>
+      </c>
+      <c r="Q258" cm="1">
+        <f t="array" ref="Q258">_xlfn.XLOOKUP(E258&amp;I258,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31</v>
+      </c>
+      <c r="R258" cm="1">
+        <f t="array" ref="R258">_xlfn.XLOOKUP(E258&amp;I258,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.7</v>
+      </c>
+      <c r="X258" cm="1">
+        <f t="array" ref="X258">_xlfn.XLOOKUP(D258&amp;I258,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Y258" cm="1">
+        <f t="array" ref="Y258">_xlfn.XLOOKUP(D258&amp;I258,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z258" cm="1">
+        <f t="array" ref="Z258">_xlfn.XLOOKUP(E258&amp;I258,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA258" cm="1">
+        <f t="array" ref="AA258">_xlfn.XLOOKUP(E258&amp;I258,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B259" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C259" t="s">
+        <v>24</v>
+      </c>
+      <c r="D259" t="s">
+        <v>127</v>
+      </c>
+      <c r="E259" t="s">
+        <v>175</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>2022</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>13</v>
+      </c>
+      <c r="J259" t="str" cm="1">
+        <f t="array" ref="J259">_xlfn.XLOOKUP(D259&amp;I259,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K259" cm="1">
+        <f t="array" ref="K259">_xlfn.XLOOKUP(E259&amp;I259,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>18</v>
+      </c>
+      <c r="L259" t="s">
+        <v>65</v>
+      </c>
+      <c r="M259" t="s">
+        <v>65</v>
+      </c>
+      <c r="N259">
+        <v>1</v>
+      </c>
+      <c r="O259" cm="1">
+        <f t="array" ref="O259">_xlfn.XLOOKUP(D259&amp;I259,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>23.5</v>
+      </c>
+      <c r="P259" cm="1">
+        <f t="array" ref="P259">_xlfn.XLOOKUP(D259&amp;I259,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.2</v>
+      </c>
+      <c r="Q259" cm="1">
+        <f t="array" ref="Q259">_xlfn.XLOOKUP(E259&amp;I259,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40</v>
+      </c>
+      <c r="R259" cm="1">
+        <f t="array" ref="R259">_xlfn.XLOOKUP(E259&amp;I259,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.4</v>
+      </c>
+      <c r="X259" cm="1">
+        <f t="array" ref="X259">_xlfn.XLOOKUP(D259&amp;I259,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y259" cm="1">
+        <f t="array" ref="Y259">_xlfn.XLOOKUP(D259&amp;I259,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Z259" cm="1">
+        <f t="array" ref="Z259">_xlfn.XLOOKUP(E259&amp;I259,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA259" cm="1">
+        <f t="array" ref="AA259">_xlfn.XLOOKUP(E259&amp;I259,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C260" t="s">
+        <v>33</v>
+      </c>
+      <c r="D260" t="s">
+        <v>115</v>
+      </c>
+      <c r="E260" t="s">
+        <v>52</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>2022</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>13</v>
+      </c>
+      <c r="J260" cm="1">
+        <f t="array" ref="J260">_xlfn.XLOOKUP(D260&amp;I260,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>16</v>
+      </c>
+      <c r="K260" t="str" cm="1">
+        <f t="array" ref="K260">_xlfn.XLOOKUP(E260&amp;I260,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L260" t="s">
+        <v>69</v>
+      </c>
+      <c r="M260" t="s">
+        <v>70</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260" cm="1">
+        <f t="array" ref="O260">_xlfn.XLOOKUP(D260&amp;I260,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.4</v>
+      </c>
+      <c r="P260" cm="1">
+        <f t="array" ref="P260">_xlfn.XLOOKUP(D260&amp;I260,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18</v>
+      </c>
+      <c r="Q260" cm="1">
+        <f t="array" ref="Q260">_xlfn.XLOOKUP(E260&amp;I260,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.2</v>
+      </c>
+      <c r="R260" cm="1">
+        <f t="array" ref="R260">_xlfn.XLOOKUP(E260&amp;I260,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.3</v>
+      </c>
+      <c r="X260" cm="1">
+        <f t="array" ref="X260">_xlfn.XLOOKUP(D260&amp;I260,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y260" cm="1">
+        <f t="array" ref="Y260">_xlfn.XLOOKUP(D260&amp;I260,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z260" cm="1">
+        <f t="array" ref="Z260">_xlfn.XLOOKUP(E260&amp;I260,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA260" cm="1">
+        <f t="array" ref="AA260">_xlfn.XLOOKUP(E260&amp;I260,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C261" t="s">
+        <v>31</v>
+      </c>
+      <c r="D261" t="s">
+        <v>132</v>
+      </c>
+      <c r="E261" t="s">
+        <v>62</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>2022</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>13</v>
+      </c>
+      <c r="J261" t="str" cm="1">
+        <f t="array" ref="J261">_xlfn.XLOOKUP(D261&amp;I261,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K261" t="str" cm="1">
+        <f t="array" ref="K261">_xlfn.XLOOKUP(E261&amp;I261,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L261" t="s">
+        <v>66</v>
+      </c>
+      <c r="M261" t="s">
+        <v>66</v>
+      </c>
+      <c r="N261">
+        <v>1</v>
+      </c>
+      <c r="O261" cm="1">
+        <f t="array" ref="O261">_xlfn.XLOOKUP(D261&amp;I261,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31</v>
+      </c>
+      <c r="P261" cm="1">
+        <f t="array" ref="P261">_xlfn.XLOOKUP(D261&amp;I261,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.7</v>
+      </c>
+      <c r="Q261" cm="1">
+        <f t="array" ref="Q261">_xlfn.XLOOKUP(E261&amp;I261,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>22.6</v>
+      </c>
+      <c r="R261" cm="1">
+        <f t="array" ref="R261">_xlfn.XLOOKUP(E261&amp;I261,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>22.8</v>
+      </c>
+      <c r="X261" cm="1">
+        <f t="array" ref="X261">_xlfn.XLOOKUP(D261&amp;I261,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y261" cm="1">
+        <f t="array" ref="Y261">_xlfn.XLOOKUP(D261&amp;I261,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z261" cm="1">
+        <f t="array" ref="Z261">_xlfn.XLOOKUP(E261&amp;I261,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA261" cm="1">
+        <f t="array" ref="AA261">_xlfn.XLOOKUP(E261&amp;I261,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B262" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262" t="s">
+        <v>32</v>
+      </c>
+      <c r="E262" t="s">
+        <v>86</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>2022</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>13</v>
+      </c>
+      <c r="J262" cm="1">
+        <f t="array" ref="J262">_xlfn.XLOOKUP(D262&amp;I262,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K262" t="str" cm="1">
+        <f t="array" ref="K262">_xlfn.XLOOKUP(E262&amp;I262,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L262" t="s">
+        <v>70</v>
+      </c>
+      <c r="M262" t="s">
+        <v>69</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262" cm="1">
+        <f t="array" ref="O262">_xlfn.XLOOKUP(D262&amp;I262,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.4</v>
+      </c>
+      <c r="P262" cm="1">
+        <f t="array" ref="P262">_xlfn.XLOOKUP(D262&amp;I262,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.1</v>
+      </c>
+      <c r="Q262" cm="1">
+        <f t="array" ref="Q262">_xlfn.XLOOKUP(E262&amp;I262,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>17.5</v>
+      </c>
+      <c r="R262" cm="1">
+        <f t="array" ref="R262">_xlfn.XLOOKUP(E262&amp;I262,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.6</v>
+      </c>
+      <c r="X262" cm="1">
+        <f t="array" ref="X262">_xlfn.XLOOKUP(D262&amp;I262,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>11</v>
+      </c>
+      <c r="Y262" cm="1">
+        <f t="array" ref="Y262">_xlfn.XLOOKUP(D262&amp;I262,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z262" cm="1">
+        <f t="array" ref="Z262">_xlfn.XLOOKUP(E262&amp;I262,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA262" cm="1">
+        <f t="array" ref="AA262">_xlfn.XLOOKUP(E262&amp;I262,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>24</v>
+      </c>
+      <c r="D263" t="s">
+        <v>26</v>
+      </c>
+      <c r="E263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>2022</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>13</v>
+      </c>
+      <c r="J263" cm="1">
+        <f t="array" ref="J263">_xlfn.XLOOKUP(D263&amp;I263,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>2</v>
+      </c>
+      <c r="K263" cm="1">
+        <f t="array" ref="K263">_xlfn.XLOOKUP(E263&amp;I263,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>3</v>
+      </c>
+      <c r="L263" t="s">
+        <v>64</v>
+      </c>
+      <c r="M263" t="s">
+        <v>64</v>
+      </c>
+      <c r="N263">
+        <v>1</v>
+      </c>
+      <c r="O263" cm="1">
+        <f t="array" ref="O263">_xlfn.XLOOKUP(D263&amp;I263,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>46.5</v>
+      </c>
+      <c r="P263" cm="1">
+        <f t="array" ref="P263">_xlfn.XLOOKUP(D263&amp;I263,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Q263" cm="1">
+        <f t="array" ref="Q263">_xlfn.XLOOKUP(E263&amp;I263,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.4</v>
+      </c>
+      <c r="R263" cm="1">
+        <f t="array" ref="R263">_xlfn.XLOOKUP(E263&amp;I263,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.7</v>
+      </c>
+      <c r="X263" cm="1">
+        <f t="array" ref="X263">_xlfn.XLOOKUP(D263&amp;I263,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>11</v>
+      </c>
+      <c r="Y263" cm="1">
+        <f t="array" ref="Y263">_xlfn.XLOOKUP(D263&amp;I263,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z263" cm="1">
+        <f t="array" ref="Z263">_xlfn.XLOOKUP(E263&amp;I263,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>11</v>
+      </c>
+      <c r="AA263" cm="1">
+        <f t="array" ref="AA263">_xlfn.XLOOKUP(E263&amp;I263,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B264" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>33</v>
+      </c>
+      <c r="D264" t="s">
+        <v>87</v>
+      </c>
+      <c r="E264" t="s">
+        <v>92</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>2022</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>13</v>
+      </c>
+      <c r="J264" cm="1">
+        <f t="array" ref="J264">_xlfn.XLOOKUP(D264&amp;I264,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>8</v>
+      </c>
+      <c r="K264" t="str" cm="1">
+        <f t="array" ref="K264">_xlfn.XLOOKUP(E264&amp;I264,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L264" t="s">
+        <v>69</v>
+      </c>
+      <c r="M264" t="s">
+        <v>70</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264" cm="1">
+        <f t="array" ref="O264">_xlfn.XLOOKUP(D264&amp;I264,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="P264" cm="1">
+        <f t="array" ref="P264">_xlfn.XLOOKUP(D264&amp;I264,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20</v>
+      </c>
+      <c r="Q264" cm="1">
+        <f t="array" ref="Q264">_xlfn.XLOOKUP(E264&amp;I264,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.7</v>
+      </c>
+      <c r="R264" cm="1">
+        <f t="array" ref="R264">_xlfn.XLOOKUP(E264&amp;I264,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.3</v>
+      </c>
+      <c r="X264" cm="1">
+        <f t="array" ref="X264">_xlfn.XLOOKUP(D264&amp;I264,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="Y264" cm="1">
+        <f t="array" ref="Y264">_xlfn.XLOOKUP(D264&amp;I264,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z264" cm="1">
+        <f t="array" ref="Z264">_xlfn.XLOOKUP(E264&amp;I264,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA264" cm="1">
+        <f t="array" ref="AA264">_xlfn.XLOOKUP(E264&amp;I264,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B265" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>47</v>
+      </c>
+      <c r="D265" t="s">
+        <v>56</v>
+      </c>
+      <c r="E265" t="s">
+        <v>39</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>2022</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>13</v>
+      </c>
+      <c r="J265" t="str" cm="1">
+        <f t="array" ref="J265">_xlfn.XLOOKUP(D265&amp;I265,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K265" t="str" cm="1">
+        <f t="array" ref="K265">_xlfn.XLOOKUP(E265&amp;I265,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L265" t="s">
+        <v>71</v>
+      </c>
+      <c r="M265" t="s">
+        <v>71</v>
+      </c>
+      <c r="N265">
+        <v>1</v>
+      </c>
+      <c r="O265" cm="1">
+        <f t="array" ref="O265">_xlfn.XLOOKUP(D265&amp;I265,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.9</v>
+      </c>
+      <c r="P265" cm="1">
+        <f t="array" ref="P265">_xlfn.XLOOKUP(D265&amp;I265,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.8</v>
+      </c>
+      <c r="Q265" cm="1">
+        <f t="array" ref="Q265">_xlfn.XLOOKUP(E265&amp;I265,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.2</v>
+      </c>
+      <c r="R265" cm="1">
+        <f t="array" ref="R265">_xlfn.XLOOKUP(E265&amp;I265,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="X265" cm="1">
+        <f t="array" ref="X265">_xlfn.XLOOKUP(D265&amp;I265,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y265" cm="1">
+        <f t="array" ref="Y265">_xlfn.XLOOKUP(D265&amp;I265,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z265" cm="1">
+        <f t="array" ref="Z265">_xlfn.XLOOKUP(E265&amp;I265,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA265" cm="1">
+        <f t="array" ref="AA265">_xlfn.XLOOKUP(E265&amp;I265,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B266" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C266" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" t="s">
+        <v>91</v>
+      </c>
+      <c r="E266" t="s">
+        <v>122</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>2022</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>13</v>
+      </c>
+      <c r="J266" cm="1">
+        <f t="array" ref="J266">_xlfn.XLOOKUP(D266&amp;I266,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>7</v>
+      </c>
+      <c r="K266" t="str" cm="1">
+        <f t="array" ref="K266">_xlfn.XLOOKUP(E266&amp;I266,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L266" t="s">
+        <v>70</v>
+      </c>
+      <c r="M266" t="s">
+        <v>70</v>
+      </c>
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="O266" cm="1">
+        <f t="array" ref="O266">_xlfn.XLOOKUP(D266&amp;I266,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40</v>
+      </c>
+      <c r="P266" cm="1">
+        <f t="array" ref="P266">_xlfn.XLOOKUP(D266&amp;I266,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.2</v>
+      </c>
+      <c r="Q266" cm="1">
+        <f t="array" ref="Q266">_xlfn.XLOOKUP(E266&amp;I266,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.5</v>
+      </c>
+      <c r="R266" cm="1">
+        <f t="array" ref="R266">_xlfn.XLOOKUP(E266&amp;I266,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.7</v>
+      </c>
+      <c r="X266" cm="1">
+        <f t="array" ref="X266">_xlfn.XLOOKUP(D266&amp;I266,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y266" cm="1">
+        <f t="array" ref="Y266">_xlfn.XLOOKUP(D266&amp;I266,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z266" cm="1">
+        <f t="array" ref="Z266">_xlfn.XLOOKUP(E266&amp;I266,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA266" cm="1">
+        <f t="array" ref="AA266">_xlfn.XLOOKUP(E266&amp;I266,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B267" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C267" t="s">
+        <v>33</v>
+      </c>
+      <c r="D267" t="s">
+        <v>42</v>
+      </c>
+      <c r="E267" t="s">
+        <v>49</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>2022</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>13</v>
+      </c>
+      <c r="J267" cm="1">
+        <f t="array" ref="J267">_xlfn.XLOOKUP(D267&amp;I267,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>21</v>
+      </c>
+      <c r="K267" cm="1">
+        <f t="array" ref="K267">_xlfn.XLOOKUP(E267&amp;I267,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>9</v>
+      </c>
+      <c r="L267" t="s">
+        <v>65</v>
+      </c>
+      <c r="M267" t="s">
+        <v>65</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" cm="1">
+        <f t="array" ref="O267">_xlfn.XLOOKUP(D267&amp;I267,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.9</v>
+      </c>
+      <c r="P267" cm="1">
+        <f t="array" ref="P267">_xlfn.XLOOKUP(D267&amp;I267,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.3</v>
+      </c>
+      <c r="Q267" cm="1">
+        <f t="array" ref="Q267">_xlfn.XLOOKUP(E267&amp;I267,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="R267" cm="1">
+        <f t="array" ref="R267">_xlfn.XLOOKUP(E267&amp;I267,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.5</v>
+      </c>
+      <c r="X267" cm="1">
+        <f t="array" ref="X267">_xlfn.XLOOKUP(D267&amp;I267,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y267" cm="1">
+        <f t="array" ref="Y267">_xlfn.XLOOKUP(D267&amp;I267,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z267" cm="1">
+        <f t="array" ref="Z267">_xlfn.XLOOKUP(E267&amp;I267,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA267" cm="1">
+        <f t="array" ref="AA267">_xlfn.XLOOKUP(E267&amp;I267,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B268" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C268" t="s">
+        <v>25</v>
+      </c>
+      <c r="D268" t="s">
+        <v>35</v>
+      </c>
+      <c r="E268" t="s">
+        <v>150</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>2022</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>13</v>
+      </c>
+      <c r="J268" t="str" cm="1">
+        <f t="array" ref="J268">_xlfn.XLOOKUP(D268&amp;I268,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K268" t="str" cm="1">
+        <f t="array" ref="K268">_xlfn.XLOOKUP(E268&amp;I268,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L268" t="s">
+        <v>64</v>
+      </c>
+      <c r="M268" t="s">
+        <v>64</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" cm="1">
+        <f t="array" ref="O268">_xlfn.XLOOKUP(D268&amp;I268,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.5</v>
+      </c>
+      <c r="P268" cm="1">
+        <f t="array" ref="P268">_xlfn.XLOOKUP(D268&amp;I268,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.3</v>
+      </c>
+      <c r="Q268" cm="1">
+        <f t="array" ref="Q268">_xlfn.XLOOKUP(E268&amp;I268,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>28.7</v>
+      </c>
+      <c r="R268" cm="1">
+        <f t="array" ref="R268">_xlfn.XLOOKUP(E268&amp;I268,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>13.1</v>
+      </c>
+      <c r="X268" cm="1">
+        <f t="array" ref="X268">_xlfn.XLOOKUP(D268&amp;I268,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y268" cm="1">
+        <f t="array" ref="Y268">_xlfn.XLOOKUP(D268&amp;I268,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z268" cm="1">
+        <f t="array" ref="Z268">_xlfn.XLOOKUP(E268&amp;I268,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA268" cm="1">
+        <f t="array" ref="AA268">_xlfn.XLOOKUP(E268&amp;I268,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B269" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C269" t="s">
+        <v>47</v>
+      </c>
+      <c r="D269" t="s">
+        <v>163</v>
+      </c>
+      <c r="E269" t="s">
+        <v>146</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>2022</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>13</v>
+      </c>
+      <c r="J269" t="str" cm="1">
+        <f t="array" ref="J269">_xlfn.XLOOKUP(D269&amp;I269,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K269" t="str" cm="1">
+        <f t="array" ref="K269">_xlfn.XLOOKUP(E269&amp;I269,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L269" t="s">
+        <v>68</v>
+      </c>
+      <c r="M269" t="s">
+        <v>68</v>
+      </c>
+      <c r="N269">
+        <v>1</v>
+      </c>
+      <c r="O269" cm="1">
+        <f t="array" ref="O269">_xlfn.XLOOKUP(D269&amp;I269,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P269" cm="1">
+        <f t="array" ref="P269">_xlfn.XLOOKUP(D269&amp;I269,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>35</v>
+      </c>
+      <c r="Q269" cm="1">
+        <f t="array" ref="Q269">_xlfn.XLOOKUP(E269&amp;I269,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.5</v>
+      </c>
+      <c r="R269" cm="1">
+        <f t="array" ref="R269">_xlfn.XLOOKUP(E269&amp;I269,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.7</v>
+      </c>
+      <c r="X269" cm="1">
+        <f t="array" ref="X269">_xlfn.XLOOKUP(D269&amp;I269,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y269" cm="1">
+        <f t="array" ref="Y269">_xlfn.XLOOKUP(D269&amp;I269,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z269" cm="1">
+        <f t="array" ref="Z269">_xlfn.XLOOKUP(E269&amp;I269,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA269" cm="1">
+        <f t="array" ref="AA269">_xlfn.XLOOKUP(E269&amp;I269,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B270" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C270" t="s">
+        <v>24</v>
+      </c>
+      <c r="D270" t="s">
+        <v>168</v>
+      </c>
+      <c r="E270" t="s">
+        <v>136</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>2022</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>13</v>
+      </c>
+      <c r="J270" cm="1">
+        <f t="array" ref="J270">_xlfn.XLOOKUP(D270&amp;I270,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>4</v>
+      </c>
+      <c r="K270" t="str" cm="1">
+        <f t="array" ref="K270">_xlfn.XLOOKUP(E270&amp;I270,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L270" t="s">
+        <v>71</v>
+      </c>
+      <c r="M270" t="s">
+        <v>71</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" cm="1">
+        <f t="array" ref="O270">_xlfn.XLOOKUP(D270&amp;I270,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.5</v>
+      </c>
+      <c r="P270" cm="1">
+        <f t="array" ref="P270">_xlfn.XLOOKUP(D270&amp;I270,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.5</v>
+      </c>
+      <c r="Q270" cm="1">
+        <f t="array" ref="Q270">_xlfn.XLOOKUP(E270&amp;I270,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>20.7</v>
+      </c>
+      <c r="R270" cm="1">
+        <f t="array" ref="R270">_xlfn.XLOOKUP(E270&amp;I270,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.5</v>
+      </c>
+      <c r="X270" cm="1">
+        <f t="array" ref="X270">_xlfn.XLOOKUP(D270&amp;I270,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>11</v>
+      </c>
+      <c r="Y270" cm="1">
+        <f t="array" ref="Y270">_xlfn.XLOOKUP(D270&amp;I270,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z270" cm="1">
+        <f t="array" ref="Z270">_xlfn.XLOOKUP(E270&amp;I270,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA270" cm="1">
+        <f t="array" ref="AA270">_xlfn.XLOOKUP(E270&amp;I270,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B271" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C271" t="s">
+        <v>31</v>
+      </c>
+      <c r="D271" t="s">
+        <v>34</v>
+      </c>
+      <c r="E271" t="s">
+        <v>29</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>2022</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>13</v>
+      </c>
+      <c r="J271" cm="1">
+        <f t="array" ref="J271">_xlfn.XLOOKUP(D271&amp;I271,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>11</v>
+      </c>
+      <c r="K271" t="str" cm="1">
+        <f t="array" ref="K271">_xlfn.XLOOKUP(E271&amp;I271,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L271" t="s">
+        <v>64</v>
+      </c>
+      <c r="M271" t="s">
+        <v>64</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" cm="1">
+        <f t="array" ref="O271">_xlfn.XLOOKUP(D271&amp;I271,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>35.9</v>
+      </c>
+      <c r="P271" cm="1">
+        <f t="array" ref="P271">_xlfn.XLOOKUP(D271&amp;I271,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.2</v>
+      </c>
+      <c r="Q271" cm="1">
+        <f t="array" ref="Q271">_xlfn.XLOOKUP(E271&amp;I271,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>25.2</v>
+      </c>
+      <c r="R271" cm="1">
+        <f t="array" ref="R271">_xlfn.XLOOKUP(E271&amp;I271,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.7</v>
+      </c>
+      <c r="X271" cm="1">
+        <f t="array" ref="X271">_xlfn.XLOOKUP(D271&amp;I271,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y271" cm="1">
+        <f t="array" ref="Y271">_xlfn.XLOOKUP(D271&amp;I271,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z271" cm="1">
+        <f t="array" ref="Z271">_xlfn.XLOOKUP(E271&amp;I271,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA271" cm="1">
+        <f t="array" ref="AA271">_xlfn.XLOOKUP(E271&amp;I271,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B272" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C272" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272" t="s">
+        <v>101</v>
+      </c>
+      <c r="E272" t="s">
+        <v>114</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>2022</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>13</v>
+      </c>
+      <c r="J272" t="str" cm="1">
+        <f t="array" ref="J272">_xlfn.XLOOKUP(D272&amp;I272,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K272" cm="1">
+        <f t="array" ref="K272">_xlfn.XLOOKUP(E272&amp;I272,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>5</v>
+      </c>
+      <c r="L272" t="s">
+        <v>70</v>
+      </c>
+      <c r="M272" t="s">
+        <v>70</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" cm="1">
+        <f t="array" ref="O272">_xlfn.XLOOKUP(D272&amp;I272,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>21.4</v>
+      </c>
+      <c r="P272" cm="1">
+        <f t="array" ref="P272">_xlfn.XLOOKUP(D272&amp;I272,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21</v>
+      </c>
+      <c r="Q272" cm="1">
+        <f t="array" ref="Q272">_xlfn.XLOOKUP(E272&amp;I272,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.4</v>
+      </c>
+      <c r="R272" cm="1">
+        <f t="array" ref="R272">_xlfn.XLOOKUP(E272&amp;I272,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20</v>
+      </c>
+      <c r="X272" cm="1">
+        <f t="array" ref="X272">_xlfn.XLOOKUP(D272&amp;I272,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y272" cm="1">
+        <f t="array" ref="Y272">_xlfn.XLOOKUP(D272&amp;I272,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Z272" cm="1">
+        <f t="array" ref="Z272">_xlfn.XLOOKUP(E272&amp;I272,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA272" cm="1">
+        <f t="array" ref="AA272">_xlfn.XLOOKUP(E272&amp;I272,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B273" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C273" t="s">
+        <v>47</v>
+      </c>
+      <c r="D273" t="s">
+        <v>165</v>
+      </c>
+      <c r="E273" t="s">
+        <v>88</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>2022</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>13</v>
+      </c>
+      <c r="J273" t="str" cm="1">
+        <f t="array" ref="J273">_xlfn.XLOOKUP(D273&amp;I273,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K273" cm="1">
+        <f t="array" ref="K273">_xlfn.XLOOKUP(E273&amp;I273,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>22</v>
+      </c>
+      <c r="L273" t="s">
+        <v>68</v>
+      </c>
+      <c r="M273" t="s">
+        <v>68</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" cm="1">
+        <f t="array" ref="O273">_xlfn.XLOOKUP(D273&amp;I273,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27</v>
+      </c>
+      <c r="P273" cm="1">
+        <f t="array" ref="P273">_xlfn.XLOOKUP(D273&amp;I273,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="Q273" cm="1">
+        <f t="array" ref="Q273">_xlfn.XLOOKUP(E273&amp;I273,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.9</v>
+      </c>
+      <c r="R273" cm="1">
+        <f t="array" ref="R273">_xlfn.XLOOKUP(E273&amp;I273,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.7</v>
+      </c>
+      <c r="X273" cm="1">
+        <f t="array" ref="X273">_xlfn.XLOOKUP(D273&amp;I273,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Y273" cm="1">
+        <f t="array" ref="Y273">_xlfn.XLOOKUP(D273&amp;I273,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="Z273" cm="1">
+        <f t="array" ref="Z273">_xlfn.XLOOKUP(E273&amp;I273,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA273" cm="1">
+        <f t="array" ref="AA273">_xlfn.XLOOKUP(E273&amp;I273,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B274" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C274" t="s">
+        <v>33</v>
+      </c>
+      <c r="D274" t="s">
+        <v>110</v>
+      </c>
+      <c r="E274" t="s">
+        <v>46</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>2022</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>13</v>
+      </c>
+      <c r="J274" cm="1">
+        <f t="array" ref="J274">_xlfn.XLOOKUP(D274&amp;I274,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>6</v>
+      </c>
+      <c r="K274" cm="1">
+        <f t="array" ref="K274">_xlfn.XLOOKUP(E274&amp;I274,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>15</v>
+      </c>
+      <c r="L274" t="s">
+        <v>65</v>
+      </c>
+      <c r="M274" t="s">
+        <v>73</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274" cm="1">
+        <f t="array" ref="O274">_xlfn.XLOOKUP(D274&amp;I274,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.9</v>
+      </c>
+      <c r="P274" cm="1">
+        <f t="array" ref="P274">_xlfn.XLOOKUP(D274&amp;I274,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.3</v>
+      </c>
+      <c r="Q274" cm="1">
+        <f t="array" ref="Q274">_xlfn.XLOOKUP(E274&amp;I274,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31</v>
+      </c>
+      <c r="R274" cm="1">
+        <f t="array" ref="R274">_xlfn.XLOOKUP(E274&amp;I274,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.3</v>
+      </c>
+      <c r="X274" cm="1">
+        <f t="array" ref="X274">_xlfn.XLOOKUP(D274&amp;I274,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="Y274" cm="1">
+        <f t="array" ref="Y274">_xlfn.XLOOKUP(D274&amp;I274,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z274" cm="1">
+        <f t="array" ref="Z274">_xlfn.XLOOKUP(E274&amp;I274,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA274" cm="1">
+        <f t="array" ref="AA274">_xlfn.XLOOKUP(E274&amp;I274,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B275" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C275" t="s">
+        <v>31</v>
+      </c>
+      <c r="D275" t="s">
+        <v>95</v>
+      </c>
+      <c r="E275" t="s">
+        <v>36</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>2022</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>13</v>
+      </c>
+      <c r="J275" t="str" cm="1">
+        <f t="array" ref="J275">_xlfn.XLOOKUP(D275&amp;I275,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K275" t="str" cm="1">
+        <f t="array" ref="K275">_xlfn.XLOOKUP(E275&amp;I275,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L275" t="s">
+        <v>71</v>
+      </c>
+      <c r="M275" t="s">
+        <v>71</v>
+      </c>
+      <c r="N275">
+        <v>1</v>
+      </c>
+      <c r="O275" cm="1">
+        <f t="array" ref="O275">_xlfn.XLOOKUP(D275&amp;I275,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32</v>
+      </c>
+      <c r="P275" cm="1">
+        <f t="array" ref="P275">_xlfn.XLOOKUP(D275&amp;I275,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.8</v>
+      </c>
+      <c r="Q275" cm="1">
+        <f t="array" ref="Q275">_xlfn.XLOOKUP(E275&amp;I275,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.5</v>
+      </c>
+      <c r="R275" cm="1">
+        <f t="array" ref="R275">_xlfn.XLOOKUP(E275&amp;I275,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.6</v>
+      </c>
+      <c r="X275" cm="1">
+        <f t="array" ref="X275">_xlfn.XLOOKUP(D275&amp;I275,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Y275" cm="1">
+        <f t="array" ref="Y275">_xlfn.XLOOKUP(D275&amp;I275,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+      <c r="Z275" cm="1">
+        <f t="array" ref="Z275">_xlfn.XLOOKUP(E275&amp;I275,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA275" cm="1">
+        <f t="array" ref="AA275">_xlfn.XLOOKUP(E275&amp;I275,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B276" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C276" t="s">
+        <v>24</v>
+      </c>
+      <c r="D276" t="s">
+        <v>93</v>
+      </c>
+      <c r="E276" t="s">
+        <v>138</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>2022</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>13</v>
+      </c>
+      <c r="J276" cm="1">
+        <f t="array" ref="J276">_xlfn.XLOOKUP(D276&amp;I276,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>12</v>
+      </c>
+      <c r="K276" t="str" cm="1">
+        <f t="array" ref="K276">_xlfn.XLOOKUP(E276&amp;I276,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L276" t="s">
+        <v>71</v>
+      </c>
+      <c r="M276" t="s">
+        <v>71</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" cm="1">
+        <f t="array" ref="O276">_xlfn.XLOOKUP(D276&amp;I276,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P276" cm="1">
+        <f t="array" ref="P276">_xlfn.XLOOKUP(D276&amp;I276,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>18.7</v>
+      </c>
+      <c r="Q276" cm="1">
+        <f t="array" ref="Q276">_xlfn.XLOOKUP(E276&amp;I276,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="R276" cm="1">
+        <f t="array" ref="R276">_xlfn.XLOOKUP(E276&amp;I276,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>32.6</v>
+      </c>
+      <c r="X276" cm="1">
+        <f t="array" ref="X276">_xlfn.XLOOKUP(D276&amp;I276,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Y276" cm="1">
+        <f t="array" ref="Y276">_xlfn.XLOOKUP(D276&amp;I276,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z276" cm="1">
+        <f t="array" ref="Z276">_xlfn.XLOOKUP(E276&amp;I276,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA276" cm="1">
+        <f t="array" ref="AA276">_xlfn.XLOOKUP(E276&amp;I276,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B277" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C277" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277" t="s">
+        <v>105</v>
+      </c>
+      <c r="E277" t="s">
+        <v>181</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>2022</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>13</v>
+      </c>
+      <c r="J277" t="str" cm="1">
+        <f t="array" ref="J277">_xlfn.XLOOKUP(D277&amp;I277,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K277" cm="1">
+        <f t="array" ref="K277">_xlfn.XLOOKUP(E277&amp;I277,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>13</v>
+      </c>
+      <c r="L277" t="s">
+        <v>65</v>
+      </c>
+      <c r="M277" t="s">
+        <v>65</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" cm="1">
+        <f t="array" ref="O277">_xlfn.XLOOKUP(D277&amp;I277,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>27.3</v>
+      </c>
+      <c r="P277" cm="1">
+        <f t="array" ref="P277">_xlfn.XLOOKUP(D277&amp;I277,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.8</v>
+      </c>
+      <c r="Q277" cm="1">
+        <f t="array" ref="Q277">_xlfn.XLOOKUP(E277&amp;I277,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="R277" cm="1">
+        <f t="array" ref="R277">_xlfn.XLOOKUP(E277&amp;I277,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>25.7</v>
+      </c>
+      <c r="X277" cm="1">
+        <f t="array" ref="X277">_xlfn.XLOOKUP(D277&amp;I277,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="Y277" cm="1">
+        <f t="array" ref="Y277">_xlfn.XLOOKUP(D277&amp;I277,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z277" cm="1">
+        <f t="array" ref="Z277">_xlfn.XLOOKUP(E277&amp;I277,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA277" cm="1">
+        <f t="array" ref="AA277">_xlfn.XLOOKUP(E277&amp;I277,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B278" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C278" t="s">
+        <v>31</v>
+      </c>
+      <c r="D278" t="s">
+        <v>109</v>
+      </c>
+      <c r="E278" t="s">
+        <v>97</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>2022</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>13</v>
+      </c>
+      <c r="J278" t="str" cm="1">
+        <f t="array" ref="J278">_xlfn.XLOOKUP(D278&amp;I278,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K278" t="str" cm="1">
+        <f t="array" ref="K278">_xlfn.XLOOKUP(E278&amp;I278,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L278" t="s">
+        <v>65</v>
+      </c>
+      <c r="M278" t="s">
+        <v>73</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278" cm="1">
+        <f t="array" ref="O278">_xlfn.XLOOKUP(D278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>20.9</v>
+      </c>
+      <c r="P278" cm="1">
+        <f t="array" ref="P278">_xlfn.XLOOKUP(D278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>31.9</v>
+      </c>
+      <c r="Q278" cm="1">
+        <f t="array" ref="Q278">_xlfn.XLOOKUP(E278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>31.6</v>
+      </c>
+      <c r="R278" cm="1">
+        <f t="array" ref="R278">_xlfn.XLOOKUP(E278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.4</v>
+      </c>
+      <c r="X278" cm="1">
+        <f t="array" ref="X278">_xlfn.XLOOKUP(D278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y278" cm="1">
+        <f t="array" ref="Y278">_xlfn.XLOOKUP(D278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="Z278" cm="1">
+        <f t="array" ref="Z278">_xlfn.XLOOKUP(E278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AA278" cm="1">
+        <f t="array" ref="AA278">_xlfn.XLOOKUP(E278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W342" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}"/>
+  <autoFilter ref="A1:W343" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -22387,10 +24572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
-  <dimension ref="A1:F1440"/>
+  <dimension ref="A1:F1571"/>
   <sheetViews>
-    <sheetView topLeftCell="A1286" workbookViewId="0">
-      <selection activeCell="A1385" sqref="A1385"/>
+    <sheetView topLeftCell="A1509" workbookViewId="0">
+      <selection activeCell="A1516" sqref="A1516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51193,6 +53378,2626 @@
       </c>
       <c r="F1440">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1441" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1441">
+        <v>13</v>
+      </c>
+      <c r="C1441">
+        <v>29</v>
+      </c>
+      <c r="D1441">
+        <v>14.2</v>
+      </c>
+      <c r="E1441">
+        <v>8</v>
+      </c>
+      <c r="F1441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1442" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1442">
+        <v>13</v>
+      </c>
+      <c r="C1442">
+        <v>19.5</v>
+      </c>
+      <c r="D1442">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E1442">
+        <v>1</v>
+      </c>
+      <c r="F1442">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1443" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1443">
+        <v>13</v>
+      </c>
+      <c r="C1443">
+        <v>40</v>
+      </c>
+      <c r="D1443">
+        <v>17.2</v>
+      </c>
+      <c r="E1443">
+        <v>9</v>
+      </c>
+      <c r="F1443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1444" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1444">
+        <v>13</v>
+      </c>
+      <c r="C1444">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D1444">
+        <v>24.5</v>
+      </c>
+      <c r="E1444">
+        <v>6</v>
+      </c>
+      <c r="F1444">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1445" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1445">
+        <v>13</v>
+      </c>
+      <c r="C1445">
+        <v>30.2</v>
+      </c>
+      <c r="D1445">
+        <v>36.6</v>
+      </c>
+      <c r="E1445">
+        <v>4</v>
+      </c>
+      <c r="F1445">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1446" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1446">
+        <v>13</v>
+      </c>
+      <c r="C1446">
+        <v>25.3</v>
+      </c>
+      <c r="D1446">
+        <v>30.8</v>
+      </c>
+      <c r="E1446">
+        <v>3</v>
+      </c>
+      <c r="F1446">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1447" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1447">
+        <v>13</v>
+      </c>
+      <c r="C1447">
+        <v>31</v>
+      </c>
+      <c r="D1447">
+        <v>28.7</v>
+      </c>
+      <c r="E1447">
+        <v>6</v>
+      </c>
+      <c r="F1447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1448" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1448">
+        <v>13</v>
+      </c>
+      <c r="C1448">
+        <v>25.5</v>
+      </c>
+      <c r="D1448">
+        <v>29.9</v>
+      </c>
+      <c r="E1448">
+        <v>3</v>
+      </c>
+      <c r="F1448">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1449" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1449">
+        <v>13</v>
+      </c>
+      <c r="C1449">
+        <v>27.9</v>
+      </c>
+      <c r="D1449">
+        <v>24.6</v>
+      </c>
+      <c r="E1449">
+        <v>4</v>
+      </c>
+      <c r="F1449">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1450" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1450">
+        <v>13</v>
+      </c>
+      <c r="C1450">
+        <v>24.5</v>
+      </c>
+      <c r="D1450">
+        <v>27.7</v>
+      </c>
+      <c r="E1450">
+        <v>5</v>
+      </c>
+      <c r="F1450">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1451" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1451">
+        <v>13</v>
+      </c>
+      <c r="C1451">
+        <v>23.8</v>
+      </c>
+      <c r="D1451">
+        <v>27.7</v>
+      </c>
+      <c r="E1451">
+        <v>5</v>
+      </c>
+      <c r="F1451">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1452">
+        <v>13</v>
+      </c>
+      <c r="C1452">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D1452">
+        <v>25.5</v>
+      </c>
+      <c r="E1452">
+        <v>6</v>
+      </c>
+      <c r="F1452">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1453" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1453">
+        <v>13</v>
+      </c>
+      <c r="C1453">
+        <v>29.1</v>
+      </c>
+      <c r="D1453">
+        <v>17.3</v>
+      </c>
+      <c r="E1453">
+        <v>8</v>
+      </c>
+      <c r="F1453">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1454" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1454">
+        <v>13</v>
+      </c>
+      <c r="C1454">
+        <v>17.3</v>
+      </c>
+      <c r="D1454">
+        <v>30.2</v>
+      </c>
+      <c r="E1454">
+        <v>3</v>
+      </c>
+      <c r="F1454">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1455" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1455">
+        <v>13</v>
+      </c>
+      <c r="C1455">
+        <v>24.7</v>
+      </c>
+      <c r="D1455">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E1455">
+        <v>6</v>
+      </c>
+      <c r="F1455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1456" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1456">
+        <v>13</v>
+      </c>
+      <c r="C1456">
+        <v>29.8</v>
+      </c>
+      <c r="D1456">
+        <v>27.4</v>
+      </c>
+      <c r="E1456">
+        <v>5</v>
+      </c>
+      <c r="F1456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1457">
+        <v>13</v>
+      </c>
+      <c r="C1457">
+        <v>31.6</v>
+      </c>
+      <c r="D1457">
+        <v>30.4</v>
+      </c>
+      <c r="E1457">
+        <v>6</v>
+      </c>
+      <c r="F1457">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1458" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1458">
+        <v>13</v>
+      </c>
+      <c r="C1458">
+        <v>23.5</v>
+      </c>
+      <c r="D1458">
+        <v>27.2</v>
+      </c>
+      <c r="E1458">
+        <v>4</v>
+      </c>
+      <c r="F1458">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1459" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1459">
+        <v>13</v>
+      </c>
+      <c r="C1459">
+        <v>25.3</v>
+      </c>
+      <c r="D1459">
+        <v>27.3</v>
+      </c>
+      <c r="E1459">
+        <v>4</v>
+      </c>
+      <c r="F1459">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1460" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1460">
+        <v>13</v>
+      </c>
+      <c r="C1460">
+        <v>24.4</v>
+      </c>
+      <c r="D1460">
+        <v>39.4</v>
+      </c>
+      <c r="E1460">
+        <v>3</v>
+      </c>
+      <c r="F1460">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1461" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1461">
+        <v>13</v>
+      </c>
+      <c r="C1461">
+        <v>31.7</v>
+      </c>
+      <c r="D1461">
+        <v>19.7</v>
+      </c>
+      <c r="E1461">
+        <v>9</v>
+      </c>
+      <c r="F1461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1462" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1462">
+        <v>13</v>
+      </c>
+      <c r="C1462">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D1462">
+        <v>20</v>
+      </c>
+      <c r="E1462">
+        <v>10</v>
+      </c>
+      <c r="F1462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1463" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1463">
+        <v>13</v>
+      </c>
+      <c r="C1463">
+        <v>31.6</v>
+      </c>
+      <c r="D1463">
+        <v>26.9</v>
+      </c>
+      <c r="E1463">
+        <v>9</v>
+      </c>
+      <c r="F1463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1464" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1464">
+        <v>13</v>
+      </c>
+      <c r="C1464">
+        <v>14.9</v>
+      </c>
+      <c r="D1464">
+        <v>42.8</v>
+      </c>
+      <c r="E1464">
+        <v>1</v>
+      </c>
+      <c r="F1464">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1465" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1465">
+        <v>13</v>
+      </c>
+      <c r="C1465">
+        <v>12.8</v>
+      </c>
+      <c r="D1465">
+        <v>29.4</v>
+      </c>
+      <c r="E1465">
+        <v>2</v>
+      </c>
+      <c r="F1465">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1466" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1466">
+        <v>13</v>
+      </c>
+      <c r="C1466">
+        <v>19.8</v>
+      </c>
+      <c r="D1466">
+        <v>26.1</v>
+      </c>
+      <c r="E1466">
+        <v>6</v>
+      </c>
+      <c r="F1466">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1467" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1467">
+        <v>13</v>
+      </c>
+      <c r="C1467">
+        <v>33</v>
+      </c>
+      <c r="D1467">
+        <v>22.1</v>
+      </c>
+      <c r="E1467">
+        <v>7</v>
+      </c>
+      <c r="F1467">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1468" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1468">
+        <v>13</v>
+      </c>
+      <c r="C1468">
+        <v>29.2</v>
+      </c>
+      <c r="D1468">
+        <v>25.3</v>
+      </c>
+      <c r="E1468">
+        <v>6</v>
+      </c>
+      <c r="F1468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1469" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1469">
+        <v>13</v>
+      </c>
+      <c r="C1469">
+        <v>28</v>
+      </c>
+      <c r="D1469">
+        <v>29.5</v>
+      </c>
+      <c r="E1469">
+        <v>7</v>
+      </c>
+      <c r="F1469">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1470" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1470">
+        <v>13</v>
+      </c>
+      <c r="C1470">
+        <v>31.2</v>
+      </c>
+      <c r="D1470">
+        <v>27.3</v>
+      </c>
+      <c r="E1470">
+        <v>6</v>
+      </c>
+      <c r="F1470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1471" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1471">
+        <v>13</v>
+      </c>
+      <c r="C1471">
+        <v>29.6</v>
+      </c>
+      <c r="D1471">
+        <v>26.1</v>
+      </c>
+      <c r="E1471">
+        <v>5</v>
+      </c>
+      <c r="F1471">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1472" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1472">
+        <v>13</v>
+      </c>
+      <c r="C1472">
+        <v>17.8</v>
+      </c>
+      <c r="D1472">
+        <v>37.6</v>
+      </c>
+      <c r="E1472">
+        <v>4</v>
+      </c>
+      <c r="F1472">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1473" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1473">
+        <v>13</v>
+      </c>
+      <c r="C1473">
+        <v>35.4</v>
+      </c>
+      <c r="D1473">
+        <v>18</v>
+      </c>
+      <c r="E1473">
+        <v>8</v>
+      </c>
+      <c r="F1473">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1474" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1474">
+        <v>13</v>
+      </c>
+      <c r="C1474">
+        <v>31</v>
+      </c>
+      <c r="D1474">
+        <v>22.7</v>
+      </c>
+      <c r="E1474">
+        <v>7</v>
+      </c>
+      <c r="F1474">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1475" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1475">
+        <v>13</v>
+      </c>
+      <c r="C1475">
+        <v>38.4</v>
+      </c>
+      <c r="D1475">
+        <v>11.1</v>
+      </c>
+      <c r="E1475">
+        <v>11</v>
+      </c>
+      <c r="F1475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1476" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1476">
+        <v>13</v>
+      </c>
+      <c r="C1476">
+        <v>32.1</v>
+      </c>
+      <c r="D1476">
+        <v>30.9</v>
+      </c>
+      <c r="E1476">
+        <v>5</v>
+      </c>
+      <c r="F1476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1477" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1477">
+        <v>13</v>
+      </c>
+      <c r="C1477">
+        <v>30.6</v>
+      </c>
+      <c r="D1477">
+        <v>31.5</v>
+      </c>
+      <c r="E1477">
+        <v>4</v>
+      </c>
+      <c r="F1477">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1478" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1478">
+        <v>13</v>
+      </c>
+      <c r="C1478">
+        <v>17.5</v>
+      </c>
+      <c r="D1478">
+        <v>27.6</v>
+      </c>
+      <c r="E1478">
+        <v>5</v>
+      </c>
+      <c r="F1478">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1479" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1479">
+        <v>13</v>
+      </c>
+      <c r="C1479">
+        <v>20.3</v>
+      </c>
+      <c r="D1479">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E1479">
+        <v>3</v>
+      </c>
+      <c r="F1479">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1480" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1480">
+        <v>13</v>
+      </c>
+      <c r="C1480">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D1480">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E1480">
+        <v>7</v>
+      </c>
+      <c r="F1480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1481" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1481">
+        <v>13</v>
+      </c>
+      <c r="C1481">
+        <v>24</v>
+      </c>
+      <c r="D1481">
+        <v>13.1</v>
+      </c>
+      <c r="E1481">
+        <v>7</v>
+      </c>
+      <c r="F1481">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1482" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1482">
+        <v>13</v>
+      </c>
+      <c r="C1482">
+        <v>23.9</v>
+      </c>
+      <c r="D1482">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E1482">
+        <v>4</v>
+      </c>
+      <c r="F1482">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1483" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1483">
+        <v>13</v>
+      </c>
+      <c r="C1483">
+        <v>17.5</v>
+      </c>
+      <c r="D1483">
+        <v>13.5</v>
+      </c>
+      <c r="E1483">
+        <v>7</v>
+      </c>
+      <c r="F1483">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1484" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1484">
+        <v>13</v>
+      </c>
+      <c r="C1484">
+        <v>20.7</v>
+      </c>
+      <c r="D1484">
+        <v>16.5</v>
+      </c>
+      <c r="E1484">
+        <v>4</v>
+      </c>
+      <c r="F1484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1485" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1485">
+        <v>13</v>
+      </c>
+      <c r="C1485">
+        <v>36</v>
+      </c>
+      <c r="D1485">
+        <v>22.3</v>
+      </c>
+      <c r="E1485">
+        <v>7</v>
+      </c>
+      <c r="F1485">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1486" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1486">
+        <v>13</v>
+      </c>
+      <c r="C1486">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D1486">
+        <v>32.6</v>
+      </c>
+      <c r="E1486">
+        <v>6</v>
+      </c>
+      <c r="F1486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1487" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1487">
+        <v>13</v>
+      </c>
+      <c r="C1487">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D1487">
+        <v>18.7</v>
+      </c>
+      <c r="E1487">
+        <v>8</v>
+      </c>
+      <c r="F1487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1488" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1488">
+        <v>13</v>
+      </c>
+      <c r="C1488">
+        <v>28.3</v>
+      </c>
+      <c r="D1488">
+        <v>29.2</v>
+      </c>
+      <c r="E1488">
+        <v>4</v>
+      </c>
+      <c r="F1488">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1489" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1489">
+        <v>13</v>
+      </c>
+      <c r="C1489">
+        <v>21.7</v>
+      </c>
+      <c r="D1489">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E1489">
+        <v>6</v>
+      </c>
+      <c r="F1489">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1490" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1490">
+        <v>13</v>
+      </c>
+      <c r="C1490">
+        <v>29.5</v>
+      </c>
+      <c r="D1490">
+        <v>22.7</v>
+      </c>
+      <c r="E1490">
+        <v>8</v>
+      </c>
+      <c r="F1490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1491" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1491">
+        <v>13</v>
+      </c>
+      <c r="C1491">
+        <v>29.2</v>
+      </c>
+      <c r="D1491">
+        <v>38</v>
+      </c>
+      <c r="E1491">
+        <v>3</v>
+      </c>
+      <c r="F1491">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1492" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1492">
+        <v>13</v>
+      </c>
+      <c r="C1492">
+        <v>25.7</v>
+      </c>
+      <c r="D1492">
+        <v>23.7</v>
+      </c>
+      <c r="E1492">
+        <v>5</v>
+      </c>
+      <c r="F1492">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1493" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1493">
+        <v>13</v>
+      </c>
+      <c r="C1493">
+        <v>23.5</v>
+      </c>
+      <c r="D1493">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E1493">
+        <v>4</v>
+      </c>
+      <c r="F1493">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1494" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1494">
+        <v>13</v>
+      </c>
+      <c r="C1494">
+        <v>28.5</v>
+      </c>
+      <c r="D1494">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E1494">
+        <v>7</v>
+      </c>
+      <c r="F1494">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1495" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1495">
+        <v>13</v>
+      </c>
+      <c r="C1495">
+        <v>33.4</v>
+      </c>
+      <c r="D1495">
+        <v>20</v>
+      </c>
+      <c r="E1495">
+        <v>9</v>
+      </c>
+      <c r="F1495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1496" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1496">
+        <v>13</v>
+      </c>
+      <c r="C1496">
+        <v>23.8</v>
+      </c>
+      <c r="D1496">
+        <v>15.5</v>
+      </c>
+      <c r="E1496">
+        <v>7</v>
+      </c>
+      <c r="F1496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1497" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1497">
+        <v>13</v>
+      </c>
+      <c r="C1497">
+        <v>28.5</v>
+      </c>
+      <c r="D1497">
+        <v>26.3</v>
+      </c>
+      <c r="E1497">
+        <v>6</v>
+      </c>
+      <c r="F1497">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1498" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1498">
+        <v>13</v>
+      </c>
+      <c r="C1498">
+        <v>13</v>
+      </c>
+      <c r="D1498">
+        <v>29.9</v>
+      </c>
+      <c r="E1498">
+        <v>1</v>
+      </c>
+      <c r="F1498">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1499" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1499">
+        <v>13</v>
+      </c>
+      <c r="C1499">
+        <v>35.5</v>
+      </c>
+      <c r="D1499">
+        <v>26.7</v>
+      </c>
+      <c r="E1499">
+        <v>6</v>
+      </c>
+      <c r="F1499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1500" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1500">
+        <v>13</v>
+      </c>
+      <c r="C1500">
+        <v>24.3</v>
+      </c>
+      <c r="D1500">
+        <v>25.4</v>
+      </c>
+      <c r="E1500">
+        <v>5</v>
+      </c>
+      <c r="F1500">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1501" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1501">
+        <v>13</v>
+      </c>
+      <c r="C1501">
+        <v>20.5</v>
+      </c>
+      <c r="D1501">
+        <v>23</v>
+      </c>
+      <c r="E1501">
+        <v>5</v>
+      </c>
+      <c r="F1501">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1502" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1502">
+        <v>13</v>
+      </c>
+      <c r="C1502">
+        <v>39.4</v>
+      </c>
+      <c r="D1502">
+        <v>11.7</v>
+      </c>
+      <c r="E1502">
+        <v>11</v>
+      </c>
+      <c r="F1502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1503" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1503">
+        <v>13</v>
+      </c>
+      <c r="C1503">
+        <v>25.2</v>
+      </c>
+      <c r="D1503">
+        <v>26.7</v>
+      </c>
+      <c r="E1503">
+        <v>5</v>
+      </c>
+      <c r="F1503">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1504" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1504">
+        <v>13</v>
+      </c>
+      <c r="C1504">
+        <v>28.8</v>
+      </c>
+      <c r="D1504">
+        <v>28.1</v>
+      </c>
+      <c r="E1504">
+        <v>6</v>
+      </c>
+      <c r="F1504">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1505" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1505">
+        <v>13</v>
+      </c>
+      <c r="C1505">
+        <v>28.7</v>
+      </c>
+      <c r="D1505">
+        <v>13.1</v>
+      </c>
+      <c r="E1505">
+        <v>7</v>
+      </c>
+      <c r="F1505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1506" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1506">
+        <v>13</v>
+      </c>
+      <c r="C1506">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D1506">
+        <v>24.2</v>
+      </c>
+      <c r="E1506">
+        <v>8</v>
+      </c>
+      <c r="F1506">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1507" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1507">
+        <v>13</v>
+      </c>
+      <c r="C1507">
+        <v>33.5</v>
+      </c>
+      <c r="D1507">
+        <v>24.4</v>
+      </c>
+      <c r="E1507">
+        <v>7</v>
+      </c>
+      <c r="F1507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1508" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1508">
+        <v>13</v>
+      </c>
+      <c r="C1508">
+        <v>25.2</v>
+      </c>
+      <c r="D1508">
+        <v>24.8</v>
+      </c>
+      <c r="E1508">
+        <v>5</v>
+      </c>
+      <c r="F1508">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1509" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1509">
+        <v>13</v>
+      </c>
+      <c r="C1509">
+        <v>22.4</v>
+      </c>
+      <c r="D1509">
+        <v>24.7</v>
+      </c>
+      <c r="E1509">
+        <v>4</v>
+      </c>
+      <c r="F1509">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1510" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1510">
+        <v>13</v>
+      </c>
+      <c r="C1510">
+        <v>22.5</v>
+      </c>
+      <c r="D1510">
+        <v>28.5</v>
+      </c>
+      <c r="E1510">
+        <v>3</v>
+      </c>
+      <c r="F1510">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1511" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1511">
+        <v>13</v>
+      </c>
+      <c r="C1511">
+        <v>18.5</v>
+      </c>
+      <c r="D1511">
+        <v>31.3</v>
+      </c>
+      <c r="E1511">
+        <v>2</v>
+      </c>
+      <c r="F1511">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1512" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1512">
+        <v>13</v>
+      </c>
+      <c r="C1512">
+        <v>14.3</v>
+      </c>
+      <c r="D1512">
+        <v>26.8</v>
+      </c>
+      <c r="E1512">
+        <v>2</v>
+      </c>
+      <c r="F1512">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1513" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1513">
+        <v>13</v>
+      </c>
+      <c r="C1513">
+        <v>19.3</v>
+      </c>
+      <c r="D1513">
+        <v>27.5</v>
+      </c>
+      <c r="E1513">
+        <v>4</v>
+      </c>
+      <c r="F1513">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1514" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1514">
+        <v>13</v>
+      </c>
+      <c r="C1514">
+        <v>38</v>
+      </c>
+      <c r="D1514">
+        <v>30.4</v>
+      </c>
+      <c r="E1514">
+        <v>9</v>
+      </c>
+      <c r="F1514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1515" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1515">
+        <v>13</v>
+      </c>
+      <c r="C1515">
+        <v>24.9</v>
+      </c>
+      <c r="D1515">
+        <v>18.7</v>
+      </c>
+      <c r="E1515">
+        <v>7</v>
+      </c>
+      <c r="F1515">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1516" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1516">
+        <v>13</v>
+      </c>
+      <c r="C1516">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D1516">
+        <v>31.3</v>
+      </c>
+      <c r="E1516">
+        <v>6</v>
+      </c>
+      <c r="F1516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1517" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1517">
+        <v>13</v>
+      </c>
+      <c r="C1517">
+        <v>28.6</v>
+      </c>
+      <c r="D1517">
+        <v>31.7</v>
+      </c>
+      <c r="E1517">
+        <v>3</v>
+      </c>
+      <c r="F1517">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1518" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1518">
+        <v>13</v>
+      </c>
+      <c r="C1518">
+        <v>14.7</v>
+      </c>
+      <c r="D1518">
+        <v>27.2</v>
+      </c>
+      <c r="E1518">
+        <v>1</v>
+      </c>
+      <c r="F1518">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1519" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1519">
+        <v>13</v>
+      </c>
+      <c r="C1519">
+        <v>31</v>
+      </c>
+      <c r="D1519">
+        <v>20.3</v>
+      </c>
+      <c r="E1519">
+        <v>8</v>
+      </c>
+      <c r="F1519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1520" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1520">
+        <v>13</v>
+      </c>
+      <c r="C1520">
+        <v>33.6</v>
+      </c>
+      <c r="D1520">
+        <v>30.7</v>
+      </c>
+      <c r="E1520">
+        <v>8</v>
+      </c>
+      <c r="F1520">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1521" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1521">
+        <v>13</v>
+      </c>
+      <c r="C1521">
+        <v>46.5</v>
+      </c>
+      <c r="D1521">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E1521">
+        <v>11</v>
+      </c>
+      <c r="F1521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1522" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1522">
+        <v>13</v>
+      </c>
+      <c r="C1522">
+        <v>31.5</v>
+      </c>
+      <c r="D1522">
+        <v>27.6</v>
+      </c>
+      <c r="E1522">
+        <v>6</v>
+      </c>
+      <c r="F1522">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1523" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1523">
+        <v>13</v>
+      </c>
+      <c r="C1523">
+        <v>32.9</v>
+      </c>
+      <c r="D1523">
+        <v>29.8</v>
+      </c>
+      <c r="E1523">
+        <v>7</v>
+      </c>
+      <c r="F1523">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1524" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1524">
+        <v>13</v>
+      </c>
+      <c r="C1524">
+        <v>19.5</v>
+      </c>
+      <c r="D1524">
+        <v>26.5</v>
+      </c>
+      <c r="E1524">
+        <v>3</v>
+      </c>
+      <c r="F1524">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1525" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1525">
+        <v>13</v>
+      </c>
+      <c r="C1525">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D1525">
+        <v>26.5</v>
+      </c>
+      <c r="E1525">
+        <v>9</v>
+      </c>
+      <c r="F1525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1526" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1526">
+        <v>13</v>
+      </c>
+      <c r="C1526">
+        <v>31.9</v>
+      </c>
+      <c r="D1526">
+        <v>20.3</v>
+      </c>
+      <c r="E1526">
+        <v>8</v>
+      </c>
+      <c r="F1526">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1527" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1527">
+        <v>13</v>
+      </c>
+      <c r="C1527">
+        <v>35.9</v>
+      </c>
+      <c r="D1527">
+        <v>18.2</v>
+      </c>
+      <c r="E1527">
+        <v>9</v>
+      </c>
+      <c r="F1527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1528" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1528">
+        <v>13</v>
+      </c>
+      <c r="C1528">
+        <v>29.8</v>
+      </c>
+      <c r="D1528">
+        <v>24.1</v>
+      </c>
+      <c r="E1528">
+        <v>7</v>
+      </c>
+      <c r="F1528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1529" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1529">
+        <v>13</v>
+      </c>
+      <c r="C1529">
+        <v>28.5</v>
+      </c>
+      <c r="D1529">
+        <v>23.7</v>
+      </c>
+      <c r="E1529">
+        <v>7</v>
+      </c>
+      <c r="F1529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1530" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1530">
+        <v>13</v>
+      </c>
+      <c r="C1530">
+        <v>26.1</v>
+      </c>
+      <c r="D1530">
+        <v>35</v>
+      </c>
+      <c r="E1530">
+        <v>5</v>
+      </c>
+      <c r="F1530">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1531" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1531">
+        <v>13</v>
+      </c>
+      <c r="C1531">
+        <v>19</v>
+      </c>
+      <c r="D1531">
+        <v>28.5</v>
+      </c>
+      <c r="E1531">
+        <v>4</v>
+      </c>
+      <c r="F1531">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1532" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1532">
+        <v>13</v>
+      </c>
+      <c r="C1532">
+        <v>23</v>
+      </c>
+      <c r="D1532">
+        <v>20.8</v>
+      </c>
+      <c r="E1532">
+        <v>7</v>
+      </c>
+      <c r="F1532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1533" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1533">
+        <v>13</v>
+      </c>
+      <c r="C1533">
+        <v>27.5</v>
+      </c>
+      <c r="D1533">
+        <v>20.9</v>
+      </c>
+      <c r="E1533">
+        <v>6</v>
+      </c>
+      <c r="F1533">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1534" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1534">
+        <v>13</v>
+      </c>
+      <c r="C1534">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D1534">
+        <v>35</v>
+      </c>
+      <c r="E1534">
+        <v>6</v>
+      </c>
+      <c r="F1534">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1535" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1535">
+        <v>13</v>
+      </c>
+      <c r="C1535">
+        <v>32.4</v>
+      </c>
+      <c r="D1535">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E1535">
+        <v>9</v>
+      </c>
+      <c r="F1535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1536" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1536">
+        <v>13</v>
+      </c>
+      <c r="C1536">
+        <v>31.7</v>
+      </c>
+      <c r="D1536">
+        <v>27.3</v>
+      </c>
+      <c r="E1536">
+        <v>7</v>
+      </c>
+      <c r="F1536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1537" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1537">
+        <v>13</v>
+      </c>
+      <c r="C1537">
+        <v>27</v>
+      </c>
+      <c r="D1537">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E1537">
+        <v>1</v>
+      </c>
+      <c r="F1537">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1538" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1538">
+        <v>13</v>
+      </c>
+      <c r="C1538">
+        <v>24.6</v>
+      </c>
+      <c r="D1538">
+        <v>24.7</v>
+      </c>
+      <c r="E1538">
+        <v>5</v>
+      </c>
+      <c r="F1538">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1539" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1539">
+        <v>13</v>
+      </c>
+      <c r="C1539">
+        <v>20.9</v>
+      </c>
+      <c r="D1539">
+        <v>31.9</v>
+      </c>
+      <c r="E1539">
+        <v>3</v>
+      </c>
+      <c r="F1539">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1540" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1540">
+        <v>13</v>
+      </c>
+      <c r="C1540">
+        <v>28</v>
+      </c>
+      <c r="D1540">
+        <v>22.6</v>
+      </c>
+      <c r="E1540">
+        <v>6</v>
+      </c>
+      <c r="F1540">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1541" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1541">
+        <v>13</v>
+      </c>
+      <c r="C1541">
+        <v>39.5</v>
+      </c>
+      <c r="D1541">
+        <v>25.5</v>
+      </c>
+      <c r="E1541">
+        <v>11</v>
+      </c>
+      <c r="F1541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1542" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1542">
+        <v>13</v>
+      </c>
+      <c r="C1542">
+        <v>19.7</v>
+      </c>
+      <c r="D1542">
+        <v>27.5</v>
+      </c>
+      <c r="E1542">
+        <v>3</v>
+      </c>
+      <c r="F1542">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1543" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1543">
+        <v>13</v>
+      </c>
+      <c r="C1543">
+        <v>46.5</v>
+      </c>
+      <c r="D1543">
+        <v>25.6</v>
+      </c>
+      <c r="E1543">
+        <v>9</v>
+      </c>
+      <c r="F1543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1544" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1544">
+        <v>13</v>
+      </c>
+      <c r="C1544">
+        <v>35.5</v>
+      </c>
+      <c r="D1544">
+        <v>20.6</v>
+      </c>
+      <c r="E1544">
+        <v>7</v>
+      </c>
+      <c r="F1544">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1545" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1545">
+        <v>13</v>
+      </c>
+      <c r="C1545">
+        <v>21.4</v>
+      </c>
+      <c r="D1545">
+        <v>21</v>
+      </c>
+      <c r="E1545">
+        <v>4</v>
+      </c>
+      <c r="F1545">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1546" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1546">
+        <v>13</v>
+      </c>
+      <c r="C1546">
+        <v>21.8</v>
+      </c>
+      <c r="D1546">
+        <v>25</v>
+      </c>
+      <c r="E1546">
+        <v>4</v>
+      </c>
+      <c r="F1546">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1547" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1547">
+        <v>13</v>
+      </c>
+      <c r="C1547">
+        <v>32</v>
+      </c>
+      <c r="D1547">
+        <v>27.8</v>
+      </c>
+      <c r="E1547">
+        <v>6</v>
+      </c>
+      <c r="F1547">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1548" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1548">
+        <v>13</v>
+      </c>
+      <c r="C1548">
+        <v>35.1</v>
+      </c>
+      <c r="D1548">
+        <v>27.7</v>
+      </c>
+      <c r="E1548">
+        <v>7</v>
+      </c>
+      <c r="F1548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1549" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1549">
+        <v>13</v>
+      </c>
+      <c r="C1549">
+        <v>22.5</v>
+      </c>
+      <c r="D1549">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E1549">
+        <v>9</v>
+      </c>
+      <c r="F1549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1550" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1550">
+        <v>13</v>
+      </c>
+      <c r="C1550">
+        <v>35.1</v>
+      </c>
+      <c r="D1550">
+        <v>19.5</v>
+      </c>
+      <c r="E1550">
+        <v>9</v>
+      </c>
+      <c r="F1550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1551" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1551">
+        <v>13</v>
+      </c>
+      <c r="C1551">
+        <v>30</v>
+      </c>
+      <c r="D1551">
+        <v>33.4</v>
+      </c>
+      <c r="E1551">
+        <v>4</v>
+      </c>
+      <c r="F1551">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1552" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1552">
+        <v>13</v>
+      </c>
+      <c r="C1552">
+        <v>30</v>
+      </c>
+      <c r="D1552">
+        <v>23.1</v>
+      </c>
+      <c r="E1552">
+        <v>5</v>
+      </c>
+      <c r="F1552">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1553" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1553">
+        <v>13</v>
+      </c>
+      <c r="C1553">
+        <v>33.9</v>
+      </c>
+      <c r="D1553">
+        <v>19.7</v>
+      </c>
+      <c r="E1553">
+        <v>8</v>
+      </c>
+      <c r="F1553">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1554" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1554">
+        <v>13</v>
+      </c>
+      <c r="C1554">
+        <v>40</v>
+      </c>
+      <c r="D1554">
+        <v>28.4</v>
+      </c>
+      <c r="E1554">
+        <v>8</v>
+      </c>
+      <c r="F1554">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1555" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1555">
+        <v>13</v>
+      </c>
+      <c r="C1555">
+        <v>26.3</v>
+      </c>
+      <c r="D1555">
+        <v>29.1</v>
+      </c>
+      <c r="E1555">
+        <v>4</v>
+      </c>
+      <c r="F1555">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1556" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1556">
+        <v>13</v>
+      </c>
+      <c r="C1556">
+        <v>42.9</v>
+      </c>
+      <c r="D1556">
+        <v>26.3</v>
+      </c>
+      <c r="E1556">
+        <v>10</v>
+      </c>
+      <c r="F1556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1557" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1557">
+        <v>13</v>
+      </c>
+      <c r="C1557">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D1557">
+        <v>20</v>
+      </c>
+      <c r="E1557">
+        <v>8</v>
+      </c>
+      <c r="F1557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1558" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1558">
+        <v>13</v>
+      </c>
+      <c r="C1558">
+        <v>23.3</v>
+      </c>
+      <c r="D1558">
+        <v>29.5</v>
+      </c>
+      <c r="E1558">
+        <v>6</v>
+      </c>
+      <c r="F1558">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1559" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1559">
+        <v>13</v>
+      </c>
+      <c r="C1559">
+        <v>23.8</v>
+      </c>
+      <c r="D1559">
+        <v>26.4</v>
+      </c>
+      <c r="E1559">
+        <v>5</v>
+      </c>
+      <c r="F1559">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1560" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1560">
+        <v>13</v>
+      </c>
+      <c r="C1560">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D1560">
+        <v>26.1</v>
+      </c>
+      <c r="E1560">
+        <v>9</v>
+      </c>
+      <c r="F1560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1561" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1561">
+        <v>13</v>
+      </c>
+      <c r="C1561">
+        <v>26.8</v>
+      </c>
+      <c r="D1561">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E1561">
+        <v>5</v>
+      </c>
+      <c r="F1561">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1562" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1562">
+        <v>13</v>
+      </c>
+      <c r="C1562">
+        <v>17</v>
+      </c>
+      <c r="D1562">
+        <v>24</v>
+      </c>
+      <c r="E1562">
+        <v>3</v>
+      </c>
+      <c r="F1562">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1563" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1563">
+        <v>13</v>
+      </c>
+      <c r="C1563">
+        <v>19.3</v>
+      </c>
+      <c r="D1563">
+        <v>24.7</v>
+      </c>
+      <c r="E1563">
+        <v>3</v>
+      </c>
+      <c r="F1563">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1564" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1564">
+        <v>13</v>
+      </c>
+      <c r="C1564">
+        <v>37.4</v>
+      </c>
+      <c r="D1564">
+        <v>28.8</v>
+      </c>
+      <c r="E1564">
+        <v>7</v>
+      </c>
+      <c r="F1564">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1565" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1565">
+        <v>13</v>
+      </c>
+      <c r="C1565">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D1565">
+        <v>25.7</v>
+      </c>
+      <c r="E1565">
+        <v>9</v>
+      </c>
+      <c r="F1565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1566" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1566">
+        <v>13</v>
+      </c>
+      <c r="C1566">
+        <v>27.3</v>
+      </c>
+      <c r="D1566">
+        <v>19.8</v>
+      </c>
+      <c r="E1566">
+        <v>7</v>
+      </c>
+      <c r="F1566">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1567" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1567">
+        <v>13</v>
+      </c>
+      <c r="C1567">
+        <v>31.2</v>
+      </c>
+      <c r="D1567">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E1567">
+        <v>4</v>
+      </c>
+      <c r="F1567">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1568" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1568">
+        <v>13</v>
+      </c>
+      <c r="C1568">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D1568">
+        <v>22.8</v>
+      </c>
+      <c r="E1568">
+        <v>7</v>
+      </c>
+      <c r="F1568">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1569" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1569">
+        <v>13</v>
+      </c>
+      <c r="C1569">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D1569">
+        <v>25</v>
+      </c>
+      <c r="E1569">
+        <v>4</v>
+      </c>
+      <c r="F1569">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1570" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1570">
+        <v>13</v>
+      </c>
+      <c r="C1570">
+        <v>27.5</v>
+      </c>
+      <c r="D1570">
+        <v>20.3</v>
+      </c>
+      <c r="E1570">
+        <v>6</v>
+      </c>
+      <c r="F1570">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1571" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1571">
+        <v>13</v>
+      </c>
+      <c r="C1571">
+        <v>22.6</v>
+      </c>
+      <c r="D1571">
+        <v>22.8</v>
+      </c>
+      <c r="E1571">
+        <v>7</v>
+      </c>
+      <c r="F1571">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -51203,10 +56008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54245,6 +59050,281 @@
       </c>
       <c r="C276" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>13</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>13</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>13</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>13</v>
+      </c>
+      <c r="B280">
+        <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>13</v>
+      </c>
+      <c r="B281">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>13</v>
+      </c>
+      <c r="B282">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>13</v>
+      </c>
+      <c r="B283">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>13</v>
+      </c>
+      <c r="B284">
+        <v>8</v>
+      </c>
+      <c r="C284" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>13</v>
+      </c>
+      <c r="B285">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>13</v>
+      </c>
+      <c r="B286">
+        <v>10</v>
+      </c>
+      <c r="C286" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>13</v>
+      </c>
+      <c r="B287">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>13</v>
+      </c>
+      <c r="B288">
+        <v>12</v>
+      </c>
+      <c r="C288" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>13</v>
+      </c>
+      <c r="B289">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>13</v>
+      </c>
+      <c r="B290">
+        <v>14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>13</v>
+      </c>
+      <c r="B291">
+        <v>15</v>
+      </c>
+      <c r="C291" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>13</v>
+      </c>
+      <c r="B292">
+        <v>16</v>
+      </c>
+      <c r="C292" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>13</v>
+      </c>
+      <c r="B293">
+        <v>17</v>
+      </c>
+      <c r="C293" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>13</v>
+      </c>
+      <c r="B294">
+        <v>18</v>
+      </c>
+      <c r="C294" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>13</v>
+      </c>
+      <c r="B295">
+        <v>19</v>
+      </c>
+      <c r="C295" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>13</v>
+      </c>
+      <c r="B296">
+        <v>20</v>
+      </c>
+      <c r="C296" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>13</v>
+      </c>
+      <c r="B297">
+        <v>21</v>
+      </c>
+      <c r="C297" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>13</v>
+      </c>
+      <c r="B298">
+        <v>22</v>
+      </c>
+      <c r="C298" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>13</v>
+      </c>
+      <c r="B299">
+        <v>23</v>
+      </c>
+      <c r="C299" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>13</v>
+      </c>
+      <c r="B300">
+        <v>24</v>
+      </c>
+      <c r="C300" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>13</v>
+      </c>
+      <c r="B301">
+        <v>25</v>
+      </c>
+      <c r="C301" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96950E9-36D7-814E-87C7-FBAE59A5C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037FD951-D6FB-3549-A0DE-06C4EFC1BF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="14160" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="820" yWindow="14080" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="190">
   <si>
     <t>Time</t>
   </si>
@@ -632,6 +632,9 @@
   <si>
     <t>North Dakota State</t>
   </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
 </sst>
 </file>
 
@@ -988,12 +991,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
-  <dimension ref="A1:AA278"/>
+  <dimension ref="A1:AA287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A265" activePane="bottomLeft"/>
+      <pane ySplit="760" topLeftCell="A280" activePane="bottomLeft"/>
       <selection sqref="A1:AA1"/>
-      <selection pane="bottomLeft" activeCell="O278" sqref="O278"/>
+      <selection pane="bottomLeft" activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22474,7 +22477,7 @@
         <v>113</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>2231000</v>
       </c>
       <c r="G252">
         <v>2022</v>
@@ -24561,6 +24564,708 @@
       <c r="AA278" cm="1">
         <f t="array" ref="AA278">_xlfn.XLOOKUP(E278&amp;I278,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B279" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C279" t="s">
+        <v>24</v>
+      </c>
+      <c r="D279" t="s">
+        <v>110</v>
+      </c>
+      <c r="E279" t="s">
+        <v>53</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>2022</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>14</v>
+      </c>
+      <c r="J279" cm="1">
+        <f t="array" ref="J279">_xlfn.XLOOKUP(D279&amp;I279,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>4</v>
+      </c>
+      <c r="K279" cm="1">
+        <f t="array" ref="K279">_xlfn.XLOOKUP(E279&amp;I279,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>11</v>
+      </c>
+      <c r="L279" t="s">
+        <v>65</v>
+      </c>
+      <c r="M279" t="s">
+        <v>65</v>
+      </c>
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279" cm="1">
+        <f t="array" ref="O279">_xlfn.XLOOKUP(D279&amp;I279,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>42.5</v>
+      </c>
+      <c r="P279" cm="1">
+        <f t="array" ref="P279">_xlfn.XLOOKUP(D279&amp;I279,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>26.3</v>
+      </c>
+      <c r="Q279" cm="1">
+        <f t="array" ref="Q279">_xlfn.XLOOKUP(E279&amp;I279,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.4</v>
+      </c>
+      <c r="R279" cm="1">
+        <f t="array" ref="R279">_xlfn.XLOOKUP(E279&amp;I279,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="X279" cm="1">
+        <f t="array" ref="X279">_xlfn.XLOOKUP(D279&amp;I279,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>11</v>
+      </c>
+      <c r="Y279" cm="1">
+        <f t="array" ref="Y279">_xlfn.XLOOKUP(D279&amp;I279,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Z279" cm="1">
+        <f t="array" ref="Z279">_xlfn.XLOOKUP(E279&amp;I279,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA279" cm="1">
+        <f t="array" ref="AA279">_xlfn.XLOOKUP(E279&amp;I279,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B280" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>33</v>
+      </c>
+      <c r="D280" t="s">
+        <v>168</v>
+      </c>
+      <c r="E280" t="s">
+        <v>93</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>2022</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>14</v>
+      </c>
+      <c r="J280" cm="1">
+        <f t="array" ref="J280">_xlfn.XLOOKUP(D280&amp;I280,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>3</v>
+      </c>
+      <c r="K280" cm="1">
+        <f t="array" ref="K280">_xlfn.XLOOKUP(E280&amp;I280,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>10</v>
+      </c>
+      <c r="L280" t="s">
+        <v>71</v>
+      </c>
+      <c r="M280" t="s">
+        <v>71</v>
+      </c>
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280" cm="1">
+        <f t="array" ref="O280">_xlfn.XLOOKUP(D280&amp;I280,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>41.3</v>
+      </c>
+      <c r="P280" cm="1">
+        <f t="array" ref="P280">_xlfn.XLOOKUP(D280&amp;I280,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>24.5</v>
+      </c>
+      <c r="Q280" cm="1">
+        <f t="array" ref="Q280">_xlfn.XLOOKUP(E280&amp;I280,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.4</v>
+      </c>
+      <c r="R280" cm="1">
+        <f t="array" ref="R280">_xlfn.XLOOKUP(E280&amp;I280,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="X280" cm="1">
+        <f t="array" ref="X280">_xlfn.XLOOKUP(D280&amp;I280,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>12</v>
+      </c>
+      <c r="Y280" cm="1">
+        <f t="array" ref="Y280">_xlfn.XLOOKUP(D280&amp;I280,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z280" cm="1">
+        <f t="array" ref="Z280">_xlfn.XLOOKUP(E280&amp;I280,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA280" cm="1">
+        <f t="array" ref="AA280">_xlfn.XLOOKUP(E280&amp;I280,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B281" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281" t="s">
+        <v>157</v>
+      </c>
+      <c r="E281" t="s">
+        <v>171</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>2022</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>14</v>
+      </c>
+      <c r="J281" t="str" cm="1">
+        <f t="array" ref="J281">_xlfn.XLOOKUP(D281&amp;I281,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K281" t="str" cm="1">
+        <f t="array" ref="K281">_xlfn.XLOOKUP(E281&amp;I281,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L281" t="s">
+        <v>72</v>
+      </c>
+      <c r="M281" t="s">
+        <v>72</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" cm="1">
+        <f t="array" ref="O281">_xlfn.XLOOKUP(D281&amp;I281,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34</v>
+      </c>
+      <c r="P281" cm="1">
+        <f t="array" ref="P281">_xlfn.XLOOKUP(D281&amp;I281,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>29.3</v>
+      </c>
+      <c r="Q281" cm="1">
+        <f t="array" ref="Q281">_xlfn.XLOOKUP(E281&amp;I281,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="R281" cm="1">
+        <f t="array" ref="R281">_xlfn.XLOOKUP(E281&amp;I281,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>27.1</v>
+      </c>
+      <c r="X281" cm="1">
+        <f t="array" ref="X281">_xlfn.XLOOKUP(D281&amp;I281,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y281" cm="1">
+        <f t="array" ref="Y281">_xlfn.XLOOKUP(D281&amp;I281,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z281" cm="1">
+        <f t="array" ref="Z281">_xlfn.XLOOKUP(E281&amp;I281,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>7</v>
+      </c>
+      <c r="AA281" cm="1">
+        <f t="array" ref="AA281">_xlfn.XLOOKUP(E281&amp;I281,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B282" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C282" t="s">
+        <v>25</v>
+      </c>
+      <c r="D282" t="s">
+        <v>172</v>
+      </c>
+      <c r="E282" t="s">
+        <v>128</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>2022</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>14</v>
+      </c>
+      <c r="J282" t="str" cm="1">
+        <f t="array" ref="J282">_xlfn.XLOOKUP(D282&amp;I282,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K282" t="str" cm="1">
+        <f t="array" ref="K282">_xlfn.XLOOKUP(E282&amp;I282,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L282" t="s">
+        <v>103</v>
+      </c>
+      <c r="M282" t="s">
+        <v>103</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" cm="1">
+        <f t="array" ref="O282">_xlfn.XLOOKUP(D282&amp;I282,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>24.6</v>
+      </c>
+      <c r="P282" cm="1">
+        <f t="array" ref="P282">_xlfn.XLOOKUP(D282&amp;I282,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>16.8</v>
+      </c>
+      <c r="Q282" cm="1">
+        <f t="array" ref="Q282">_xlfn.XLOOKUP(E282&amp;I282,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>29.4</v>
+      </c>
+      <c r="R282" cm="1">
+        <f t="array" ref="R282">_xlfn.XLOOKUP(E282&amp;I282,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>28.7</v>
+      </c>
+      <c r="X282" cm="1">
+        <f t="array" ref="X282">_xlfn.XLOOKUP(D282&amp;I282,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="Y282" cm="1">
+        <f t="array" ref="Y282">_xlfn.XLOOKUP(D282&amp;I282,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z282" cm="1">
+        <f t="array" ref="Z282">_xlfn.XLOOKUP(E282&amp;I282,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA282" cm="1">
+        <f t="array" ref="AA282">_xlfn.XLOOKUP(E282&amp;I282,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B283" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C283" t="s">
+        <v>54</v>
+      </c>
+      <c r="D283" t="s">
+        <v>32</v>
+      </c>
+      <c r="E283" t="s">
+        <v>114</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>2022</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>14</v>
+      </c>
+      <c r="J283" cm="1">
+        <f t="array" ref="J283">_xlfn.XLOOKUP(D283&amp;I283,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K283" cm="1">
+        <f t="array" ref="K283">_xlfn.XLOOKUP(E283&amp;I283,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>14</v>
+      </c>
+      <c r="L283" t="s">
+        <v>70</v>
+      </c>
+      <c r="M283" t="s">
+        <v>70</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" cm="1">
+        <f t="array" ref="O283">_xlfn.XLOOKUP(D283&amp;I283,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="P283" cm="1">
+        <f t="array" ref="P283">_xlfn.XLOOKUP(D283&amp;I283,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>11.3</v>
+      </c>
+      <c r="Q283" cm="1">
+        <f t="array" ref="Q283">_xlfn.XLOOKUP(E283&amp;I283,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>32.5</v>
+      </c>
+      <c r="R283" cm="1">
+        <f t="array" ref="R283">_xlfn.XLOOKUP(E283&amp;I283,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.5</v>
+      </c>
+      <c r="X283" cm="1">
+        <f t="array" ref="X283">_xlfn.XLOOKUP(D283&amp;I283,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>12</v>
+      </c>
+      <c r="Y283" cm="1">
+        <f t="array" ref="Y283">_xlfn.XLOOKUP(D283&amp;I283,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z283" cm="1">
+        <f t="array" ref="Z283">_xlfn.XLOOKUP(E283&amp;I283,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA283" cm="1">
+        <f t="array" ref="AA283">_xlfn.XLOOKUP(E283&amp;I283,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B284" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C284" t="s">
+        <v>33</v>
+      </c>
+      <c r="D284" t="s">
+        <v>173</v>
+      </c>
+      <c r="E284" t="s">
+        <v>88</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>2022</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>14</v>
+      </c>
+      <c r="J284" cm="1">
+        <f t="array" ref="J284">_xlfn.XLOOKUP(D284&amp;I284,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>18</v>
+      </c>
+      <c r="K284" cm="1">
+        <f t="array" ref="K284">_xlfn.XLOOKUP(E284&amp;I284,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>22</v>
+      </c>
+      <c r="L284" t="s">
+        <v>68</v>
+      </c>
+      <c r="M284" t="s">
+        <v>68</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" cm="1">
+        <f t="array" ref="O284">_xlfn.XLOOKUP(D284&amp;I284,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.4</v>
+      </c>
+      <c r="P284" cm="1">
+        <f t="array" ref="P284">_xlfn.XLOOKUP(D284&amp;I284,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>19.8</v>
+      </c>
+      <c r="Q284" cm="1">
+        <f t="array" ref="Q284">_xlfn.XLOOKUP(E284&amp;I284,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.9</v>
+      </c>
+      <c r="R284" cm="1">
+        <f t="array" ref="R284">_xlfn.XLOOKUP(E284&amp;I284,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>21.3</v>
+      </c>
+      <c r="X284" cm="1">
+        <f t="array" ref="X284">_xlfn.XLOOKUP(D284&amp;I284,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="Y284" cm="1">
+        <f t="array" ref="Y284">_xlfn.XLOOKUP(D284&amp;I284,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z284" cm="1">
+        <f t="array" ref="Z284">_xlfn.XLOOKUP(E284&amp;I284,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="AA284" cm="1">
+        <f t="array" ref="AA284">_xlfn.XLOOKUP(E284&amp;I284,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B285" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C285" t="s">
+        <v>24</v>
+      </c>
+      <c r="D285" t="s">
+        <v>27</v>
+      </c>
+      <c r="E285" t="s">
+        <v>132</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>2022</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>14</v>
+      </c>
+      <c r="J285" t="str" cm="1">
+        <f t="array" ref="J285">_xlfn.XLOOKUP(D285&amp;I285,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="K285" t="str" cm="1">
+        <f t="array" ref="K285">_xlfn.XLOOKUP(E285&amp;I285,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L285" t="s">
+        <v>66</v>
+      </c>
+      <c r="M285" t="s">
+        <v>66</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" cm="1">
+        <f t="array" ref="O285">_xlfn.XLOOKUP(D285&amp;I285,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.2</v>
+      </c>
+      <c r="P285" cm="1">
+        <f t="array" ref="P285">_xlfn.XLOOKUP(D285&amp;I285,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>17.8</v>
+      </c>
+      <c r="Q285" cm="1">
+        <f t="array" ref="Q285">_xlfn.XLOOKUP(E285&amp;I285,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>30.9</v>
+      </c>
+      <c r="R285" cm="1">
+        <f t="array" ref="R285">_xlfn.XLOOKUP(E285&amp;I285,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.8</v>
+      </c>
+      <c r="X285" cm="1">
+        <f t="array" ref="X285">_xlfn.XLOOKUP(D285&amp;I285,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y285" cm="1">
+        <f t="array" ref="Y285">_xlfn.XLOOKUP(D285&amp;I285,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z285" cm="1">
+        <f t="array" ref="Z285">_xlfn.XLOOKUP(E285&amp;I285,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA285" cm="1">
+        <f t="array" ref="AA285">_xlfn.XLOOKUP(E285&amp;I285,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B286" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C286" t="s">
+        <v>24</v>
+      </c>
+      <c r="D286" t="s">
+        <v>38</v>
+      </c>
+      <c r="E286" t="s">
+        <v>43</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>2022</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>14</v>
+      </c>
+      <c r="J286" cm="1">
+        <f t="array" ref="J286">_xlfn.XLOOKUP(D286&amp;I286,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>2</v>
+      </c>
+      <c r="K286" t="str" cm="1">
+        <f t="array" ref="K286">_xlfn.XLOOKUP(E286&amp;I286,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v/>
+      </c>
+      <c r="L286" t="s">
+        <v>64</v>
+      </c>
+      <c r="M286" t="s">
+        <v>64</v>
+      </c>
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" cm="1">
+        <f t="array" ref="O286">_xlfn.XLOOKUP(D286&amp;I286,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="P286" cm="1">
+        <f t="array" ref="P286">_xlfn.XLOOKUP(D286&amp;I286,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>12.7</v>
+      </c>
+      <c r="Q286" cm="1">
+        <f t="array" ref="Q286">_xlfn.XLOOKUP(E286&amp;I286,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>28.6</v>
+      </c>
+      <c r="R286" cm="1">
+        <f t="array" ref="R286">_xlfn.XLOOKUP(E286&amp;I286,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>23.1</v>
+      </c>
+      <c r="X286" cm="1">
+        <f t="array" ref="X286">_xlfn.XLOOKUP(D286&amp;I286,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>12</v>
+      </c>
+      <c r="Y286" cm="1">
+        <f t="array" ref="Y286">_xlfn.XLOOKUP(D286&amp;I286,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z286" cm="1">
+        <f t="array" ref="Z286">_xlfn.XLOOKUP(E286&amp;I286,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>8</v>
+      </c>
+      <c r="AA286" cm="1">
+        <f t="array" ref="AA286">_xlfn.XLOOKUP(E286&amp;I286,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B287" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C287" t="s">
+        <v>33</v>
+      </c>
+      <c r="D287" t="s">
+        <v>154</v>
+      </c>
+      <c r="E287" t="s">
+        <v>87</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>2022</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>14</v>
+      </c>
+      <c r="J287" cm="1">
+        <f t="array" ref="J287">_xlfn.XLOOKUP(D287&amp;I287,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>23</v>
+      </c>
+      <c r="K287" cm="1">
+        <f t="array" ref="K287">_xlfn.XLOOKUP(E287&amp;I287,Ranking!C$2:C$500&amp;Ranking!A$2:A$500,Ranking!B$2:B$500,"")</f>
+        <v>9</v>
+      </c>
+      <c r="L287" t="s">
+        <v>69</v>
+      </c>
+      <c r="M287" t="s">
+        <v>69</v>
+      </c>
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287" cm="1">
+        <f t="array" ref="O287">_xlfn.XLOOKUP(D287&amp;I287,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>37.1</v>
+      </c>
+      <c r="P287" cm="1">
+        <f t="array" ref="P287">_xlfn.XLOOKUP(D287&amp;I287,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>30.3</v>
+      </c>
+      <c r="Q287" cm="1">
+        <f t="array" ref="Q287">_xlfn.XLOOKUP(E287&amp;I287,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!C$2:C$13000,"")</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="R287" cm="1">
+        <f t="array" ref="R287">_xlfn.XLOOKUP(E287&amp;I287,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!D$2:D$13000,"")</f>
+        <v>20.9</v>
+      </c>
+      <c r="X287" cm="1">
+        <f t="array" ref="X287">_xlfn.XLOOKUP(D287&amp;I287,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>9</v>
+      </c>
+      <c r="Y287" cm="1">
+        <f t="array" ref="Y287">_xlfn.XLOOKUP(D287&amp;I287,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z287" cm="1">
+        <f t="array" ref="Z287">_xlfn.XLOOKUP(E287&amp;I287,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!E$2:E$13000,"")</f>
+        <v>10</v>
+      </c>
+      <c r="AA287" cm="1">
+        <f t="array" ref="AA287">_xlfn.XLOOKUP(E287&amp;I287,Sheet2!A$2:A$13000&amp;Sheet2!B$2:B$13000,Sheet2!F$2:F$13000,"")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -24572,10 +25277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
-  <dimension ref="A1:F1571"/>
+  <dimension ref="A1:F1702"/>
   <sheetViews>
-    <sheetView topLeftCell="A1509" workbookViewId="0">
-      <selection activeCell="A1516" sqref="A1516"/>
+    <sheetView topLeftCell="A1614" workbookViewId="0">
+      <selection activeCell="B1624" sqref="B1624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55998,6 +56703,2626 @@
       </c>
       <c r="F1571">
         <v>4</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1572" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1572">
+        <v>14</v>
+      </c>
+      <c r="C1572">
+        <v>27.7</v>
+      </c>
+      <c r="D1572">
+        <v>13.3</v>
+      </c>
+      <c r="E1572">
+        <v>9</v>
+      </c>
+      <c r="F1572">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1573" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1573">
+        <v>14</v>
+      </c>
+      <c r="C1573">
+        <v>21.7</v>
+      </c>
+      <c r="D1573">
+        <v>34.5</v>
+      </c>
+      <c r="E1573">
+        <v>2</v>
+      </c>
+      <c r="F1573">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1574" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1574">
+        <v>14</v>
+      </c>
+      <c r="C1574">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D1574">
+        <v>18</v>
+      </c>
+      <c r="E1574">
+        <v>10</v>
+      </c>
+      <c r="F1574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1575" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1575">
+        <v>14</v>
+      </c>
+      <c r="C1575">
+        <v>34.9</v>
+      </c>
+      <c r="D1575">
+        <v>26.8</v>
+      </c>
+      <c r="E1575">
+        <v>6</v>
+      </c>
+      <c r="F1575">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1576" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1576">
+        <v>14</v>
+      </c>
+      <c r="C1576">
+        <v>30.8</v>
+      </c>
+      <c r="D1576">
+        <v>36.5</v>
+      </c>
+      <c r="E1576">
+        <v>5</v>
+      </c>
+      <c r="F1576">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1577" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1577">
+        <v>14</v>
+      </c>
+      <c r="C1577">
+        <v>26.1</v>
+      </c>
+      <c r="D1577">
+        <v>31.4</v>
+      </c>
+      <c r="E1577">
+        <v>3</v>
+      </c>
+      <c r="F1577">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1578" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1578">
+        <v>14</v>
+      </c>
+      <c r="C1578">
+        <v>30.7</v>
+      </c>
+      <c r="D1578">
+        <v>28.8</v>
+      </c>
+      <c r="E1578">
+        <v>6</v>
+      </c>
+      <c r="F1578">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1579" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1579">
+        <v>14</v>
+      </c>
+      <c r="C1579">
+        <v>25</v>
+      </c>
+      <c r="D1579">
+        <v>31.4</v>
+      </c>
+      <c r="E1579">
+        <v>3</v>
+      </c>
+      <c r="F1579">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1580" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1580">
+        <v>14</v>
+      </c>
+      <c r="C1580">
+        <v>29.4</v>
+      </c>
+      <c r="D1580">
+        <v>23</v>
+      </c>
+      <c r="E1580">
+        <v>5</v>
+      </c>
+      <c r="F1580">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1581" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1581">
+        <v>14</v>
+      </c>
+      <c r="C1581">
+        <v>24.8</v>
+      </c>
+      <c r="D1581">
+        <v>29.5</v>
+      </c>
+      <c r="E1581">
+        <v>5</v>
+      </c>
+      <c r="F1581">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1582" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1582">
+        <v>14</v>
+      </c>
+      <c r="C1582">
+        <v>23.3</v>
+      </c>
+      <c r="D1582">
+        <v>26.9</v>
+      </c>
+      <c r="E1582">
+        <v>5</v>
+      </c>
+      <c r="F1582">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1583" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1583">
+        <v>14</v>
+      </c>
+      <c r="C1583">
+        <v>33.6</v>
+      </c>
+      <c r="D1583">
+        <v>26.6</v>
+      </c>
+      <c r="E1583">
+        <v>6</v>
+      </c>
+      <c r="F1583">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1584" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1584">
+        <v>14</v>
+      </c>
+      <c r="C1584">
+        <v>30.2</v>
+      </c>
+      <c r="D1584">
+        <v>17.8</v>
+      </c>
+      <c r="E1584">
+        <v>9</v>
+      </c>
+      <c r="F1584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1585" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1585">
+        <v>14</v>
+      </c>
+      <c r="C1585">
+        <v>17.8</v>
+      </c>
+      <c r="D1585">
+        <v>30.3</v>
+      </c>
+      <c r="E1585">
+        <v>3</v>
+      </c>
+      <c r="F1585">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1586" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1586">
+        <v>14</v>
+      </c>
+      <c r="C1586">
+        <v>23.8</v>
+      </c>
+      <c r="D1586">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E1586">
+        <v>6</v>
+      </c>
+      <c r="F1586">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1587" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1587">
+        <v>14</v>
+      </c>
+      <c r="C1587">
+        <v>29.5</v>
+      </c>
+      <c r="D1587">
+        <v>27.6</v>
+      </c>
+      <c r="E1587">
+        <v>5</v>
+      </c>
+      <c r="F1587">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1588" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1588">
+        <v>14</v>
+      </c>
+      <c r="C1588">
+        <v>31.9</v>
+      </c>
+      <c r="D1588">
+        <v>30</v>
+      </c>
+      <c r="E1588">
+        <v>7</v>
+      </c>
+      <c r="F1588">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1589" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1589">
+        <v>14</v>
+      </c>
+      <c r="C1589">
+        <v>23.9</v>
+      </c>
+      <c r="D1589">
+        <v>27.8</v>
+      </c>
+      <c r="E1589">
+        <v>4</v>
+      </c>
+      <c r="F1589">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1590" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1590">
+        <v>14</v>
+      </c>
+      <c r="C1590">
+        <v>24.8</v>
+      </c>
+      <c r="D1590">
+        <v>28.2</v>
+      </c>
+      <c r="E1590">
+        <v>4</v>
+      </c>
+      <c r="F1590">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1591" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1591">
+        <v>14</v>
+      </c>
+      <c r="C1591">
+        <v>24.4</v>
+      </c>
+      <c r="D1591">
+        <v>39.4</v>
+      </c>
+      <c r="E1591">
+        <v>3</v>
+      </c>
+      <c r="F1591">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1592" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1592">
+        <v>14</v>
+      </c>
+      <c r="C1592">
+        <v>31.1</v>
+      </c>
+      <c r="D1592">
+        <v>20.3</v>
+      </c>
+      <c r="E1592">
+        <v>9</v>
+      </c>
+      <c r="F1592">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1593" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1593">
+        <v>14</v>
+      </c>
+      <c r="C1593">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D1593">
+        <v>20.9</v>
+      </c>
+      <c r="E1593">
+        <v>10</v>
+      </c>
+      <c r="F1593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1594" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1594">
+        <v>14</v>
+      </c>
+      <c r="C1594">
+        <v>29.4</v>
+      </c>
+      <c r="D1594">
+        <v>28.7</v>
+      </c>
+      <c r="E1594">
+        <v>9</v>
+      </c>
+      <c r="F1594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1595" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1595">
+        <v>14</v>
+      </c>
+      <c r="C1595">
+        <v>15.4</v>
+      </c>
+      <c r="D1595">
+        <v>44.5</v>
+      </c>
+      <c r="E1595">
+        <v>1</v>
+      </c>
+      <c r="F1595">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1596" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1596">
+        <v>14</v>
+      </c>
+      <c r="C1596">
+        <v>13.2</v>
+      </c>
+      <c r="D1596">
+        <v>26.9</v>
+      </c>
+      <c r="E1596">
+        <v>3</v>
+      </c>
+      <c r="F1596">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1597" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1597">
+        <v>14</v>
+      </c>
+      <c r="C1597">
+        <v>19.8</v>
+      </c>
+      <c r="D1597">
+        <v>26.1</v>
+      </c>
+      <c r="E1597">
+        <v>6</v>
+      </c>
+      <c r="F1597">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1598" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1598">
+        <v>14</v>
+      </c>
+      <c r="C1598">
+        <v>33.1</v>
+      </c>
+      <c r="D1598">
+        <v>22.8</v>
+      </c>
+      <c r="E1598">
+        <v>8</v>
+      </c>
+      <c r="F1598">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1599" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1599">
+        <v>14</v>
+      </c>
+      <c r="C1599">
+        <v>30.8</v>
+      </c>
+      <c r="D1599">
+        <v>27</v>
+      </c>
+      <c r="E1599">
+        <v>7</v>
+      </c>
+      <c r="F1599">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1600" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1600">
+        <v>14</v>
+      </c>
+      <c r="C1600">
+        <v>28.8</v>
+      </c>
+      <c r="D1600">
+        <v>28.6</v>
+      </c>
+      <c r="E1600">
+        <v>8</v>
+      </c>
+      <c r="F1600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1601" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1601">
+        <v>14</v>
+      </c>
+      <c r="C1601">
+        <v>31.8</v>
+      </c>
+      <c r="D1601">
+        <v>28.8</v>
+      </c>
+      <c r="E1601">
+        <v>6</v>
+      </c>
+      <c r="F1601">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1602" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1602">
+        <v>14</v>
+      </c>
+      <c r="C1602">
+        <v>29.8</v>
+      </c>
+      <c r="D1602">
+        <v>26.6</v>
+      </c>
+      <c r="E1602">
+        <v>5</v>
+      </c>
+      <c r="F1602">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1603" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1603">
+        <v>14</v>
+      </c>
+      <c r="C1603">
+        <v>18.7</v>
+      </c>
+      <c r="D1603">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E1603">
+        <v>4</v>
+      </c>
+      <c r="F1603">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1604" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1604">
+        <v>14</v>
+      </c>
+      <c r="C1604">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D1604">
+        <v>19.7</v>
+      </c>
+      <c r="E1604">
+        <v>9</v>
+      </c>
+      <c r="F1604">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1605" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1605">
+        <v>14</v>
+      </c>
+      <c r="C1605">
+        <v>30.9</v>
+      </c>
+      <c r="D1605">
+        <v>20.8</v>
+      </c>
+      <c r="E1605">
+        <v>8</v>
+      </c>
+      <c r="F1605">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1606" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1606">
+        <v>14</v>
+      </c>
+      <c r="C1606">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D1606">
+        <v>11.3</v>
+      </c>
+      <c r="E1606">
+        <v>12</v>
+      </c>
+      <c r="F1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1607" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1607">
+        <v>14</v>
+      </c>
+      <c r="C1607">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D1607">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E1607">
+        <v>6</v>
+      </c>
+      <c r="F1607">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1608" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1608">
+        <v>14</v>
+      </c>
+      <c r="C1608">
+        <v>30</v>
+      </c>
+      <c r="D1608">
+        <v>31.2</v>
+      </c>
+      <c r="E1608">
+        <v>4</v>
+      </c>
+      <c r="F1608">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1609" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1609">
+        <v>14</v>
+      </c>
+      <c r="C1609">
+        <v>17.2</v>
+      </c>
+      <c r="D1609">
+        <v>28.4</v>
+      </c>
+      <c r="E1609">
+        <v>5</v>
+      </c>
+      <c r="F1609">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1610" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1610">
+        <v>14</v>
+      </c>
+      <c r="C1610">
+        <v>19.8</v>
+      </c>
+      <c r="D1610">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E1610">
+        <v>3</v>
+      </c>
+      <c r="F1610">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1611" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1611">
+        <v>14</v>
+      </c>
+      <c r="C1611">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D1611">
+        <v>33.5</v>
+      </c>
+      <c r="E1611">
+        <v>7</v>
+      </c>
+      <c r="F1611">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1612" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1612">
+        <v>14</v>
+      </c>
+      <c r="C1612">
+        <v>25.4</v>
+      </c>
+      <c r="D1612">
+        <v>12.3</v>
+      </c>
+      <c r="E1612">
+        <v>8</v>
+      </c>
+      <c r="F1612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1613" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1613">
+        <v>14</v>
+      </c>
+      <c r="C1613">
+        <v>23.3</v>
+      </c>
+      <c r="D1613">
+        <v>33.9</v>
+      </c>
+      <c r="E1613">
+        <v>4</v>
+      </c>
+      <c r="F1613">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1614" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1614">
+        <v>14</v>
+      </c>
+      <c r="C1614">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D1614">
+        <v>14.4</v>
+      </c>
+      <c r="E1614">
+        <v>7</v>
+      </c>
+      <c r="F1614">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1615" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1615">
+        <v>14</v>
+      </c>
+      <c r="C1615">
+        <v>20.2</v>
+      </c>
+      <c r="D1615">
+        <v>20.3</v>
+      </c>
+      <c r="E1615">
+        <v>4</v>
+      </c>
+      <c r="F1615">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1616" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1616">
+        <v>14</v>
+      </c>
+      <c r="C1616">
+        <v>37</v>
+      </c>
+      <c r="D1616">
+        <v>20.9</v>
+      </c>
+      <c r="E1616">
+        <v>8</v>
+      </c>
+      <c r="F1616">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1617" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1617">
+        <v>14</v>
+      </c>
+      <c r="C1617">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D1617">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E1617">
+        <v>6</v>
+      </c>
+      <c r="F1617">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1618" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1618">
+        <v>14</v>
+      </c>
+      <c r="C1618">
+        <v>33.4</v>
+      </c>
+      <c r="D1618">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E1618">
+        <v>9</v>
+      </c>
+      <c r="F1618">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1619" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1619">
+        <v>14</v>
+      </c>
+      <c r="C1619">
+        <v>28.4</v>
+      </c>
+      <c r="D1619">
+        <v>29</v>
+      </c>
+      <c r="E1619">
+        <v>5</v>
+      </c>
+      <c r="F1619">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1620" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1620">
+        <v>14</v>
+      </c>
+      <c r="C1620">
+        <v>22.1</v>
+      </c>
+      <c r="D1620">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E1620">
+        <v>7</v>
+      </c>
+      <c r="F1620">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1621" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1621">
+        <v>14</v>
+      </c>
+      <c r="C1621">
+        <v>28.3</v>
+      </c>
+      <c r="D1621">
+        <v>24.9</v>
+      </c>
+      <c r="E1621">
+        <v>8</v>
+      </c>
+      <c r="F1621">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1622" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1622">
+        <v>14</v>
+      </c>
+      <c r="C1622">
+        <v>29</v>
+      </c>
+      <c r="D1622">
+        <v>37.9</v>
+      </c>
+      <c r="E1622">
+        <v>3</v>
+      </c>
+      <c r="F1622">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1623" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1623">
+        <v>14</v>
+      </c>
+      <c r="C1623">
+        <v>27</v>
+      </c>
+      <c r="D1623">
+        <v>22.8</v>
+      </c>
+      <c r="E1623">
+        <v>6</v>
+      </c>
+      <c r="F1623">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1624" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1624">
+        <v>14</v>
+      </c>
+      <c r="C1624">
+        <v>22.3</v>
+      </c>
+      <c r="D1624">
+        <v>34.4</v>
+      </c>
+      <c r="E1624">
+        <v>4</v>
+      </c>
+      <c r="F1624">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1625" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1625">
+        <v>14</v>
+      </c>
+      <c r="C1625">
+        <v>27.2</v>
+      </c>
+      <c r="D1625">
+        <v>20.2</v>
+      </c>
+      <c r="E1625">
+        <v>7</v>
+      </c>
+      <c r="F1625">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1626" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1626">
+        <v>14</v>
+      </c>
+      <c r="C1626">
+        <v>32.5</v>
+      </c>
+      <c r="D1626">
+        <v>21.5</v>
+      </c>
+      <c r="E1626">
+        <v>9</v>
+      </c>
+      <c r="F1626">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1627" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1627">
+        <v>14</v>
+      </c>
+      <c r="C1627">
+        <v>24.2</v>
+      </c>
+      <c r="D1627">
+        <v>16.2</v>
+      </c>
+      <c r="E1627">
+        <v>8</v>
+      </c>
+      <c r="F1627">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1628" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1628">
+        <v>14</v>
+      </c>
+      <c r="C1628">
+        <v>29.2</v>
+      </c>
+      <c r="D1628">
+        <v>24.1</v>
+      </c>
+      <c r="E1628">
+        <v>7</v>
+      </c>
+      <c r="F1628">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1629" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1629">
+        <v>14</v>
+      </c>
+      <c r="C1629">
+        <v>12.5</v>
+      </c>
+      <c r="D1629">
+        <v>31.1</v>
+      </c>
+      <c r="E1629">
+        <v>1</v>
+      </c>
+      <c r="F1629">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1630" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1630">
+        <v>14</v>
+      </c>
+      <c r="C1630">
+        <v>35.1</v>
+      </c>
+      <c r="D1630">
+        <v>27.3</v>
+      </c>
+      <c r="E1630">
+        <v>6</v>
+      </c>
+      <c r="F1630">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1631" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1631">
+        <v>14</v>
+      </c>
+      <c r="C1631">
+        <v>23.6</v>
+      </c>
+      <c r="D1631">
+        <v>26.8</v>
+      </c>
+      <c r="E1631">
+        <v>5</v>
+      </c>
+      <c r="F1631">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1632" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1632">
+        <v>14</v>
+      </c>
+      <c r="C1632">
+        <v>20.3</v>
+      </c>
+      <c r="D1632">
+        <v>22.5</v>
+      </c>
+      <c r="E1632">
+        <v>6</v>
+      </c>
+      <c r="F1632">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1633" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1633">
+        <v>14</v>
+      </c>
+      <c r="C1633">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D1633">
+        <v>12.7</v>
+      </c>
+      <c r="E1633">
+        <v>12</v>
+      </c>
+      <c r="F1633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1634" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1634">
+        <v>14</v>
+      </c>
+      <c r="C1634">
+        <v>24.4</v>
+      </c>
+      <c r="D1634">
+        <v>27.4</v>
+      </c>
+      <c r="E1634">
+        <v>5</v>
+      </c>
+      <c r="F1634">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1635" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1635">
+        <v>14</v>
+      </c>
+      <c r="C1635">
+        <v>29.2</v>
+      </c>
+      <c r="D1635">
+        <v>28.1</v>
+      </c>
+      <c r="E1635">
+        <v>7</v>
+      </c>
+      <c r="F1635">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1636" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1636">
+        <v>14</v>
+      </c>
+      <c r="C1636">
+        <v>28.3</v>
+      </c>
+      <c r="D1636">
+        <v>13.3</v>
+      </c>
+      <c r="E1636">
+        <v>8</v>
+      </c>
+      <c r="F1636">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1637" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1637">
+        <v>14</v>
+      </c>
+      <c r="C1637">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D1637">
+        <v>24.2</v>
+      </c>
+      <c r="E1637">
+        <v>8</v>
+      </c>
+      <c r="F1637">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1638" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1638">
+        <v>14</v>
+      </c>
+      <c r="C1638">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D1638">
+        <v>24.2</v>
+      </c>
+      <c r="E1638">
+        <v>8</v>
+      </c>
+      <c r="F1638">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1639" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1639">
+        <v>14</v>
+      </c>
+      <c r="C1639">
+        <v>25.5</v>
+      </c>
+      <c r="D1639">
+        <v>25</v>
+      </c>
+      <c r="E1639">
+        <v>6</v>
+      </c>
+      <c r="F1639">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1640" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1640">
+        <v>14</v>
+      </c>
+      <c r="C1640">
+        <v>22.4</v>
+      </c>
+      <c r="D1640">
+        <v>24.7</v>
+      </c>
+      <c r="E1640">
+        <v>4</v>
+      </c>
+      <c r="F1640">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1641" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1641">
+        <v>14</v>
+      </c>
+      <c r="C1641">
+        <v>22.6</v>
+      </c>
+      <c r="D1641">
+        <v>27.6</v>
+      </c>
+      <c r="E1641">
+        <v>4</v>
+      </c>
+      <c r="F1641">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1642" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1642">
+        <v>14</v>
+      </c>
+      <c r="C1642">
+        <v>18.8</v>
+      </c>
+      <c r="D1642">
+        <v>30.9</v>
+      </c>
+      <c r="E1642">
+        <v>2</v>
+      </c>
+      <c r="F1642">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1643" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1643">
+        <v>14</v>
+      </c>
+      <c r="C1643">
+        <v>13.1</v>
+      </c>
+      <c r="D1643">
+        <v>26</v>
+      </c>
+      <c r="E1643">
+        <v>2</v>
+      </c>
+      <c r="F1643">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1644" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1644">
+        <v>14</v>
+      </c>
+      <c r="C1644">
+        <v>22</v>
+      </c>
+      <c r="D1644">
+        <v>26.3</v>
+      </c>
+      <c r="E1644">
+        <v>5</v>
+      </c>
+      <c r="F1644">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1645" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1645">
+        <v>14</v>
+      </c>
+      <c r="C1645">
+        <v>37.1</v>
+      </c>
+      <c r="D1645">
+        <v>30.3</v>
+      </c>
+      <c r="E1645">
+        <v>9</v>
+      </c>
+      <c r="F1645">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1646" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1646">
+        <v>14</v>
+      </c>
+      <c r="C1646">
+        <v>25.3</v>
+      </c>
+      <c r="D1646">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E1646">
+        <v>8</v>
+      </c>
+      <c r="F1646">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1647" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1647">
+        <v>14</v>
+      </c>
+      <c r="C1647">
+        <v>34.5</v>
+      </c>
+      <c r="D1647">
+        <v>30.1</v>
+      </c>
+      <c r="E1647">
+        <v>7</v>
+      </c>
+      <c r="F1647">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1648" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1648">
+        <v>14</v>
+      </c>
+      <c r="C1648">
+        <v>27.3</v>
+      </c>
+      <c r="D1648">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E1648">
+        <v>3</v>
+      </c>
+      <c r="F1648">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1649" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1649">
+        <v>14</v>
+      </c>
+      <c r="C1649">
+        <v>13.8</v>
+      </c>
+      <c r="D1649">
+        <v>28.3</v>
+      </c>
+      <c r="E1649">
+        <v>1</v>
+      </c>
+      <c r="F1649">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1650" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1650">
+        <v>14</v>
+      </c>
+      <c r="C1650">
+        <v>30.7</v>
+      </c>
+      <c r="D1650">
+        <v>21.8</v>
+      </c>
+      <c r="E1650">
+        <v>8</v>
+      </c>
+      <c r="F1650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1651" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1651">
+        <v>14</v>
+      </c>
+      <c r="C1651">
+        <v>34</v>
+      </c>
+      <c r="D1651">
+        <v>29.3</v>
+      </c>
+      <c r="E1651">
+        <v>9</v>
+      </c>
+      <c r="F1651">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1652" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1652">
+        <v>14</v>
+      </c>
+      <c r="C1652">
+        <v>44.5</v>
+      </c>
+      <c r="D1652">
+        <v>19.3</v>
+      </c>
+      <c r="E1652">
+        <v>11</v>
+      </c>
+      <c r="F1652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1653" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1653">
+        <v>14</v>
+      </c>
+      <c r="C1653">
+        <v>32.9</v>
+      </c>
+      <c r="D1653">
+        <v>29.6</v>
+      </c>
+      <c r="E1653">
+        <v>6</v>
+      </c>
+      <c r="F1653">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1654" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1654">
+        <v>14</v>
+      </c>
+      <c r="C1654">
+        <v>31.8</v>
+      </c>
+      <c r="D1654">
+        <v>29.3</v>
+      </c>
+      <c r="E1654">
+        <v>7</v>
+      </c>
+      <c r="F1654">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1655" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1655">
+        <v>14</v>
+      </c>
+      <c r="C1655">
+        <v>19.5</v>
+      </c>
+      <c r="D1655">
+        <v>26.6</v>
+      </c>
+      <c r="E1655">
+        <v>3</v>
+      </c>
+      <c r="F1655">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1656" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1656">
+        <v>14</v>
+      </c>
+      <c r="C1656">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D1656">
+        <v>27.4</v>
+      </c>
+      <c r="E1656">
+        <v>9</v>
+      </c>
+      <c r="F1656">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1657" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1657">
+        <v>14</v>
+      </c>
+      <c r="C1657">
+        <v>32.4</v>
+      </c>
+      <c r="D1657">
+        <v>21.4</v>
+      </c>
+      <c r="E1657">
+        <v>9</v>
+      </c>
+      <c r="F1657">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1658" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1658">
+        <v>14</v>
+      </c>
+      <c r="C1658">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D1658">
+        <v>18</v>
+      </c>
+      <c r="E1658">
+        <v>10</v>
+      </c>
+      <c r="F1658">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1659" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1659">
+        <v>14</v>
+      </c>
+      <c r="C1659">
+        <v>30.8</v>
+      </c>
+      <c r="D1659">
+        <v>23.4</v>
+      </c>
+      <c r="E1659">
+        <v>8</v>
+      </c>
+      <c r="F1659">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1660" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1660">
+        <v>14</v>
+      </c>
+      <c r="C1660">
+        <v>28.6</v>
+      </c>
+      <c r="D1660">
+        <v>23.1</v>
+      </c>
+      <c r="E1660">
+        <v>8</v>
+      </c>
+      <c r="F1660">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1661" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1661">
+        <v>14</v>
+      </c>
+      <c r="C1661">
+        <v>25.3</v>
+      </c>
+      <c r="D1661">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E1661">
+        <v>5</v>
+      </c>
+      <c r="F1661">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1662" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1662">
+        <v>14</v>
+      </c>
+      <c r="C1662">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D1662">
+        <v>29.3</v>
+      </c>
+      <c r="E1662">
+        <v>4</v>
+      </c>
+      <c r="F1662">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1663" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1663">
+        <v>14</v>
+      </c>
+      <c r="C1663">
+        <v>21.3</v>
+      </c>
+      <c r="D1663">
+        <v>20.2</v>
+      </c>
+      <c r="E1663">
+        <v>7</v>
+      </c>
+      <c r="F1663">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1664" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1664">
+        <v>14</v>
+      </c>
+      <c r="C1664">
+        <v>27.5</v>
+      </c>
+      <c r="D1664">
+        <v>20.3</v>
+      </c>
+      <c r="E1664">
+        <v>7</v>
+      </c>
+      <c r="F1664">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1665" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1665">
+        <v>14</v>
+      </c>
+      <c r="C1665">
+        <v>38.4</v>
+      </c>
+      <c r="D1665">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E1665">
+        <v>7</v>
+      </c>
+      <c r="F1665">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1666" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1666">
+        <v>14</v>
+      </c>
+      <c r="C1666">
+        <v>31.9</v>
+      </c>
+      <c r="D1666">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E1666">
+        <v>10</v>
+      </c>
+      <c r="F1666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1667" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1667">
+        <v>14</v>
+      </c>
+      <c r="C1667">
+        <v>31.7</v>
+      </c>
+      <c r="D1667">
+        <v>27.5</v>
+      </c>
+      <c r="E1667">
+        <v>8</v>
+      </c>
+      <c r="F1667">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1668" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1668">
+        <v>14</v>
+      </c>
+      <c r="C1668">
+        <v>28</v>
+      </c>
+      <c r="D1668">
+        <v>41.2</v>
+      </c>
+      <c r="E1668">
+        <v>1</v>
+      </c>
+      <c r="F1668">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1669" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1669">
+        <v>14</v>
+      </c>
+      <c r="C1669">
+        <v>24.3</v>
+      </c>
+      <c r="D1669">
+        <v>23.5</v>
+      </c>
+      <c r="E1669">
+        <v>6</v>
+      </c>
+      <c r="F1669">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1670" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1670">
+        <v>14</v>
+      </c>
+      <c r="C1670">
+        <v>21.3</v>
+      </c>
+      <c r="D1670">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E1670">
+        <v>3</v>
+      </c>
+      <c r="F1670">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1671" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1671">
+        <v>14</v>
+      </c>
+      <c r="C1671">
+        <v>28.3</v>
+      </c>
+      <c r="D1671">
+        <v>22.7</v>
+      </c>
+      <c r="E1671">
+        <v>7</v>
+      </c>
+      <c r="F1671">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1672" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1672">
+        <v>14</v>
+      </c>
+      <c r="C1672">
+        <v>41.3</v>
+      </c>
+      <c r="D1672">
+        <v>24.5</v>
+      </c>
+      <c r="E1672">
+        <v>12</v>
+      </c>
+      <c r="F1672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1673" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1673">
+        <v>14</v>
+      </c>
+      <c r="C1673">
+        <v>21.9</v>
+      </c>
+      <c r="D1673">
+        <v>29.3</v>
+      </c>
+      <c r="E1673">
+        <v>3</v>
+      </c>
+      <c r="F1673">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1674" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1674">
+        <v>14</v>
+      </c>
+      <c r="C1674">
+        <v>47.3</v>
+      </c>
+      <c r="D1674">
+        <v>23.5</v>
+      </c>
+      <c r="E1674">
+        <v>10</v>
+      </c>
+      <c r="F1674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1675" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1675">
+        <v>14</v>
+      </c>
+      <c r="C1675">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D1675">
+        <v>21.2</v>
+      </c>
+      <c r="E1675">
+        <v>8</v>
+      </c>
+      <c r="F1675">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1676" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1676">
+        <v>14</v>
+      </c>
+      <c r="C1676">
+        <v>22.8</v>
+      </c>
+      <c r="D1676">
+        <v>21.2</v>
+      </c>
+      <c r="E1676">
+        <v>5</v>
+      </c>
+      <c r="F1676">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1677" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1677">
+        <v>14</v>
+      </c>
+      <c r="C1677">
+        <v>21.1</v>
+      </c>
+      <c r="D1677">
+        <v>26.3</v>
+      </c>
+      <c r="E1677">
+        <v>4</v>
+      </c>
+      <c r="F1677">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1678" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1678">
+        <v>14</v>
+      </c>
+      <c r="C1678">
+        <v>33.6</v>
+      </c>
+      <c r="D1678">
+        <v>29.5</v>
+      </c>
+      <c r="E1678">
+        <v>7</v>
+      </c>
+      <c r="F1678">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1679" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1679">
+        <v>14</v>
+      </c>
+      <c r="C1679">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D1679">
+        <v>27.1</v>
+      </c>
+      <c r="E1679">
+        <v>7</v>
+      </c>
+      <c r="F1679">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1680" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1680">
+        <v>14</v>
+      </c>
+      <c r="C1680">
+        <v>24.6</v>
+      </c>
+      <c r="D1680">
+        <v>16.8</v>
+      </c>
+      <c r="E1680">
+        <v>10</v>
+      </c>
+      <c r="F1680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1681" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1681">
+        <v>14</v>
+      </c>
+      <c r="C1681">
+        <v>34.4</v>
+      </c>
+      <c r="D1681">
+        <v>19.8</v>
+      </c>
+      <c r="E1681">
+        <v>10</v>
+      </c>
+      <c r="F1681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1682" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1682">
+        <v>14</v>
+      </c>
+      <c r="C1682">
+        <v>30.6</v>
+      </c>
+      <c r="D1682">
+        <v>33.1</v>
+      </c>
+      <c r="E1682">
+        <v>5</v>
+      </c>
+      <c r="F1682">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1683" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1683">
+        <v>14</v>
+      </c>
+      <c r="C1683">
+        <v>30.6</v>
+      </c>
+      <c r="D1683">
+        <v>23.4</v>
+      </c>
+      <c r="E1683">
+        <v>6</v>
+      </c>
+      <c r="F1683">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1684" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1684">
+        <v>14</v>
+      </c>
+      <c r="C1684">
+        <v>34.9</v>
+      </c>
+      <c r="D1684">
+        <v>21.3</v>
+      </c>
+      <c r="E1684">
+        <v>9</v>
+      </c>
+      <c r="F1684">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1685" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1685">
+        <v>14</v>
+      </c>
+      <c r="C1685">
+        <v>39.6</v>
+      </c>
+      <c r="D1685">
+        <v>28.3</v>
+      </c>
+      <c r="E1685">
+        <v>9</v>
+      </c>
+      <c r="F1685">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1686" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1686">
+        <v>14</v>
+      </c>
+      <c r="C1686">
+        <v>26.3</v>
+      </c>
+      <c r="D1686">
+        <v>28.5</v>
+      </c>
+      <c r="E1686">
+        <v>5</v>
+      </c>
+      <c r="F1686">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1687" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1687">
+        <v>14</v>
+      </c>
+      <c r="C1687">
+        <v>42.5</v>
+      </c>
+      <c r="D1687">
+        <v>26.3</v>
+      </c>
+      <c r="E1687">
+        <v>11</v>
+      </c>
+      <c r="F1687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1688" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1688">
+        <v>14</v>
+      </c>
+      <c r="C1688">
+        <v>39.4</v>
+      </c>
+      <c r="D1688">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E1688">
+        <v>9</v>
+      </c>
+      <c r="F1688">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1689" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1689">
+        <v>14</v>
+      </c>
+      <c r="C1689">
+        <v>23.3</v>
+      </c>
+      <c r="D1689">
+        <v>30.6</v>
+      </c>
+      <c r="E1689">
+        <v>6</v>
+      </c>
+      <c r="F1689">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1690" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1690">
+        <v>14</v>
+      </c>
+      <c r="C1690">
+        <v>24.4</v>
+      </c>
+      <c r="D1690">
+        <v>27</v>
+      </c>
+      <c r="E1690">
+        <v>5</v>
+      </c>
+      <c r="F1690">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1691" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1691">
+        <v>14</v>
+      </c>
+      <c r="C1691">
+        <v>37.9</v>
+      </c>
+      <c r="D1691">
+        <v>26.5</v>
+      </c>
+      <c r="E1691">
+        <v>10</v>
+      </c>
+      <c r="F1691">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1692" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1692">
+        <v>14</v>
+      </c>
+      <c r="C1692">
+        <v>24.6</v>
+      </c>
+      <c r="D1692">
+        <v>36</v>
+      </c>
+      <c r="E1692">
+        <v>5</v>
+      </c>
+      <c r="F1692">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1693" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1693">
+        <v>14</v>
+      </c>
+      <c r="C1693">
+        <v>17</v>
+      </c>
+      <c r="D1693">
+        <v>24</v>
+      </c>
+      <c r="E1693">
+        <v>3</v>
+      </c>
+      <c r="F1693">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1694" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1694">
+        <v>14</v>
+      </c>
+      <c r="C1694">
+        <v>19.3</v>
+      </c>
+      <c r="D1694">
+        <v>24.7</v>
+      </c>
+      <c r="E1694">
+        <v>3</v>
+      </c>
+      <c r="F1694">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1695" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1695">
+        <v>14</v>
+      </c>
+      <c r="C1695">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D1695">
+        <v>29.3</v>
+      </c>
+      <c r="E1695">
+        <v>7</v>
+      </c>
+      <c r="F1695">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1696" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1696">
+        <v>14</v>
+      </c>
+      <c r="C1696">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D1696">
+        <v>26.3</v>
+      </c>
+      <c r="E1696">
+        <v>10</v>
+      </c>
+      <c r="F1696">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1697" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1697">
+        <v>14</v>
+      </c>
+      <c r="C1697">
+        <v>27.8</v>
+      </c>
+      <c r="D1697">
+        <v>22.4</v>
+      </c>
+      <c r="E1697">
+        <v>7</v>
+      </c>
+      <c r="F1697">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1698" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1698">
+        <v>14</v>
+      </c>
+      <c r="C1698">
+        <v>30.6</v>
+      </c>
+      <c r="D1698">
+        <v>32.9</v>
+      </c>
+      <c r="E1698">
+        <v>5</v>
+      </c>
+      <c r="F1698">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1699" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1699">
+        <v>14</v>
+      </c>
+      <c r="C1699">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D1699">
+        <v>23.5</v>
+      </c>
+      <c r="E1699">
+        <v>8</v>
+      </c>
+      <c r="F1699">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1700" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1700">
+        <v>14</v>
+      </c>
+      <c r="C1700">
+        <v>19</v>
+      </c>
+      <c r="D1700">
+        <v>24.1</v>
+      </c>
+      <c r="E1700">
+        <v>5</v>
+      </c>
+      <c r="F1700">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1701" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1701">
+        <v>14</v>
+      </c>
+      <c r="C1701">
+        <v>26.5</v>
+      </c>
+      <c r="D1701">
+        <v>20.5</v>
+      </c>
+      <c r="E1701">
+        <v>6</v>
+      </c>
+      <c r="F1701">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1702" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1702">
+        <v>14</v>
+      </c>
+      <c r="C1702">
+        <v>20.8</v>
+      </c>
+      <c r="D1702">
+        <v>23.4</v>
+      </c>
+      <c r="E1702">
+        <v>7</v>
+      </c>
+      <c r="F1702">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -56008,10 +59333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABCD41-9594-F549-BC55-37725303300E}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C326"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59325,6 +62650,281 @@
       </c>
       <c r="C301" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>14</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>14</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>14</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>14</v>
+      </c>
+      <c r="B305">
+        <v>4</v>
+      </c>
+      <c r="C305" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>14</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>14</v>
+      </c>
+      <c r="B307">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>14</v>
+      </c>
+      <c r="B308">
+        <v>7</v>
+      </c>
+      <c r="C308" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>14</v>
+      </c>
+      <c r="B309">
+        <v>8</v>
+      </c>
+      <c r="C309" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>14</v>
+      </c>
+      <c r="B310">
+        <v>9</v>
+      </c>
+      <c r="C310" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>14</v>
+      </c>
+      <c r="B311">
+        <v>10</v>
+      </c>
+      <c r="C311" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>14</v>
+      </c>
+      <c r="B312">
+        <v>11</v>
+      </c>
+      <c r="C312" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>14</v>
+      </c>
+      <c r="B313">
+        <v>12</v>
+      </c>
+      <c r="C313" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>14</v>
+      </c>
+      <c r="B314">
+        <v>13</v>
+      </c>
+      <c r="C314" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>14</v>
+      </c>
+      <c r="B315">
+        <v>14</v>
+      </c>
+      <c r="C315" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>14</v>
+      </c>
+      <c r="B316">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>14</v>
+      </c>
+      <c r="B317">
+        <v>16</v>
+      </c>
+      <c r="C317" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>14</v>
+      </c>
+      <c r="B318">
+        <v>17</v>
+      </c>
+      <c r="C318" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>14</v>
+      </c>
+      <c r="B319">
+        <v>18</v>
+      </c>
+      <c r="C319" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>14</v>
+      </c>
+      <c r="B320">
+        <v>19</v>
+      </c>
+      <c r="C320" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>14</v>
+      </c>
+      <c r="B321">
+        <v>20</v>
+      </c>
+      <c r="C321" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>14</v>
+      </c>
+      <c r="B322">
+        <v>21</v>
+      </c>
+      <c r="C322" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>14</v>
+      </c>
+      <c r="B323">
+        <v>22</v>
+      </c>
+      <c r="C323" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>14</v>
+      </c>
+      <c r="B324">
+        <v>23</v>
+      </c>
+      <c r="C324" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>14</v>
+      </c>
+      <c r="B325">
+        <v>24</v>
+      </c>
+      <c r="C325" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>14</v>
+      </c>
+      <c r="B326">
+        <v>25</v>
+      </c>
+      <c r="C326" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037FD951-D6FB-3549-A0DE-06C4EFC1BF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D42F34-44F8-2948-9372-4691FA04AF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="14080" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="1560" yWindow="14120" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -994,9 +994,9 @@
   <dimension ref="A1:AA287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A280" activePane="bottomLeft"/>
+      <pane ySplit="760" topLeftCell="A234" activePane="bottomLeft"/>
       <selection sqref="A1:AA1"/>
-      <selection pane="bottomLeft" activeCell="F253" sqref="F253"/>
+      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22633,7 +22633,7 @@
         <v>98</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>2690000</v>
       </c>
       <c r="G254">
         <v>2022</v>
@@ -22789,7 +22789,7 @@
         <v>96</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>567000</v>
       </c>
       <c r="G256">
         <v>2022</v>
@@ -23023,7 +23023,7 @@
         <v>175</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>3271000</v>
       </c>
       <c r="G259">
         <v>2022</v>
@@ -23101,7 +23101,7 @@
         <v>52</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>6711000</v>
       </c>
       <c r="G260">
         <v>2022</v>
@@ -23179,7 +23179,7 @@
         <v>62</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="G261">
         <v>2022</v>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D42F34-44F8-2948-9372-4691FA04AF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FAE34C-281F-F14F-B8EE-C40F63AD5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="14120" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
@@ -994,9 +994,9 @@
   <dimension ref="A1:AA287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A234" activePane="bottomLeft"/>
+      <pane ySplit="760" topLeftCell="A271" activePane="bottomLeft"/>
       <selection sqref="A1:AA1"/>
-      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
+      <selection pane="bottomLeft" activeCell="F284" sqref="F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22555,7 +22555,7 @@
         <v>173</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>1719000</v>
       </c>
       <c r="G253">
         <v>2022</v>
@@ -22711,7 +22711,7 @@
         <v>58</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1438000</v>
       </c>
       <c r="G255">
         <v>2022</v>
@@ -22867,7 +22867,7 @@
         <v>84</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>3605000</v>
       </c>
       <c r="G257">
         <v>2022</v>
@@ -22945,7 +22945,7 @@
         <v>50</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>3274000</v>
       </c>
       <c r="G258">
         <v>2022</v>
@@ -23101,7 +23101,7 @@
         <v>52</v>
       </c>
       <c r="F260">
-        <v>6711000</v>
+        <v>6710000</v>
       </c>
       <c r="G260">
         <v>2022</v>
@@ -23257,7 +23257,7 @@
         <v>86</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>2060000</v>
       </c>
       <c r="G262">
         <v>2022</v>
@@ -23335,7 +23335,7 @@
         <v>38</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>17137000</v>
       </c>
       <c r="G263">
         <v>2022</v>
@@ -23413,7 +23413,7 @@
         <v>92</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>2324000</v>
       </c>
       <c r="G264">
         <v>2022</v>
@@ -23491,7 +23491,7 @@
         <v>39</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>694000</v>
       </c>
       <c r="G265">
         <v>2022</v>
@@ -23569,7 +23569,7 @@
         <v>122</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>6271000</v>
       </c>
       <c r="G266">
         <v>2022</v>
@@ -23647,7 +23647,7 @@
         <v>49</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>3557000</v>
       </c>
       <c r="G267">
         <v>2022</v>
@@ -23725,7 +23725,7 @@
         <v>150</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>1705000</v>
       </c>
       <c r="G268">
         <v>2022</v>
@@ -23803,7 +23803,7 @@
         <v>146</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>213000</v>
       </c>
       <c r="G269">
         <v>2022</v>
@@ -23881,7 +23881,7 @@
         <v>136</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>4339000</v>
       </c>
       <c r="G270">
         <v>2022</v>
@@ -23959,7 +23959,7 @@
         <v>29</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1991000</v>
       </c>
       <c r="G271">
         <v>2022</v>
@@ -24037,7 +24037,7 @@
         <v>114</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>3921000</v>
       </c>
       <c r="G272">
         <v>2022</v>
@@ -24115,7 +24115,7 @@
         <v>88</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>329000</v>
       </c>
       <c r="G273">
         <v>2022</v>
@@ -24193,7 +24193,7 @@
         <v>46</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>6681000</v>
       </c>
       <c r="G274">
         <v>2022</v>
@@ -24271,7 +24271,7 @@
         <v>36</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>1211000</v>
       </c>
       <c r="G275">
         <v>2022</v>
@@ -24349,7 +24349,7 @@
         <v>138</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>2316000</v>
       </c>
       <c r="G276">
         <v>2022</v>
@@ -24427,7 +24427,7 @@
         <v>181</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>2380000</v>
       </c>
       <c r="G277">
         <v>2022</v>
@@ -24505,7 +24505,7 @@
         <v>97</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>453000</v>
       </c>
       <c r="G278">
         <v>2022</v>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FAE34C-281F-F14F-B8EE-C40F63AD5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF76E32-0C5A-0B42-88BC-CA0E571C8CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="14120" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="1560" yWindow="14120" windowWidth="37240" windowHeight="10280" activeTab="1" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="189">
   <si>
     <t>Time</t>
   </si>
@@ -632,9 +632,6 @@
   <si>
     <t>North Dakota State</t>
   </si>
-  <si>
-    <t>North Carolina State</t>
-  </si>
 </sst>
 </file>
 
@@ -993,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
   <dimension ref="A1:AA287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A271" activePane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="760" topLeftCell="A316" activePane="bottomLeft"/>
       <selection sqref="A1:AA1"/>
       <selection pane="bottomLeft" activeCell="F284" sqref="F284"/>
     </sheetView>
@@ -25279,8 +25276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
   <dimension ref="A1:F1702"/>
   <sheetViews>
-    <sheetView topLeftCell="A1614" workbookViewId="0">
-      <selection activeCell="B1624" sqref="B1624"/>
+    <sheetView tabSelected="1" topLeftCell="A1638" workbookViewId="0">
+      <selection activeCell="A1647" sqref="A1647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58187,7 +58184,7 @@
     </row>
     <row r="1646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B1646">
         <v>14</v>

--- a/ratings-2022.xlsx
+++ b/ratings-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF76E32-0C5A-0B42-88BC-CA0E571C8CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A77461-A7A0-324A-BC7C-8F44D5ED3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="14120" windowWidth="37240" windowHeight="10280" activeTab="1" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
+    <workbookView xWindow="1540" yWindow="14120" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -990,10 +990,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF36B5-5368-0F4E-AE20-BC9ECC5E0688}">
   <dimension ref="A1:AA287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A316" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="760" topLeftCell="A276" activePane="bottomLeft"/>
       <selection sqref="A1:AA1"/>
-      <selection pane="bottomLeft" activeCell="F284" sqref="F284"/>
+      <selection pane="bottomLeft" activeCell="F288" sqref="F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24580,7 +24580,7 @@
         <v>53</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>5967000</v>
       </c>
       <c r="G279">
         <v>2022</v>
@@ -24658,7 +24658,7 @@
         <v>93</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>9413000</v>
       </c>
       <c r="G280">
         <v>2022</v>
@@ -24736,7 +24736,7 @@
         <v>171</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>721000</v>
       </c>
       <c r="G281">
         <v>2022</v>
@@ -24814,7 +24814,7 @@
         <v>128</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>332000</v>
       </c>
       <c r="G282">
         <v>2022</v>
@@ -24892,7 +24892,7 @@
         <v>114</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>10894000</v>
       </c>
       <c r="G283">
         <v>2022</v>
@@ -24970,7 +24970,7 @@
         <v>88</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>2695000</v>
       </c>
       <c r="G284">
         <v>2022</v>
@@ -25048,7 +25048,7 @@
         <v>132</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1938000</v>
       </c>
       <c r="G285">
         <v>2022</v>
@@ -25126,7 +25126,7 @@
         <v>43</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>10699000</v>
       </c>
       <c r="G286">
         <v>2022</v>
@@ -25204,7 +25204,7 @@
         <v>87</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>3467000</v>
       </c>
       <c r="G287">
         <v>2022</v>
@@ -25276,7 +25276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF262906-C2E8-EB40-9ABF-94137CE271DB}">
   <dimension ref="A1:F1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1638" workbookViewId="0">
+    <sheetView topLeftCell="A1683" workbookViewId="0">
       <selection activeCell="A1647" sqref="A1647"/>
     </sheetView>
   </sheetViews>
